--- a/exploration/validation_dataset.xlsx
+++ b/exploration/validation_dataset.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="11_AD4DB114E441178AC67DF4664656F240693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C5AA22-FA6A-412C-8472-512E90DF02E4}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34255C9-AE66-4A5A-86F3-E7B5A21D3BB1}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="0" windowWidth="11003" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESRS_S1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="177">
   <si>
     <t>report_name</t>
   </si>
@@ -40,30 +40,6 @@
   </si>
   <si>
     <t>ContinentalAG_2024</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2025</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2026</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2027</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2028</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2029</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2031</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2032</t>
-  </si>
-  <si>
-    <t>ContinentalAG_2033</t>
   </si>
   <si>
     <t>S1_F</t>
@@ -1346,12 +1322,2482 @@
   <si>
     <t>S1_J</t>
   </si>
+  <si>
+    <t>Processes to remediate negative impacts and channels for own
+workforce to raise concerns
+Grievance channels for own workforce
+Continental has established dedicated mechanisms to enable its
+own workforce to raise concerns.
+These are part of a comprehensive integrity system that comprises
+three channels: an integrity portal, an integrity hotline and an integ-
+rity email, as described in more detail in the Business conduct and
+corporate governance (ESRS G1) section of this sustainability report.
+Employees as well as third parties outside the Continental Group
+can report violations of legal regulations, fundamental values and
+ethical standards via these channels. The platform and hotline are
+managed by a third-party service provider. The integrity email is
+managed directly by a Continental Case Management team.
+The channels are explicitly open for all employee matters.
+The integrity channels can be accessed via our website, internal
+communication channels or an international phone hotline. They
+are available worldwide in many different languages and accessible
+24/7, creating broad availability by overcoming barriers such as
+time zones or languages.
+To raise awareness of the integrity system, Continental has imple-
+mented various channels and formats, including intranet articles
+and formats, compliance newsletters and podcasts, mandatory
+training and local on-site communication. Continental does not ex-
+plicitly assess the awareness and trust of the own workforce in
+these channels.
+In order to protect users of the integrity system, information on all
+kinds of potential violation can be reported anonymously. Report-
+ing and investigation information is treated confidentially in accord-
+ance with applicable laws throughout the entire case management.
+The whistleblowing process is in line with the German Whistle-
+blower Protection Act and relevant international legislation.
+The integrity system is governed by a dedicated rule that defines
+roles and responsibilities along the process steps of reporting, re-
+port administration and substantiation, investigation, and sanction-
+ing – in an end-to-end process. The case management is also sub-
+ject to internal audits. In addition, Continental’s publicly available
+rules of procedure provide transparency on the handling of cases.
+Furthermore, Continental’s employees take part in mandatory train-
+ings on the topic of whistleblowing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interests and views of stakeholders relating to own workforce
+The interests, views, and rights of Continentals workforce, including
+the respect for their human rights, are integral to shaping Conti-
+nental's strategy and business model. To ensure that their perspec-
+tives are incorporated into strategic decisions, Continental is in reg-
+ular contact with employees and their representatives via various
+channels, such as works councils and co-determination in the Su-
+pervisory Board. Further information on the involvement of em-
+ployees and their perspectives in the overall business processes
+can be found in the Own workforce (ESRS S1) section. </t>
+  </si>
+  <si>
+    <t>An important part of Continental’s compliance program is the op-
+portunity for whistleblowers to report their concerns and griev-
+ances. A whistleblower can be any stakeholder of Continental, e.g.
+an employee in Continental’s own workforce, a worker in the value
+chain, a member of an affected community, a consumer or an end-
+user. The whistleblowing process is managed by means of a dedi-
+cated internal rule that – in an end-to-end process – defines the
+roles and responsibilities along the process steps of reporting, re-
+port processing and substantiation, investigation and sanctioning,
+all in line with the German Whistleblower Protection Act and perti-
+nent international legislation.
+This rule on whistleblowing also defines a process for reception of
+(potential) compliance cases, their prompt, independent and objec-
+tive processing, review and investigation and introduction of
+measures, especially regarding:
+› Manipulation of (financial) accounting,
+› Competition/antitrust law,
+› Fair and ethical conduct, conflicts of interest,
+› Corruption/bribery,
+› Discrimination, harassment, psychological violence,
+› Environmental rights,
+› Export and import control, including sanctions,
+› Human rights,
+› Information and trade secret protection,
+› Integrity of the whistleblower system, such as whistleblower
+retaliation, or violation of confidentiality or the duty to report,
+› Information technology (IT) security/cybercrime,
+› Labor rights, including individual and collective rights,
+› Market manipulation, including insider trading,
+› Misuse of company property or services, and theft,
+› Money laundering and financing of terrorism,
+› Protection of personal data,
+› Physical violence,
+› Sabotage and vandalism,
+› Terrorism, extremism and organized crime,
+› Occupational safety and health,
+› Sexual harassment,
+› Tax evasion and tax fraud,
+› Technical compliance (product compliance),
+› (Digital) fraud, embezzlement and other forms of enrichment.
+Continental provides whistleblowers with three whistleblowing
+channels: An integrity hotline with international and local phone
+numbers, an integrity platform (online form) as well as an integrity
+email address. These channels offer possibilities for confidential
+and anonymous reporting of (potential) compliance cases.
+These cases are reviewed by a dedicated team of case managers
+within the compliance organization who forward the cases to the
+internal audit departments for investigation if a report can be sub-
+stantiated. Further information regarding the single steps of the
+process can be found further below in the subsection Prevention
+and detection of corruption and bribery.
+The underlying process is as well defined in an internal rule and
+also publicly available in the form of a condensed and accessible
+document named Rules of Procedure. In addition, fixed employees
+are offered a mandatory web-based basic training on the subject of
+whistleblowing. Moreover, the possibilities for whistleblowing are
+regularly communicated to the employees, e. g. through special
+posters that are hung up in Continental’s locations.
+In compliance with the Directive (EU) 2019/1937, Continental's
+Code of Conduct as well as the dedicated internal rule on whistle-
+blowing define non-tolerance of retaliation of whistleblowers and
+penalize such behavior. Retaliation of whistleblowers, such as dis-
+missal, blacklisting, demoting, denying overtime or promotions, dis-
+ciplining, denying benefits, failing to (re)hire, and intimidation is seri-
+ous offense and is treated as such.
+Employees are free to report incidents of (potential) misconduct
+also to their superiors, human relation departments and other func-
+tions. However, these people or functions are not reporting chan-
+nels as per the German Whistleblower Protection Act. Therefore
+confidentiality, anonymity, and non-retaliation etc. cannot be fully
+ensured.</t>
+  </si>
+  <si>
+    <t>By definition, social dialogue is an interest-based exchange with
+employees and their representatives. In order to gain further in-
+sights and consider the interests of its own workforce in the man-
+agement approach, Continental uses its internal communication
+channels and has integrated feedback processes into various en-
+gagement formats and training courses. An additional formalized
+process is the OUR BASICS Live employee survey, which gathers
+the employee’s opinions and views on various topics related to
+Continental’s values. These are recorded, consolidated and ana-
+lyzed in an established process. Furthermore, co-determination
+practices such as employee representation on the Supervisory
+Board and the involvement of the Group Works Council in relevant
+decision-making processes directly incorporate the interests of em-
+ployees and enable the alignment of management strategies with
+their needs.
+Many communication and dialogue formats (e.g. townhall meet-
+ings) already inherently constitute social dialogue. In addition,
+Continental’s management approach to secure employment and
+social dialogue is also communicated to employees via established
+internal communication channels, usually in the broader context of
+the associated transformations. This includes newsletters and dedi-
+cated channels managed by local works councils to inform the
+workforce. For information on training offers, a dedicated platform
+is available, as described in detail in the management approach to
+training and skill development. This is complemented by local com-
+munication on site to reach employees who do not have access to
+the IT infrastructure.</t>
+  </si>
+  <si>
+    <t>The processes for managing and monitoring the management ap-
+proach include the following steps as part of a comprehensive data
+protection program: secure collection, processing, storage and dis-
+posal of data. To ensure protection of the data across these steps,
+Continental has implemented technical and organizational
+measures such as encryption of sensitive data or access controls to
+protect data from unauthorized access. Further Continental ad-
+heres to the principle of data minimization, meaning only collecting
+and processing the data necessary for specific purposes. A regular
+“Privacy Impact Assessment” is used to identify critical areas for ac-
+tion and initiate appropriate measures based on the results. An-
+other key process within the data protection program is the regular
+training of employees on data protection.
+The management approach is based on the national data protec-
+tion regulations in the countries Continental operates in as well as
+the Binding Corporate Rules (BCR) which are approved by the re-
+sponsible data protection authority and ensure a level of data pro-
+tection around the world which corresponds with the EU General
+Data Protection Regulation (GDPR).
+To monitor the effectiveness of the program, questions on data
+protection are part of both the regular audit questionnaire and the
+risk assessment questionnaire. The results of the evaluation are re-
+ported by the Chief Data Compliance Officer to the respective man-
+agement as well as to the Executive Board.
+Data protection is an integral part of the Code of Conduct for em-
+ployees and is thus firmly anchored in the foundation of coopera-
+tion at Continental. In addition, a dedicated rule formalizes the pro-
+cesses in relation to employee privacy. This rule also includes
+clearly defined BCRs.
+With this approach, Continental adheres to relevant data protection
+regulations such as the EU GDPR.
+By definition, the most important stakeholders with regard to em-
+ployee privacy are Continental’s employees. Their interests are de-
+fined in the relevant data protection laws. Concerns or complaints
+can be submitted via the channels provided for this purpose. The
+Chief Data Compliance Officer and regional data compliance coor-
+dinators ensure that these concerns are addressed and integrated
+into the management approach.
+Continental informs employees about data protection measures
+and processes through internal communication channels. The com-
+pliance department manages dedicated formats, including topic-
+specific information pages, an internal newsletter and regular training
+sessions to keep employees informed and engaged. Additionally,
+stakeholders involved in the implementation of the management
+approach receive specialized training and information through
+structured meeting formats and relevant rule documents.</t>
+  </si>
+  <si>
+    <t>To consider employees’ interests, Continental is pursuing a collabo-
+rative approach by working closely with works councils and ac-
+tively involving managers, employees and relevant functions such
+as the law department. The OUR BASICS Live survey offers an addi-
+tional channel for gaining insights into satisfaction with the work-
+life balance.
+Continental communicates its management approach and flexibil-
+ity measures via the internal communication channels, making
+them accessible to employees at any time. This also includes local
+communication channels to reach employees at production sites.
+Beyond this, Continental actively uses its communication channels
+to share information and guidance with its employees on how to
+improve their work-life balance.</t>
+  </si>
+  <si>
+    <t>Stakeholders are involved via the following channels:
+Employees and their representatives: e.g. via works meetings, em-
+ployee surveys, webcasts, meetings with employee representa-
+tives and directly via the HR departments,</t>
+  </si>
+  <si>
+    <t>To incorporate stakeholder interests into the management system,
+Continental has established various formats. These include specific
+workshops and conferences, which are defined as measures by the
+labor standards rules. Another format is the regular Employee Sur-
+vey OUR BASICS Live in which Continental’s employees are asked
+about different topics related to Continental’s values. The integra-
+tion of these interests into the system is carried out as part of the
+annual review process.
+To ensure a comprehensive understanding and engagement related
+to labor standards within the organization, Continental communi-
+cates the management approach through diverse channels. This in-
+cludes our website and internal communication platforms which
+host trainings as well as the frameworks. In addition, posters and on-
+site training courses make relevant information available to employ-
+ees who do not have access to the IT infrastructure. Furthermore,
+through integration into the onboarding process, new employees
+are also familiarized with these standards right from the start.</t>
+  </si>
+  <si>
+    <t>The system is comprised of many processes that include strategy
+development and implementation, the management of regulations,
+impact and risk management, incident management (including
+whistleblowing) and training. In order to monitor the effectiveness
+of the system, a multi-stage process has been set up based on the
+“three lines” model. The first line is formed by the local operational
+HR departments. They implement the operational tasks at business
+level and at the location in accordance with the RVCDDS and the
+associated HR rules. The second line, represented by non-opera-
+tional HR departments and roles, oversees the system, roles and re-
+sponsibilities as well as their effectiveness. The third line is Conti-
+nental’s internal audit function, which performs an independent
+evaluation of the adequacy and effectiveness of the RVCDDS.
+Specific preventive and remedial measures are defined for the re-
+spective RVC commitments for the area of labor standards, which
+are implemented by the legal entities, such as self-assessments, the
+implementation of appropriate rules and instructions, the careful
+analysis of the working environment with regard to aspects that
+could cause harm, the implementation of improvement measures
+and control mechanisms, as well as raising awareness, especially
+among managers.</t>
+  </si>
+  <si>
+    <t>Continental implemented comprehensive internal communication
+that includes networks for exchange, as well as newsletters,
+webcasts and townhall formats to keep employees informed. An
+important format for engaging with the workforce and gaining in-
+sights into their interests is the OUR BASICS Live employee survey
+where employees provide feedback on different topics related to
+Continental’s values. These overarching channels are compli-
+mented by local communication.
+Additionally, Continental is in constant dialogue with employee rep-
+resentatives. In Germany, employee representatives are part of
+Continental AG’s Supervisory Board. Employees are also repre-
+sented by local works councils or similar bodies in order to take
+their interests into account in strategic decisions and processes,
+wherever possible.
+Engagement with employees therefore takes place both directly
+and indirectly via the employee representatives.
+The network channels described are continuously open for en-
+gagement, while formats such as webcasts are held event-based.
+The OUR BASICS Live employee survey is conducted annually.
+For engaging with marginalized groups in its own workforce, Conti-
+nental has established dedicated networks. These include for in-
+stance specific networks for woman, as described in the key ac-
+tions on the gender diversity target.
+The channels are managed by Continentals HR and communica-
+tion departments across the organization. the Executive Board
+member for Group Human Relations (director of labor relations)
+and Group Sustainability has overarching responsibility and is in-
+formed by the departments on employees matters.
+An important tool for measuring the effectiveness of the engage-
+ment is the OUR BASICS Live employee survey. It records feedback
+on communication and employee involvement and forms the basis
+for the metric OUR BASICS Live Sustainable Engagement index.
+The communication channels also include direct feedback options.
+Furthermore, the metric on the percentage of employees covered
+by employee representation serves as an indicator for social dia-
+logue coverage.</t>
+  </si>
+  <si>
+    <t>S1_H</t>
+  </si>
+  <si>
+    <t>Processes for engaging with own workers and workers’
+representatives about impacts
+Continental uses various channels to engage with employees in its
+own workforce. This engagement is part of the continuous devel-
+opment of the described management approaches. The general
+process for incorporating the perspectives of its own workforce
+into the strategy is described in the subsection on Consideration of
+stakeholder interests and views in the General disclosures (ESRS 2)
+section of this sustainability report.
+Continental implemented comprehensive internal communication
+that includes networks for exchange, as well as newsletters,
+webcasts and townhall formats to keep employees informed. An
+important format for engaging with the workforce and gaining in-
+sights into their interests is the OUR BASICS Live employee survey
+where employees provide feedback on different topics related to
+Continental’s values. These overarching channels are compli-
+mented by local communication.
+Additionally, Continental is in constant dialogue with employee rep-
+resentatives. In Germany, employee representatives are part of
+Continental AG’s Supervisory Board. Employees are also repre-
+sented by local works councils or similar bodies in order to take
+their interests into account in strategic decisions and processes,
+wherever possible.
+Engagement with employees therefore takes place both directly
+and indirectly via the employee representatives.
+The network channels described are continuously open for en-
+gagement, while formats such as webcasts are held event-based.
+The OUR BASICS Live employee survey is conducted annually.
+For engaging with marginalized groups in its own workforce, Conti-
+nental has established dedicated networks. These include for in-
+stance specific networks for woman, as described in the key ac-
+tions on the gender diversity target.
+The channels are managed by Continentals HR and communica-
+tion departments across the organization. the Executive Board
+member for Group Human Relations (director of labor relations)
+and Group Sustainability has overarching responsibility and is in-
+formed by the departments on employees matters.
+An important tool for measuring the effectiveness of the engage-
+ment is the OUR BASICS Live employee survey. It records feedback
+on communication and employee involvement and forms the basis
+for the metric OUR BASICS Live Sustainable Engagement index.
+The communication channels also include direct feedback options.
+Furthermore, the metric on the percentage of employees covered
+by employee representation serves as an indicator for social dia-
+logue coverage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1-2 – Processes for engaging with own workers and workers’ representatives about impacts Processes for engaging with own workers and workers’ representatives about impacts </t>
+  </si>
+  <si>
+    <t>The effectiveness of the management approach is monitored
+through the results of the OUR BASICS Live employee survey
+which is conducted on a regular basis. In the survey, employees
+provide feedback on how flexible working models at Continental
+support them in balancing work and private life. They also give
+their assessment of how they are able to cope with the stress level
+in their workplace. This feedback helps to assess and improve
+Continental’s approaches.</t>
+  </si>
+  <si>
+    <t>To consider employees’ interests, Continental is pursuing a collabo-
+rative approach by working closely with works councils and ac-
+tively involving managers, employees and relevant functions such
+as the law department. The OUR BASICS Live survey offers an addi-
+tional channel for gaining insights into satisfaction with the work-
+life balance.</t>
+  </si>
+  <si>
+    <t>In the processes of implementation of the management approach
+regarding climate change adaptation, especially the interests of
+Continental's employees regarding working conditions (e.g. temper-
+ature and fresh air) at the relevant locations are considered.
+Communication with employees generally takes place at location
+level. Detailed information on the general forms of engagement
+and communication with employees are included in the Own work-
+force (ESRS S1) section.</t>
+  </si>
+  <si>
+    <t>n principle, employment matters and social dialogue are regulated
+by labor law. Therefore, the formal accountability for the manage-
+ment approach is partially determined by local legislation. This in-
+cludes the responsibilities of the Supervisory Board, the Executive
+Board, the management of Continental’s legal entities as well as the
+co-determination bodies, e.g. works councils. Operational imple-
+mentation is primarily managed by Continental’s HR departments
+along the company structure.
+Social dialogue and employee engagement are managed through
+various processes. Formalized processes especially include the rep-
+resentation of employees by works councils or similar structures as
+well as the regular employee survey OUR BASICS Live. In addition,
+Continental has established a variety of formats for social dialogue
+and employee engagement, including townhall meetings, networks,
+open calls and online platforms. This foundation for social dialogue
+is also the basis for managing employment matters in the transition
+of our industries.</t>
+  </si>
+  <si>
+    <t>179-180</t>
+  </si>
+  <si>
+    <t>Employee representatives were actively involved in the target-set-
+ting process.
+The involvement of the affected interest groups, the identification
+of lessons learned and potential for improvement, e.g. via networks,
+is presented in the key actions for target achievement.</t>
+  </si>
+  <si>
+    <t>As the processes are implemented close to operational business,
+communication with internal stakeholders takes place mainly
+within the respective businesses. The primary form of external
+communication is close dialogue with customers and suppliers.</t>
+  </si>
+  <si>
+    <t>Stakeholders and Stakeholder Engagement
+Continental maintains regular, ongoing dialogue with various stake-
+holders via diverse channels.
+For Continental, the most important stakeholders with regard to
+sustainability include in particular:
+› Employees and their representatives,
+› Customers, consumers, and end-users,
+› Capital market participants,
+› Policymakers,
+› Affected communities and civil society,
+› Actors within Continental’s supply chain, and
+› Users of Continental’s sustainability reporting.
+Stakeholders are involved via the following channels:
+› Employees and their representatives: e.g. via works meetings, em-
+ployee surveys, webcasts, meetings with employee representa-
+tives and directly via the HR departments,
+› Customers, consumers and end-users: e.g. via sales departments
+or key account management, partnerships, trade fairs, surveys
+and customer service centers,
+› Capital market participants: e.g. via the Annual Shareholders’
+Meeting, webcasts and roadshows,
+› Public policymakers: e.g. via public affairs departments,
+› Affected communities and civil society: e.g. via engagement pro-
+jects and open house events,
+› Actors within Continental's supply chain: e.g. via the purchasing
+departments and trade fairs, and
+› Users of sustainability reporting: e.g. via published sustainability
+reporting.
+The formats used to involve stakeholders differ depending on the
+stakeholder group and are organized by the respective functions to
+suit the individual purpose. For example, employees are involved by
+the HR departments.
+The aim of involving the stakeholders is to bring together different
+perspectives, discuss any discrepancies in views and learn from
+each other.
+The results of stakeholder engagement in various formats, along
+with further analyses and new ideas, are continuously being incor-
+porated into the process of further developing our sustainability
+strategy and reporting. In particular, the results of stakeholder en-
+gagement are taken into account in the decision-making process
+through the management approaches described in the topic-re-
+lated sections.
+In the IRO assessment, an expanded understanding was created for
+the perspective (including interests and views) of the affected
+stakeholders as described in the Consideration of stakeholder inter-
+ests and views subsection.
+Consideration of stakeholder interests and views
+In general, the views of stakeholders serve as an information basis
+for the management approaches that are relevant to sustainability
+and those that are described in the topic-related sections. At the
+same time, these management approaches in turn create an infor-
+mation basis for the overarching strategy processes with regard to
+stakeholder views. The described management approaches, market
+requirements, trends and other factors are taken into account as
+part of the overarching strategy processes. When changing strat-
+egy, the interests and views of stakeholders are therefore mainly in-
+cluded indirectly as one of many factors. Continental did not
+change its strategy or business models on the basis of the IRO
+assessment.
+Continental amends the strategy and the business models as part
+of the annual strategy processes and the continuous strategic dia-
+logue in all group sectors as well as part of the topic-related man-
+agement approaches.
+Continental assumes that any changes to strategy or business
+model has impacts on the relationship with stakeholders and the
+stakeholders’ views – no matter whether they are based on sustain-
+ability-related decision-making or other reasoning. Continuous vali-
+dation of the views of stakeholders is therefore relevant for the
+evaluation of impacts, risks and opportunities as well as subse-
+quent strategic decision-making. Further information on this strat-
+egy can be found in this management report in the Corporate pro-
+file section under the subsection Strategy of the Continental Group.
+The identification of opportunities and, in particular, the identifica-
+tion of strategic opportunities as part of the IRO assessment was
+also linked to strategy processes.
+The views and interests of affected stakeholders with regard to the
+company’s sustainability-related impacts have been considered in
+the IRO assessment. The IRO assessment considering these views
+was discussed in the Sustainability Steering Committee as well as in
+the Supervisory Board’s Sustainability Working Group.
+Continental AG 2024 Annual Report Management Report Sustainability Report 103
+Interests and views of stakeholders relating to own workforce
+The interests, views, and rights of Continentals workforce, including
+the respect for their human rights, are integral to shaping Conti-
+nental's strategy and business model. To ensure that their perspec-
+tives are incorporated into strategic decisions, Continental is in reg-
+ular contact with employees and their representatives via various
+channels, such as works councils and co-determination in the Su-
+pervisory Board. Further information on the involvement of em-
+ployees and their perspectives in the overall business processes
+can be found in the Own workforce (ESRS S1) section. Furthermore,
+the inclusion of the own workforce is described in the methodology
+of the IRO assessment.</t>
+  </si>
+  <si>
+    <t>105-106</t>
+  </si>
+  <si>
+    <t>The approaches pursued by Continental with regard to respect for
+human rights are reflected in the management approaches as fol-
+lows:
+› Labor standards, Adequate wages, Work-life balance, Training and
+skill development, Secure employment and social dialogue, Em-
+ployee privacy and Occupational safety and health in the Own
+workforce (ESRS S1) section</t>
+  </si>
+  <si>
+    <t>The globally applicable Code of
+Conduct provides binding guidance for the behavior of every
+employee. We measure the success of implementation against,
+among other things, the OUR BASICS Live Sustainable Engage-
+ment index, which is calculated on the basis of the annual em-
+ployee survey. The index measures employee agreement on top-
+ics such as whether they personally support the company values
+and whether they are proud to work for Continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engaging with affected stakeholders in all
+key steps of the due diligence
+Continental maintains ongoing dialogue with relevant stakeholders via various channels. The views and interests of the affected
+stakeholders have been considered in the IRO assessment.
+Details can be found in particular under:
+Process for identifying and assessing material IROs
+Stakeholders and stakeholder engagement
+as well as in the management approaches in the topic-related sections</t>
+  </si>
+  <si>
+    <t>The effectiveness of the management approach is monitored via
+dedicated feedback channels, HR processes and the reported metrics
+“Percentage of employees covered by employee representation”,
+“Employee turnover” and the OUR BASICS Live Sustainable Engage-
+ment index.
+The processes are regulated through Continental’s internal HR rules
+and by-laws as well as agreements with works councils.</t>
+  </si>
+  <si>
+    <t>Continental informs employees about data protection measures
+and processes through internal communication channels. The com-
+pliance department manages dedicated formats, including topic-
+specific information pages, an internal newsletter and regular training
+sessions to keep employees informed and engaged. Additionally,
+stakeholders involved in the implementation of the management
+approach receive specialized training and information through
+structured meeting formats and relevant rule documents.</t>
+  </si>
+  <si>
+    <t>Continental maintains social dialogue through various channels
+and takes into account in particular the representation of its own
+workforce as well as employee participation, e.g. in the form of
+employee surveys, which is expected to have a significant posi-
+tive impact, particularly on its own employees and their repre-
+sentatives. (see ESRS 2, IRO table, impact 47)</t>
+  </si>
+  <si>
+    <t>Continental’s general remuneration processes include the involve-
+ment of employee representatives and the consideration of bench-
+marks. These measures create a basis for preventing inadequate
+wages. In addition, further specific preventive and remedial
+measures for the legal entities are defined in respective rules. This
+includes, for example, regularly checking whether payments com-
+ply with national and local legislation, clearly communicating remu-
+neration principles to employees, ensuring timely and regular pay-
+ments and reviewing and updating appropriate benchmarks.</t>
+  </si>
+  <si>
+    <t>The most important stakeholder perspective to be considered in
+the management approach to adequate wages is the perspective
+of employees. To obtain this, the regular Employee Survey OUR BA-
+SICS Live includes dedicated questions on the topic of remunera-
+tion and recognition, with a special focus on fair payment. Remu-
+neration models are discussed with the involvement of the respec-
+tive works councils or employee representatives to ensure the con-
+sideration of employees’ interests. Specific cases of inadequate
+wages can also be reported through the integrity system.</t>
+  </si>
+  <si>
+    <t>Continental considers its employees’ interests in alignment with
+both internal and external requirements. For this purpose, employ-
+ees and their representatives are involved in the relevant processes
+to bring in their perspective, e.g. through ESH committees or con-
+sultations with the works councils.</t>
+  </si>
+  <si>
+    <t>S1_A</t>
+  </si>
+  <si>
+    <t>These impacts are associ-
+ated with Continental’s strategy and business model and relate in
+particular to countries, certain markets, industries, and business ac-
+tivities that are critically or significantly exposed to such impacts.
+The identified actual and potential impacts on own workforce are
+important for adapting the strategy and business model. The devel-
+opment of measures and strategic decisions based on the identi-
+fied impacts are described as part of the management approaches.
+As indicated by the respective descriptions, all identified risks re-
+sult directly from identified actual and potential impacts as well as
+from the dependence on own workforce as an important intangi-
+ble resource. They are also based on the breadth and diversity of
+countries, markets, industries and business activities in which
+Continental operates.
+Therefore, the risks are inherently linked to Continental’s strategy
+and business model.</t>
+  </si>
+  <si>
+    <t>Material risks arising from the impacts and dependencies on own
+workforce relate to Continental’s entire workforce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targets related to managing material negative impacts, advancing positive impacts, and managing
+material risks and opportunities Targets related to own workforce </t>
+  </si>
+  <si>
+    <t>Depending on the topic, material impacts originate from own oper-
+ations or from business relationships. This information can be
+found in the respective topic-related sections in the subsections un-
+der Material impacts, risks and opportunities and, in general, in this
+section under the Strategy, business model and value chain sub-
+section.</t>
+  </si>
+  <si>
+    <t>Material risks
+For a description of non-financial risks and how they are managed,
+please refer to the Risks and Opportunities report in this manage-
+ment report. Beyond this scope, no additional non-financial risks
+were identified in accordance with Section 289c (3) HGB. The risks
+and opportunities described in the topic-related sections of the sus-
+tainability report are based on the application of the ESRS frame-
+work and the definition of double materiality anchored therein, and
+therefore explicitly go beyond the definition in the HGB.</t>
+  </si>
+  <si>
+    <t>Business interruptions in connection with training in own operations Risk Medium-term</t>
+  </si>
+  <si>
+    <t>Loss in sales/boycott in connection with incidents of labor rights in own operations Risk Medium-term</t>
+  </si>
+  <si>
+    <t>Provisions for restructuring are only indirectly
+linked to the identified material risks and opportunities described in
+the Own workforce (ESRS S1) section and therefore, from Conti-
+nental’s perspective, do not represent current financial effects
+within the definitions of the ESRS.
+Furthermore, no significant current financial effects on the recover-
+ability of non-financial assets and inventories were identified in con-
+nection with identified sustainability-related and, in particular, cli-
+mate-related risks.</t>
+  </si>
+  <si>
+    <t>Continental operates in certain markets and industries where
+potential incidents related to labor laws, other regulations or con-
+tractual agreements with customers regarding working condi-
+tions and labor standards could occur within the own operations.
+If, in the worst-case scenario, due diligence processes were to fail
+and serious violations were to occur, Continental can face sanc-
+tions with substantial penalties and fines or even business on
+hold for the respective business operation, especially in the
+medium term. (see ESRS 2, IRO table, risk 53)
+Continental operates in certain markets and industries where
+potential incidents can occur in relation to harassment or discrim-
+ination in the workplace in own operations. If, in the worst-case
+scenario, due diligence processes were to fail and serious viola-
+tions were to occur, Continental could face sanctions with sub-
+stantial penalties and fines or even business on hold for the re-
+spective business operation, especially in the medium term. (see
+ESRS 2, IRO table, risk 55)
+Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental can face sanctions with
+substantial penalties and fines or even business on hold for the
+respective business operation, especially in the medium term.
+(see ESRS 2, IRO table, risk 56)
+Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental could face potential boy-
+cotts, which in turn, if managed reasonably, could lead to critical
+sales losses in the respective business activities, especially in the
+medium term. (see ESRS 2, IRO table, risk 57)</t>
+  </si>
+  <si>
+    <t>Validation and assessment
+In a second step, the longlist of IRO scenarios was assessed from
+the perspectives of relevant stakeholders. In multiple workshops,
+different functions of Continental acted as proxies of internal and
+external affected stakeholders, subject matter experts and/or users
+of sustainability information. The participants of the workshops re-
+ceived the longlist and further information on the methodology in
+advance of the workshops and were trained in the methodology
+during the workshops.
+Each workshop included a validation, update and/or extension of
+the longlist. The IRO scenarios were then defined in greater detail,
+the gross assessment was validated or updated as appropriate, fur-
+ther information was collected and an initial net assessment was
+made. The net assessment considers the management approaches
+of Continental, as described in the respective topic-related sections.
+The assessments in the workshops also took the following into ac-
+count:
+Dependencies on the availability of natural, human, and social re-
+sources at appropriate prices and in adequate quality, independ-
+ent of the potential impacts on those resources</t>
+  </si>
+  <si>
+    <t>102-103</t>
+  </si>
+  <si>
+    <t>Training and skill development
+Continental promotes continuous learning for employees to sup-
+port them in meeting evolving skills requirements and thereby miti-
+gate risks associated with skill gaps and business interruptions.
+The management approach covers all of Continental’s own em-
+ployees.
+Accountability for the governance of training and skill development
+as well as the related tools and learning landscape lies with the dif-
+ferent HR functions along Continental’s company structure. The
+framework for specific trainings is defined by the respective func-
+tions (e.g. safety and health or compliance). Responsibility for the
+implementation of the skill development measures lies with the
+management of the respective legal entities.
+Continental’s learning landscape provides the frame for meeting
+the company’s training and skill development requirements. This
+frame is filled with training content developed by the various func-
+tions and entities to meet their specific needs and regulatory re-
+quirements for employee training.</t>
+  </si>
+  <si>
+    <t>In Germany, the Continental Institute for Technology and Transfor-
+mation (CITT) is an additional important pillar that proactively of-
+fers employees the opportunity to upskill themselves in future-ori-
+ented fields in order to prepare them for the evolving job market
+and new requirements. The CITT offers programs and qualification
+opportunities in the fields of robotics, virtual and augmented reality,
+3D printing, agile methods and digital skills, and includes offers for
+semi-skilled workers, skilled workers and academics. In addition to
+German locations, the offers are also available at some other Euro-
+pean locations.
+The management approach regarding training and skill develop-
+ment is defined in several specific HR rules.
+For the training architecture for leaders, the ISO Norm 29993
+served as a reference.</t>
+  </si>
+  <si>
+    <t>With regard to secure employment, Continental has established a
+set of processes, projects and measures. They mitigate the nega-
+tive impacts of the transformation on employees and simultane-
+ously create positive effects in terms of the creation of jobs and up-
+skilling.
+In contract design, the focus is on providing employees with long-
+term offers. Flexible working time, mobile work options, and other
+benefits regarding employee working conditions, as described in
+the management approaches to work-life balance and adequate
+wages, are intended to proactively reduce employee turnover.
+With regard to the impacts of the transformation, Continental has
+created a range of opportunities to prepare employees for the job
+market of the future. These are set out in the management ap-
+proach to training and skill development.
+Job changes are also supported through a global internal job
+market.
+Especially in Germany, which is significantly affected by transfor-
+mation processes - for example, due to increasing digitalization
+and technological change – Continental has established pro-
+cesses to support employees in external job transitions to other
+employers that offer better employment opportunities at the re-
+spective location (“von Arbeit in Arbeit”). These processes also in-
+clude discussions with potential external employers.
+The effectiveness of the management approach is monitored via
+dedicated feedback channels, HR processes and the reported metrics
+“Percentage of employees covered by employee representation”,
+“Employee turnover” and the OUR BASICS Live Sustainable Engage-
+ment index.
+The processes are regulated through Continental’s internal HR rules
+and by-laws as well as agreements with works councils.
+Key aspects regarding secure employment and social dialogue are
+regulated in particular by local laws, regulations and regulatory pro-
+visions.</t>
+  </si>
+  <si>
+    <t>S1_B</t>
+  </si>
+  <si>
+    <t>Material Impacts, Risks and Opportunities Related to Own Workforce
+Continental assessed its potential and actual negative and positive
+impacts as well as risks and opportunities related to sustainability
+according to the regulatory requirements and as described in the
+General disclosures (ESRS 2) section. The general disclosures in-
+clude an overview of the assessment of all identified impacts, risks
+and opportunities (IROs), including the time horizons considered.
+In this IRO assessment, the following material potential and actual
+negative and positive impacts, risks and opportunities have been
+identified in relation to own workforce. They have been grouped
+into IRO clusters for easier understanding and reading. The descrip-
+tions of the negative impacts and risks are presented from a gross
+perspective which, on the basis of the applied methodology, does
+not take into account mitigation through the management ap-
+proaches of Continental as described in the respective IRO cluster.
+This perspective is used to determine where appropriate manage-
+ment approaches are relevant and corresponding reporting is re-
+quired. As positive impacts as well as opportunities are strength-
+ened by Continental’s management approaches, the descriptions
+are presented taking a net perspective which, for methodical rea-
+sons, considers the results of the management approaches.
+The descriptions of the IROs are to be regarded as self-contained,
+which may result in repetitions.
+Labor standards
+› In 2024, Continental recorded individual incidents related to
+working time in its own workforce. Beyond the confirmed inci-
+dents, Continental operates in countries, certain markets and
+business activities in which significant negative impacts related to
+working time can occur if they are not adequately prevented or
+mitigated. (see ESRS 2, IRO table, impact 41)
+› Continental operates in countries, certain markets and business
+activities in which Continental’s working time arrangements pre-
+sumably have a significant positive impact on its own workforce.
+Assuming that this can put pressure on other market participants
+to also introduce higher standards, this could also have a positive
+impact on the market environment. (see ESRS 2, IRO table,
+impact 42)
+› Continental has recorded individual incidents of discrimination
+within own workforce for 2024. Beyond the confirmed incidents,
+Continental operates in certain markets and business activities
+where significant negative impacts related to discrimination
+within own workforce due to gender, age, race, skin color, health
+status, disability, social or ethnic origin, nationality, sexual orienta-
+tion, political opinion, religion or beliefs, or any other characteris-
+tics protected by applicable laws and regulations can occur if
+they are not adequately prevented or mitigated. (see ESRS 2, IRO
+table, impact 49)
+› Continental operates in certain markets and business activities in
+which significant negative impacts related to forced labor (includ-
+ing debt bondage) can occur if they are not adequately pre-
+vented or mitigated. (see ESRS 2, IRO table, impact 50)
+› Continental operates in certain markets and business activities
+where significant negative impacts related to child labor and
+young workers can occur if they are not adequately prevented or
+mitigated. (see ESRS 2, IRO table, impact 51)
+› Continental operates in certain markets and industries where
+potential incidents related to labor laws, other regulations or con-
+tractual agreements with customers regarding working condi-
+tions and labor standards could occur within the own operations.
+If, in the worst-case scenario, due diligence processes were to fail
+and serious violations were to occur, Continental can face sanc-
+tions with substantial penalties and fines or even business on
+hold for the respective business operation, especially in the
+medium term. (see ESRS 2, IRO table, risk 53)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to harassment or discrim-
+ination in the workplace in own operations. If, in the worst-case
+scenario, due diligence processes were to fail and serious viola-
+tions were to occur, Continental could face sanctions with sub-
+stantial penalties and fines or even business on hold for the re-
+spective business operation, especially in the medium term. (see
+ESRS 2, IRO table, risk 55)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental can face sanctions with
+substantial penalties and fines or even business on hold for the
+respective business operation, especially in the medium term.
+(see ESRS 2, IRO table, risk 56)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental could face potential boy-
+cotts, which in turn, if managed reasonably, could lead to critical
+sales losses in the respective business activities, especially in the
+medium term. (see ESRS 2, IRO table, risk 57)
+Sustainability Report –
+Social Information
+Continental AG 2024 Annual Report Management Report Sustainability Report – Social Information 171
+Adequate wages
+› Continental has recorded individual incidents within own work-
+force related to inadequate wages and unfair payment in 2024.
+Beyond the confirmed incidents, Continental operates in coun-
+tries, certain markets and business activities where significant
+negative impacts related to inadequate pay or unfair pay can oc-
+cur if they are not adequately prevented or mitigated. (see
+ESRS 2, IRO table, impact 39)
+› Continental operates in countries, certain markets and business
+activities in which it can be assumed that Continental has some
+positive impact on the market environment by paying adequate
+wages if it is assumed that this could put pressure on other mar-
+ket participants to also pay adequate wages. This positive impact
+is seen as relevant to the information needs of users of sustaina-
+bility reporting. (see ESRS 2, IRO table, impact 40)
+Work-life balance
+› Continental operates in industries in which significant challenges
+to the work-life balance of its own employees (e.g. in connection
+with shift models) can arise if they are not adequately prevented
+or mitigated. (see ESRS 2, IRO table, impact 43)
+Training and skill development
+› Continental provides training and measures for skill development
+in countries, certain markets and business activities where it is as-
+sumed that the implemented training and measures for skill de-
+velopment for Continental’s own workforce have a significant pos-
+itive impact on its own workforce as well as on the market envi-
+ronment, as this could put pressure on other market participants
+to also offer training and measures for skill development on this
+scale. (see ESRS 2, IRO table, impact 48)
+› Continental operates in markets with strong competition, includ-
+ing for skilled workers. If the company does not succeed in recruit-
+ing, retaining and training qualified employees or managing em-
+ployee turnover appropriately, this can lead to significant interrup-
+tions and productivity losses in the respective business activities,
+especially in the medium term. (see ESRS 2, IRO table, risk 54)
+Secure employment and social dialogue
+› Continental operates in countries, certain markets, industries and
+business activities that are undergoing a considerable transition,
+which is already having a moderate negative impact on job secu-
+rity. The transition could also have substantial negative impacts
+on employees in connection with job security (e.g. due to transfor-
+mation projects, site closures or restructuring), if they are not ade-
+quately prevented or mitigated. (see ESRS 2, IRO table, impact 45)
+› Continental creates jobs and provides secure employment and
+qualifications in countries, markets and certain business activities
+where it is assumed that this has significant positive impacts for
+the employees and the local markets. (see ESRS 2, IRO table,
+impact 46)
+› Continental maintains social dialogue through various channels
+and takes into account in particular the representation of its own
+workforce as well as employee participation, e.g. in the form of
+employee surveys, which is expected to have a significant posi-
+tive impact, particularly on its own employees and their repre-
+sentatives. (see ESRS 2, IRO table, impact 47)
+Employee privacy
+› Continental processes vast amounts of employee data in own op-
+erations. In particular, given the size of Continental’s workforce
+and the company’s global presence, significant potential viola-
+tions of employees’ data protection rights can occur if they are
+not adequately prevented or mitigated. (see ESRS 2, IRO table,
+impact 52)
+Occupational safety and health
+› Continental operates in industries and types of operations in
+which there are numerous potential sources of health hazards for
+employees, particularly with regard to the use of machinery, phys-
+ically demanding workplaces, accidents and the handling of haz-
+ardous substances, ergonomics and psychological risks. In 2024,
+Continental recorded accidents and health-related incidents. Be-
+yond the recorded accidents and confirmed incidents, significant
+negative impacts on the health of own workforce could occur if
+these are not adequately prevented or mitigated. (see ESRS 2,
+IRO table, impact 44)</t>
+  </si>
+  <si>
+    <t>173-174</t>
+  </si>
+  <si>
+    <t>Details of the Material Impacts, Risks and Opportunities
+The actual and potential negative and positive impacts on people
+and the environment are described in more detail within the re-
+spective topic-related sections in the detailed descriptions of the
+concrete impacts.
+Many of the impacts identified are inherent to the industry and are
+directly related to specific types of business, products, value chains
+or geographical regions. They can therefore be seen as impacts di-
+rectly linked to Continental’s strategy and business models. Where
+applicable, this is also addressed in the concrete descriptions of im-
+pacts within the topic-related section.
+As described in the methodology of the IRO assessment, Conti-
+nental used a variety of input parameters to evaluate the IROs, in-
+cluding both quantitative and qualitative data sources such as met-
+rics, internal reports, and external market research.
+Continental has defined the following time intervals for potential
+impacts, risks and opportunities following the ESRS requirements:
+› “Short-term” is coherent with the reporting period in the consoli-
+dated financial statements (up to one year).
+› “Medium-term” corresponds to a period between the end of the
+short- period and up to five years.
+› “Long-term” is defined by a period of more than five years.
+Continental considers the primary time horizons to be those in
+which the strongest impacts or effects are to be expected.
+Depending on the topic, material impacts originate from own oper-
+ations or from business relationships. This information can be
+found in the respective topic-related sections in the subsections un-
+der Material impacts, risks and opportunities and, in general, in this
+section under the Strategy, business model and value chain sub-
+section.</t>
+  </si>
+  <si>
+    <t>In the IRO assessment, Continental identified both actual and po-
+tential positive and negative impacts on its own workforce in the
+topic areas of labor standards, adequate wages, work-life balance,
+training and skill development, secure employment and social dia-
+logue, employee privacy, and occupational safety and health as de-
+scribed at the beginning of this section. These impacts are associ-
+ated with Continental’s strategy and business model and relate in
+particular to countries, certain markets, industries, and business ac-
+tivities that are critically or significantly exposed to such impacts.
+The identified actual and potential impacts on own workforce are
+important for adapting the strategy and business model. The devel-
+opment of measures and strategic decisions based on the identi-
+fied impacts are described as part of the management approaches.
+As indicated by the respective descriptions, all identified risks re-
+sult directly from identified actual and potential impacts as well as
+from the dependence on own workforce as an important intangi-
+ble resource. They are also based on the breadth and diversity of
+countries, markets, industries and business activities in which
+Continental operates.
+Therefore, the risks are inherently linked to Continental’s strategy
+and business model.
+The consolidation at group level of the assessment of the impacts,
+risks and opportunities for own workforce includes Continental’s
+entire workforce. Links to business activities, the product portfolio
+and the value chain are taken into account where relevant.
+In general, our activities have an actual or potential positive or neg-
+ative impact on the entire workforce of Continental – both own em-
+ployees and non-employees. The group of non-employees also in-
+cludes temporary workers and subcontractors.
+The IRO assessment led to a deeper understanding of which parts
+of the workforce are at greater risk of harm based on particular ac-
+tivities, contexts or characteristics. This understanding results in
+particular from the consideration of industry specifics, regional
+characteristics and potential discriminatory features as part of the
+IRO assessment, as described in the respective IROs.
+Continental operates in many industries, countries and markets
+worldwide and is therefore also represented in regions where there
+is considerable potential for negative impacts with regard to child
+labor, in particular India, Brazil and South Africa.
+The same also applies to forced labor (including so called debt
+bondage), in particular in China, Mexico and India.
+The assessment of the material negative impacts regarding own
+workforce were integrated in the general impact, risk and oppor-
+tunity assessment following the defined methodology (see the
+Overview of material impacts, risks and opportunities subsection in
+the General disclosures (ESRS 2) section).
+The methodology takes into consideration two perspectives: All
+negative impacts are to be considered widespread or systemic as
+they relate to countries, certain markets, industries and business
+activities where Continental operates. In addition, the methodol-
+ogy takes into account event-based actual negative impacts
+wherever the impact description contains a reference to concrete
+actual incidents.
+The reported positive impacts on the workforce are related to the
+activities described under the management approach for the re-
+spective IRO cluster.
+The material impacts on own workforce are not directly related to
+changes resulting from sustainability, e.g. the transition towards
+zero-tailpipe-emission vehicles.
+Material risks arising from the impacts and dependencies on own
+workforce relate to Continental’s entire workforce.</t>
+  </si>
+  <si>
+    <t>Negative impacts on adequate wages and fair payment Potential negative
+impact Short-term
+40 Positive impacts on adequate wages Potential positive
+impact Short-term
+41 Negative impacts on employees’ working time Potential negative
+impact Short-term
+42 Positive impacts on employees’ working time Actual and potential
+positive impact
+Potential impact:
+Short-term
+43 Negative impacts on work-life balance Potential negative
+impact Short-term
+44 Negative impacts on the health of own workforce Potential negative
+impact Short-term
+45 Negative impacts on secure employment Actual and potential
+negative impact
+Potential impact:
+Short-term
+46 Positive impacts on secure employment Actual and potential
+positive impact
+Potential impact:
+Short-term
+47 Positive impacts on social dialogue Actual and potential
+positive impact
+Potential impact:
+Short-term
+48 Positive impacts on training and skill development Actual and potential
+positive impact
+Potential impact:
+Short-term
+49 Incidents of discrimination in own operations Potential negative
+impact Short-term
+50 Incidents of forced labor in own operations Potential negative
+impact Short-term
+51 Incidents of child labor in own operations Potential negative
+impact Short-term
+52 Infringement of employee's privacy rights Potential negative
+impact Short-term
+53 Penalties due to incidents in connection with working conditions in own operations Risk Medium-term
+54 Business interruptions in connection with training in own operations Risk Medium-term
+55 Penalties in connection with discrimination in own operations Risk Medium-term
+56 Penalties in connection with human rights in own operations Risk Medium-term
+57 Loss in sales/boycott in connection with incidents of labor rights in own operations Risk Medium-term</t>
+  </si>
+  <si>
+    <t>Performance indicators
+Non-financial and sustainability-related performance indicators in
+accordance with HGB are defined as part of the key performance
+criteria in the remuneration system in the Corporate profile section
+of the management report under Sustainability management.
+These do not constitute the most significant non-financial perfor-
+mance indicators within the meaning of Section 289c (3) HGB. The
+most significant key performance indicators for the Continental
+Group consist exclusively of financial indicators, and can be found
+in the Corporate management and Outlook for the Continental
+Group sections of this management report.</t>
+  </si>
+  <si>
+    <t>Management Approaches to Own Workforce
+This section describes the management approaches that Continen-
+tal pursues in order to address the material impacts on own work-
+force and the associated material risks. These are subdivided into
+the following areas: labor standards, adequate wages, work-life bal-
+ance, training and skill development, secure employment and social
+dialogue, employee privacy, and occupational safety and health.
+Labor standards
+Continental has defined an approach for the management of labor
+standards for its own workforce that is intended to prevent and re-
+duce actual and potential negative impacts and risks as well as
+strengthen positive impacts with regard to working time, discrimi-
+nation, forced labor and child labor as well as other human rights
+and working conditions. This is part of the “Responsible Value
+Chain Due Diligence System” (RVCDDS).
+Continental is thus pursuing the ambition of creating good work-
+ing conditions and a 100 % responsible value chain by 2050 at
+the latest. As part of the RVCDDS, Continental has adopted so-
+called Responsible Value Chain Commitments (RVC commit-
+ments), which include the following for the area of labor stand-
+ards: no child labor, fair payment, equal treatment, no forced la-
+bor or modern slavery, freedom of association and working con-
+ditions, including working time.
+With the specific RVC commitment for equal treatment, Continental
+strives for a working environment that is free from discrimination,
+including harassment, in any form. This is an integral part of the
+management system and is supported by dedicated diversity man-
+agement aimed at promoting equal opportunities and advancing
+diversity and inclusion.
+The commitment explicitly addresses creating a working environ-
+ment free from any form of discrimination based on gender, age,
+race, skin color, health status, disability, social or ethnic origin, na-
+tionality, sexual orientation, political opinion, religion or beliefs or any
+other characteristics protected by applicable laws and regulations.
+The topic of inclusion and actions for people from vulnerable
+groups of employees are also covered by this commitment.
+The management approach also covers the prevention of potential
+trafficking in human beings, forced labor or compulsory labor and
+child labor. Continental firmly rejects any form of child labor and
+does not employ people under the age of 15 or under the age at
+which compulsory schooling ends or under the applicable coun-
+try’s minimum age for employment, whichever is greatest. Young
+employees under the age of 18 need to be treated with special dili-
+gence. Any form of forced labor, modern slavery, debt bondage,
+trafficking, or any other form of labor not conducted voluntarily is
+also firmly rejected. Workers must be provided with documented
+employment terms or an offer of employment in a language they
+are able to understand. Migrant workers need to be treated with
+special diligence.
+The management approach directly covers Continental’s own em-
+ployees, while the RVC commitments also include non-employees.
+Overall accountability for the RVCDDS, including the RVC commit-
+ments for labor standards, lies with the Executive Board. The latter
+has appointed a human rights officer who manages the system.
+The specific human relations (HR) frameworks for labor standards
+are defined and implemented by the respective HR departments
+along the company structure. Responsibility for the implementation
+of the labor standards lies with the management of the respective
+legal entities.
+The system is comprised of many processes that include strategy
+development and implementation, the management of regulations,
+impact and risk management, incident management (including
+whistleblowing) and training. In order to monitor the effectiveness
+of the system, a multi-stage process has been set up based on the
+“three lines” model. The first line is formed by the local operational
+HR departments. They implement the operational tasks at business
+level and at the location in accordance with the RVCDDS and the
+associated HR rules. The second line, represented by non-opera-
+tional HR departments and roles, oversees the system, roles and re-
+sponsibilities as well as their effectiveness. The third line is Conti-
+nental’s internal audit function, which performs an independent
+evaluation of the adequacy and effectiveness of the RVCDDS.
+Specific preventive and remedial measures are defined for the re-
+spective RVC commitments for the area of labor standards, which
+are implemented by the legal entities, such as self-assessments, the
+implementation of appropriate rules and instructions, the careful
+analysis of the working environment with regard to aspects that
+could cause harm, the implementation of improvement measures
+and control mechanisms, as well as raising awareness, especially
+among managers.
+With regard to working time, Continental implemented further dedi-
+cated processes with regard to flexible working models as stated in
+detail in the management approach to work-life balance.
+As part of an annual review process with the Executive Board, the
+entire RVCDDS, including the specific processes for labor standards
+in own operations, is evaluated in terms of effectiveness, adequacy
+and potential for improvement. The RVCDDS is additionally inte-
+grated into Continental’s overarching internal control system, the
+risk management system and compliance management system.</t>
+  </si>
+  <si>
+    <t>In line with the RVC commitments, the RVCDDS also defines the
+framework for taking remedial action in own operations. Any identi-
+fied violations must be addressed promptly and remedial actions
+must be implemented without unnecessary delay. These actions
+are designed not only to end the violation but also to ensure that
+similar issues are prevented in the future.
+Specific processes to prevent discrimination and to act accord-
+ingly if incidents are identified are part of the RVCDDS and the
+general processes of the integrity system described in the Busi-
+ness conduct and corporate governance (ESRS G1) section. The
+prevention of discrimination is implemented through general HR
+processes in the areas of improving frame conditions and specific
+initiatives for women, which comprise dedicated awareness-raising
+events, education offers as well as transparent HR processes in re-
+lation to recruitment and talent management. With regard to gen-
+der diversity, Continental has defined a target and key actions to
+achieve the target, as described in the subsections on Targets re-
+lated to own workforce and Key actions for target achievement in
+this section.
+The management approach is regulated by a dedicated responsi-
+ble value chain rule. It serves as the basis for further rules defining
+specifics for labor standards. They are complemented by special
+processes that are focused on diversity and belonging. Additionally,
+the respect for human rights and fair working conditions are em-
+bedded in Continental's Code of Conduct, which forms the basis for
+collaboration among all our employees.
+Continental’s management approach to respect for human rights
+and labor standards is in line with both international frameworks as
+well as local regulations. These include the internationally recog-
+nized conventions on human rights, such as the United Nations
+Guiding Principles on Business and Human Rights.
+Continental’s management approach to respect for human rights
+and labor standards is also in line with the key points of the Interna-
+tional Bill of Human Rights, the International Labour Organization
+(ILO) Declaration on Fundamental Principles and Rights at Work
+and the OECD Guidelines for Multinational Enterprises. These com-
+mitments serve as a global minimum standard for all Continental
+locations and form the basis for compliance with local laws and
+regulations. Additionally, Continental is a signatory of initiatives like
+the German Charta der Vielfalt (Diversity Charter). The company
+also endorses the Women’s Empowerment Principles established
+by the UN Global Compact and UN Women, demonstrating its dedi-
+cation to promoting diversity and inclusion across its operations.
+Monitoring of the adherence to these standards is anchored in the
+RVCDDS review process, including a revision of its rules and pro-
+cesses, if required.
+To incorporate stakeholder interests into the management system,
+Continental has established various formats. These include specific
+workshops and conferences, which are defined as measures by the
+labor standards rules. Another format is the regular Employee Sur-
+vey OUR BASICS Live in which Continental’s employees are asked
+about different topics related to Continental’s values. The integra-
+tion of these interests into the system is carried out as part of the
+annual review process.
+To ensure a comprehensive understanding and engagement related
+to labor standards within the organization, Continental communi-
+cates the management approach through diverse channels. This in-
+cludes our website and internal communication platforms which
+host trainings as well as the frameworks. In addition, posters and on-
+site training courses make relevant information available to employ-
+ees who do not have access to the IT infrastructure. Furthermore,
+through integration into the onboarding process, new employees
+are also familiarized with these standards right from the start.
+Furthermore, stakeholders involved in implementing the manage-
+ment approach have clearly defined roles within the RVCDDS and
+are trained on the associated responsibilities to enable effective col-
+laboration and execution of the management approach.
+Adequate wages
+With its management approach to adequate wages, Continental
+aims to provide fair pay for all employees, as anchored in the RVC
+commitments. In those, Continental has formulated the commit-
+ment that compensation paid to employees shall comply with all
+applicable wage laws and regulations, including those relating to
+minimum wages, living wages, overtime hours, and legally man-
+dated benefits. In compliance with local laws and regulations, em-
+ployees shall be compensated for overtime in a reasonable way.
+Deductions from wages as a disciplinary measure shall not be per-
+mitted. For each pay period, employees shall be provided with a
+timely and understandable wage statement that includes sufficient
+information to verify accurate compensation for work performed.
+The management approach covers Continental’s own employees,
+while the RVC commitment also includes non-employees.
+Overall accountability for the management approach lies with the
+Executive Board. The specific rules are defined and implemented
+by the respective HR departments along the company structure.
+Responsibility for the implementation of adequate wages lies with
+the management of the respective legal entities.
+The processes of the RVCDDS, as described in the management
+approach for labor standards, also apply explicitly to the topic of
+adequate wages as one of our RVC commitments. The system is comprised of many processes that include strategy development
+and implementation, the management of regulations, impact and
+risk management, incident management (including whistleblowing)
+and training, as well as the “three lines” model for system control.
+Continental’s general remuneration processes include the involve-
+ment of employee representatives and the consideration of bench-
+marks. These measures create a basis for preventing inadequate
+wages. In addition, further specific preventive and remedial
+measures for the legal entities are defined in respective rules. This
+includes, for example, regularly checking whether payments com-
+ply with national and local legislation, clearly communicating remu-
+neration principles to employees, ensuring timely and regular pay-
+ments and reviewing and updating appropriate benchmarks.
+Monitoring is carried out through the annual review process of the
+RVCDDS, in which the Executive Board is informed of the current
+status and decides on the effectiveness, adequacy and potential for
+improvement. The effectiveness of the management approach can
+also be measured by the metric for adequate wages.
+The RVCDDS is formalized by a dedicated rule. Other rules define
+the specific aspects for fair payment and adequate wages.
+With its management approach, Continental follows the internationally
+recognized standards and frameworks on human rights and labor
+standards, as described in more detail in the management approach
+to labor standards, as well as the applicable local laws on wages.
+The most important stakeholder perspective to be considered in
+the management approach to adequate wages is the perspective
+of employees. To obtain this, the regular Employee Survey OUR BA-
+SICS Live includes dedicated questions on the topic of remunera-
+tion and recognition, with a special focus on fair payment. Remu-
+neration models are discussed with the involvement of the respec-
+tive works councils or employee representatives to ensure the con-
+sideration of employees’ interests. Specific cases of inadequate
+wages can also be reported through the integrity system.
+The consideration of this information is integrated into the over-
+arching annual RVCDDS review process.
+To inform all stakeholders affected and those involved in the imple-
+mentation about the management approach, rules, trainings and
+further communication material are communicated via Conti-
+nental’s internal communication channels.
+Work-life balance
+Continental strives to create good working conditions to support
+the work-life balance and to promote the flexibility and well-being
+of all employees, regardless of their working time model. In this
+context, the specific requirements of the various markets in which
+Continental operates and the different types of activities, are taken
+into account. One focus is on the challenges of work-life balance,
+particularly for employees working in shift models.
+The management approach covers Continental’s own employees,
+whereby the focuses vary depending on the respective work models.
+Governance of the respective measures and frameworks lies with
+the non-operational HR functions, while the implementation is del-
+egated to the operational local HR departments and managers.
+Overall accountability for the framework lies with the Executive
+Board.
+Key processes within the management approach cover the areas
+of flexibility and further employee benefits. With regard to flexible
+working conditions, Continental has implemented a wide range of
+measures to enable its employees to achieve a healthy work-life
+balance. These include, e. g. hybrid work, flexible arrangements and
+working time models, sabbaticals, family-related leave including pa-
+rental leave, and partial retirement. Beyond this, Continental offers
+its employees further benefits, such as childcare opportunities and
+sport offers. Continental is actively expanding the opportunities of
+flexible work and is also involving its shopfloor employees in the
+process. For shift working models, Continental has implemented
+dedicated processes in accordance with local laws, to enable
+greater flexibility. The implementation of these measures varies by
+location and is tailored to local needs and regulations.
+The effectiveness of the management approach is monitored
+through the results of the OUR BASICS Live employee survey
+which is conducted on a regular basis. In the survey, employees
+provide feedback on how flexible working models at Continental
+support them in balancing work and private life. They also give
+their assessment of how they are able to cope with the stress level
+in their workplace. This feedback helps to assess and improve
+Continental’s approaches.
+The processes for improving the work-life balance of Continental’s
+employees are defined by dedicated internal frameworks and sub-
+sequent country-specific rules in adherence with local laws. Addi-
+tionally, a comprehensive set of guidelines, tools, methods, and up-
+skilling initiatives has been created to promote flexible work models
+across the organization. The management approach is not based on specific external stand-
+ards, but on research findings and best practices with regard to a
+healthy work-life balance.
+To consider employees’ interests, Continental is pursuing a collabo-
+rative approach by working closely with works councils and ac-
+tively involving managers, employees and relevant functions such
+as the law department. The OUR BASICS Live survey offers an addi-
+tional channel for gaining insights into satisfaction with the work-
+life balance.
+Continental communicates its management approach and flexibil-
+ity measures via the internal communication channels, making
+them accessible to employees at any time. This also includes local
+communication channels to reach employees at production sites.
+Beyond this, Continental actively uses its communication channels
+to share information and guidance with its employees on how to
+improve their work-life balance.</t>
+  </si>
+  <si>
+    <t>177-179</t>
+  </si>
+  <si>
+    <t>Training and skill development
+Continental promotes continuous learning for employees to sup-
+port them in meeting evolving skills requirements and thereby miti-
+gate risks associated with skill gaps and business interruptions.
+The management approach covers all of Continental’s own em-
+ployees.
+Accountability for the governance of training and skill development
+as well as the related tools and learning landscape lies with the dif-
+ferent HR functions along Continental’s company structure. The
+framework for specific trainings is defined by the respective func-
+tions (e.g. safety and health or compliance). Responsibility for the
+implementation of the skill development measures lies with the
+management of the respective legal entities.
+Continental’s learning landscape provides the frame for meeting
+the company’s training and skill development requirements. This
+frame is filled with training content developed by the various func-
+tions and entities to meet their specific needs and regulatory re-
+quirements for employee training. Besides these function- or busi-
+ness-specific trainings, there are overarching training programs that
+are managed by the HR departments and implemented locally, e.g.
+offers for leadership development. To host these offers Continental
+has set up a dedicated learning platform. The platform categorizes
+the available trainings and programs by topic and makes them ac-
+cessible to employees. It also manages the allocation of training
+measures to employees. Monitoring of individual training programs
+can also be set up through this platform. In addition, the alignment
+on adequate training and development measures is an integral part
+of the employee dialogue between supervisors and employees in
+order to support individual skill development through a standard-
+ized process.
+In Germany, the Continental Institute for Technology and Transfor-
+mation (CITT) is an additional important pillar that proactively of-
+fers employees the opportunity to upskill themselves in future-ori-
+ented fields in order to prepare them for the evolving job market
+and new requirements. The CITT offers programs and qualification
+opportunities in the fields of robotics, virtual and augmented reality,
+3D printing, agile methods and digital skills, and includes offers for
+semi-skilled workers, skilled workers and academics. In addition to
+German locations, the offers are also available at some other Euro-
+pean locations.
+The management approach regarding training and skill develop-
+ment is defined in several specific HR rules.
+For the training architecture for leaders, the ISO Norm 29993
+served as a reference.
+The most important stakeholders with regard to training and skill
+development are Continental’s own employees who benefit from
+the training and skill development offers. Their interests are taken
+into account in the management approach through feedback op-
+tions on existing training materials. In addition, there are topic-spe-
+cific learning communities that are established via Continental’s in-
+ternal communication channels. Individual interests and needs are
+taken into account through regular employee dialogue between
+employees and supervisors.
+Employees are informed about this management approach via
+dedicated platforms within the internal communication channels.
+This includes the comprehensive learning platform as well as spe-
+cific topic-related learning communities, which are aimed at em-
+ployees in specific areas and inform them about existing training
+opportunities.
+Secure employment and social dialogue
+Secure employment and social dialogue are of the utmost interest
+for the company and for the employees. Therefore, with its corre-
+sponding management approach, Continental strives to shape the
+transition of our industries in close dialogue with our employees,
+while balancing economic and social needs.
+The management approach covers all of Continental’s own em-
+ployees.
+In principle, employment matters and social dialogue are regulated
+by labor law. Therefore, the formal accountability for the manage-
+ment approach is partially determined by local legislation. This in-
+cludes the responsibilities of the Supervisory Board, the Executive
+Board, the management of Continental’s legal entities as well as the
+co-determination bodies, e.g. works councils. Operational imple-
+mentation is primarily managed by Continental’s HR departments
+along the company structure.
+Social dialogue and employee engagement are managed through
+various processes. Formalized processes especially include the rep-
+resentation of employees by works councils or similar structures as
+well as the regular employee survey OUR BASICS Live. In addition,
+Continental has established a variety of formats for social dialogue
+and employee engagement, including townhall meetings, networks,
+open calls and online platforms. This foundation for social dialogue
+is also the basis for managing employment matters in the transition
+of our industries.
+With regard to secure employment, Continental has established a
+set of processes, projects and measures. They mitigate the nega-
+tive impacts of the transformation on employees and simultane-
+ously create positive effects in terms of the creation of jobs and up-
+skilling.
+› In contract design, the focus is on providing employees with long-
+term offers. Flexible working time, mobile work options, and other
+benefits regarding employee working conditions, as described in
+the management approaches to work-life balance and adequate
+wages, are intended to proactively reduce employee turnover.
+› With regard to the impacts of the transformation, Continental has
+created a range of opportunities to prepare employees for the job
+market of the future. These are set out in the management ap-
+proach to training and skill development.
+› Job changes are also supported through a global internal job
+market.
+› Especially in Germany, which is significantly affected by transfor-
+mation processes - for example, due to increasing digitalization
+and technological change – Continental has established pro-
+cesses to support employees in external job transitions to other
+employers that offer better employment opportunities at the re-
+spective location (“von Arbeit in Arbeit”). These processes also in-
+clude discussions with potential external employers.
+The effectiveness of the management approach is monitored via
+dedicated feedback channels, HR processes and the reported metrics
+“Percentage of employees covered by employee representation”,
+“Employee turnover” and the OUR BASICS Live Sustainable Engage-
+ment index.
+The processes are regulated through Continental’s internal HR rules
+and by-laws as well as agreements with works councils.
+Key aspects regarding secure employment and social dialogue are
+regulated in particular by local laws, regulations and regulatory pro-
+visions.
+By definition, social dialogue is an interest-based exchange with
+employees and their representatives. In order to gain further in-
+sights and consider the interests of its own workforce in the man-
+agement approach, Continental uses its internal communication
+channels and has integrated feedback processes into various en-
+gagement formats and training courses. An additional formalized
+process is the OUR BASICS Live employee survey, which gathers
+the employee’s opinions and views on various topics related to
+Continental’s values. These are recorded, consolidated and ana-
+lyzed in an established process. Furthermore, co-determination
+practices such as employee representation on the Supervisory
+Board and the involvement of the Group Works Council in relevant
+decision-making processes directly incorporate the interests of em-
+ployees and enable the alignment of management strategies with
+their needs.
+Many communication and dialogue formats (e.g. townhall meet-
+ings) already inherently constitute social dialogue. In addition,
+Continental’s management approach to secure employment and
+social dialogue is also communicated to employees via established
+internal communication channels, usually in the broader context of
+the associated transformations. This includes newsletters and dedi-
+cated channels managed by local works councils to inform the
+workforce. For information on training offers, a dedicated platform
+is available, as described in detail in the management approach to
+training and skill development. This is complemented by local com-
+munication on site to reach employees who do not have access to
+the IT infrastructure.</t>
+  </si>
+  <si>
+    <t>Employee privacy
+To protect employee data, Continental has established a group-
+wide management approach that addresses compliance with data
+protection regulations, minimizing the risk of data breaches, pro-
+tecting personal data and promoting awareness of data protection
+within the company. Continental thereby aims to ensure that per-
+sonal data is processed worldwide in accordance with the following
+general data protection principles: lawfulness, fairness, transpar-
+ency, purpose limitation, data minimization, accuracy and time-lim-
+ited storage.
+The management approach covers Continental’s own employees
+as well as the personal data relating to potential or former employ-
+ees, customers, suppliers, other business partners, interested par-
+ties and other affected parties.
+Accountability for the implementation of employee data protection
+lies with the management of Continentals respective legal entities
+as well as with functions at all levels that process personal data. The
+appointed Chief Data Compliance Officer and team are responsible
+for defining and implementing the data protection management framework. The Chief Data Compliance Officer and regional data
+compliance coordinators also support the legal entities with the im-
+plementation. Overarching oversight is exercised by the Executive
+Board.
+The processes for managing and monitoring the management ap-
+proach include the following steps as part of a comprehensive data
+protection program: secure collection, processing, storage and dis-
+posal of data. To ensure protection of the data across these steps,
+Continental has implemented technical and organizational
+measures such as encryption of sensitive data or access controls to
+protect data from unauthorized access. Further Continental ad-
+heres to the principle of data minimization, meaning only collecting
+and processing the data necessary for specific purposes. A regular
+“Privacy Impact Assessment” is used to identify critical areas for ac-
+tion and initiate appropriate measures based on the results. An-
+other key process within the data protection program is the regular
+training of employees on data protection.
+The management approach is based on the national data protec-
+tion regulations in the countries Continental operates in as well as
+the Binding Corporate Rules (BCR) which are approved by the re-
+sponsible data protection authority and ensure a level of data pro-
+tection around the world which corresponds with the EU General
+Data Protection Regulation (GDPR).
+To monitor the effectiveness of the program, questions on data
+protection are part of both the regular audit questionnaire and the
+risk assessment questionnaire. The results of the evaluation are re-
+ported by the Chief Data Compliance Officer to the respective man-
+agement as well as to the Executive Board.
+Data protection is an integral part of the Code of Conduct for em-
+ployees and is thus firmly anchored in the foundation of coopera-
+tion at Continental. In addition, a dedicated rule formalizes the pro-
+cesses in relation to employee privacy. This rule also includes
+clearly defined BCRs.
+With this approach, Continental adheres to relevant data protection
+regulations such as the EU GDPR.
+By definition, the most important stakeholders with regard to em-
+ployee privacy are Continental’s employees. Their interests are de-
+fined in the relevant data protection laws. Concerns or complaints
+can be submitted via the channels provided for this purpose. The
+Chief Data Compliance Officer and regional data compliance coor-
+dinators ensure that these concerns are addressed and integrated
+into the management approach.
+Continental informs employees about data protection measures
+and processes through internal communication channels. The com-
+pliance department manages dedicated formats, including topic-
+specific information pages, an internal newsletter and regular training
+sessions to keep employees informed and engaged. Additionally,
+stakeholders involved in the implementation of the management
+approach receive specialized training and information through
+structured meeting formats and relevant rule documents.
+Occupational safety and health
+Continental has established a comprehensive management system
+for occupational safety and health in order to mitigate the impacts
+on employees in relation to health hazards such as the use of ma-
+chinery, handling of substances of concern, ergonomics and men-
+tal hazards. The system is aimed at implementing preventive
+measures and eliminating hazards to ensure the well-being of all
+employees.
+The management approach covers Continental’s own employees
+directly and non-employee indirectly.
+Accountability for the safety and health management approach lies
+with the management of the respective legal entities, as legally re-
+quired in most countries. Furthermore, individual accountability
+plays a crucial role, as every supervisor and employee has a per-
+sonal responsibility to uphold safety and health practices in their re-
+spective function. The framework for safety and health is defined
+by the safety and health organization, which also provides support
+with its implementation. Responsibility for the implementation of
+the safety and health matters is delegated to the location manag-
+ers who are supported by dedicated ESH managers. Responsibility
+for certain specific matters of occupational safety and health is reg-
+ulated individually. Oversight of the overall management approach
+is exercised by the Executive Board.
+Occupational safety and health matters are managed through
+Continental’s ISO 45001-compliant occupational safety and health
+management system, which comprises processes and programs
+for complying with safety and health requirements for all locations.
+Key elements of this system include specific processes that define
+the organization, implementation, reporting and training for rele-
+vant safety and health topics such as occupational safety, health
+management, occupational medicine, ergonomics in the workplace
+and handling of substances of concern (see also the management
+approach Substances of concern and very high concern in the Pol-
+lution (ESRS E2) section).
+The processes include establishing a clear structure for allocating
+resources and defining roles and responsibilities within the organi-
+zation, risk and impact management for the identification and miti-
+gation of potential hazards, consistent and transparent communica-
+tion as well as training and skill development for employees in the
+individual topics. Preventive measures are implemented on a site-
+specific basis in line with the overall processes.
+Reporting processes have been introduced to monitor the system
+and internal audits are carried out on a regular basis. To support
+this monitoring, Continental has implemented targeted programs
+such as the group sector internal safety &amp; health audit program, to
+control the compliance with internal standards and identify oppor-
+tunities for improvement. Furthermore, external ISO 45001 certifi-
+cations validate the effectiveness of the management system at
+many locations. In addition, Continental monitors the effective of
+the management system with different metrics reported in the re-
+spective subsection of this section.
+The safety and health management system also includes the dedi-
+cated management of incidents in the workplace.
+The specific processes, responsibilities and monitoring measures
+are defined in the rules governing occupational safety and health.
+The location-specific safety and health management systems fur-
+ther specify the requirements in relation to local needs.
+In the development and implementation of the management ap-
+proach, Continental considers a variety of external standards and
+commitments to create alignment with international best practices
+and legal requirements. Besides ISO 45001 as the international
+standard for occupational safety and health management systems,
+these include frameworks and standards such as the Luxembourg
+Declaration on Workplace Health Promotion in the European Union
+as well as the International Labour Organization (ILO) Declaration
+on Fundamental Principles and Rights at Work and other relevant
+human rights frameworks as outlined in the management ap-
+proach to labor standards.
+Continental considers its employees’ interests in alignment with
+both internal and external requirements. For this purpose, employ-
+ees and their representatives are involved in the relevant processes
+to bring in their perspective, e.g. through ESH committees or con-
+sultations with the works councils.
+To maintain transparency across all levels of the organization, the
+management approach is communicated via Continental’s internal
+communication platforms. These channels are also actively used to
+share information with employees on topics such as ergonomics or
+mental health and to provide them with personal tools. Another im-
+portant pillar is training in occupational safety and health, which
+also includes mandatory training courses for employees and super-
+visors. These are either conducted on site or can be accessed via
+Continental’s learning platform as presented in the management
+approach to training and skill development. For additional local
+communication, the EHS managers identify and assess the local re-
+quirements and advise the location managers.</t>
+  </si>
+  <si>
+    <t>180-182</t>
+  </si>
+  <si>
+    <t>Processes for engaging with own workers and workers’
+representatives about impacts
+Continental uses various channels to engage with employees in its
+own workforce. This engagement is part of the continuous devel-
+opment of the described management approaches. The general
+process for incorporating the perspectives of its own workforce
+into the strategy is described in the subsection on Consideration of
+stakeholder interests and views in the General disclosures (ESRS 2)
+section of this sustainability report.
+Continental implemented comprehensive internal communication
+that includes networks for exchange, as well as newsletters,
+webcasts and townhall formats to keep employees informed. An
+important format for engaging with the workforce and gaining in-
+sights into their interests is the OUR BASICS Live employee survey
+where employees provide feedback on different topics related to
+Continental’s values. These overarching channels are compli-
+mented by local communication.
+Additionally, Continental is in constant dialogue with employee rep-
+resentatives. In Germany, employee representatives are part of
+Continental AG’s Supervisory Board. Employees are also repre-
+sented by local works councils or similar bodies in order to take
+their interests into account in strategic decisions and processes,
+wherever possible.
+Engagement with employees therefore takes place both directly
+and indirectly via the employee representatives.
+The network channels described are continuously open for en-
+gagement, while formats such as webcasts are held event-based.
+The OUR BASICS Live employee survey is conducted annually.
+For engaging with marginalized groups in its own workforce, Conti-
+nental has established dedicated networks. These include for in-
+stance specific networks for woman, as described in the key ac-
+tions on the gender diversity target.
+The channels are managed by Continentals HR and communica-
+tion departments across the organization. the Executive Board
+member for Group Human Relations (director of labor relations)
+and Group Sustainability has overarching responsibility and is in-
+formed by the departments on employees matters.
+An important tool for measuring the effectiveness of the engage-
+ment is the OUR BASICS Live employee survey. It records feedback
+on communication and employee involvement and forms the basis
+for the metric OUR BASICS Live Sustainable Engagement index.
+The communication channels also include direct feedback options.
+Furthermore, the metric on the percentage of employees covered
+by employee representation serves as an indicator for social dia-
+logue coverage. 
+Processes to remediate negative impacts and channels for own
+workforce to raise concerns
+Grievance channels for own workforce
+Continental has established dedicated mechanisms to enable its
+own workforce to raise concerns.
+These are part of a comprehensive integrity system that comprises
+three channels: an integrity portal, an integrity hotline and an integ-
+rity email, as described in more detail in the Business conduct and
+corporate governance (ESRS G1) section of this sustainability report.
+Employees as well as third parties outside the Continental Group
+can report violations of legal regulations, fundamental values and
+ethical standards via these channels. The platform and hotline are
+managed by a third-party service provider. The integrity email is
+managed directly by a Continental Case Management team.
+The channels are explicitly open for all employee matters.
+The integrity channels can be accessed via our website, internal
+communication channels or an international phone hotline. They
+are available worldwide in many different languages and accessible
+24/7, creating broad availability by overcoming barriers such as
+time zones or languages.
+To raise awareness of the integrity system, Continental has imple-
+mented various channels and formats, including intranet articles
+and formats, compliance newsletters and podcasts, mandatory
+training and local on-site communication. Continental does not ex-
+plicitly assess the awareness and trust of the own workforce in
+these channels.
+In order to protect users of the integrity system, information on all
+kinds of potential violation can be reported anonymously. Report-
+ing and investigation information is treated confidentially in accord-
+ance with applicable laws throughout the entire case management.
+The whistleblowing process is in line with the German Whistle-
+blower Protection Act and relevant international legislation.
+The integrity system is governed by a dedicated rule that defines
+roles and responsibilities along the process steps of reporting, re-
+port administration and substantiation, investigation, and sanction-
+ing – in an end-to-end process. The case management is also sub-
+ject to internal audits. In addition, Continental’s publicly available
+rules of procedure provide transparency on the handling of cases.
+Furthermore, Continental’s employees take part in mandatory train-
+ings on the topic of whistleblowing.
+Remediation processes
+When complaints are received via the whistleblowing channels or
+through audit findings, Continental follows a structured process to
+investigate and address the respective cases. Remedial actions
+must be implemented in due time and must be aligned with Conti-
+nental’s frameworks. Based on these frameworks, the respective le-
+gal entities must implement measures to resolve the violation effec-
+tively and prevent similar incidents in the future. The remediation
+measures related to submitted cases are tracked via a compliance
+case management software. Further information, including the
+tracking of effectiveness, can be found in Business conduct and
+corporate governance (ESRS G1) section, the management ap-
+proach Business conduct, corporate governance and corporate cul-
+ture, and in the subsection on Prevention and detection of corrup-
+tion and bribery which describes the integrity system in detail.</t>
+  </si>
+  <si>
+    <t>182-183</t>
+  </si>
+  <si>
+    <t>Continental’s due diligence processes play a key role in identifying,
+assessing, and managing impacts, risks and opportunities. They are
+part of the management processes described in this section under
+Governance as well as in the management approaches in the topic-
+related sections. The assessment of impacts regarding human
+rights is supported by the due diligence processes of Continental’s
+Responsible Value Chain Due Diligence System (RVCDDS), e.g. re-
+garding actual impacts by incidents or the assessment of potential
+negative impacts (see especially the topic-related Own workforce
+(ESRS S1) section and Workers in the value chain (ESRS S2) section).
+Where specific activities, business relationships, geographical loca-
+tions or other factors lead to a higher assessment of the impacts,
+this was essentially taken into account in the description and as-
+sessment of the IROs.</t>
+  </si>
+  <si>
+    <t>c) Identifying and assessing adverse
+impacts
+Continental has identified material actual and potential negative impacts. The methodology of the assessment is described
+under:
+› Process for identifying and assessing material IROs
+The corresponding results be found under:
+› Details of the material impacts, risks and opportunities
+› as well as in the described impacts in the topic-related sections
+d) Taking actions to address these adverse
+impacts
+The results of the IRO assessment are incorporated in decision-making through general sustainability governance and also in
+the corresponding management approaches.
+Details can be found in particular under:
+› Governance: Consideration of sustainability matters in corporate supervision
+› Strategy: Key elements of the overall strategy with regard to sustainability
+› as well as in the management approaches in the topic-related sections
+e) Tracking the effectiveness of these efforts
+and communicating
+Continental monitors the effectiveness of the respective management approaches with dedicated processes.
+Details can be found in particular under:
+› Governance: Consideration of sustainability matters in corporate supervision
+› Strategy: Key elements of the overall strategy with regard to sustainability
+› Strategy: Sustainability-related performance in incentive schemes
+› as well as in the management approaches in the topic-related sections
+In addition, Continental has set public sustainability targets with regard to climate change mitigation, circularity and own
+workforce.
+Details on targets and target monitoring can be found under:
+› Targets related to climate change
+› Targets related to resource use and circular economy
+› Targets related to own workforce</t>
+  </si>
+  <si>
+    <t>S1_C</t>
+  </si>
+  <si>
+    <t>In the IRO assessment, Continental identified both actual and po-
+tential positive and negative impacts on its own workforce in the
+topic areas of labor standards, adequate wages, work-life balance,
+training and skill development, secure employment and social dia-
+logue, employee privacy, and occupational safety and health as de-
+scribed at the beginning of this section. These impacts are associ-
+ated with Continental’s strategy and business model and relate in
+particular to countries, certain markets, industries, and business ac-
+tivities that are critically or significantly exposed to such impacts.
+The identified actual and potential impacts on own workforce are
+important for adapting the strategy and business model. The devel-
+opment of measures and strategic decisions based on the identi-
+fied impacts are described as part of the management approaches.
+As indicated by the respective descriptions, all identified risks re-
+sult directly from identified actual and potential impacts as well as
+from the dependence on own workforce as an important intangi-
+ble resource. They are also based on the breadth and diversity of
+countries, markets, industries and business activities in which
+Continental operates.
+Therefore, the risks are inherently linked to Continental’s strategy
+and business model.
+The consolidation at group level of the assessment of the impacts,
+risks and opportunities for own workforce includes Continental’s
+entire workforce. Links to business activities, the product portfolio
+and the value chain are taken into account where relevant.
+In general, our activities have an actual or potential positive or neg-
+ative impact on the entire workforce of Continental – both own em-
+ployees and non-employees. The group of non-employees also in-
+cludes temporary workers and subcontractors.
+The IRO assessment led to a deeper understanding of which parts
+of the workforce are at greater risk of harm based on particular ac-
+tivities, contexts or characteristics. This understanding results in
+particular from the consideration of industry specifics, regional
+characteristics and potential discriminatory features as part of the
+IRO assessment, as described in the respective IROs.
+Continental operates in many industries, countries and markets
+worldwide and is therefore also represented in regions where there
+is considerable potential for negative impacts with regard to child
+labor, in particular India, Brazil and South Africa.
+The same also applies to forced labor (including so called debt
+bondage), in particular in China, Mexico and India.
+The assessment of the material negative impacts regarding own
+workforce were integrated in the general impact, risk and oppor-
+tunity assessment following the defined methodology (see the
+Overview of material impacts, risks and opportunities subsection in
+the General disclosures (ESRS 2) section).
+The methodology takes into consideration two perspectives: All
+negative impacts are to be considered widespread or systemic as
+they relate to countries, certain markets, industries and business
+activities where Continental operates. In addition, the methodol-
+ogy takes into account event-based actual negative impacts
+wherever the impact description contains a reference to concrete
+actual incidents.</t>
+  </si>
+  <si>
+    <t>The material impacts on own workforce are not directly related to
+changes resulting from sustainability, e.g. the transition towards
+zero-tailpipe-emission vehicles.</t>
+  </si>
+  <si>
+    <t>Continental operates in markets with strong competition, includ-
+ing for skilled workers. If the company does not succeed in recruit-
+ing, retaining and training qualified employees or managing em-
+ployee turnover appropriately, this can lead to significant interrup-
+tions and productivity losses in the respective business activities,
+especially in the medium term. (see ESRS 2, IRO table, risk 54)</t>
+  </si>
+  <si>
+    <t>Material Impacts, Risks and Opportunities Related to Own Workforce
+Continental assessed its potential and actual negative and positive
+impacts as well as risks and opportunities related to sustainability
+according to the regulatory requirements and as described in the
+General disclosures (ESRS 2) section. The general disclosures in-
+clude an overview of the assessment of all identified impacts, risks
+and opportunities (IROs), including the time horizons considered.
+In this IRO assessment, the following material potential and actual
+negative and positive impacts, risks and opportunities have been
+identified in relation to own workforce. They have been grouped
+into IRO clusters for easier understanding and reading. The descrip-
+tions of the negative impacts and risks are presented from a gross
+perspective which, on the basis of the applied methodology, does
+not take into account mitigation through the management ap-
+proaches of Continental as described in the respective IRO cluster.
+This perspective is used to determine where appropriate manage-
+ment approaches are relevant and corresponding reporting is re-
+quired. As positive impacts as well as opportunities are strength-
+ened by Continental’s management approaches, the descriptions
+are presented taking a net perspective which, for methodical rea-
+sons, considers the results of the management approaches.</t>
+  </si>
+  <si>
+    <t>Continental has recorded individual incidents of discrimination
+within own workforce for 2024. Beyond the confirmed incidents,
+Continental operates in certain markets and business activities
+where significant negative impacts related to discrimination
+within own workforce due to gender, age, race, skin color, health
+status, disability, social or ethnic origin, nationality, sexual orienta-
+tion, political opinion, religion or beliefs, or any other characteris-
+tics protected by applicable laws and regulations can occur if
+they are not adequately prevented or mitigated. (see ESRS 2, IRO
+table, impact 49)
+› Continental operates in certain markets and business activities in
+which significant negative impacts related to forced labor (includ-
+ing debt bondage) can occur if they are not adequately pre-
+vented or mitigated. (see ESRS 2, IRO table, impact 50)
+› Continental operates in certain markets and business activities
+where significant negative impacts related to child labor and
+young workers can occur if they are not adequately prevented or
+mitigated. (see ESRS 2, IRO table, impact 51)
+› Continental operates in certain markets and industries where
+potential incidents related to labor laws, other regulations or con-
+tractual agreements with customers regarding working condi-
+tions and labor standards could occur within the own operations.
+If, in the worst-case scenario, due diligence processes were to fail
+and serious violations were to occur, Continental can face sanc-
+tions with substantial penalties and fines or even business on
+hold for the respective business operation, especially in the
+medium term. (see ESRS 2, IRO table, risk 53)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to harassment or discrim-
+ination in the workplace in own operations. If, in the worst-case
+scenario, due diligence processes were to fail and serious viola-
+tions were to occur, Continental could face sanctions with sub-
+stantial penalties and fines or even business on hold for the re-
+spective business operation, especially in the medium term. (see
+ESRS 2, IRO table, risk 55)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental can face sanctions with
+substantial penalties and fines or even business on hold for the
+respective business operation, especially in the medium term.
+(see ESRS 2, IRO table, risk 56)
+› Continental operates in certain markets and industries where
+potential incidents can occur in relation to forced labor (including
+debt bondage), child labor and other human rights. If, in the
+worst-case scenario, due diligence processes were to fail and seri-
+ous violations were to occur, Continental could face potential boy-
+cotts, which in turn, if managed reasonably, could lead to critical
+sales losses in the respective business activities, especially in the
+medium term. (see ESRS 2, IRO table, risk 57)</t>
+  </si>
+  <si>
+    <t>Adequate wages
+› Continental has recorded individual incidents within own work-
+force related to inadequate wages and unfair payment in 2024.
+Beyond the confirmed incidents, Continental operates in coun-
+tries, certain markets and business activities where significant
+negative impacts related to inadequate pay or unfair pay can oc-
+cur if they are not adequately prevented or mitigated. (see
+ESRS 2, IRO table, impact 39)</t>
+  </si>
+  <si>
+    <t>Continental operates in industries in which significant challenges
+to the work-life balance of its own employees (e.g. in connection
+with shift models) can arise if they are not adequately prevented
+or mitigated. (see ESRS 2, IRO table, impact 43)</t>
+  </si>
+  <si>
+    <t>Continental operates in markets with strong competition, includ-
+ing for skilled workers. If the company does not succeed in recruit-
+ing, retaining and training qualified employees or managing em-
+ployee turnover appropriately, this can lead to significant interrup-
+tions and productivity losses in the respective business activities,
+especially in the medium term. (see ESRS 2, IRO table, risk 54)
+Secure employment and social dialogue
+› Continental operates in countries, certain markets, industries and
+business activities that are undergoing a considerable transition,
+which is already having a moderate negative impact on job secu-
+rity. The transition could also have substantial negative impacts
+on employees in connection with job security (e.g. due to transfor-
+mation projects, site closures or restructuring), if they are not ade-
+quately prevented or mitigated. (see ESRS 2, IRO table, impact 45)</t>
+  </si>
+  <si>
+    <t>Employee privacy
+› Continental processes vast amounts of employee data in own op-
+erations. In particular, given the size of Continental’s workforce
+and the company’s global presence, significant potential viola-
+tions of employees’ data protection rights can occur if they are
+not adequately prevented or mitigated. (see ESRS 2, IRO table,
+impact 52)
+Occupational safety and health
+› Continental operates in industries and types of operations in
+which there are numerous potential sources of health hazards for
+employees, particularly with regard to the use of machinery, phys-
+ically demanding workplaces, accidents and the handling of haz-
+ardous substances, ergonomics and psychological risks. In 2024,
+Continental recorded accidents and health-related incidents. Be-
+yond the recorded accidents and confirmed incidents, significant
+negative impacts on the health of own workforce could occur if
+these are not adequately prevented or mitigated. (see ESRS 2,
+IRO table, impact 44)</t>
+  </si>
+  <si>
+    <t>Negative impacts on adequate wages and fair payment Potential negative
+impact Short-term</t>
+  </si>
+  <si>
+    <t>Negative impacts on employees’ working time Potential negative
+impact Short-term</t>
+  </si>
+  <si>
+    <t>Negative impacts on work-life balance Potential negative
+impact Short-term
+44 Negative impacts on the health of own workforce Potential negative
+impact Short-term
+45 Negative impacts on secure employment Actual and potential
+negative impact
+Potential impact:
+Short-term</t>
+  </si>
+  <si>
+    <t>Incidents of discrimination in own operations Potential negative
+impact Short-term
+50 Incidents of forced labor in own operations Potential negative
+impact Short-term
+51 Incidents of child labor in own operations Potential negative
+impact Short-term
+52 Infringement of employee's privacy rights Potential negative
+impact Short-term</t>
+  </si>
+  <si>
+    <t>Process for Identifying and Assessing Material IROs
+Description of methodology and assumptions
+Continental assesses its impacts, risks and opportunities according
+to the ESRS methodology requirements on double materiality (IRO
+assessment). Continental’s 2024 IRO assessment has been conduc-
+ted simultaneously with both impact materiality (inside-out) and
+financial materiality (outside-in) perspectives.
+Identification and creation of the longlist of IROs
+The list of sustainability matters of the ESRS 1.AR16 formed the
+starting point of the identification of impacts, risks and opportuni-
+ties. In addition for risks and opportunities, certain event types (e.g.
+fines, loss of sales or growth of sales) were considered. These initial
+scenarios and descriptions of IROs have been identified at topic,
+sub-topic or sub-sub-topic level and have been aggregated when-
+ever it was relevant and appropriate considering Continental’s busi-
+ness activities, value chain, geographical location, industries, and
+business models. Company-specific aspects were also considered,
+all of which could be assigned to the predefined list of sustainability
+matters. These scenarios specify the matters further for Conti-
+nental’s value chain and were partially split into individual scenarios
+for own operations, upstream and/or downstream value chain,
+whenever relevant.
+Initial gross assessment
+In an initial step, the IRO scenarios were centrally assessed from a
+gross perspective. The gross perspective assesses impacts, risks
+and opportunities in a scenario that does not yet consider the exist-
+ing management approaches of Continental, as described in the re-
+spective topic-related sections. This initial gross assessment com-
+prised various assessments of the severity and magnitude of the
+effect as well as the likelihood. This assessment was based on the
+judgement and sustainability expertise of subject matter experts at
+Group level.
+Validation and assessment
+In a second step, the longlist of IRO scenarios was assessed from
+the perspectives of relevant stakeholders. In multiple workshops,
+different functions of Continental acted as proxies of internal and
+external affected stakeholders, subject matter experts and/or users
+of sustainability information. The participants of the workshops re-
+ceived the longlist and further information on the methodology in
+advance of the workshops and were trained in the methodology
+during the workshops.
+Each workshop included a validation, update and/or extension of
+the longlist. The IRO scenarios were then defined in greater detail,
+the gross assessment was validated or updated as appropriate, fur-
+ther information was collected and an initial net assessment was
+made. The net assessment considers the management approaches
+of Continental, as described in the respective topic-related sections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The assessments in the workshops also took the following into ac-
+count:
+› Dependencies on the availability of natural, human, and social re-
+sources at appropriate prices and in adequate quality, independ-
+ent of the potential impacts on those resources
+› A primarily relevant time horizon for the definition of IRO scenar-
+ios and potential consequences
+› Sectors and/or geographical locations where relevant
+› External studies and other scientific evidence
+› External data (e.g. country risk analyses and industry risk anal-
+yses)
+› Specific data for Continental or Continental’s value chain (e.g.
+Scope 3 greenhouse gas emissions)
+Consolidation
+In an iterative approach based on the assessments during the
+workshops, an initial consolidation has been prepared by Group
+Sustainability in close coordination with Group Risk Management.
+The consolidation was completed especially based on the out-
+comes of all individual workshops as well as cross-checks with
+Continental’s general risk assessment.
+The materiality threshold has been set after the consolidation of
+IRO assessments. The materiality of negative impacts and risks was
+assessed based on the gross perspective to consider where it is rel-
+evant to have adequate management approaches and report on
+them. </t>
+  </si>
+  <si>
+    <t>From an overarching perspective, the materiality
+threshold for the gross assessment of the severity of negative im-
+pacts and risks and for the net assessment of the magnitude of the
+effect of positive impacts and opportunities was set at high and
+very high ratings (see the scales used under Impact materiality and
+financial materiality). Regarding the likelihood of occurrence, no
+threshold was applied. In cases where an IRO was flagged as a fo-
+cus topic for the relevant users of Continental’s sustainability infor-
+mation, this IRO has also been evaluated as material and included
+in the reporting.</t>
+  </si>
+  <si>
+    <t>These measures are not only aimed at the achievement of the tar-
+get but are also support the prevention of discrimination and
+achieving equal treatment of employees in general.
+By mitigating the underlying negative impacts, it is assumed that
+the measures also mitigate to some extent potential risks to the
+company arising from possible incidents of discrimination in the
+area of gender diversity.</t>
+  </si>
+  <si>
+    <t>Key resources for the action plan include the expenditure for im-
+proving the structural conditions and specific initiatives for women.
+The actions related to the target for gender diversity support the
+management approach to Labor standards by striving to reduce
+potential negative impacts on the own workforce, also in the event
+of conflicting economic and social interests.
+The specific initiatives for women focus on the entire female work-
+force, also beyond management positions. The actions relating to
+the structural conditions are much broader and ultimately address
+the entire workforce.
+The actions include short-, medium- and long-term measures.</t>
+  </si>
+  <si>
+    <t>To maintain transparency across all levels of the organization, the
+management approach is communicated via Continental’s internal
+communication platforms. These channels are also actively used to
+share information with employees on topics such as ergonomics or
+mental health and to provide them with personal tools. Another im-
+portant pillar is training in occupational safety and health, which
+also includes mandatory training courses for employees and super-
+visors. These are either conducted on site or can be accessed via
+Continental’s learning platform as presented in the management
+approach to training and skill development. For additional local
+communication, the EHS managers identify and assess the local re-
+quirements and advise the location managers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1.SBM-3 – Material impacts, risks and opportunities and their interaction with strategy and business
+model Further information on the IRO assessment in relation to the own workforce </t>
+  </si>
+  <si>
+    <t>S1-5 – Targets related to managing material negative impacts, advancing positive impacts, and managing
+material risks and opportunities Targets related to own workforce</t>
+  </si>
+  <si>
+    <t>S1_D</t>
+  </si>
+  <si>
+    <t>Positive impacts on adequate wages Potential positive
+impact Short-term</t>
+  </si>
+  <si>
+    <t>Positive impacts on employees’ working time Actual and potential
+positive impact
+Potential impact:
+Short-term</t>
+  </si>
+  <si>
+    <t>Positive impacts on secure employment Actual and potential
+positive impact
+Potential impact:
+Short-term
+47 Positive impacts on social dialogue Actual and potential
+positive impact
+Potential impact:
+Short-term
+48 Positive impacts on training and skill development Actual and potential
+positive impact
+Potential impact:
+Short-term</t>
+  </si>
+  <si>
+    <t>Continental operates in countries, certain markets and business
+activities in which Continental’s working time arrangements pre-
+sumably have a significant positive impact on its own workforce.
+Assuming that this can put pressure on other market participants
+to also introduce higher standards, this could also have a positive
+impact on the market environment. (see ESRS 2, IRO table,
+impact 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Continental operates in countries, certain markets and business
+activities in which it can be assumed that Continental has some
+positive impact on the market environment by paying adequate
+wages if it is assumed that this could put pressure on other mar-
+ket participants to also pay adequate wages. This positive impact
+is seen as relevant to the information needs of users of sustaina-
+bility reporting. (see ESRS 2, IRO table, impact 40)</t>
+  </si>
+  <si>
+    <t>Continental provides training and measures for skill development
+in countries, certain markets and business activities where it is as-
+sumed that the implemented training and measures for skill de-
+velopment for Continental’s own workforce have a significant pos-
+itive impact on its own workforce as well as on the market envi-
+ronment, as this could put pressure on other market participants
+to also offer training and measures for skill development on this
+scale. (see ESRS 2, IRO table, impact 48)</t>
+  </si>
+  <si>
+    <t>Continental creates jobs and provides secure employment and
+qualifications in countries, markets and certain business activities
+where it is assumed that this has significant positive impacts for
+the employees and the local markets. (see ESRS 2, IRO table,
+impact 46)
+› Continental maintains social dialogue through various channels
+and takes into account in particular the representation of its own
+workforce as well as employee participation, e.g. in the form of
+employee surveys, which is expected to have a significant posi-
+tive impact, particularly on its own employees and their repre-
+sentatives. (see ESRS 2, IRO table, impact 47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1-4 – Taking action on material impacts on own workforce, and approaches to mitigating material risks
+and pursuing material opportunities related to own workforce, and effectiveness of those actions Key actions for target achievement 181-182
+S1-5 – Targets related to managing material negative impacts, advancing positive impacts, and managing
+material risks and opportunities Targets related to own workforce </t>
+  </si>
+  <si>
+    <t>No material positive impacts related to anti-discrimination and di-
+versity were identified.
+Also, no material opportunities have been identified.</t>
+  </si>
+  <si>
+    <t>The results of the approaches pursued in relation to employee mat-
+ters are described as part of the impacts, risks and opportunities as
+well as the metrics in the sections Own workforce (ESRS S1) and
+Workers in the value chain (ESRS S2).</t>
+  </si>
+  <si>
+    <t>n the IRO assessment, Continental identified both actual and po-
+tential positive and negative impacts on its own workforce in the
+topic areas of labor standards, adequate wages, work-life balance,
+training and skill development, secure employment and social dia-
+logue, employee privacy, and occupational safety and health as de-
+scribed at the beginning of this section. These impacts are associ-
+ated with Continental’s strategy and business model and relate in
+particular to countries, certain markets, industries, and business ac-
+tivities that are critically or significantly exposed to such impacts.
+The identified actual and potential impacts on own workforce are
+important for adapting the strategy and business model. The devel-
+opment of measures and strategic decisions based on the identi-
+fied impacts are described as part of the management approaches.
+As indicated by the respective descriptions, all identified risks re-
+sult directly from identified actual and potential impacts as well as
+from the dependence on own workforce as an important intangi-
+ble resource. They are also based on the breadth and diversity of
+countries, markets, industries and business activities in which
+Continental operates.
+Therefore, the risks are inherently linked to Continental’s strategy
+and business model.
+The consolidation at group level of the assessment of the impacts,
+risks and opportunities for own workforce includes Continental’s
+entire workforce. Links to business activities, the product portfolio
+and the value chain are taken into account where relevant.
+In general, our activities have an actual or potential positive or neg-
+ative impact on the entire workforce of Continental – both own em-
+ployees and non-employees. The group of non-employees also in-
+cludes temporary workers and subcontractors.</t>
+  </si>
+  <si>
+    <t>The reported positive impacts on the workforce are related to the
+activities described under the management approach for the re-
+spective IRO cluster.
+The material impacts on own workforce are not directly related to
+changes resulting from sustainability, e.g. the transition towards
+zero-tailpipe-emission vehicles.</t>
+  </si>
+  <si>
+    <t>The actual and potential negative and positive impacts on people
+and the environment are described in more detail within the re-
+spective topic-related sections in the detailed descriptions of the
+concrete impacts.
+Many of the impacts identified are inherent to the industry and are
+directly related to specific types of business, products, value chains
+or geographical regions. They can therefore be seen as impacts di-
+rectly linked to Continental’s strategy and business models. Where
+applicable, this is also addressed in the concrete descriptions of im-
+pacts within the topic-related section.
+As described in the methodology of the IRO assessment, Conti-
+nental used a variety of input parameters to evaluate the IROs, in-
+cluding both quantitative and qualitative data sources such as met-
+rics, internal reports, and external market research.</t>
+  </si>
+  <si>
+    <t>With regard to secure employment, Continental has established a
+set of processes, projects and measures. They mitigate the nega-
+tive impacts of the transformation on employees and simultane-
+ously create positive effects in terms of the creation of jobs and up-
+skilling.
+› In contract design, the focus is on providing employees with long-
+term offers. Flexible working time, mobile work options, and other
+benefits regarding employee working conditions, as described in
+the management approaches to work-life balance and adequate
+wages, are intended to proactively reduce employee turnover.
+› With regard to the impacts of the transformation, Continental has
+created a range of opportunities to prepare employees for the job
+market of the future. These are set out in the management ap-
+proach to training and skill development.
+› Job changes are also supported through a global internal job
+market.
+› Especially in Germany, which is significantly affected by transfor-
+mation processes - for example, due to increasing digitalization
+and technological change – Continental has established pro-
+cesses to support employees in external job transitions to other
+employers that offer better employment opportunities at the re-
+spective location (“von Arbeit in Arbeit”). These processes also in-
+clude discussions with potential external employers.
+The effectiveness of the management approach is monitored via
+dedicated feedback channels, HR processes and the reported metrics
+“Percentage of employees covered by employee representation”,
+“Employee turnover” and the OUR BASICS Live Sustainable Engage-
+ment index.
+The processes are regulated through Continental’s internal HR rules
+and by-laws as well as agreements with works councils.
+Key aspects regarding secure employment and social dialogue are
+regulated in particular by local laws, regulations and regulatory pro-
+visions.</t>
+  </si>
+  <si>
+    <t>Based on the IRO assessment, taking into account the associated
+limitations and assumptions as set out in the subsection Process
+for identifying and assessing material IROs and taking into account
+the management approaches, targets and key actions for achieving
+the targets reported in the topic-related sections, Continental con-
+siders its business model and strategy to be resilient. The manage-
+ment approaches, targets and key actions for achieving the targets
+describe Continental’s current ability to reduce its material negative
+impacts, increase positive impacts, manage risks, and seize oppor-
+tunities. Continental also assumes that these skills will continue to
+develop over time.</t>
+  </si>
+  <si>
+    <t>Continental assessed its potential and actual negative and positive
+impacts as well as risks and opportunities related to sustainability
+according to the regulatory requirements and as described in the
+General disclosures (ESRS 2) section. The general disclosures in-
+clude an overview of the assessment of all identified impacts, risks
+and opportunities (IROs), including the time horizons considered.
+In this IRO assessment, the following material potential and actual
+negative and positive impacts, risks and opportunities have been
+identified in relation to own workforce. They have been grouped
+into IRO clusters for easier understanding and reading. The descrip-
+tions of the negative impacts and risks are presented from a gross
+perspective which, on the basis of the applied methodology, does
+not take into account mitigation through the management ap-
+proaches of Continental as described in the respective IRO cluster.
+This perspective is used to determine where appropriate manage-
+ment approaches are relevant and corresponding reporting is re-
+quired. As positive impacts as well as opportunities are strength-
+ened by Continental’s management approaches, the descriptions
+are presented taking a net perspective which, for methodical rea-
+sons, considers the results of the management approaches.</t>
+  </si>
+  <si>
+    <t>Continental has defined an approach for the management of labor
+standards for its own workforce that is intended to prevent and re-
+duce actual and potential negative impacts and risks as well as
+strengthen positive impacts with regard to working time, discrimi-
+nation, forced labor and child labor as well as other human rights
+and working conditions. This is part of the “Responsible Value
+Chain Due Diligence System” (RVCDDS).
+Continental is thus pursuing the ambition of creating good work-
+ing conditions and a 100 % responsible value chain by 2050 at
+the latest. As part of the RVCDDS, Continental has adopted so-
+called Responsible Value Chain Commitments (RVC commit-
+ments), which include the following for the area of labor stand-
+ards: no child labor, fair payment, equal treatment, no forced la-
+bor or modern slavery, freedom of association and working con-
+ditions, including working time.
+With the specific RVC commitment for equal treatment, Continental
+strives for a working environment that is free from discrimination,
+including harassment, in any form. This is an integral part of the
+management system and is supported by dedicated diversity man-
+agement aimed at promoting equal opportunities and advancing
+diversity and inclusion.
+The commitment explicitly addresses creating a working environ-
+ment free from any form of discrimination based on gender, age,
+race, skin color, health status, disability, social or ethnic origin, na-
+tionality, sexual orientation, political opinion, religion or beliefs or any
+other characteristics protected by applicable laws and regulations.
+The topic of inclusion and actions for people from vulnerable
+groups of employees are also covered by this commitment.</t>
+  </si>
+  <si>
+    <t>Continental assessed its potential and actual negative and positive
+impacts as well as risks and opportunities related to sustainability
+according to the regulatory requirements and as described in the
+General disclosures (ESRS 2) section. The general disclosures in-
+clude an overview of the assessment of all identified impacts, risks
+and opportunities (IROs), including the time horizons considered.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +3807,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1395,22 +3849,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1426,6 +3879,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,30 +4148,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.06640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.9296875" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1723,13 +4182,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1737,12 +4196,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
         <v>174</v>
       </c>
     </row>
@@ -1751,12 +4210,12 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
         <v>176</v>
       </c>
     </row>
@@ -1765,12 +4224,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
         <v>189</v>
       </c>
     </row>
@@ -1779,12 +4238,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
         <v>153</v>
       </c>
     </row>
@@ -1793,12 +4252,12 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
         <v>154</v>
       </c>
     </row>
@@ -1807,12 +4266,12 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>98</v>
       </c>
     </row>
@@ -1821,54 +4280,54 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
         <v>151</v>
       </c>
     </row>
@@ -1877,12 +4336,12 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
         <v>99</v>
       </c>
     </row>
@@ -1891,12 +4350,12 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
         <v>110</v>
       </c>
     </row>
@@ -1905,12 +4364,12 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
         <v>110</v>
       </c>
     </row>
@@ -1919,12 +4378,12 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
         <v>177</v>
       </c>
     </row>
@@ -1933,12 +4392,12 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
         <v>173</v>
       </c>
     </row>
@@ -1947,12 +4406,12 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
         <v>173</v>
       </c>
     </row>
@@ -1961,12 +4420,12 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
         <v>175</v>
       </c>
     </row>
@@ -1975,12 +4434,12 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>176</v>
       </c>
     </row>
@@ -1989,12 +4448,12 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
         <v>176</v>
       </c>
     </row>
@@ -2003,12 +4462,12 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
         <v>103</v>
       </c>
     </row>
@@ -2017,12 +4476,12 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
         <v>110</v>
       </c>
     </row>
@@ -2031,12 +4490,12 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1">
         <v>110</v>
       </c>
     </row>
@@ -2045,12 +4504,12 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
         <v>106</v>
       </c>
     </row>
@@ -2059,12 +4518,12 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1">
         <v>178</v>
       </c>
     </row>
@@ -2073,12 +4532,12 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
         <v>191</v>
       </c>
     </row>
@@ -2087,12 +4546,12 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
         <v>98</v>
       </c>
     </row>
@@ -2101,12 +4560,12 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
         <v>99</v>
       </c>
     </row>
@@ -2115,26 +4574,26 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="6">
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3">
         <v>182</v>
       </c>
     </row>
@@ -2143,12 +4602,12 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="3">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
         <v>178</v>
       </c>
     </row>
@@ -2157,12 +4616,12 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
         <v>189</v>
       </c>
     </row>
@@ -2171,26 +4630,26 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="3">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1">
         <v>110</v>
       </c>
     </row>
@@ -2199,12 +4658,12 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1">
         <v>174</v>
       </c>
     </row>
@@ -2213,12 +4672,12 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1">
         <v>175</v>
       </c>
     </row>
@@ -2227,12 +4686,12 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1">
         <v>176</v>
       </c>
     </row>
@@ -2241,13 +4700,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -2255,12 +4714,12 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1">
         <v>307</v>
       </c>
     </row>
@@ -2269,475 +4728,1824 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="6">
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="3">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1">
         <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="3">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1">
         <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="3">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="6">
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="3">
         <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1">
         <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="6">
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3">
         <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="1">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="1">
         <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1">
         <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="1">
         <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="1">
         <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="1">
         <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D72" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" t="s">
+        <v>159</v>
+      </c>
+      <c r="D152" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D165" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170" s="1">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exploration/validation_dataset.xlsx
+++ b/exploration/validation_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34255C9-AE66-4A5A-86F3-E7B5A21D3BB1}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84DD6CF5-DAC0-4083-A840-46D54E550241}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
   <si>
     <t>report_name</t>
   </si>
@@ -3792,6 +3792,675 @@
 clude an overview of the assessment of all identified impacts, risks
 and opportunities (IROs), including the time horizons considered.</t>
   </si>
+  <si>
+    <t>SchneiderElectric_2024</t>
+  </si>
+  <si>
+    <t>The Company has not imposed specific internal targets related to
+job architecture, pay-for-performance, short-term incentive plan,
+long-term incentive plan, and benefit standards. The targets related
+to adequate wage and equal pay are addressed in subsequent
+sections of the report</t>
+  </si>
+  <si>
+    <t>Adequate wage
+Policy
+Schneider Electric firmly believes that earning a living wage is a
+fundamental human right and an essential element of decent work.
+This commitment is included in our Human Rights Policy and Trust
+Charter, guiding our efforts to ensure that all employees receive at
+or above a living wage to meet their families’ basic needs which
+include food, housing, sanitation, education, healthcare, clothing,
+transportation, and communication plus discretionary income for a
+given local standard of living.
+Schneider Electric conducts annual living wage gap analysis since
+2018. Starting in 2021, the Group committed to paying 100% of
+employees at least a living wage as part of Schneider Sustainability
+Essentials (SSE #20). The company works with the expert
+consultant Fair Wage Network to ensure compliance. An external
+company provides limited assurance to ensure year-over-year
+compliance with this commitment. The SSE #20 reporting protocol
+is accessible to employees via the intranet and has been approved
+by the Senior-Vice President, Total Rewards and Performance.
+Action plan
+Collaborating with Fair Wage Network since 2022 allowed the
+Group to improve geographical coverage, develop a dynamic
+web-based living wage benchmark, and initiate an independent
+review and certification of the living wage gap analysis. Schneider
+Electric was certified in March 2024, by the Fair Wage Network,
+being qualified as a “Living Wage Employer” for a second
+consecutive time, valid until December 31, 2025.
+As a part of 2024 ambition to comply with CSRD requirements on
+adequate wage, Schneider Electric has reviewed its methodology
+and focused its analysis on fixed compensation only.
+Target and metric
+As part of its commitment to SSE #20, the Group has conducted an
+analysis. Identified living wage gaps were closed during the year,
+ensuring all employees receive a living wage and that no new gaps
+emerged. At December 31st, 2024, no living wage gaps have been
+identified within the scope of SSE #20.
+Read more on the methodology of SSE in section
+2.4.1.2 on pages 316 to 321.
+The definition of adequate wage used for CSRD metric is the same
+as the one mentioned in the Policy section above. As the
+sustainability statements (CSRD) scope differs from the one of
+SSE #20 (for more details, please see section 2.2.1.3 Basis of
+preparation), an adequate wage analysis has been conducted for
+some entities for the first time in 2024.
+Within the sustainability statements (CSRD) scope, no living wage
+gap has been identified in the Group except in one legal entity in
+Asia, representing less than 0.2% of total employees and less than
+0.5% of employees in Asia. This legal entity is a legacy from an
+acquisition and currently under an ongoing divestment strategy.
+Gaps will be addressed within the year.</t>
+  </si>
+  <si>
+    <t>Fair and equitable pay
+is a core component
+of the Group’s
+compensation
+philosophy. Since
+2015, the Company
+has adopted a Global
+Pay equity framework.
+With the help of this
+Framework, Schneider
+Electric has committed
+to reaching &lt;1% pay
+gap between females
+and males by 2025.
+Furthermore, pay
+equity is fully
+integrated during the
+annual global salary
+review and technology
+is embedded at the
+core of the process for
+managers to take the
+right decision during
+hiring and promotion
+process through a tool
+called Fair Pay
+Simulator.</t>
+  </si>
+  <si>
+    <t>In line with its Human Rights Policy and Trust Charter, Schneider
+Electric believes earning a living wage is a basic human right.
+Schneider Electric is committed to paying 100% of employees at or
+above the living wage to meet their families’ basic needs. By basic
+needs, the Group considers basic household expenditures (food,
+housing, clothing, sanitation, education, healthcare, transport),
+plus discretionary income for a given local standard of living.
+There is no universal benchmark or methodology on how to
+calculate a living wage, which is why Schneider Electric has been
+working with an external consultant since 2018 to calculate living
+wages for all its locations worldwide. To calculate a living wage, the
+external consultant estimates the basic household expenditures of employees, as well as the number of persons earning a wage in a
+“typical” household based on various sources of cost of living and
+macroeconomic data (national statistics, Organisation for
+Economic Co-operation and Development (OECD), United Nations
+agencies, etc.).
+To measure compliance with the living wage, a gap analysis is
+conducted every year post salary review for all our Schneider
+Electric employees treated as permanent workforce. All employees
+employed by fully integrated entities, with open-ended or fixed-
+term contracts, whether full-time or part-time, are considered part
+of the permanent workforce. The Reward team centrally compiles
+and analyses total employee remuneration data (base salary and
+allowances; if applicable for a country, variable elements were
+excluded this year) to compare it with the agreed living wage.
+Employees are benchmarked to their work location living wage. To
+calculate employee remuneration, the Reward team uses data
+available in its global HRIS system, as well as local payroll.
+For final reporting of the year-end results, Schneider Electric can
+disclose a final score that considers living wage gaps closed by
+countries until the end of the year after they have been identified.
+PwC provided limited assurance on this indicator.</t>
+  </si>
+  <si>
+    <t>Adequate
+earnings and
+productive work
+Employment should be a source of economic independence and dignified living. The gradual decline of
+industrial wages and the COVID-19 crisis have severely impacted the economic outlook of the workforce,
+globally. Companies should review wage policies to ensure the affordability of a dignified living by the
+workers. Additionally, employment should equip the workforce to improve current skill sets and knowledge
+for future employability.
+3. Decent working
+hours
+Excessive working hours is a legal violation, often accepted as “necessary”. It is generally connected with
+low industrial wages and used as an excuse to not provide appropriate wages. Companies should review
+and remediate excessive hours and should align with the legal and/or international requirements</t>
+  </si>
+  <si>
+    <t>Fair and equitable pay is a core component of the Group’s
+compensation philosophy, in line with the principle of equal pay
+for equal work.</t>
+  </si>
+  <si>
+    <t>Equal SSE #20
+Pay our employees
+at least a living wage
+100 % of Schneider are paid
+at least a living wage, which
+was recognized for the
+second consecutive year by
+the Living Wage Employer
+Certification from Fair
+Wage Network.</t>
+  </si>
+  <si>
+    <t>In execution of the holistic Pay Equity strategy, the Group closely
+monitors the salary offers of new recruits, salary adjustments from
+employee promotions, and other employee career movements.
+Continuous monitoring of pay equity status is made possible by Pay
+Equity Dashboard and its resulting analytics. Additionally,
+managers and HR professionals are trained to be unbiased and
+mindful of every pay decision they make. Prevention of new pay
+gaps is supported by the Group’s “Fair Pay Simulator” which was
+deployed to HR in 2023. The simulator provides visibility to pay
+equity positioning, enabling better pay decisions for recruit offers,
+promotions, and other salary adjustments.
+Since 2018, pay equity has been an integral part of the annual
+Global Salary Review processes, to address identified gaps. In the
+2024 campaign, there have been notable enhancements to the
+user experience, specifically benefiting managers in relation to pay
+equity, further improving the process.
+Pay equity advocacy is another key aspect of the Group’s Pay
+Equity strategy. Schneider Electric leaders advocate internally and
+externally for fair and equitable pay which further reinforces the
+Group’s commitment to fair pay</t>
+  </si>
+  <si>
+    <t>Delivery of the strategy, both short term and long term, depends upon Schneider Electric’s success in attracting and engaging a highly
+talented workforce, and on equipping people with the skills for the future. The Group is committed to fair pay, which is at the forefront of the
+Group’s and executives’ agenda, ensuring that all Schneider Electric employees are appropriately and fairly rewarded for their contribution.
+The progress is monitored via the Schneider Sustainability Impact indicators. More information can be found in Chapter 2 of this Universal
+Registration Document.</t>
+  </si>
+  <si>
+    <t>Pay Equity policy
+The principles of fairness, equity, ethics, and transparency are
+fully embedded in the Company values. Employees are fairly
+compensated for their skills and contributions through reward
+policies and processes. Furthermore, Schneider Electric is
+committed in upholding a comprehensive compensation and
+benefits policy.
+Read more on the compensation and benefits in
+section 2.2.3.1.2 on pages 207 to 209.
+Schneider Electric has pledged to ensure fair compensation for
+equivalent work and has been overseeing pay fairness since 2015
+using various methods and strategies. The company has made a
+pledge to Pay Equity under Schneider Sustainability Essentials
+(SSE #18), initiated in 2021 and set to continue until the end of
+2025. Schneider Electric has committed to attain and maintain a
+pay gap below 1% by 2025 for both females and males as per the
+internal methodology. An external company provides limited
+assurance on Pay Equity to ensure year-over-year progress toward
+closure of pay equity gaps. The pay equity reporting protocol is
+accessible to employees via the intranet and has been approved
+by Senior Vice-President, Total Rewards and Performance.</t>
+  </si>
+  <si>
+    <t>Compensation policy
+The compensation principles of the Group Senior Management (excluding the Corporate Officer) and their individual analyses are reviewed
+by the Human Capital &amp; Remunerations Committee for information and consultation with the Board of Directors. The Human Capital &amp;
+Remunerations Committee may consult external experts for specific analyses.
+The compensation policy of the Group Senior Management follows the principles of competitiveness, pay-for-performance, and alignment
+with shareholders’ long-term interests, aligned with the principles applicable to the Corporate Officer as described in this report, with the
+following variations:
+• The competitiveness of the Group Senior Management compensation is considered using a relevant geographical panel and the scope
+of responsibilities as prepared by the consultancy firm Mercer; and
+• The proportion of variable components within their on target compensation package is around 75%</t>
+  </si>
+  <si>
+    <t>Social dialogue in India
+Schneider Electric India has a strong culture of social dialogue with
+all employees (unionized and non-unionized) engaged in equitable
+industrial relations across its plants and associated establishments.
+Industrial harmony has been achieved through a time-tested
+collective bargaining process involving unions or through worker
+representative committees (salary related issues, medical
+insurance, and benefits are discussed with unions/work
+committees).</t>
+  </si>
+  <si>
+    <t>Schneider Electric
+believes earning a
+decent wage is a basic
+human right and a key
+element to decent
+work. The Group is
+committed to paying
+employees in the lower
+salary ranges at or
+above the living wage
+to meet their family’s
+basic needs. By basic
+needs, the Group
+considers food,
+housing, sanitation,
+education, and
+healthcare, plus
+discretionary income
+for a given local
+standard of living.
+Schneider Electric was
+certified as the “Living
+Wage Certified”
+organization through
+Fair Wage Network in
+2023.</t>
+  </si>
+  <si>
+    <t>The Committee reviewed the existing policy and reassessed the
+pillars and principles formulated in 2018, as well as the
+compensation elements and criteria in light of shareholders’
+feedback received during the shareholder engagement process
+described above.
+Upon recommendations of the Human Capital &amp; Remunerations
+Committee, the Board wishes to maintain the overall stability of the
+compensation policy which appears balanced, ensuring a strong
+link between pay and performance, strong alignment with both
+employees and shareholders, and long-term focus, while at the
+same time taking into account the shareholders’ feedback</t>
+  </si>
+  <si>
+    <t>Schneider Electric employees have a responsibility to report
+potential unethical behaviors, as set out in the Whistleblowing
+Policy. To voluntarily report a potential violation of laws and
+regulations, and/or of the Group’s Trust Charter and Group policies,
+whistleblowers can use all reporting channels available, regardless
+whether they are employees, contractors, or external stakeholders
+(suppliers, subcontractors, customers, business agents, etc.)
+At Schneider Electric, stakeholders, either internal or external, may
+report concerns either by contacting an appropriate person in the
+Group (manager, Human Resources business partner, Legal
+Counsel, or Compliance Officer) and/or by using the Trust Line,
+Schneider Electric’s whistleblowing system. The latter is available
+online globally, at all times, in 27 languages, and protects the
+anonymity of the whistleblower (unless there is legislation to the
+contrary). In compliance with local legislation, this system is
+provided by an external, impartial third-party company and
+proposes alert categories, a questionnaire, and an information
+exchange protocol between the person issuing the alert and the
+person responsible for the case management.
+Schneider Electric’s Whistleblowing Policy is available publicly
+on www.se.com
+Actions and resources
+Case management: a structured process led by Ethics &amp; Compliance
+1. Report 2. Assess 3. Investigate 4. Remediate 5. Follow-up
+Report potential
+violation
+By employees, third
+parties
+Confirm (or not)
+validity of alert
+Assign investigator(s)
+By Ethics &amp;
+Compliance
+Facts finding process,
+interviews, data
+analysis
+• Allegations
+confirmed or not
+• Root cause
+analysis
+By assigned
+investigator(s)
+Remediation and/or
+disciplinary measures
+By Ethics &amp;
+Compliance and
+management
+Check implementation
+of actions decided
+and non-retaliation
+At Schneider Electric, the Whistleblowing Policy and process are
+operationalized through the Case Management &amp; Investigation
+Policy, which sets out the practical rules to follow by the
+investigation teams. The triage of misconduct reports is primarily
+managed by the Regional Compliance Officer. Upon receipt of
+a concern, the Officer evaluates its validity based on predefined
+criteria outlined in the Whistleblowing Policy. If the concern
+qualifies as a valid alert, it is promptly escalated for thorough
+investigation. However, if the concern does not meet the criteria,
+it is closed, and the reporter is directed to the relevant organization
+for assistance. In cases where the Officer requires further
+information to conduct the triage effectively, they may request
+additional details from the reporter. However, if there is no response
+from the reporter after two reminders and/or three weeks following
+the receipt of the concern, the case may be closed.
+Furthermore, collaboration with partner organizations such as
+Human Resources, Internal Audit and Finance is integral to the
+process, especially in cases where their expertise and involvement
+are necessary for a comprehensive resolution.
+Once a concern is identified as an alert, the Regional Compliance
+Officer undertakes two critical actions:
+• Firstly, to determine the type of alert based on the definitions
+outlined in the Whistleblowing Policy; and
+• Secondly, to classify the case according to the severity
+criteria specified in an Appendix of the Whistleblowing Policy.
+The Regional Compliance Officer does so with impartiality
+and confidentiality.
+Depending on this classification, low and medium cases are
+managed by the relevant Regional Compliance Officer at the
+regional level, while high and critical cases are overseen at global
+level by a member of the Group Operational Compliance
+Committee. It is important to note that the classification of a case
+may evolve during the investigation process.
+Subsequently, the appointed Case Manager takes charge of
+deciding the investigative approach, either by leading it directly,
+assigning a dedicated investigation team, or appointing an external
+investigator. In order to properly manage all situations, the Case
+Management &amp; Investigation Policy sets out rules to make this
+decision with impartiality in order to make sure decision-making
+is done objectively and in autonomy from chain of management
+involved in prevention and detection of corruption or bribery</t>
+  </si>
+  <si>
+    <t>Schneider Electric’s Whistleblowing Policy provides for the
+protection of the reporter, reported person, witnesses, and other
+involved people by highlighting rights and responsibilities of people
+involved. It meets the legal obligations specified by the EU
+Whistleblowing Directive 2019/1937. People protection is
+emphasized on, in particular:
+• A procedure to ensure Schneider Electric’s zero-tolerance
+policy against retaliation by prohibiting retaliation or other
+discrimination, and a prompt, independent and objective case
+management investigation;
+• A set of protection and care measures that can be offered
+during investigation, if needed and as per local legislation, such
+as: security measures (distancing), accommodations, flexible
+time management, change of function/service, and
+psychological support;
+• A possibility of internal or external mediation to help rebuild
+respectful collaboration;
+• Impartiality rules guaranteed with the appropriate level of case
+management when a top leader is the reported employee, and
+by the prevention of conflict of interest, notably ensuring that
+investigators are separate from change of management involved
+in the Ethics &amp; Compliance program when necessary.
+Following investigative findings, in the event of a confirmed case,
+certain corrective actions may be implemented, which may include
+disciplinary measures. Notably, in 2024, Schneider Electric
+introduced its first Group Disciplinary Policy, outlining the rules for
+disciplinary measures</t>
+  </si>
+  <si>
+    <t>To measure the effectiveness of the Trust Line, Schneider Electric
+created Schneider Sustainability Impact (SSI) #7 and added a
+question to its annual employee engagement survey, OneVoice:
+“I can report an instance of unethical conduct without fear”. In
+2021, 81% of employees surveyed answered “yes”. Since then, the
+Group is working to increase this measurement by 10 points by
+2025 as part of the SSI. In 2024, 83% of employees surveyed
+answered “yes” which constitutes an improvement of +2 points over
+a three-year period</t>
+  </si>
+  <si>
+    <t>Our Speak Up Mindset
+Schneider Electric employees must feel free and psychologically
+safe to share their ideas, opinions, and concerns, without fear of
+retaliation, this is the basis of our Speak Up mindset. All
+stakeholders may report concerns either by contacting an
+appropriate person internally or by using the Trust Line, our
+whistleblowing system, which is available online globally, at all
+times, and protects the anonymity of the whistleblower.
+To ensure the effectiveness of that Speak Up mindset and related
+whistleblowing system, the Group created two specific committees:
+the Group Operational Compliance Committee (GOCC) which
+detects and manages cases of non-compliance and reviews
+monthly the effectiveness of the system, and the Group Disciplinary
+Committee which levies sanctions and remediation actions on
+serious non-compliance cases to guarantee a fair and transparent
+disciplinary policy.
+All employees are invited to express whether they are comfortable
+to “report an instance of unethical conduct without fear” each year.
+In 2024, 83% of employees surveyed answered “yes”, a 1 point
+progress versus 2023. The Group’s ambition is to raise its
+employee’s confidence to 91% by 2025 (SSI #7).</t>
+  </si>
+  <si>
+    <t>The survey includes two open ended questions, where employees
+can submit their comments on what makes them proud to work at
+Schneider Electric and what they identify as areas of improvement.
+This allows employees to share their views on any topic, including
+working conditions</t>
+  </si>
+  <si>
+    <t>SSI #7: Measure the level of confidence of our
+employees to report behaviors against our
+principles of Trust
+Our “Speak Up” mindset helps to maintain high standards, a strong
+reputation, and a healthy and productive working environment, and
+protects Schneider Electric and its employees from multiple risks.
+Misconduct situations will be less likely to occur if people,
+employees, and stakeholders feel safe to speak up about
+concerns, dilemmas, or issues in good faith, respectfully, and
+without fear of retaliation.
+Our Trust Charter and Ethics &amp; Compliance program participate to
+transform this belief into practical actions, notably offering multiple
+fair, neutral, and confidential reporting channels to our employees
+to make them feel confident to report unethical conduct.
+In order to assess this KPI, the question “I can report an instance of
+unethical conduct without fear” is annually asked to all Schneider
+Electric employees in the OneVoice survey. The percentage of
+“Agree” and “Strongly Agree” amongst the answers determines
+the level of confidence of Schneider Employees to report unethical
+conduct. Responses are anonymized and aggregated for
+compliance purposes.
+This indicator was calculated for the first time in 2021 and reached
+an 81/100 performance. This KPI is integrated to the SSI score
+computation since 2022.
+PwC provided limited assurance on this indicator</t>
+  </si>
+  <si>
+    <t>Having committed employees is essential for the Company to
+perform well and align with the Group’s strategy. Employee
+feedback from a yearly survey is gathered and utilized to create
+action plans throughout the organization. This process encourages
+leaders to work with their teams to develop these action plans,
+fostering the collaborative communication necessary to shape the
+future workplace.</t>
+  </si>
+  <si>
+    <t>Whistleblowing – A global whistleblowing system, available to
+employees and external stakeholders, is also managed to
+combat this risk. In 2024, 1,922 employee and 347 external
+stakeholder alerts have been received and managed through
+follow-up inquiries.</t>
+  </si>
+  <si>
+    <t>Engaged employees are key to enable the Company to be at its
+best and support the achievement of the Group strategy.
+Employees are invited to share their honest feedback through an
+annual engagement survey, which measures ten key drivers,
+including well-being, inclusion, recognition, and empowerment.
+Through the information collected, the Company gains greater
+understanding of the views of employees, including areas of
+strength and improvement. Insights are used to inform action plans
+across the organization. Leaders are guided to co-create the
+actions with their teams, reinforcing the dialogue needed to shape
+the workplace of tomorrow.
+This process also contributes to the impacts, risks, and
+opportunities mentioned in the beginning of this chapter.</t>
+  </si>
+  <si>
+    <t>At Schneider Electric, stakeholders may report potential violations
+of the Anti-Harassment &amp; Anti-Discrimination Policy either by
+contacting an appropriate person in the Group and/or by using
+the Trust Line, Schneider Electric’s whistleblowing system. In 2024,
+51% of the closed, valid, and substantiated alerts reported
+through whistleblowing, concerned discrimination, harassment,
+and sexual harassment</t>
+  </si>
+  <si>
+    <t>This comes in addition to our listening culture (One
+Voice annual employee survey), our internal whistleblowing
+platform on potential unethical issue (Trust Line) and existing
+Decent work program for our employees.</t>
+  </si>
+  <si>
+    <t>5. Social dialogue
+and workplace
+relations
+Employees should have the right to engage with management and collectively put across their concerns
+and demands. Collective bargaining encourages workers to raise concerns in a timely manner, acts as a
+barometer and early warning system to assess worker satisfaction and reduces worker vulnerability.</t>
+  </si>
+  <si>
+    <t>Risk monitoring and management
+To raise awareness about applicable competition laws and manage
+areas of risk, Schneider Electric’s Competition Law Compliance
+Program is based on policies, guidelines and procedures,
+e-learnings and in person trainings, internal controls and audits
+and an internal reporting and whistleblowing mechanisms.
+Both the Group Competition Law Policy and the Competition Law
+Guidelines have been translated into over 40 languages and are
+accessible to all employees via Schneider Electric’s internal
+policy platform.
+The whistleblowing system of Trust Line for employees and external
+stakeholders such as suppliers is managed to identify any
+inappropriate practice or behavior with competitors or business
+partners that may be reported.
+Furthermore, internal controls and internal audit missions continue
+to be reinforced on compliance risks, including in respect of
+competition and antitrust risks.</t>
+  </si>
+  <si>
+    <t>The Group listens to
+employees through a
+number of different
+channels, both formally
+and informally. Three of
+the Board Directors are
+employees of the
+Company, appointed
+through a formal
+designation process.
+The Group runs
+OneVoice internal
+survey designed to
+measure employee
+satisfaction and
+engagement; the
+Group also recognizes
+the importance of
+dialogue and engages
+with the local work
+councils on
+compensation matters
+on a regular basis</t>
+  </si>
+  <si>
+    <t>As part of the Speak Up mindset, and as developed in the
+Whistleblowing Policy, Schneider Electric employees have a
+responsibility to report potential unethical behaviors. To voluntarily
+report a potential violation of laws and regulations, and/or of the
+Group’s Trust Charter and Group policies, whistleblowers can use
+all reporting channels available.
+At Schneider Electric, internal stakeholders, may report concerns
+either by contacting an appropriate person in the Group (manager,
+HR business partner, Legal Counsel, or Compliance Officer) and/or
+by using the Trust Line, Schneider Electric’s whistleblowing system.
+All the potential channels used should be, at the end, linked back
+to the Trust Line system as a consolidation tool of this type of
+information. The latter is available online globally, always, and
+protects the anonymity of the whistleblower (unless there is
+legislation to the contrary). In compliance with local legislation,
+this system is provided by an external, impartial third-party
+company and proposes alert categories, a questionnaire, and an
+information exchange protocol between the person issuing the alert
+and the person responsible for the case management. Overall,
+case management is a structured process led by Ethics &amp;
+Compliance team.</t>
+  </si>
+  <si>
+    <t>227-228</t>
+  </si>
+  <si>
+    <t>In case of any issue, employees are encouraged to report, using
+the internal reporting tool for unethical behavior or misconduct,
+called the “Trust Line”.</t>
+  </si>
+  <si>
+    <t>Achievements 2024:83% of employees
+are confident to
+report unethical
+behavior</t>
+  </si>
+  <si>
+    <t>In some of the plants where there are no recognized unions, this
+bargaining process is conducted with the elected representatives
+from within the employees who form committees such as Welfare
+(works committee). The Company also has strong engagement with
+other committees such as Health &amp; Safety, Canteen, Sports, and
+Transport, including a special committee for women employees. In
+addition, the Prevention of Sexual Harassment Committee, which is
+fully compliant with the prevention of sexual harassment
+governance as per local laws, comprises employees and external
+women with specialist knowledge of the subject and with legal
+backgrounds. These committees provide a platform for employees
+to present their concerns, collective grievances, and workplace-
+related issues to management, and actions are initiated based on
+the recommendations of these committees. All employee
+engagement programs are run through these committees with the
+active participation of every employee</t>
+  </si>
+  <si>
+    <t>Whistleblowing Policy and grievance
+mechanisms
+Context
+Whistleblowing and grievance systems provide employees with
+a safe and confidential way to report any unethical behavior,
+misconduct, or corruption they may witness within an organization.
+By encouraging employees to speak up without fear of retaliation,
+companies can detect and address issues early, thereby
+upholding their commitment to integrity, ethical conduct, and
+compliance with laws and regulations. This fosters a culture of
+trust and accountability.
+Governance
+Schneider Electric employees must feel free and psychologically
+safe to share their ideas, opinions, and concerns, without fear of
+retaliation. To ensure the effectiveness of that Speak Up mindset
+and related whistleblowing system, the Group has created two
+specific committees:
+• The Group Operational Compliance Committee (GOCC)
+detects and manages cases of non-compliance in accordance
+with the Whistleblowing Policy and Case Management &amp;
+Investigation Policy, and reviews monthly the effectiveness of
+the whistleblowing system. The GOCC is composed of the
+following members: Chief Compliance Officer (secretary of the
+Committee), Chief Business Legal Officer, Group Internal Audit
+&amp; Control Officer, Group Compliance Director, Group Human
+Resources Compliance Officer, and Head of Fraud Examination
+Team. In 2024, the Chief Governance Officer &amp; Secretary
+General, reporting directly to the Chief Executive Officer, joined
+as a new member of the Committee.
+• The Group Disciplinary Committee levies sanctions and
+remediation actions on serious non-compliance cases to
+guarantee a fair and transparent disciplinary policy upon
+request of the GOCC. The Group Disciplinary Committee is
+composed of the following members: Chief Governance Officer
+&amp; Secretary General, Chief Human Resources Officer, Chief
+Compliance Officer (secretary of the Committee), Chief
+Business Legal Officer, and one rotating member</t>
+  </si>
+  <si>
+    <t>Whistleblowing
+At Schneider Electric, stakeholders may report potential violations
+of the Anti-Corruption Policy either by contacting an appropriate
+person in the Group and/or by using the Trust Line, Schneider
+Electric’s whistleblowing system. In 2024, 11% of the closed, valid
+and substantiated alerts reported through whistleblowing,
+concerned a violation of the Anti-Corruption Policy. Additionally, for
+the reporting year 2024, Schneider Electric was not convicted for
+any violation of anti-corruption and anti-bribery laws.</t>
+  </si>
+  <si>
+    <t>S1_</t>
+  </si>
 </sst>
 </file>
 
@@ -3828,7 +4497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3845,11 +4514,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3864,6 +4542,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4148,18 +4838,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.9296875" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
     <col min="2" max="2" width="5.73046875" customWidth="1"/>
-    <col min="3" max="3" width="50.19921875" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6515,32 +7205,763 @@
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="169" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="9">
         <v>176</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="170" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A170" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="7">
         <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D179" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D183" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" s="3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>177</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>177</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>177</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D188" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>177</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>177</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D190" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>177</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>177</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D192" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>177</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>177</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D194" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>177</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D195" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>177</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D197" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>177</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D198" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>177</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>177</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D201" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>177</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D202" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>177</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D203" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D204" s="3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>177</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>177</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/exploration/validation_dataset.xlsx
+++ b/exploration/validation_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84DD6CF5-DAC0-4083-A840-46D54E550241}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BBD341-0F5F-4EA5-B620-B303544989DB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="327">
   <si>
     <t>report_name</t>
   </si>
@@ -4459,7 +4459,2872 @@
 any violation of anti-corruption and anti-bribery laws.</t>
   </si>
   <si>
-    <t>S1_</t>
+    <t>Social protection Industrial wages are often not sufficient to provide adequate living standards. The problem is exacerbated
+in cases of health emergencies. Social protection, provided by employers/governments, provide a much-
+needed safety net from economic shock, descent into poverty, and vulnerability. Companies should ensure
+that all employees have access to the social security safety net.</t>
+  </si>
+  <si>
+    <t>Key Pillars Schneider DW ILO UNGC EU Com SDGs SA8000
+Social protection Yes Yes Yes</t>
+  </si>
+  <si>
+    <t>Global benefit standards
+Schneider Electric regularly reviews compliance with its global
+benefit policies and principles to ensure that its inclusive global
+benefit standards are delivered for all employees. These policies
+and standards cover access to healthcare, retirement, and savings,
+paid and unpaid leaves, and insurance on accident and life.
+One of Schneider Electric’s underlying benefit objectives is to
+ensure all its employees are equipped to manage their basic health
+and well-being and to provide adequate security to both
+employees and their dependents. Health and well-being are
+embedded in the Schneider Electric people priorities and
+contribute to its sustainability mission. The Group is committed to
+provide employees access to a well-being at work program –
+translated into a dual standard of access to healthcare and
+well-being training programs. It also provides access to an
+inclusive and comprehensive standard of healthcare coverage
+(outpatient, hospitalization, key health risks/chronic conditions,
+maternity, children) defined by local regulations and employment
+agreements</t>
+  </si>
+  <si>
+    <t>Note 20: Pensions and other post-employment benefit
+obligations
+The Group has set up various post-employment benefit plans for employees covering pensions, termination benefits, healthcare, life
+insurance and other benefits, as well as long-term benefit plans for active employees.
+The benefits offered to each employee depends on local laws and regulations and choices made by the subsidiaries</t>
+  </si>
+  <si>
+    <t>Global Family Leave Policy
+As a caring, inclusive, and responsible employer, Schneider
+launched its Global Family Leave policy along with care leave in
+2017. Through its policy, the Group supports employees with
+personal time at critical life stages and empowers everyone to
+manage their “unique life and work” to enable them to be at their
+best. While countries have flexibility to define eligibility and policy
+details per statutory and/or market requirements, the policy
+establishes a global minimum standard for paid leave.
+In 2023, the Group globally deployed the updated Global Family
+Leave Policy for all employees, where parental and care leave were
+increased. Although the duration for bereavement leaves remained
+unchanged, the local adaptation was enhanced by adopting a
+flexible definition of “Immediate Family” in acknowledgment of the
+diverse cultures and religions displayed by the global workforce.
+Schneider Electric’s Global Family Leave Policy was recognized by
+the Brandon Hall Group in September 2023, receiving a Gold
+Award for Diversity, Equity, and Inclusion – affirming the Group’s
+position as a caring, inclusive, and responsible employer.
+Additional to the Group’s Global Family Leave Policy and, in
+support of global standards and local empowerment, back-up
+family care benefits are offered in some countries to assist
+employees with family care needs when they experience disruption
+in regular care arrangements. In the absence of a Group-level
+back-up family care policy, the Group highlights examples of
+back-up family care benefits that are offered at the country level.
+Globally, the Group also offers an Employee Assistance Program
+with coverage in over 90% of its operating countries which
+provides additional support and resources for mental well-being
+and family care.
+Beyond the Global Family Leave Policy and Employee Assistance
+Program, some countries where Schneider Electric operates
+provide support in the form of on-site childcare facilities, childcare
+contributions, and breast-feeding and lactation benefits.
+The policy is accessible to employees via the intranet and has been
+approved by the Chief Human Resource Officer, reviewed by the
+Senior Vice-President Total Rewards &amp; Performance, with policy
+ownership by the Vice-President, Total Rewards &amp; Performance
+Innovation &amp; Strategy.</t>
+  </si>
+  <si>
+    <t>In addition, sustainability statements (CSRD) requirements cover a)
+Percentage of people in its own workforce who are covered by
+health and safety management system based on legal
+requirements and (or) recognized standards or guidelines, b) Rate
+of recordable work-related accidents for own workforce, c) Number
+of fatalities in own workforce as result of work-related injuries and
+work-related ill health, d) Number of fatalities as result of work-
+related injuries and work-related ill health of other workers working
+on undertaking’s sites.
+Compared to the SSE, sustainability statements (CSRD) are
+including more sites and include only Schneider Electric
+employees, as defined by the text.
+43% of employees are working in Schneider Electric sites with ISO
+45001 certification and are covered by a health and safety
+management system. The rate of recordable work-related
+accidents for own workforce was 0.54, connected with 168
+work-related accidents. There were no work-related injuries and
+work-related ill health fatalities in Schneider Electric’s own
+workforce in 2024. One Schneider Electric contractor fatality
+occurred in India while a contractor was installing solar panels and
+fell through a roof skylight.</t>
+  </si>
+  <si>
+    <t>Taking inspiration from the pioneering work of the International
+Labour Organization (ILO), Schneider has defined 10 pillars of
+Decent Work:
+1. Employment opportunities;
+2. Adequate earnings and productive work;
+3. Decent working hours;
+4. Stability and security of work;
+5. Social dialogue and workplace relations;
+6. Fair treatment in employment;
+7. Safe work;
+8. Social protection;
+9. Purchasing practices; and
+10. Balancing work and family life.</t>
+  </si>
+  <si>
+    <t>Pension benefits
+Schneider Electric’s policy concerning pension benefits states that:
+• The Group’s Senior Management who are not subject to the French Social Security System are covered by pension plan arrangements in
+line with local practices in their respective countries; and
+• The Group’s Senior Management subject to the French Social Security system, with the exception of the Corporate Officer, are covered
+by the additional defined-contribution pension (Article 83) plans for employees, and/or Group Senior Management. Their defined-benefit
+pension plan (Article 39) was canceled on March 22, 2016.</t>
+  </si>
+  <si>
+    <t>The Schneider Electric Health and Safety Policy puts a strong
+emphasis on eliminating hazards and reducing risk, to prevent
+occupational accidents and illnesses, and connects with the goal
+of providing a safe working environment for all employees. This is
+achieved by engaging employees, encouraging the reporting of
+health, safety and environment observations and ensuring
+managers role model safety at every opportunity. All incidents are
+reviewed by the Health, Safety and Environment teams and
+investigated to ascertain the root cause and implement action
+plans when required. Sites have developed their own emergency
+plans which are tested to ensure the impact of an incident to people
+and environment is minimized.</t>
+  </si>
+  <si>
+    <t>Action plan
+The fundamentals of the Health and Safety action plan are based
+on the Health &amp; Safety Policy, supported by the ERM program and
+is the framework for deploying the 2025 Health and Safety strategy
+“S.A.F.E. First”:
+• “S.A.F.E. First” is at core of the strategy, developed as a
+personal reminder to pause and reflect on safety before
+beginning any task. (Self-check, Activity check, Facility check,
+Environment check).
+• Top five hazards, regularly reviewed to prevent serious
+accidents.
+• Five guiding principles, set the expected Health and Safety
+behaviors.
+• Four strategic priorities, which have been identified as strong
+levers to deliver the Schneider Electric Policy.
+The Global Health and Safety action plan is connected to the four
+pillars of the Health and Safety strategy – technical qualifications
+and safe behaviors, operational discipline and execution, leading
+as role models, and safe workplace for everyone.
+Schneider Electric has a strong Health and Safety governance in
+place with several instances of control to ensure the Health and
+Safety strategy is fully deployed.
+Regular Health and Safety reports to executive level are created by
+the VP Global Health and Safety and presented to the executive
+level. The report includes Health and Safety performance vs.
+targets and Health and Safety program deployment update.
+There is also a monthly Global Health and Safety steering
+committee to share Health and Safety performance vs. targets and
+Health and Safety program deployment, with the Regional and
+Organizational Health and Safety VP’s.
+The 2024 plan covered programs related to safe driving, reducing
+cut accidents, machine safety, and Health and Safety leadership
+training for frontline managers.
+Local action plans, managed by each region, complement the
+global plan, and includes the improvements identified by the
+Environment Health and Safety Assessment (EHSA) deployment,
+the ISO 45001 implementation, and the safety culture assessment.
+The safety culture assessment has evolved into a program called
+“Safer Future”, which includes a safety climate survey, which is
+internationally known as NOSACQ50. In 2024 this safety
+questionnaire has been deployed for the first time to all Schneider
+Electric employees globally. The results are analyzed at local and
+global level, helping to identify action plans to improve the safety
+culture maturity. The employee engagement in the 2024 safety
+survey was 46% which exceeded the 2024 ambition of 40%.
+In 2024 Schneider Electric has deployed a new global safety
+software solution, which collects incidents, near miss, HiPoS, and
+safety observations, tracks actions related to incident audits and
+improvement programs. It is accessible by all Schneider Electric’s
+employees, as well as contractors, and visitors, allowing them to
+fully engage in the safety program.
+The Health and Safety intranet portal is used by employees to find
+Health &amp; Safety directives, programs, valuable practices, hazard
+awareness information, and technical webinars calendar, allowing
+employees to enhance their health and safety competency.
+Each quarter, Schneider Electric publishes key topics, “Quarterly
+H&amp;S Spotlights”, to raise awareness of workplace health and safety
+through training materials, posters, employee videos, and
+supported by a quarterly video message from Schneider Electric’s
+top leaders. Schneider Electric engages employees by using the
+internal social media tool, “Engage”, to post health and safety
+updates, interact with the community, and allowing Schneider
+Electric to collect feedback from employees. Schneider Electric
+also encourages employees to report safety opportunities, which
+are translated into risk reduction actions and engage employees in
+the health and safety program.</t>
+  </si>
+  <si>
+    <t>The implementation of improvement actions linked to safety
+opportunities is monitored. A risk reduction initiative has led to the
+drafting of a code of good practice for R&amp;D and offices. This code
+describes the practical measures that R&amp;D sites and offices must
+take to reduce risks. These measures will be incorporated into the
+Schneider Electric Safety Trust Standard, which will monitor
+compliance against safety standards through an internal audit
+program.
+Annual Environmental Health and Safety Assessments (EHSA): To
+ensure successful implementation of the Schneider Electric Health
+and Safety strategy, annual EHSA are performed in industrial and
+customer-facing sites worldwide, by the site Health and Safety
+team and validated by the regional Health and Safety specialist.
+This assessment is a global process which measures compliance
+against Health and Safety directives and identifies improvement
+opportunities and recognizes excellence in manufacturing and
+logistics locations.
+All Schneider Electric sites prepare a Health and Safety legal
+register, audit themselves against the required regulations and
+implement actions to close the gaps. The full process is audited
+every three years as part of the ISO 45001 which is implemented
+on all industrial sites and is externally audited by an accredited
+body. The key elements of certification to ISO 45001 includes
+annual site management review and internal site audit program,
+and external audit program at site and corporate level.
+Management of hazardous substances is also audited as part of
+the ISO 45001. Engineering controls such as ventilation, enclosure
+of hazardous substances, and regular maintenance of equipment
+and extraction systems are control measures implemented to
+control the risk. Safety Data Sheets and other information on
+hazardous substances are made available to employees and
+included in the work area training. A new software tool to manage
+Safety Data Sheets and reduce risk associated with hazardous
+substances has been deployed to pilot countries in 2024. Health
+surveillance of workers exposed to hazardous substances are
+implemented to ensure the control measures are working and the
+employees are working in a safe and healthy environment. When
+the hazardous substances cannot be fully controlled with
+engineering controls personal protective equipment is provided
+to employees.
+Global Risk Consultants perform loss prevention audits for
+industrial sites to ensure that the required standards for fire
+prevention and emergency planning are in place.
+Targets and metrics
+Health and Safety performance results
+In 2020, Schneider set a five-year safety ambition related to SSE
+#14 to reduce the Medical Incident Rate (MIR) to 0.38 by 2025,
+from a 0.79 baseline in 2019. The MIR is the number of work-related
+medical incidents (including injuries and occupational illnesses)
+multiplied by one million hours (average hours of 500 employees
+working for one calendar year) divided by the total hours worked.
+Work-related injuries and occupational illnesses requiring medical
+treatment are included. Medical Incidents, where the injured party
+requires hospital treatment for more than 24 hours, are classified
+as serious.
+Read more on the methodology of SSE in
+section 2.4.1.2 on pages 316 to 321.
+In 2024, 197 medical incidents were recorded, translating to a MIR
+performance of 0.60, equivalent to a 24% progress of the 2021-
+2025 program. The 2024 MIR has increased by 17% compared to
+2023, of which 4 of the Medical Incidents were classified as
+serious, without any employee fatalities. Of the 197 medical
+incidents three were work related ill health incidents, connected
+with industrial ergonomics.
+As a result of all the health and safety programs deployed over the
+last 8 years, Schneider Electric has been very successful in
+reducing incident severity as measured by the Lost-Time Day Rate
+(LTDR) reduction to 9.1 lost days per incident, representing a
+reduction of 17% compared to 2020.</t>
+  </si>
+  <si>
+    <t>Employee safety and a safe work environment are priority
+topics at all site management meetings. Safety training for new
+employees combined with regular reviews ensure continuous
+learning and improvement in the recognition and elimination
+of hazards</t>
+  </si>
+  <si>
+    <t>Crisis management tools are implemented in conjunction with
+the Group’s Global Security department. These are tested on
+a systematic basis. Regular exercises are performed to identify
+areas for improvement.</t>
+  </si>
+  <si>
+    <t>Risk description
+At Schneider Electric, maintaining a safe and healthy work
+environment is a core value. Health and safety risks can arise
+from various factors, including workplace hazards, equipment
+malfunctions, and exposure to harmful substances.
+Key areas of concern for Schneider include electrical and machine
+risks, falls from heights, handling and transportation of materials,
+and fleet driving safety. Natural disasters, such as earthquakes,
+hurricanes, wildfires, and floods are recognized as increasing risks
+and present threats to safety and operations.
+Additionally, usage of batteries and chemical substances is closely
+monitored to avoid any safety risks.
+These risks, if not managed, can threaten the well-being of
+employees, affect operational efficiency and Company reputation.
+Therefore, implementing robust safety measures and ensuring
+compliance with relevant regulations is essential for mitigating
+these risks and safeguarding the organization’s workforce.
+Risk monitoring and management
+As a core value for Schneider Electric, Safety is a fundamental
+principle that is never compromised, with a commitment to working
+safely at all levels of the organization, at any time, everywhere.</t>
+  </si>
+  <si>
+    <t>Health &amp; Safety continued
+The ‘S.A.F.E. First’ principle serves as a reminder to pause and
+assess safety before starting any task, focusing on Self, Activity,
+Facility, and Environmental checks. Effective rules are implemented
+through the Group’s “Safety Golden Rules” for the Top 5 Hazards
+– machine, electrical, road, powered industrial trucks, and falls –
+fostering a culture of safety and awareness.
+Schneider is developing a Program to de-escalate the risks and the
+effectiveness of the control measures is monitored with key risk
+indicators, capitalizing on the new digital tool EcoOnline.
+The new digital tool functionality EcoOnline Chemical Module
+allows to manage risk related to substances usage.
+With the increased risks related to natural disasters, emergency
+preparedness becomes more important. Therefore, Schneider is
+developing response plans and is carrying regular drills to prepare
+employees for potential incidents.
+By prioritizing these concrete measures, Schneider Electric is
+committed to safeguarding its employees and maintaining a safe
+working environment for everyone.
+For more information on the full Health &amp; Safety Program, including
+Policies and Directives please refer to section 2.2.3.</t>
+  </si>
+  <si>
+    <t>Negative impacts
+Poor working conditions (e.g., excessive working hours, poor
+work-life balance) are among the key issues that have been
+identified as potential negative impacts by the Group. These issues
+may lead to psycho-social risks, increased absenteeism, and
+injured workers.
+The Group also recognizes the importance of health and safety in
+the workplace and has identified the Top 5 Hazards that pose
+potential risks to the psychological or physical integrity of its
+employees: falls, powered industrial trucks (PIT), machinery, road,
+and electrical hazards. Both negative impacts are considered as
+widespread or systemic considering the Group’s activity sector and
+the hundreds of thousands of employees.</t>
+  </si>
+  <si>
+    <t>Safety is a never-ending journey towards excellence. Schneider
+Electric’s vision is for all employees and contractors to work in a
+safe and healthy workplace, so they can perform to their full
+potential, positively impacting safety for its customers, and
+therefore always returning home safely to their family.
+This translates into the following health and safety two-year
+improvement plan aligned with the 2025 vision to:
+• Strengthen health and safety knowledge, skills, and abilities of
+all employees and contractors.
+• Equip all leaders to role model Health and Safety at every
+opportunity and encourage employees to speak up and engage
+in safety programs.
+• Accelerate transformation with digitalization and data analytics,
+and promote local innovation to accelerate health and safety
+maturity.
+• Develop and implement effective controls for high-risk activities
+and to sustain a safe workplace for everyone.
+• Positively impact all stakeholders through effective
+communications.
+The 2025 Global Health and Safety action plan will concentrate on
+– safety culture assessment results, office and R&amp;D safety, code of
+practice deployment, and electrical safety enhancement.</t>
+  </si>
+  <si>
+    <t>Psycho-social risks remain high as a result of a complex
+business environment and the pressure it entails. This is having
+consequences on employee well-being and mental health and
+Schneider Electric has deepened its actions to prevent such
+risks. Fighting all types of harassment has been the object of
+specific programs for several years, including awareness
+actions, a Speak Up program and a reinforcement of the alert
+system Trust Line. Over the last two years, the analysis of data
+from the alert system and other alternative tools such as
+Workers Voice have allowed a much better qualification of the
+risk level, mainly on sexual harassment and work harassment.
+The granularity of the findings will lead us in 2025 to perform two
+specific assessments, one for sexual harassment and the other
+for worker harassment, as likelihood and severity differ
+significantly between the two. Schneider Electric’s efforts and
+commitments on these topics will remain unchanged</t>
+  </si>
+  <si>
+    <t>Health and safety
+Negative Impact Damage the physical integrity
+of employees
+Health and safety is one of the risk drivers of the ERM model, which
+is part of a formal corporate risk assessment, identifying Key Risk
+Indicators (KRIs) and implementing action plans to reduce risk. The
+focus of this model is to concentrate at global level, on risks that
+can result in serious or fatal accidents. This involves looking
+beyond the top 5 hazards and analyzing the controls preventing
+accidents from occurring and connects to Schneider Electric’s
+High Potential Severity (HiPoS) program. Those hazards that have
+the potential to result in serious accidents have a deeper analysis
+by global experts, and the learnings are then shared with the full
+organization.
+As well as driving specific actions, the ERM and HiPoS programs
+also contribute to the annual global Health and Safety Improvement
+program.
+Regarding legal compliance risk, all Schneider Electric sites
+prepare a Health and Safety legal register, audit themselves
+against the required regulations, and implement actions to close
+the gaps. The full process is audited as part of the ISO 45001
+Occupational health and safety management systems external
+certification.</t>
+  </si>
+  <si>
+    <t>Schneider Electric UK &amp; Ireland has been awarded the RoSPA
+Gold Medal (seven consecutive Golds) Award for health and safety
+performance and the RoSPA Fleet Safety Gold Medal (eight
+consecutive Golds) Award for managing occupational road risk.
+Schneider Electric India, China, and Thailand have been
+recognized for their safety performance delivering customer
+worksite projects.
+Schneider Electric Canada has been awarded a partnership in
+injury reduction.
+Schneider Electric Perú received an award from the insurance
+company RIMAC for its excellence in the category “Best
+Comprehensive Occupational Risk Management”.</t>
+  </si>
+  <si>
+    <t>SSE #14: 0.38 or below Medical Incident Rate
+Safety is one of the five pillars of Schneider Electric’s Trust Charter,
+which emphasizes the importance Schneider Electric is placing
+on its employees, customers, and contractors. Schneider works
+with many VIP global customers, and they demand the highest
+standards of Health and Safety management and performance
+before they engage and continue to do business with
+Schneider Electric.
+Moreover, at Schneider Electric our mission is to ensure the
+occupational health and safety of employees, customers,
+contractors, and visitors to our locations. The Group also strives to
+provide employees safe, pleasant, and efficient workplaces for
+enhanced well-being and effectiveness. As such, we aim to reduce
+the Medical Incident Rate (MIR) to 0.38 by 2025.
+The MIR is the number of work incidents requiring medical
+treatment per million hours worked (i.e., average hours of 500
+employees working for one calendar year). Work-related injuries
+and occupational illnesses requiring medical treatment are
+included. Work incidents may or may not have resulted in time
+off work.
+All work-related incidents reported on Schneider Electric sites are
+counted (including therefore incidents affecting Schneider
+employees and other employees working under the supervision of
+Schneider, i.e., temporary workers). All Schneider sites within
+scope are considered. Medical incidents do not include: visits to a
+physician or other licensed healthcare professional solely for
+observation or counseling; the conduct of diagnostic procedures,
+such as x-rays and blood tests, including the administration of
+prescription medications used solely for diagnostic purposes (e.g.,
+eye drops to dilate pupils); or first aid.
+PwC provided reasonable assurance on this indicator.</t>
+  </si>
+  <si>
+    <t>Negative impact
+Damage the physical integrity of employees through
+health and safety issues</t>
+  </si>
+  <si>
+    <t>Since 1950, chemical production has increased fiftyfold and is
+expected to triple from 2010 to 2050, with only a small number of
+the 350,000 chemicals in use fully assessed for safety. To minimize
+the potential harm to the environment and human health, Schneider
+Electric continues to prioritize the management and substitution of
+hazardous chemicals from its products, processes, and supply
+chain. This proactive approach is driven by a combination of
+policies, directives, and internal programs aiming at ensuring
+responsible sourcing, handling, and disposal of substances of
+concern and substances of very high concern</t>
+  </si>
+  <si>
+    <t>In addressing the impacts of harmful materials, Schneider Electric
+is committed to providing remedies for those affected. The
+company ensures that its transition away from hazardous
+substances not only meets regulatory requirements but also
+prioritizes the health and safety of its stakeholders.</t>
+  </si>
+  <si>
+    <t>Employee health and safety
+Context
+The world in which Schneider Electric operates is changing fast
+with many drivers such as digitalization, new technologies,
+connectivity of data, and ESG giving opportunities to positively
+impact health and safety. At Schneider Electric, health and safety is
+a value that will not be compromised, as it is one of the five
+Schneider Electric Trust Charter pillars. In addition, the Group has
+set ambitious 2025 health and safety targets.
+As a pillar of corporate social responsibility, providing a safe
+workplace for employees is fundamental. Schneider Electric’s
+ambition is to provide a safe and healthy environment for all its
+employees, so they can perform to their full potential, positively
+impact the safety of our customers, and return home safely.
+The ambition is to enhance the safety maturity level by leveraging
+the employee engagement through our Safer Future program,
+digitalization, and visualization of data.
+Schneider Electric is committed to invest in its people and its
+workplace as stated in its Group Health and Safety Policy, which is
+reviewed each year and is fully aligned with ISO 45001 standard
+and is published externally. The implementation of the Health &amp;
+Safety Policy is monitored by the Chief Compliance Officer.
+Each employee plays a key role in identifying and mitigating
+hazards. This practice applies at Schneider Electric sites, at
+customer sites and while driving or traveling.
+The Group values engagement at all levels and:
+• Expects each manager to role model health and safety as
+defined in the Global Safety Strategy;
+• Empowers employees to take ownership, for themselves and
+their team, of health and safety;
+• Gathers the views of all employees, their representatives, and
+those working on the Group’s behalf, through consultation,
+including their participation in reporting and resolving safety
+improvement opportunities;
+• Recognizes employees who propose health and safety
+innovations or implement solutions; and
+• Sustains relationships with suppliers, contractors, and
+customers under the condition that safety commitments are
+agreed and met.
+The Group provides a safe work environment for all and:
+• Invests in resources and training to support Schneider’s health
+and safety vision and goals;
+• Complies to external legal requirements and internal directives;
+• Embeds health and safety into its business practices and is an
+integral part of all major decisions, from acquisition, product
+development, the launch of a business and change
+management; and
+• Is determined to eliminate hazards and reduce risks.
+The Group communicates in an open and transparent manner and:
+• Continually improves its health and safety systems by
+benchmarking, adopting best available techniques, and through
+continuous learning;
+• Captures, analyzes, and communicates High Potential Severity
+(HiPoS) events, safety improvement opportunities, near misses,
+and incidents in a systematic manner;
+• Creates global action plans and shares with all potentially
+impacted employees to prevent incident (re)occurrence; and
+• Sets safety and occupational health goals and objectives,
+monitors performance, and reports progress internally and
+externally.</t>
+  </si>
+  <si>
+    <t>Risks and opportunities arising from impacts
+and dependencies on own workforce
+Working conditions
+The Group identifies operational risks such as strikes, loss of
+productivity, and resignations as potential risks. Legal risks include
+potential fines from lawsuits, duty of care infringement, and
+non-compliance with mandatory benefit requirements and
+workplace violations, which could lead to a loss of business.
+Reputational risks arise from NGO demands on freedom of
+association and media exposure. Social negotiations may increase
+operational costs. Conversely, the Group recognizes the
+opportunity to enhance its reputation and attract talent by
+maintaining decent working conditions, which is crucial for
+nurturing and retaining talent within the organization.
+Employee health and safety
+The Group is aware of the legal risks associated with potential fines
+due to non-compliance with health and safety regulations. Civil
+risks may emerge from potential claims by employees or
+customers, and reputational risks could result from any damage to
+the Group’s image, particularly when incidents involve employees
+working on client sites.
+Equal treatment and opportunities for all
+The Group sees a business opportunity in increasing employee
+engagement, which can lead to improved productivity rates. Not
+investing in skills development poses a risk, as the organization
+may lack the necessary competencies to meet business needs.
+Being perceived as an ethical company enhances the Group’s
+employer brand and aids in attracting and retaining talents.
+However, there is a legal risk associated with potential lawsuits
+arising from discrimination cases.
+Training and skills development
+Investing in training and skills development is seen as a key factor
+in employee attraction and retention, contributing to productivity
+improvement. The Group views strong training and career
+development programs as business opportunities that prepare a
+diverse and skilled talent pool, ready to meet future challenges.</t>
+  </si>
+  <si>
+    <t>In the Decent Workplace section, the level of Human Rights
+risks for Migrant Workers was revaluated in 2023, as a
+consequence of the increased migration flows. The origins
+of these displacements are multiple, from climate change to
+conflicts or economic hardship. They are not a consequence
+of Schneider Electric’s policies. However, Schneider Electric,
+like other companies, is confronted by that reality. In 2024,
+following the reevaluation, this risk remains a top priority.</t>
+  </si>
+  <si>
+    <t>Schneider Electric’s Risk Management framework considers the
+Group’s dependencies, as well as impacts, on the use of natural,
+human, and social resources to determine several of the risk
+categories included in the Enterprise Risk Management process.
+The risks identified are ranked by a risk score, which combines the
+probability of occurrence over a three-to five-year period (ranging
+from improbable to probable) with the magnitude of the potential
+effects to determine the level of risk which the Group is exposed to
+(ranging from very low to high). This gross risk assessment is made
+prior to the effect of any mitigation actions, and although mitigation
+actions can significantly reduce the level of risk, the resulting net
+risk was not considered for the double materiality assessment.
+This ERM exercise initially considers all types of business risks,
+however for the double materiality assessment, only those risks
+related to sustainably matters are prioritized. Read more details
+on Schneider Electric’s ERM in Chapter 3 of this Universal
+Registration Document.
+As part of its double materiality analysis, Schneider Electric used
+the ERM results to evaluate financial materiality by comparing the
+assessment of each risk to severity criteria which reflect the
+potential magnitude of financial effects and are categorized into
+three areas (financial, reputational, and market effect), and
+measured in four levels (from weak to strategic).</t>
+  </si>
+  <si>
+    <t>DEI policy
+In its Trust Charter, Schneider Electric articulates that it aims to
+offer equal opportunities to everyone, everywhere. The Group
+wants its employees – no matter who they are, or where they live in
+the world – to feel uniquely valued and safe to contribute their best,
+free from harassment, victimization, and discrimination of any kind.
+The Group’s DEI Policy recognizes that diversity comes in many
+forms; visible and non-visible, including cognition, experience,
+education, gender and gender identity, age, nationality, race and
+ethnicity, color, sexual orientation, disability status, religious,
+cultural, socio-economic background, life experience, location, and
+more. There are no applicable international standards to align the
+policy with.
+In addition, Schneider Electric has targeted global polices around
+inclusion and care, including Global Family Policy Leave, Flexibility
+@ Work, Global Anti-Harassment and Discrimination, and Pay
+Equity.
+The Group brings its ambition to life by empowering all employees
+to develop inclusive practices and behaviors, ensure fairness and
+equity in core people processes and policies, and advocate
+internally and externally for change with partners, such as UN
+Women through the GEF, and the WEF.</t>
+  </si>
+  <si>
+    <t>Group Anti-Harassment &amp;
+Anti-Discrimination Policy
+Schneider Electric ensures that all employees, no matter who they
+are, or where they live in the world, feel uniquely valued and safe to
+contribute their best. It requires everyone feeling free from any type
+of harassment, victimization, and discrimination. Failure to maintain
+a responsible workplace may expose Schneider Electric to liability
+for harassment or discrimination claims from the person who has
+allegedly been harassed or discriminated or the alleged
+perpetrator for failure to protect employees against such conduct.
+Moreover, the Group could be exposed to reputational risk.
+Benefits of fostering a responsible workplace include a positive
+work environment, talent retention, enhanced Company reputation
+and reduced legal risks.
+To uphold this, Schneider Electric maintains a “zero-tolerance”
+policy for workplace misconduct, a key focus of the Ethics &amp;
+Compliance program. This program, overseen by the Chief
+Compliance Officer, is led by a dedicated HR Compliance team
+that defines and implements measures to prevent workplace-
+related issues. Locally, it is operationalized by Regional
+Compliance Officers under the supervision of their regional Ethics
+&amp; Compliance Committees defining the local strategy.
+Schneider Electric implemented in 2018 an Anti-Harassment Policy,
+serving as an employee manual to address and prevent misconduct
+violating the dignity of employees. In 2023, Schneider has
+deployed a new Anti-Harassment &amp; Anti-Discrimination Policy
+which reinforces Schneider Electric’s zero tolerance for any kind of
+harassment or discrimination in the workplace and sets forth clear
+rules and processes.</t>
+  </si>
+  <si>
+    <t>Harassment can involve bullying, sexual harassment, physical
+harassment (also called violence), discriminatory harassment,
+psychological harassment, verbal harassment and digital
+harassment. Discrimination occurs when someone is treated
+unfairly due to personal characteristics, such as disabilities, age,
+race, gender, religion, sexual orientation, marital status, and more.
+This policy is not aligned with any international standards due to the
+absence of a comprehensive global framework on the prevention of
+harassment and discrimination in the workplace. It is owned by the
+Group HR Compliance Officer and approved by Chief Governance
+Officer and Secretary General and Chief Human Resources Officer.
+It also reinforces employees’ rights and responsibilities, notably
+regarding anti-retaliation. Managers and Human Resources
+Business Partners’ roles have been highlighted as well as the
+possible reporting mechanisms.
+At Schneider Electric, stakeholders may report potential violations
+of the Anti-Harassment &amp; Anti-Discrimination Policy either by
+contacting an appropriate person in the Group and/or by using
+the Trust Line, Schneider Electric’s whistleblowing system. In 2024,
+51% of the closed, valid, and substantiated alerts reported
+through whistleblowing, concerned discrimination, harassment,
+and sexual harassment.
+Read more on the Whistleblowing policy in
+section 2.2.1.1.3 on pages 102 to 107.
+To build a common understanding and alignment, Schneider
+Electric also created a mandatory training entitled “Building an
+Inclusive and Caring Mindset” and assigned it to all employees as
+part of Schneider Essentials (mandatory for all) in 2024. 99.4% of
+employees completed the training. In addition, in 2024, the Group
+has deployed a “Prevent and manage harassment and
+discrimination” for Human Resources Business Partners and
+managers, and some specific trainings were deployed in line with
+local initiatives to prevent sexual harassment in specific countries
+(e.g. India, Germany, Austria, Switzerland).
+To enhance workplace-related alert handling, the Group introduced
+updated e-learning in 2024 for its HR internal investigators,
+ensuring impartiality and consistent practices. The number of HR
+investigators was increased in 2024 to bolster investigation
+capabilities across all regions. Workshops have been also
+conducted for internal investigators in many geographies, and a
+pilot mediation program was launched in France. In addition, HR
+processes were strengthened through background check updates
+to the Personnel Management Security Policy, enhanced Hiring
+Guidelines with a focus on compliance (including re-hire
+processes), and the creation of a new Ethics &amp; Compliance
+questionnaire for the Interview Guide Tool.
+In 2024, a dedicated communication plan was carried out,
+promoting the Anti-Harassment &amp; Anti-Discrimination Policy and
+raising awareness. In addition, Schneider Electric encourages the
+Speak Up mindset to allow employees and stakeholders to report
+any violations of the Group’s ethical standards or any workplace-
+related concerns.
+Pay Equity policy
+The principles of fairness, equity, ethics, and transparency are
+fully embedded in the Company values. Employees are fairly
+compensated for their skills and contributions through reward
+policies and processes. Furthermore, Schneider Electric is
+committed in upholding a comprehensive compensation and
+benefits policy.
+Read more on the compensation and benefits in
+section 2.2.3.1.2 on pages 207 to 209.
+Schneider Electric has pledged to ensure fair compensation for
+equivalent work and has been overseeing pay fairness since 2015
+using various methods and strategies. The company has made a
+pledge to Pay Equity under Schneider Sustainability Essentials
+(SSE #18), initiated in 2021 and set to continue until the end of
+2025. Schneider Electric has committed to attain and maintain a
+pay gap below 1% by 2025 for both females and males as per the
+internal methodology. An external company provides limited
+assurance on Pay Equity to ensure year-over-year progress toward
+closure of pay equity gaps. The pay equity reporting protocol is
+accessible to employees via the intranet and has been approved
+by Senior Vice-President, Total Rewards and Performance.
+Action plan
+The Group’s strategy is known as Inclusion and Care by Design.
+With this strategy the Group’s ambitions are:
+• Thriving individuals and teams: Schneider Electric is committed
+to making sure every individual feels respected and safe to be
+their unique self. Leaders coach and care with respect,
+empathy, and well-being in mind.
+• Diversity at every level: Schneider Electric is committed to
+reflecting the communities in which it operates. The Group
+continues its efforts to hardwire equity and inclusion at all
+stages of its employee experience, ensure fairness in people
+processes and policies, and foster a culture of care and
+inclusion at all levels.
+• Impact ecosystem: Schneider Electric is committed to driving
+change within its broader ecosystem and society at large,
+through advocacy and role-modeling. The Group works closely
+with its strategic partners and suppliers and invests in local
+actions through the Schneider Electric Foundation.
+Creating a standard of inclusion and care
+for all
+The Group’s Values, and Trust Charter ensure all employees,
+managers and leaders are trained and held accountable to a
+standard of inclusion and care for all. Also, the Group believes that
+transparency leads to greater trust, and drives better outcomes for
+all; and has committed to more transparency in data, ambitions,
+partnerships, and initiatives. To support cultural awareness and
+understanding, as well as celebrate the uniqueness of the Group’s
+global teams, the Group hosts events, webinars, communications,
+and more for International Women’s Day, Pride Month, International
+Men’s Day, Global Accessibility Awareness Day, and International
+Day of Persons with Disabilities.</t>
+  </si>
+  <si>
+    <t>Inclusion and respect building programs
+Building on the opportunity, as per the study from Harvard
+Business Review, to create an environment where employees feel
+included and cared for, the Group introduced the following actions:
+• Uncomfortable Conversations: In 2024, a global and regional
+series of webinars was conducted to have open conversations
+on topics such as people with a disability, anti-harassment,
+working with chronic diseases, amongst others to create
+awareness, and educate our employees, where 10,000+
+employees participated.
+• E-learning:
+− Building an Inclusive &amp; Caring Mindset: A global e-learning
+created in 2024 that was mandatory for all employees within
+Schneider Electric Core. The training helped employees
+explore what it means to build an inclusive and caring
+environment and why it matters that everyone belongs and
+thrives to help Schneider win. Employees get a first-hand
+look of different situations that employees could be facing,
+how they can respond, or how to get support for oneself and
+colleagues in front of misconduct.
+− Unconscious Bias e-learning available to all employees to
+help understand what hidden bias means, explore clear
+steps to keep decision-making objective, and how to call out
+bias when seen and explore the importance of building a
+culture of respect, learn to recognize the different forms of
+harassment, and understand the actions to take (as
+employees and managers) when witnessing such conduct.
+• Employee Resource Networks (ERNs): Employee volunteer-led
+networks, globally and locally, made up of individuals with
+similar backgrounds, experiences, characteristics and/or who
+share a passion or interest, play a key role in building an
+inclusive and equitable culture.
+Diversity and equity, at every level
+Schneider Electric desires to reflect the world we live in so that we
+can better serve our customers and clients. To ensure this, the
+Group aims to provide equal opportunities to all and makes talent
+decisions based on skills and qualifications for the role irrespective
+of any other identifying characteristics. This includes visible and
+non-visible dimensions of diversity, including cognition, experience,
+education, gender and gender identity, age, nationality and
+ethnicity, color, physical appearance, sexual orientation, disability
+status, religious, cultural and socio-economic background, life
+experience, location, and more, depending on local requirements.
+Pay Equity strategy
+In support of advancing Pay Equity, the Company executes a holistic strategy to improve and maintain fair compensation while preventing
+creation of new pay gaps.</t>
+  </si>
+  <si>
+    <t>In execution of the holistic Pay Equity strategy, the Group closely
+monitors the salary offers of new recruits, salary adjustments from
+employee promotions, and other employee career movements.
+Continuous monitoring of pay equity status is made possible by Pay
+Equity Dashboard and its resulting analytics. Additionally,
+managers and HR professionals are trained to be unbiased and
+mindful of every pay decision they make. Prevention of new pay
+gaps is supported by the Group’s “Fair Pay Simulator” which was
+deployed to HR in 2023. The simulator provides visibility to pay
+equity positioning, enabling better pay decisions for recruit offers,
+promotions, and other salary adjustments.
+Since 2018, pay equity has been an integral part of the annual
+Global Salary Review processes, to address identified gaps. In the
+2024 campaign, there have been notable enhancements to the
+user experience, specifically benefiting managers in relation to pay
+equity, further improving the process.
+Pay equity advocacy is another key aspect of the Group’s Pay
+Equity strategy. Schneider Electric leaders advocate internally and
+externally for fair and equitable pay which further reinforces the
+Group’s commitment to fair pay.</t>
+  </si>
+  <si>
+    <t>Fair and equitable talent processes
+To mitigate the risk where employees do not have the same
+opportunity to grow and advance because a lack of fairness and
+equity in people processes, Schneider Electric is committed to
+transparent and equitable access to career opportunities,
+growth and development to the fullest potential, and equal pay
+for equal work for all its employees worldwide, depending on the
+cost of living.
+Talent decisions are based on skills, values, performance, and
+potential, and the Group counts on each leader to be fair and
+equitable when making a hiring or promotion decision to help
+advance its overall goal to create a skilled and diverse workforce
+for the future. To check and mitigate hidden bias in its main human
+resource programs, the Group has built in reminders and
+prompts for moments that matter, including performance and
+salary review processes.
+Fair and equitable pay is a core component of the Group’s
+compensation philosophy, in line with the principle of equal pay
+for equal work.</t>
+  </si>
+  <si>
+    <t>Origin, ethnicity, and nationality
+Schneider Electric believes in a multi-local world with locally
+tailored solutions supported by teams across the globe to best
+meet its customers’ needs with customization, quality, and speed.
+The Group’s multi-hub model is key to delivering on this ambition
+with teams that represent diverse origins, nationalities, ethnicitie,
+locations, and cultural backgrounds. The multi-hub model focuses
+on attracting and developing local talents for global and local roles,
+and ensuring leadership reflects the backgrounds present in local
+markets. The opportunity for Schneider Electric to be the “most
+local of global companies” with a balanced multi-hub footprint to
+enable customer proximity, innovation, speed, and collaboration
+are key differentiators for long-term success.
+• 91% of Country Presidents are either local or regional.
+• 56% of employees are in new economies, of which 30% in
+leadership roles.
+• 183 nationalities represented in our global workforce across
+108 countries.
+Disability inclusion and accessibility
+Schneider Electric is committed to promoting and including people
+with disabilities throughout its operations worldwide. In March 2022
+the Group established the Global Disability Inclusion and
+Accessibility Office, addressing the needs of people with
+disabilities through a strategy of Inclusion and Care by Design, for
+people with disabilities. This is underpinned by global awareness
+and education about what is the largest minority group in the world,
+consisting of 1.3 billion people.
+The Group focuses on all dimensions of disability: visible, invisible,
+permanent, and temporary. These include physical motor or
+physical health, sensory, cognitive, and neuro diversities, and
+psychological, emotional, or behavioral.
+The Group’s approach of “accessibility by design” creates holistic
+disability inclusion through four pillars:
+• Customer First design: Accessible product, software, and
+UI/UX design.
+• People, processes, and tools: Accessibility by design in all
+processes (recruitment, procurement), platforms, and tools.
+• Brand and communication: For all events and communication –
+internal and external, digital, physical, and virtual.
+• Physical workplace: Accessible buildings and workplaces
+applying universal design principles, local legislation, and the
+International Accessibility Standards.
+The Disability Inclusion and Accessibility Office governance
+consists of two executive sponsors, the Chief Human Resources
+Officer, and the Chief Digital Officer, along with a Steering
+Committee of six executives covering all aspects of the Group’s
+aforementioned pillars.
+Building awareness and education on disability, inclusion; and
+accessibility is a key element to moving the needle. Schneider
+Electric ran two global campaigns in 2024: Global Accessibility
+Awareness Day in May, and UN International Day of Persons with
+Disabilities in December.
+WEF Global Parity Alliance, a global, cross-industry community
+whose goal is to facilitate peer sharing between companies and
+showcase DEI best practices/ research, and WEF Good Work
+Alliance, a partnership to promote peer exchange between
+companies on Future of Work topics. In 2022, Schneider Electric
+endorsed the “Good Work Standards” a global, cross-industry
+partnership aiming to pave the way in building a healthy,
+resilient, and equitable future of work.
+• The Valuable 500 (V500), a global business collective made up
+of 500 CEOs and their companies, innovating together for
+disability inclusion. Schneider Electric is committed to ensure
+that disability inclusion is on its senior leadership agenda, and
+that its commitment is shared with the business and the world.
+The Group is committed to reporting on the following five
+criteria: workforce representation, objectives, training, ERNs,
+and digital accessibility.
+• ILO Global Business and Disability Network, a business-to-
+business support network promoting disability inclusion in
+the workplace.
+• Business Disability Forum, trusted partners, working with
+business, government, and disabled people to improve the life
+experiences of disabled employees and consumers, by
+removing barriers to inclusion.
+• Disability: IN, a leading nonprofit resource for business disability
+inclusion worldwide.
+• Business for Inclusive Growth (B4IG) Working Group. B4IG is a
+partnership between the OECD and a global, CEO-led coalition
+of companies fighting against inequalities of income and
+opportunities. In 2022, Schneider Electric contributed to the
+publication of the group’s Operational Recommendations on
+Ethnic Diversity &amp; Inclusion.
+• WeQual is on a mission to achieve 50/50 gender parity at the
+top of the world’s largest companies.
+Targets and metrics
+Gender balance ambition(1)
+Schneider Electric began its journey to becoming a gender-
+balanced organization more than 15 years ago and has identified
+increasing the share of women in its workforce and leadership as a
+business imperative. To support this aim, the Group has stated
+ambitions on increasing female representation in the overall global
+workforce and seeks to engage all genders in the journey.
+In 2021, Schneider Electric renewed its commitment to gender
+balance with the SSI #8 aiming to increase gender diversity – with
+women representing 50% of all new hires, 40% of frontline
+managers, and 30% of senior leadership by 2025.</t>
+  </si>
+  <si>
+    <t>In 2024, to ensure equal opportunities, fairness, and a consistent
+experience for all and to mitigate the potential for bias, as part of
+the annual employee engagement survey, Schneider Electric
+conducted a Self-ID pilot. Without Self-ID data, Schneider Electric
+has to make assumptions about the employee population and the
+talent processes, and thus limiting the representation efforts to
+gender. The Self-ID pilot was conducted in 2024 in Canada,
+Mexico, and the US. The pilot countries constitute to a total of
+32,253 employees out of which 17% employees self-identified as
+living with a disability, while 21% employees prefer not to answer.
+LGBT+ inclusion
+Schneider Electric recognizes the lesbian, gay, bisexual,
+transgender, and intersex people (LGBT+) community and its
+members. The Group aims to build awareness and advocate for the
+community and wants its employees to be allies, playing a decisive
+role in creating an open and safe community where individuals are
+comfortable bringing their whole authentic self to work. While
+Schneider Electric entities must align with the Company’s strategy
+described throughout the DEI Policy, countries have the flexibility to
+adapt the policy at the country level according to local laws, market
+practice, perceived value to employees, and specific business
+requirements.
+Schneider Electric is committed to the United Nations Free and
+Equal Standards of Conduct for Business on Tackling
+Discrimination against LGBT+ People, standing up for equal rights
+and fair treatment for LGBT+ people everywhere. Across the globe,
+Schneider Electric has also made public statements of support to
+advance LGBT+ inclusion. By adopting these standards, the Group
+pledges to respect and stand up for the human rights of LGBT+
+workers, customers, and members of the public; to support our
+LGBT+ employees, further build inclusion in the workplace, and to
+prevent discrimination, including workplace discrimination, against
+LGBT+ people.
+In 2024, as part of the annual employee engagement survey,
+Schneider Electric conducted a Self-ID pilot in Canada, China,
+Mexico, and the US to better understand the employee
+demographics. The pilot countries constitute to a total of 47,556
+employees out of which 11% employees self-identified as part of
+LGBT+ community, while 21% employees prefer not to answer.
+Global strategic partnerships:
+• United Nations GEF, a global multi-stakeholder initiative that
+brings together representatives from the private sector, Member
+States, United Nations entities, and civil societies, including
+youth organizations and networks, to accelerate progress for
+gender equality around the world.
+• United Nations Women’s Empowerment Principles (WEPs).
+Schneider Electric became the first multinational Group to
+achieve 100% commitment to the WEPs across its global
+leadership team. In 2024 the Group assessed itself against
+the WEP framework and is using those results to build
+continual improvement and advancement in ensuring
+women’s empowerment.
+In 2021, the baseline was 41/23/24 – with women representing 41%
+of all new hires, 23% of frontline managers, and 24% of senior
+leadership.
+While significant progress has been made in the representation of
+women, especially on the Board and Executive Committee level,
+the Group recognizes that there is more work to do at all levels in
+the organization.
+Non-IT Integrated Entities (NIIEs) that were acquired after 2021 are
+not part of the SSI #8 program. These entities include AVEVA,
+IGE+XAO, Lauritz Knudsen, Luminous, RIB Software, ProLeiT,
+and ETAP.</t>
+  </si>
+  <si>
+    <t>226-227</t>
+  </si>
+  <si>
+    <t>Schneider Electric empowers its people across
+regions and generations offering equal
+opportunities. The Group motivates its
+employees and promotes their involvement by
+making the most of diversity, supporting
+professional development, and ensuring safe,
+healthy working conditions</t>
+  </si>
+  <si>
+    <t>Risk description
+The growth of the Group’s businesses in markets around the world,
+the digital transformation, and the rapidly evolving context of the
+“next normal” requires an increased focus on talent. Shaping the
+workforce of the future depends on the Group’s ability to attract,
+hire, onboard, develop, and retain the best talent. Critical skills,
+especially in the areas of technologies, software, services,
+sustainability, supply chain, quality, and electronics must be
+prioritized. Workforce diversity, equity, and inclusion – especially
+gender, generation, and nationality/ethnicity – also need to be a
+priority to ensure equal opportunities for everyone, everywhere.
+Competition for attracting and recruiting talent in a tight labor
+market is intense, and the challenge is amplified for critical digital
+and technical skill sets in key markets. Accelerating skill
+development (upskilling and reskilling) of employees and the
+development of leaders who can lead transformation and build
+human connections in a digital world is also necessary to reduce
+the risk of skill gaps and bring greater organizational agility.
+Beyond core programs and initiatives, there is a big focus on
+the overall sense of purpose, culture, and way of working
+for employees.
+Simultaneously, by implementing the appropriate policies and
+programs, the Group can foster a culture of innovation and
+expertise, enhance its reputation as an employer of choice and
+a leader in nurturing essential skills within its workforce, and
+ultimately gain a competitive edge in the market</t>
+  </si>
+  <si>
+    <t>Gender diversity within the Board
+As prescribed by Article L. 225-18-1 and L. 22-10-3 of the French
+Commercial Code, the proportion of Directors of each gender must
+be at least 40%, it being specified that the Directors representing
+the employees and the Director representing the employee
+shareholders are not counted to assess said proportion of 40%
+(Articles L. 225-27 and L. 225-23 of the French Commercial Code).
+The gender diversity ratio of the Board of Directors, should the
+ratification of the co-optation of Mrs. Clotilde Delbos be confirmed
+at the 2025 Annual Shareholders’ Meeting, will reach 43% women
+(excluding the Employee Directors and the Employee Shareholders
+Director).
+Gender diversity policy within the management of
+the Company
+Schneider Electric is deeply committed towards diversity in general
+and gender diversity in particular. Schneider Electric focuses on
+taking proactive measures to encourage a balanced representation
+of men and women at the leadership level: the proportion of women
+at the Executive Committee level was 40% in 2024 (vs. 41% in
+2023). For the leadership pool, comprising of the top leaders
+(Vice-Presidents and above, excluding direct reports to the CEO,
+around 1,101 employees), the female representation is 31% (+2pts
+vs. 2023).
+At its meeting on December 17, 2024, the Board of Directors
+reviewed Senior Management’s ambitions regarding the balanced
+representation of men and women at the leadership level and noted
+that the objectives(1) are set to:
+• At least 40% women at the Executive Committee; and
+• At least 30% women among the leadership (Vice-President and
+above; around 1,101 employees).
+To achieve these objectives and further improve gender diversity,
+the Group aims at attracting female talents by offering a leadership
+training program and dedicated mentoring, an equal treatment
+policy, and a tailored family leave policy.</t>
+  </si>
+  <si>
+    <t>Social dialogue in China
+Schneider Electric in China continues to drive a robust culture of
+social dialogue across 30 legal entities and 100 locations. In 2024,
+the Company intensified efforts to enhance employee experience
+and development through regular communications at all levels and
+comprehensive discussions relevant to various roles.
+• Creative local activities have been conducted to promote the
+evolved Company Values (IMPACT Values) and multiple
+workshops facilitated for employees.
+• Diversity, equity, and inclusion initiatives engage both early
+professionals and experienced experts with facilitations of
+multi-generational connections</t>
+  </si>
+  <si>
+    <t>Our 2025 sustainability commitments
+With less than 10 years left to reach the 17 United Nations Sustainable Development Goals (SDGs), Schneider Electric has accelerated its
+impact and is making new, bold commitments to drive meaningful impact within the framework of its business activity. Schneider Electric’s
+6 long-term commitments are to:
+Create equal opportunities by ensuring all employees are uniquely valued in an inclusive environment to
+develop and contribute their best.</t>
+  </si>
+  <si>
+    <t>Equal treatment and
+opportunities for all
+Positive Impact
+(Potential)
+Improve employees’ well-being and feeling of belonging:
+The Group’s strategy is to foster a diverse and inclusive workplace to create a feeling of belonging,
+where they feel included, respected, and cared for.</t>
+  </si>
+  <si>
+    <t>Equal treatment and opportunities for all
+The Group sees a business opportunity in increasing employee
+engagement, which can lead to improved productivity rates. Not
+investing in skills development poses a risk, as the organization
+may lack the necessary competencies to meet business needs.
+Being perceived as an ethical company enhances the Group’s
+employer brand and aids in attracting and retaining talents.
+However, there is a legal risk associated with potential lawsuits
+arising from discrimination cases</t>
+  </si>
+  <si>
+    <t>Positive impacts
+The Group is dedicated to fostering an inclusive and caring
+environment, where our people—no matter who they are or where
+in the world they live— feel they belong and are valued. By
+prioritizing equal treatment and opportunities for all, the Group has
+observed positive impacts on the well-being of its workforce. This
+commitment to an inclusive workplace culture positively affects
+both employees and non-employees, contributing to a sense of
+belonging and enhanced morale across the organization.</t>
+  </si>
+  <si>
+    <t>Through its Trust programs, Schneider Electric aims to prevent, detect, and mitigate integrity risks including corruption, fraud, violation
+of human rights, health and safety, responsible workplace (including discrimination, harassment, and sexual harassment), anti-
+competitive practices, sanctions and export control, tax law, quality, cybersecurity, as well as data privacy and protection. The
+program design and operation are influenced by the Group’s risk profile, business model, organizational structure, and culture.</t>
+  </si>
+  <si>
+    <t>Our commitment to diversity, including gender diversity, is
+reinforced by our multi-hub model, which attracts and retains
+diverse talent globally. This approach has positively impacted our
+workforce engagement and commitment, ensuring we remain close
+to our customers and responsive to their needs.</t>
+  </si>
+  <si>
+    <t>A 50/40/30 ambition towards gender: 50% of women in
+hiring, 40% in frontline management, and 30% in leadership
+(Vice-President and above);
+• Policies for family leave, pay equity, and flexible “new ways of
+working”, supplemented with a strong program of activities to
+accelerate the diversity, equity, and inclusion agenda and focus
+on employee well-being, especially mental health;</t>
+  </si>
+  <si>
+    <t>Additional missions of
+the Board of Directors
+To determine targets in terms of gender balance within the executive bodies and ensure that the Executive
+Corporate Officers implement a policy of non-discrimination and diversity, notably with regard to the balanced
+gender representation on the executive bodies.</t>
+  </si>
+  <si>
+    <t>To enable the Board to exercise its duties as defined in 2.1. and beyond its specific powers summarized in 2.2., the Board of
+Directors’ remits include:
+to determine targets in terms of gender balance within the executive bodies and ensure that the Executive Corporate Officers
+implement a policy of non-discrimination and diversity, notably with regard to the balanced gender representation on the
+executive bodies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> People protection is
+emphasized on, in particular:
+• A procedure to ensure Schneider Electric’s zero-tolerance
+policy against retaliation by prohibiting retaliation or other
+discrimination, and a prompt, independent and objective case
+management investigation;</t>
+  </si>
+  <si>
+    <t>In its Trust Charter (Schneider Electric’s Code of Conduct),
+Schneider commits to follow all the requirements to build and
+sustain fruitful and mutually beneficial relationships between labor
+organizations and management, in accordance with local
+regulations, in every country where it operates. In its Group
+Human Rights Policy, Schneider Electric reaffirms those
+principles as the basis for a regular dialogue between management
+and employees. To that purpose, Schneider Electric respects the
+individual right of its employees to freely join, participate in, or quit
+labor organizations to assert and defend their interests.
+Read more in section 2.2.1.1.3 on pages 102 to 107.
+Read more on the Human Rights Policy in section
+2.2.3.2.2 on pages 237 and 238.
+Subsequently, Schneider Electric guarantees that any Employee
+wishing to do so, shall be protected against any internal measure
+limiting his or her freedom of association, such as discrimination of
+any kind, pay loss, or dismissal.
+In case of any issue, employees are encouraged to report, using
+the internal reporting tool for unethical behavior or misconduct,
+called the “Trust Line”.</t>
+  </si>
+  <si>
+    <t>The Global Inclusion and Care team, reporting to the SVP Talent,
+Inclusion &amp; Culture who also acts as the Chief Diversity Officer,
+defines the strategy and is accountable to deliver on Schneider
+Electric’s transformation, working with the Group’s Executive
+Committee and the Group Global DEI Board. Progress and results
+of the ambition are also reported to the Board of Schneider Electric
+(Human Capital &amp; Remunerations Committee and Governance,
+Nominations &amp; Sustainability Committee) on an annual basis. The
+team works in close collaboration with the HR Centers of
+Excellence (Talent Acquisition, Talent Management, Learning and
+Rewards), and the Sustainability, Compliance and Risk
+Management, Employee Communications, and Marketing and
+Employer Branding teams, as well as with the broader HR and
+Communication ecosystem.
+Schneider Electric’s Global DEI Board is a group of top leaders
+from all the Group’s markets, sponsored by the Executive
+Committee, which acts as a sounding board for the Global
+Inclusion &amp; Care strategy, and as internal and external DEI
+champions. In 2024, the DEI Board met four times to discuss topics
+such as gender and pay equity, discrimination and harassment,
+and accessibility.
+Schneider Electric entities develop local action plans based on the
+global strategy and employee feedback, while meeting local
+regulations and addressing country-specific needs.</t>
+  </si>
+  <si>
+    <t>Fair treatment
+in employment
+Employment should be based on merit and the ability to do the job, and fair treatment should be extended
+to all employees. Differences in lifestyle, choices, etc., often become a source of discrimination,
+victimization, and harassment. This curbs freedom of expression, hiding preferences, and creates mental
+health challenges. Companies should ensure a workplace that accepts diversity and provides an inclusive
+work environment.</t>
+  </si>
+  <si>
+    <t>Responsible workplace
+Employee engagement process
+Engaged employees are key to enable the Company to be at its
+best and support the achievement of the Group strategy.
+Employees are invited to share their honest feedback through an
+annual engagement survey, which measures ten key drivers,
+including well-being, inclusion, recognition, and empowerment.
+Through the information collected, the Company gains greater
+understanding of the views of employees, including areas of
+strength and improvement. Insights are used to inform action plans
+across the organization. Leaders are guided to co-create the
+actions with their teams, reinforcing the dialogue needed to shape
+the workplace of tomorrow.
+This process also contributes to the impacts, risks, and
+opportunities mentioned in the beginning of this chapter.
+Action plan
+Supported by a global network of engagement partners and HR
+Business Partners, each year managers communicate results to
+their teams and formulate impactful action plans to drive change.
+In 2024, several initiatives were implemented to further support
+managers following survey closure:
+• Manager journey defined through three phases: Assess
+(understand team results), Huddle (share results and collaborate
+on focus areas), and Act (finalize and implement action plan).
+• Refreshed Manager Report and Dashboard Toolkit, empowering
+managers to quickly share results with their teams.
+• Action plan and communication templates for consistency and
+efficiency.
+• Dedicated manager results dashboard, with guiding content
+and reminders of key next steps.
+The Global Supply Chain organization provides a notable example
+of acting for impact through the implementation of a tailored
+leadership program, focused on nurturing the entrepreneurial spirit
+and growth mindset of managers. Evidenced by manager and
+employee feedback from the European division, this program is
+already making a difference with enhanced collaboration,
+empowerment, and communication.
+Target
+Schneider’s ambition is to achieve 75% engagement score by the
+end of 2025 (SSE #24).
+2024 highlights:
+• High response rate of 88%, with a stable engagement score vs.
+2023, at 73%.
+• The two top scoring drivers indicate that employees feel
+empowered (80%) in their work, and benefit from flexible work
+arrangements (81%).
+• Recognition (61%) and collaboration (59%) noted as two lowest
+scoring drivers requiring continued focus.
+Participation
+88%
+121,805 responses
+(+7,184 since 2023)
+Engagement
+73%
+engagement stable
+vs. 2023
+Action plans
+78%
+of employees agree on
+the positive impact of
+action plans
+Managers
+43%
+of managers have
+access to team level
+results
+The survey includes two open ended questions, where employees
+can submit their comments on what makes them proud to work at
+Schneider Electric and what they identify as areas of improvement.
+This allows employees to share their views on any topic, including
+working conditions.
+Through these comments, employees have expressed pride in
+delivering innovative and sustainable solutions for customers,
+appreciation for Company well-being initiatives, and feeling
+supported by positive team experiences. Improvement
+opportunities were identified to further streamline processes,
+provide additional technical training, and reinforce clear
+communications for team collaboration and cohesion.
+81%
+feel they have the
+flexibility to modify their
+work arrangement when
+needed
+80%
+feel empowered to
+choose how best to
+complete their work
+61%
+say they receive
+appropriate recognition
+for their contributions
+and accomplishments
+59%
+find the collaboration is
+good between different
+teams</t>
+  </si>
+  <si>
+    <t>Social dialogue
+Policy
+Social dialogue and freedom of association are to be seen within
+the wider context of ethics and responsibility. As a Global
+company, Schneider Electric believes that its responsibility goes
+beyond compliance with local and international regulations and is
+therefore committed to conducting its business ethically,
+sustainably and in a responsible manner. As the Group’s borders
+are expanding, its activities and impact being global, its social
+responsibilities are growing.
+In the context of transformative growth, it is the Company’s
+ambition to maintain the highest confidence and engagement from
+all employees, sharing vision and getting insights directly from
+employees, or through their representatives, depending of the legal
+framework, to ensure a fair two-way dialogue everywhere. Policies
+and agreements in place define the framework for this two-way
+dialogue.
+In addition, social dialogue at Schneider Electric includes also the
+continuous listening culture with the annual survey “OneVoice”, sent
+to all employees, allowing them to share their feedback on a
+voluntary basis, on key topics related to their workplace and
+experience appreciation.
+In its Trust Charter (Schneider Electric’s Code of Conduct),
+Schneider commits to follow all the requirements to build and
+sustain fruitful and mutually beneficial relationships between labor
+organizations and management, in accordance with local
+regulations, in every country where it operates. In its Group
+Human Rights Policy, Schneider Electric reaffirms those
+principles as the basis for a regular dialogue between management
+and employees. To that purpose, Schneider Electric respects the
+individual right of its employees to freely join, participate in, or quit
+labor organizations to assert and defend their interests.
+Read more in section 2.2.1.1.3 on pages 102 to 107.
+Read more on the Human Rights Policy in section
+2.2.3.2.2 on pages 237 and 238.
+Subsequently, Schneider Electric guarantees that any Employee
+wishing to do so, shall be protected against any internal measure
+limiting his or her freedom of association, such as discrimination of
+any kind, pay loss, or dismissal.
+In case of any issue, employees are encouraged to report, using
+the internal reporting tool for unethical behavior or misconduct,
+called the “Trust Line”.
+Schneider Electric also values the importance of dialogue with
+freely appointed employee representatives, employee
+representative bodies (e.g., works councils or employee forums), or
+organizations (like trade unions), and supports collective
+bargaining. In addition, to provide multi-cultural social dialogue on
+transnational projects, the highest level of Leadership is engaged;
+as an example, the seat of European Works Council Chairperson is
+held by an HR Senior Vice-President, demonstrating Schneider’s
+involvement in that two-way dialogue.
+In addition to the above, the Group hardwires its principles in the
+way it manages social dialogue in countries. On transnational
+topics, engagement with employee representatives from European
+countries is described in the agreement signed in 2014. It contains
+engagement rules for the information, consultation and
+participation of Schneider Electric employees and representatives
+in Europe. This agreement describes the composition of the
+European Works Council, as well as the various roles of its
+members (Chairperson, Core Council, Secretary, plenary
+members) and the cadence of engagement, i.e. the yearly meeting
+with the plenary members, in addition to the quarterly meeting with
+the Core Council, as per circumstances. Each year, the level of
+participation from top leaders of the Company, as well as the strong
+participation rate of all employee representatives from Europe,
+demonstrates common interest in this dialogue.
+Action plan
+Concretely, social dialogue at Schneider Electric is managed at
+country level by HR leaders with the employee representative
+bodies and/or unions, in compliance with local legislation. Some
+examples of social dialogue management in key regions where the
+Company operates can be found below.
+At transnational level, social dialogue is managed with the
+European Works Council which comprises employee
+representatives covering European Economic Area Countries, in
+addition to UK and Switzerland, as per agreement described
+above.
+While changing the corporate form of its parent company,
+Schneider Electric SA, into a European company (Société
+européenne), Schneider Electric negotiated then an agreement
+with employee representatives of European countries about the
+involvement of these countries’ employees in the Company’s
+decision-making process, thus reaffirming its intention to provide
+regular, efficient, multi-cultural, and innovative social dialogue at
+the European level, taking into account the voice of employees on
+the transnational projects of the Company related to its
+developments and economic, financial, and social strategies at
+European level.
+In addition, Schneider joined the Global Deal initiative in 2017,
+which promotes social dialogue and sound industrial relations, as
+effective means for achieving decent work and inclusive growth.
+Since 2021, social dialogue is included into the Group’s social
+reporting on Decent Work. Local HR teams report on a yearly basis
+on the presence of employee representation bodies in their
+countries and the percentage of employees covered by collective
+agreements.</t>
+  </si>
+  <si>
+    <t>Social dialogue at European level
+In the last years, Schneider Electric has significantly enhanced the
+intensity and the impact of social dialogue at European level,
+making live the ongoing agreement on the “information,
+consultation, and participation of employees in Europe”, inviting top
+level of Management to contribute to social dialogue, present their
+Business strategy and make decisions, enriched by the employee
+representatives’ insights and views.
+More frequent meetings and workshops have been organized,
+giving members the opportunity to collaborate and be informed of
+such projects or decisions and to understand context, as well as to
+express proposals to supplement or improve them.
+In this respect, new spaces for expression have been explored in
+order to strengthen contributions of the EWC members on strategic
+topics through active workshops for reflection and ideation, namely
+for the evolution of the Company’s Core Values, reflection on the
+Group sustainability strategy, the deployment of the Global Senior
+Talent program and the reinforcement of sexual harassment
+prevention. The benefits of these workshops were several, starting
+with a better awareness on these topics by the members, and an
+opportunity to impact upstream on key programs and strategic
+decisions.
+EWC members, during the 2024 Plenary meeting at the Headquarters
+in Rueil Malmaison, with special guest, an employee representative
+from Algeria.
+Social dialogue in France
+Schneider Electric is organized in France through more than 25
+legal entities. However, with 75% employee coverage, Schneider
+Electric Industries and Schneider Electric France SAS set the tone
+for social dialogue in France mainly through the Central Works
+Council and the Group Committee.
+During 2024, Schneider Electric kept deploying the implementation
+of the new collective agreement for the Metallurgy branch, the
+largest branch in France, effective from January 1, 2024, including
+discussions with unions on job classifications, working time, and
+leave policies. Schneider Electric negotiated also several collective
+agreements, among which, one to facilitate and anticipate job
+evolutions in the Group (management of jobs and professional
+backgrounds) and enable employees to develop their internal and
+external employability with measures such as trainings or external
+experiences.
+Social dialogue in the United States
+Regular two-way communication takes place with both union and
+non-union teams to provide key business updates and gather
+feedback from employees, to promote continuous improvement
+and increased employee engagement.
+Ongoing communication is provided to employees through daily
+short interval meetings and regular Town Hall meetings on key
+competitive issues impacting the Company, focus areas, and
+priorities, as well as updates on improvements made from
+employee feedback.
+Company officials meet with key international union leaders and
+local union leadership on an ongoing basis, and formally on an
+annual basis, to advise and discuss competitive issues impacting
+the Company’s business, strategic focus areas, and to gather
+additional feedback from employees. In 2024, contract negotiations
+took place resulting in successful contract ratification.
+Social dialogue in Mexico
+In 2024, in addition to regular two-way communication with
+employees and their representatives, and in respect of Mexican
+laws, Schneider Electric concluded negotiations with a voting
+process involving 2,700 employees across two sites, while in
+parallel, salary negotiations were organized, benefiting 10,300
+unionized employees across four sites. As per collective bargaining
+agreements, two new buildings have been built to further improve
+employee working conditions.
+Social dialogue in China
+Schneider Electric in China continues to drive a robust culture of
+social dialogue across 30 legal entities and 100 locations. In 2024,
+the Company intensified efforts to enhance employee experience
+and development through regular communications at all levels and
+comprehensive discussions relevant to various roles.
+• Creative local activities have been conducted to promote the
+evolved Company Values (IMPACT Values) and multiple
+workshops facilitated for employees.
+• Diversity, equity, and inclusion initiatives engage both early
+professionals and experienced experts with facilitations of
+multi-generational connections.
+• Transparent discussions, career open day events, workshops,
+and talent mobility programs accelerate sustainable career
+development, fostering impactful dialogues about employees’
+future.
+• Development remains a priority, with a focus on skill-based
+learning, offering customized courses for diverse business
+scenarios and targeted roles like Sales, Technical, Digital, and
+Supply Chain. Average learning hours reach 23, with 74%
+learned through digital channels.
+• Externally, over 3,100 employees and their families collaborated
+in union-led social and environmental protection initiatives
+across nine cities, such as forest and marine conservations.
+ocial dialogue in India
+Schneider Electric India has a strong culture of social dialogue with
+all employees (unionized and non-unionized) engaged in equitable
+industrial relations across its plants and associated establishments.
+Industrial harmony has been achieved through a time-tested
+collective bargaining process involving unions or through worker
+representative committees (salary related issues, medical
+insurance, and benefits are discussed with unions/work
+committees).
+In some of the plants where there are no recognized unions, this
+bargaining process is conducted with the elected representatives
+from within the employees who form committees such as Welfare
+(works committee). The Company also has strong engagement with
+other committees such as Health &amp; Safety, Canteen, Sports, and
+Transport, including a special committee for women employees. In
+addition, the Prevention of Sexual Harassment Committee, which is
+fully compliant with the prevention of sexual harassment
+governance as per local laws, comprises employees and external
+women with specialist knowledge of the subject and with legal
+backgrounds. These committees provide a platform for employees
+to present their concerns, collective grievances, and workplace-
+related issues to management, and actions are initiated based on
+the recommendations of these committees. All employee
+engagement programs are run through these committees with the
+active participation of every employee.
+The process of social dialogue also includes monthly employee
+communication at plant level, as well as through quarterly Town Hall
+communications on Company performance, strategy, and
+challenges, engaging employees on various cultural events, such
+as Health talk series, and encouraging them to participate in
+activities, such as go-green initiatives (tree plantation activities,
+Green Yodha initiatives).
+Target and metric
+The Group’s ambition is to embark all employees in the
+transformative growth as everyone’s engagement is key and social
+dialogue is a key enabler.
+Each year, a survey is launched in the framework of the Decent
+Work program to identify the percentage of employees covered by
+collective bargaining agreements and those covered by employee
+representation, ensuring that a risk analysis is conducted locally for
+mitigation plan, where relevant.
+Questions raised at regional level are about confirming their
+support to freedom of association and collective bargaining – with
+supporting evidence – and what are the key risks and how they
+address them.
+Collective bargaining coverage and social dialogue
+Collective Bargaining
+Coverage Social Dialogue
+Coverage Rate Employees – EEA
+Workplace Representation
+(EEA only)
+80–100%
+Austria
+Belgium
+Czech Republic
+Germany
+Spain
+France
+Hungary
+Italy
+Norway
+Poland
+Portugal
+Sweden
+Austria
+Belgium
+Bulgaria
+Croatia
+Czech Republic
+Denmark
+France
+Germany
+Hungary
+Ireland
+Italy
+Latvia
+Netherlands
+Norway
+Poland
+Romania
+Slovenia
+Spain
+Sweden
+60–79%
+40–59%
+20–39% Denmark
+0–19%
+Bulgaria
+Estonia
+Finland
+Greece
+Croatia
+Ireland
+Lithuania
+Latvia
+Netherlands
+Romania
+Slovenia
+Slovakia
+Estonia
+Finland
+Greece
+Lithuania
+Portugal
+Slovakia
+A survey has been launched to HR Leaders of each Country
+belonging to the European Economic Area (EEA). Each legal entity
+within the scope of CSRD provided data on Employee
+Representation and existence of collective bargaining agreements.
+As per collected data from EEA countries:
+• around 91% of our Employees at Schneider Electric are covered
+by collective bargaining agreements.
+• around 98% of total employees are represented by Employee
+Representatives locally.
+Low representation in some EEA countries is linked to countries
+with small headcounts. However, in all EEA countries where we
+operate, each country with more than 150 employees has at least
+one seat at the European Works Council (EWC) to represent and
+voice Employees’ views (as per 2014 EWC agreement). In addition,
+as per same EWC agreement, UK and Switzerland have Employee
+Representatives at European Works Council.
+At Global level, as per Global Human Rights Policy, SE protects
+freedom of association and values social dialogue with employee
+representatives, in respect of local rules. Global standards are
+being defined to go further in all the countries where we operate.
+Today, at global level, 78% of employees are covered by collective
+bargaining agreements and 60% of our employees are represented
+by unions to improve further the two-way dialogue with our
+employees. This comes in addition to our listening culture (One
+Voice annual employee survey), our internal whistleblowing
+platform on potential unethical issue (Trust Line) and existing
+Decent work program for our employees.</t>
+  </si>
+  <si>
+    <t>213-215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Group sees a business opportunity in increasing employee
+engagement, which can lead to improved productivity rates. </t>
+  </si>
+  <si>
+    <t>The Group listens to
+employees through a
+number of different
+channels, both formally
+and informally. Three of
+the Board Directors are
+employees of the
+Company, appointed
+through a formal
+designation process.
+The Group runs
+OneVoice internal
+survey designed to
+measure employee
+satisfaction and
+engagement; the
+Group also recognizes
+the importance of
+dialogue and engages
+with the local work
+councils on
+compensation matters
+on a regular basis.</t>
+  </si>
+  <si>
+    <t>SSE #24: 75% employee engagement score
+A high Employee Engagement Index is linked to higher sales
+growth, higher operating income, and ultimately higher customer
+satisfaction and loyalty toward the Company. This index is
+calculated once a year through a survey called OneVoice, sent to
+100% of the Group employees, and serves a starting point to adapt
+its people strategy and action plans.
+The computation of this KPI includes all Schneider employees
+treated as permanent workforce (i.e., open-ended and fixed-term
+contracts over 3 months), thus excluding interns or third-party
+contractors.
+The Kincentric employee engagement model is used, composed of
+6 questions, 2 per item (SAY, STAY, STRIVE), scored on a 6-point
+scale by employees:
+• Employee Engagement Index: is the percentage of people
+for which the average of the six questions is equal or higher
+than 4.5;
+• Employee Disengagement: percentage of people for which the
+average of the six questions is equal or lower than 3.5;
+• Neutral: is the percentage of people for which the average of the
+six questions is scored between 3.5 and 4.5.
+PwC provided limited assurance on this indicator.</t>
+  </si>
+  <si>
+    <t>In addition, Schneider recognizes the importance of this two-way
+dialogue either directly with employees – and/or with freely
+appointed employee representatives and bodies (such as Works
+Councils or employee forums) or organizations (like trade unions),
+as stated in its Global Human Rights Policy. This two-way dialogue
+is a key enabler to employees’ engagement and the Company’s
+performance.</t>
+  </si>
+  <si>
+    <t>Schneider Sustainability Essentials
+6 Long-term Commitments
+aligned to UN SDGs 25 Programs for 2021-2025 Baseline (1) 2024 Progress (2) 2025 Ambition
+24. Increase our employee engagement level 2020: 69% 0% 73% 75%</t>
+  </si>
+  <si>
+    <t>Generations SSE #24
+Increase our
+employee
+engagement level
+Measured through the annual
+employee engagement
+survey, which has a high
+response rate of 88%,
+Schneider Electric maintains
+in 2024 a strong level
+of engagement at 73%</t>
+  </si>
+  <si>
+    <t>Corrective actions
+Deficiencies in the implementation of the Trust programs –
+potentially reported through whistleblowing – are analyzed to
+identify their cause and remedy them with appropriate measures,
+which can take the form of:
+• Disciplinary measures decided by the relevant managers
+together with Human Resources, or by the Group Disciplinary
+Committee for the most sensitive alerts based on the findings of
+an investigation and depending on local disciplinary policies
+and law;
+• Remediation measures (such as launching a specific audit,
+reviewing a process, or performing training);
+• External actions (such as entering civil litigation or similar
+legal proceedings).
+In 2024, Schneider Electric has published its first Group
+Disciplinary Policy, which aims to achieve and maintain
+transparency and consistency by establishing a framework for
+Disciplinary Actions in case of violations of the Trust Charter,
+associated Group policies, and applicable laws and regulations.
+It supports the guidance and recommendations provided by
+competent authorities and bodies regarding Disciplinary Actions</t>
+  </si>
+  <si>
+    <t>The Human Rights Policy’s objective is to define the Group’s
+position on human rights along its value chain, including forced
+labor, health and safety, or working conditions. The Group both
+states in the document that “to the best of its knowledge, it refrains
+from working with business partners that are using forced or
+compulsory labor in their operations” and that it “is committed to
+ensuring that human rights are respected not only in its own
+operations but throughout its value chain. The Group considers that
+a company should seek to provide decent work not only to its own
+employees but the same should be extended to its value chain”.
+It also states Schneider Electric’s commitment to provide or support
+remedy in case the Group has caused or contributed to a negative
+impact. The Human Rights Policy serves as a set of rules
+applicable to its daily operations for Schneider Electric and
+its employees.
+The policy is available in eight languages and applies to all
+Schneider Electric affiliates. It is applicable to all Schneider Electric
+permanent or temporary employees working on Group premises.
+It also aims to inspire external stakeholders. The policy provides a
+framework and gives guidance to employees and teams on how to
+behave in their daily operations or when facing a specific situation.
+Schneider Electric’s Human Rights Policy is available
+publicly on www.se.com</t>
+  </si>
+  <si>
+    <t>Decent working
+hours
+Excessive working hours is a legal violation, often accepted as “necessary”. It is generally connected with
+low industrial wages and used as an excuse to not provide appropriate wages. Companies should review
+and remediate excessive hours and should align with the legal and/or international requirements.</t>
+  </si>
+  <si>
+    <t>Positive impacts
+The Group is dedicated to fostering an inclusive and caring
+environment, where our people—no matter who they are or where
+in the world they live— feel they belong and are valued. By
+prioritizing equal treatment and opportunities for all, the Group has
+observed positive impacts on the well-being of its workforce. This
+commitment to an inclusive workplace culture positively affects
+both employees and non-employees, contributing to a sense of
+belonging and enhanced morale across the organization.
+Additionally, the Group actively invests in the training and skills
+development of its workforce, recognizing the direct correlation
+between these activities and the well-being and employability of its
+workforce. Through continuous learning opportunities and
+professional development programs, the Group empowers its
+workforce, enabling individuals to advance their careers and adapt
+to the evolving demands of the global market.</t>
+  </si>
+  <si>
+    <t>qual treatment and
+opportunities for all
+Positive Impact
+(Potential)
+Improve employees’ well-being and feeling of belonging:
+The Group’s strategy is to foster a diverse and inclusive workplace to create a feeling of belonging,
+where they feel included, respected, and cared for.
+Training and skills
+development
+Positive Impact
+(Potential)
+Improve employability of employees:
+Resulting from the Group’s human capital strategy to continuously develop the skills of its workforce</t>
+  </si>
+  <si>
+    <t>2.2.3.1 Great people make Schneider Electric a great
+company (ESRS S1)” where the objective is to specify
+disclosure requirements that enable stakeholders to understand
+how Schneider Electric is organized to propose the best
+working experience possible, including material positive and
+negative impacts, mitigation efforts, and adaptation strategies. It
+covers working conditions, health and safety, equal treatment,
+and training and skills development</t>
+  </si>
+  <si>
+    <t>Built on a foundation of trust and respect, Schneider Electric
+continuously implements and improves its policies, education, and
+practices to support employees and respect their unique lives and
+ways of working. As part of Schneider Electric’s annual employee
+engagement survey, 74% of employees feel that the organization
+actively looks after the well-being of its employees and 81% of
+employees say that they have the flexibility to modify their work
+arrangements as needed. These numbers help the organization
+understand the impact of its policies and actions as well as help
+inform the future actions.</t>
+  </si>
+  <si>
+    <t>Amplifying a culture of growth and impact
+Schneider Electric’s approach to performance management is
+anchored by the Group’s Employee Value Proposition “Impact
+starts with us” and it is a key enabler to its collective success and
+demonstration of its IMPACT values. At the heart of this culture is
+the belief that everyone is a talent and has the potential to be an
+Impact Maker, translating their goals into real actions through
+meaningful discussions, feedback, coaching, and recognition.
+The Group’s robust process of setting individual performance
+and development goals set clear expectations for individual and
+collective performance. The performance management framework
+(1) This includes employees whose employment status is active (or suspended, which is country specific), who are on permanent/ fixed term contract type, who are
+information workers and those who were hired on or before 30 Sept 2024, in addition to country or entity specific conditions.
+assumes positive intent, meaning Schneider trusts that its
+employees aim to make an impact. Impact is not measured solely
+by activity, but the outcomes which benefit customers, the business
+or team.
+Employees’ overall impact is assessed considering the following
+three dimensions equally:
+• Individual behaviors aligning with IMPACT Values
+• Individual achievements
+• Contributions to others’ success
+Schneider Electric employees are encouraged to seek, give, and
+receive feedback, empowering them to take ownership for driving
+their individual impact. Managers are encouraged to have regular,
+agile and meaningful conversations throughout the year with
+coaching, feedback and recognition while re-visiting goals and
+priorities. Managers set team goals aligning with the collective
+team priority to win as a team and achieve together. In 2024,
+99.4% of eligible employees(1) completed a performance and
+development review.
+(*)This includes employees whose employment status is active (or
+suspended, which is country specific), who are on permanent/
+fixed term contract type, who are information workers and those
+who were hired on or before 30 Sept 2024, in addition to country or
+entity specific conditions.
+Enabling sustainable careers
+The Group recognizes that its people are the driving force fueling
+Schneider’s profitable growth and empowers them to grow to their
+fullest potential by developing new skills and building careers for
+today and tomorrow. In line with the conviction that all employees
+are talent and the aim to provide equitable development
+opportunities for all, Schneider Electric considers that all
+employees should take ownership of their own unique career
+development, supported by their managers and enabled by digital
+tools. The Group encourages employees to build a sustainable
+T-shaped career by striking the balance between deepening their
+expertise in different domains and broadening their skillset through
+experiences in diverse contexts to increase their impact. This will
+help them keep themselves relevant and marketable in a rapidly
+changing world.
+To empower and engage employees with this approach, Schneider
+Electric held its fourth edition of “Career Days” for all employees in
+2024. Under the theme “Unleash your skills for growth and impact”
+more than 100 events took place with employees participating from
+over 100 countries; getting inspired by diverse career stories,
+unleashing the power of networking and mentoring, having career
+conversations, learning about different roles, skills, and industry
+trends, and being equipped with tools and resources to develop,
+grow, and shape their future. 94% of employees surveyed were
+positive about the program, highlighting that it helped them to
+reflect about their career aspirations, encouraged them to own their
+career, and inspired them to build a more sustainable career. The
+Career Days theme, design, and activities are shaped every year
+by considering both the strategic people priorities and the
+feedback from Schneider Electric employees provided in the
+annual engagement survey and in the targeted Career
+Development survey.</t>
+  </si>
+  <si>
+    <t>To accompany employees in creating a future based on their
+individual aspirations, Schneider Electric Initiatives (which groups
+Creation Pass, Solidarity Pass, Competencies Pass, Education
+Pass, and Reconversion Pass) offers five innovative pathways to
+support employees in designing their professional future while
+having a positive impact on the local community.
+1. The Creation Pass: an internal support system to help
+employees start their own business. In the past 11 years, 795
+(54 in 2024) projects have been supported and 417 (12 in 2024)
+of them have resulted in the creation or takeover of a business.
+These businesses have created more than 520 (22 in 2024)
+jobs.
+2. The Solidarity Pass: a skill sponsorship which allows employees
+to offer their skills, energy, and dedication to an NGO. In the
+past 11 years, 147 (33 in 2024) employees have benefited from
+a Solidarity Pass.
+3. The Competencies Pass: a skill sponsorship where employees
+offer start-ups/SMEs their knowledge and skills to enable local
+economic development. In the past 11 years, 12 employees
+have benefited from a Compentencies Pass.
+4. The Education Pass: a skill sponsorship where employees can
+offer their knowledge and skills to an educational body (e.g.,
+partner universities and educational ministries). This Pass
+envelops the already known IPE (Ingenieurs pour l’école or
+Engineers for Schools) with 20 employees participating in 2024
+and a new option as a professor or training project leader in the
+Schneider Electric School or with a partner of the Schneider
+Electric School. In 2024, one employee benefited from this
+new format.
+5. The Reconversion Pass: this new format was added in 2024 to
+support an employee to be trained in a new profession and then
+transfer to a new job externally.
+Starting this year, employees are given even more flexibility to
+design their own career paths through offers with DuoPro, allowing
+them to continue working for Schneider Electric on a part time basis
+and using that extra time to either (1) work for another non-
+competing company, (2) freelance, or (3) create their own business.
+In France, these initiatives are connected to, represented in, and
+support local business networks, local public stakeholders, and
+local NGOs.</t>
+  </si>
+  <si>
+    <t>In addition to career programs for early talent, in 2021 Schneider
+launched its Senior Talent program with the firm belief that
+employees who are near or at the later stages of their professional
+careers (“senior talent”) bring unique expertise, experience, and
+wisdom to the business. The Senior Talent program recognizes this
+contribution and empowers them to continue making an impact on
+the Company while taking ownership and designing the next stage
+of their careers. The program is anchored in career conversations
+resulting in a robust development plan linked to their unique career
+aspirations and supported by different offers including new
+contractual opportunities, upskilling, knowledge transfer, pivoting,
+recognition, care, and personal planning among others.
+Since its launch, the Group has started to observe the positive
+impact of the program, which is being progressively deployed
+and scaled globally in waves.
+The commitment and progress are measured through SSE #23
+which aims at providing meaningful development programs for
+at least 90% of employees in the later stages of their career
+by 2025.</t>
+  </si>
+  <si>
+    <t>2.2.3.1.4 Equal treatment
+Impacts, risks and opportunities
+Equal treatment and opportunities
+Positive Impact Improve employees’ well-being and
+feeling of belonging
+With continuous global and local political, economic, and social
+challenges in the post-pandemic era, inclusion and care is needed
+more than ever. This, paired with the rising importance of ESG
+topics for organizations, stakeholders, and investors, puts Inclusion
+&amp; Care at the forefront of Schneider Electric’s business and people
+priorities.
+We live in a more and more polarized world, where megatrends
+create more inequities as well as opportunities for just energy and
+digital transitions. There will be no energy and digital transitions
+without bringing everyone along. Companies must play their part in
+the inclusion of all in their ecosystem to reach their growth
+ambitions while reducing inequalities. The regulatory environment
+becomes more stringent, and the landscape is more and more
+different by geography. As an Impact Company, Schneider Electric
+must adapt to this context to remain a leader in ESG. This means
+expanding its inclusion and care by design journey to create
+impact for customers, people, and the entire ecosystem.
+Inclusion &amp; Care is a marker of Schneider Electric and can continue
+to be a unique competitive advantage if tackled properly and
+genuinely. Schneider has identified three main risks around those
+topics:
+• Workforce diversity compared to the markets we serve – if our
+diversity is not mirroring the markets and customers we serve,
+we are at risk of not attracting and retaining the best talent and
+ultimately not meeting all customer needs.
+• Employee engagement, performance, retention, and corporate
+reputation are at risk when all employees do not have the same
+opportunity to grow and advance because of a lack of fairness
+and equity in people processes.
+• The regulatory environment becomes more stringent, and the
+landscape is more and more different by geography.
+On the flip side, the opportunities are huge when inclusion and
+care are by design in all processes and behaviors:
+• A Boston Consulting Group report shows that companies with
+more diverse management teams have reported 19% higher
+revenues due to innovation.
+• A study from Harvard Business Review shows that employees
+reporting a feeling of belonging, where they feel included and
+cared for are 3.5 times more engaged.
+Schneider Electric defines its strategy taking into consideration
+those risks and opportunities, internal and external trends, insights
+and feedback from leaders and employees.
+Schneider Electric believes this leads to greater engagement,
+performance, and innovation, and creates access to the best
+possible talent pools around the globe.</t>
+  </si>
+  <si>
+    <t>220-221</t>
+  </si>
+  <si>
+    <t>Training and skills
+development
+Impacts, risks and opportunities
+Training and skills development
+Positive Impact Improve employability of
+employees
+In today’s landscape, the ability to attract, develop, and retain
+talent is paramount for ensuring the sustained success of
+companies. Business growth in markets around the globe, in
+conjunction with the rapidly evolving world, requires focused
+acquisition and accelerated skill development, especially in
+technical, digital, human, and commercial areas, of the workforce.
+Schneider is committed to preparing and executing a robust
+build, buy, borrow workforce and talent plan to optimize its its
+future readiness and create a culture with shared values for
+all employees.
+Due to the current talent and skills scarcity in the market, the
+current VUCA (volatile, uncertain, complex, ambiguous) world and
+the unprecedented changes in the future of work, Schneider is not
+immune to talent and skills risks.
+The risk of not attracting, developing, and retaining the best talent
+in the market, especially for critical skills, would have an impact
+in terms of:
+• Cost of recruiting and onboarding;
+• Gaps in critical skills to drive growth and innovation and to
+stay ahead of the competition;
+• Succession pipeline for critical expert and leadership
+positions; and
+• Schneider ’s employer brand</t>
+  </si>
+  <si>
+    <t>Since the program launch in 2017, 5,300+
+leaders were trained. Perceived value/
+satisfaction was 4.4 - 4.9 across all program
+levels and cohorts.
+The feedback from the impact survey
+conducted in 2024 on a sample of 1,000 TSL
+graduates confirmed positive impact:
+• 87% agreed that TSL “changed my
+leadership for the better at Schneider
+Electric”
+• 91.8% agreed they “benefited from the
+program as a person”
+• 80.2% agreed “their work during and after
+the program has made a difference at
+Schneider Electric”. More specifically, they
+agreed that the program helped them: lead
+with more courage (78%); lead with more
+care (81%); enhance their resilience (74%);
+increase their ability to influence (76%); build
+closer relationships (74%); manage, diverse
+groups (82%); and build a broader network
+(79%).</t>
+  </si>
+  <si>
+    <t>Working conditions
+Impacts, risks and opportunities
+Working conditions
+Negative Impact Affect the mental and physical
+health of employees
+The worldwide context with climate change challenges, geopolitical
+issues and technology has accelerated the need for employee care
+to make all stronger and more resilient. Schneider Electric firmly
+believes that well-being generates performance and performance
+generates well-being.
+Well-being can be a unique competitive advantage if tackled
+properly and genuinely. Schneider has identified three main risks
+around those topics:
+• Poor working conditions may result in psycho-social risks.
+• Market research shows that well-being at work is on a persistent
+decline, hitting minority groups harder.
+• Employee engagement, performance, and retention are at risk
+when employee well-being is deteriorating.
+On the flip side, the opportunities are huge when inclusion and
+care are by design in all processes and behaviors:
+• Figures on stress and psychological risks, from Ecole du Stress
+shows that for every 1 euro invested in well-being prevention
+programs and practices, a company saves 2.2 euros.
+• A study from Forbes (“The Future of Work Depends on
+Supporting Gen Z”) shows that overall, DEI and well-being are
+strong drivers of attraction and retention among all generations,
+especially the younger ones.
+Schneider Electric defines its strategy taking into consideration
+those risks and opportunities, internal and external trends, insights
+and feedback from leaders and employees, and its desire to
+continue nurturing an inclusive and caring environment. Since
+2020, the Trust Charter included a chapter on well-being and new
+ways of working, highlighting behaviors expected from managers
+and employees.</t>
+  </si>
+  <si>
+    <t>Working conditions Negative Impact
+(Potential)
+Affect the mental and physical health of employees:
+Poor working conditions (excessive working hours, poor work-life balance, etc.) may emerge in any kind
+of workplace if a comprehensive human resource strategy is not in place, and can result in psycho-
+social risks, absenteeism increase, and injured workers.
+Health and safety Negative Impact
+(Actual)
+Damage the physical integrity of employees:
+The main potential risks of the industrial sector are connected to the Top 5 Hazards: falls, powered
+industrial trucks (PIT), machine, road, electrical.</t>
+  </si>
+  <si>
+    <t>Positive impact:
+5 Improve employees’ well-being and feeling of
+belonging through equal treatment and opportunities
+6 Improvement employability through training and
+skills development</t>
+  </si>
+  <si>
+    <t>SchneiderElectric_2025</t>
+  </si>
+  <si>
+    <t>Negative impact
+5 Affect the mental and physical health of employees
+related to working conditions
+6 Damage the physical integrity of employees through
+health and safety issue</t>
+  </si>
+  <si>
+    <t>hrough its Trust programs, Schneider Electric aims to prevent, detect, and mitigate integrity risks including corruption, fraud, violation
+of human rights, health and safety, responsible workplace (including discrimination, harassment, and sexual harassment), anti-
+competitive practices, sanctions and export control, tax law, quality, cybersecurity, as well as data privacy and protection. The
+program design and operation are influenced by the Group’s risk profile, business model, organizational structure, and culture.
+Each section of the Trust Charter states clear Dos and Don’ts and provides clear references to relevant policies and procedures,
+which are adapted to meet local legal requirements when necessary. This Code of Conduct applies to everyone working at Schneider
+Electric or any of Schneider Electric’s subsidiaries. It is both an individual and collective responsibility to comply and respect laws and
+regulations, to apply Schneider Electric policies, and to uphold strong ethical principles to earn trust at all times.
+Discover our Trust Charter on www.se.com</t>
+  </si>
+  <si>
+    <t>Working hours, mental health
+The second category of risk in this section is linked to long working
+hours, work pressure and the consequent psycho-social and
+mental health risks. Here, the risk is rather well captured, both
+internally and at suppliers and contractor’s place of operations.
+Following the COVID year, this risk has been increasing in a rather
+regular way. However, the set of actions deployed to reduce its
+negative impacts has also been enlarged, especially within
+Schneider Electric’s own operations.</t>
+  </si>
+  <si>
+    <t>Cybersecurity
+(entity-specific)
+Negative Impact
+(Potential)
+Risk health and safety impacts on people through industrial accidents:
+A Schneider Electric product could be used as a vector of entry/attack to IT systems of customers/
+partners. A compromise of firmware and software on fields services operations affecting customer
+installations can introduce safety risks by disrupting control mechanisms (systemic risk) and lead to
+industrial accidents</t>
+  </si>
+  <si>
+    <t>Impacts, risks and opportunities
+Substances of concern and very high concern
+Negative Impact Threaten human health and/or the
+environment by using hazardous
+substances
+Within its Environmental Sustainability Policy, Schneider Electric
+sets operational goals related to chemical substances control and
+reduction:
+Protect our employees, customers, business partners, and the
+planet against exposure to chemicals of concern.</t>
+  </si>
+  <si>
+    <t>Great people make Schneider Electric a great
+company (ESRS S1)” where the objective is to specify
+disclosure requirements that enable stakeholders to understand
+how Schneider Electric is organized to propose the best
+working experience possible, including material positive and
+negative impacts, mitigation efforts, and adaptation strategies. It
+covers working conditions, health and safety, equal treatment,
+and training and skills development.</t>
+  </si>
+  <si>
+    <t>Impacts, risks and opportunities
+Health and safety
+Negative Impact Damage the physical integrity
+of employees
+Health and safety is one of the risk drivers of the ERM model, which
+is part of a formal corporate risk assessment, identifying Key Risk
+Indicators (KRIs) and implementing action plans to reduce risk. The
+focus of this model is to concentrate at global level, on risks that
+can result in serious or fatal accidents. This involves looking
+beyond the top 5 hazards and analyzing the controls preventing
+accidents from occurring and connects to Schneider Electric’s
+High Potential Severity (HiPoS) program. Those hazards that have
+the potential to result in serious accidents have a deeper analysis
+by global experts, and the learnings are then shared with the full
+organization.
+As well as driving specific actions, the ERM and HiPoS programs
+also contribute to the annual global Health and Safety Improvement
+program.
+Regarding legal compliance risk, all Schneider Electric sites
+prepare a Health and Safety legal register, audit themselves
+against the required regulations, and implement actions to close
+the gaps. The full process is audited as part of the ISO 45001
+Occupational health and safety management systems external
+certification.
+Policy
+Schneider Electric is committed to invest in its people and its
+workplace as stated in its Group Health and Safety Policy, which is
+reviewed each year and is fully aligned with ISO 45001 standard
+and is published externally. The implementation of the Health &amp;
+Safety Policy is monitored by the Chief Compliance Officer.
+Each employee plays a key role in identifying and mitigating
+hazards. This practice applies at Schneider Electric sites, at
+customer sites and while driving or traveling.
+The Group values engagement at all levels and:
+• Expects each manager to role model health and safety as
+defined in the Global Safety Strategy;
+• Empowers employees to take ownership, for themselves and
+their team, of health and safety;
+• Gathers the views of all employees, their representatives, and
+those working on the Group’s behalf, through consultation,
+including their participation in reporting and resolving safety
+improvement opportunities;
+• Recognizes employees who propose health and safety
+innovations or implement solutions; and
+• Sustains relationships with suppliers, contractors, and
+customers under the condition that safety commitments are
+agreed and met.
+The Group provides a safe work environment for all and:
+• Invests in resources and training to support Schneider’s health
+and safety vision and goals;
+• Complies to external legal requirements and internal directives;
+• Embeds health and safety into its business practices and is an
+integral part of all major decisions, from acquisition, product
+development, the launch of a business and change
+management; and
+• Is determined to eliminate hazards and reduce risks.
+The Group communicates in an open and transparent manner and:
+• Continually improves its health and safety systems by
+benchmarking, adopting best available techniques, and through
+continuous learning;
+• Captures, analyzes, and communicates High Potential Severity
+(HiPoS) events, safety improvement opportunities, near misses,
+and incidents in a systematic manner;
+• Creates global action plans and shares with all potentially
+impacted employees to prevent incident (re)occurrence; and
+• Sets safety and occupational health goals and objectives,
+monitors performance, and reports progress internally and
+externally.
+Action plan
+The fundamentals of the Health and Safety action plan are based
+on the Health &amp; Safety Policy, supported by the ERM program and
+is the framework for deploying the 2025 Health and Safety strategy
+“S.A.F.E. First”:
+• “S.A.F.E. First” is at core of the strategy, developed as a
+personal reminder to pause and reflect on safety before
+beginning any task. (Self-check, Activity check, Facility check,
+Environment check).
+• Top five hazards, regularly reviewed to prevent serious
+accidents.
+• Five guiding principles, set the expected Health and Safety
+behaviors.
+• Four strategic priorities, which have been identified as strong
+levers to deliver the Schneider Electric Policy.
+There is also a monthly Global Health and Safety steering
+committee to share Health and Safety performance vs. targets and
+Health and Safety program deployment, with the Regional and
+Organizational Health and Safety VP’s.
+The 2024 plan covered programs related to safe driving, reducing
+cut accidents, machine safety, and Health and Safety leadership
+training for frontline managers.
+Local action plans, managed by each region, complement the
+global plan, and includes the improvements identified by the
+Environment Health and Safety Assessment (EHSA) deployment,
+the ISO 45001 implementation, and the safety culture assessment.
+The safety culture assessment has evolved into a program called
+“Safer Future”, which includes a safety climate survey, which is
+internationally known as NOSACQ50. In 2024 this safety
+questionnaire has been deployed for the first time to all Schneider
+Electric employees globally. The results are analyzed at local and
+global level, helping to identify action plans to improve the safety
+culture maturity. The employee engagement in the 2024 safety
+survey was 46% which exceeded the 2024 ambition of 40%.
+In 2024 Schneider Electric has deployed a new global safety
+software solution, which collects incidents, near miss, HiPoS, and
+safety observations, tracks actions related to incident audits and
+improvement programs. It is accessible by all Schneider Electric’s
+employees, as well as contractors, and visitors, allowing them to
+fully engage in the safety program.
+The Health and Safety intranet portal is used by employees to find
+Health &amp; Safety directives, programs, valuable practices, hazard
+awareness information, and technical webinars calendar, allowing
+employees to enhance their health and safety competency.
+Each quarter, Schneider Electric publishes key topics, “Quarterly
+H&amp;S Spotlights”, to raise awareness of workplace health and safety
+through training materials, posters, employee videos, and
+supported by a quarterly video message from Schneider Electric’s
+top leaders. Schneider Electric engages employees by using the
+internal social media tool, “Engage”, to post health and safety
+updates, interact with the community, and allowing Schneider
+Electric to collect feedback from employees. Schneider Electric
+also encourages employees to report safety opportunities, which
+are translated into risk reduction actions and engage employees in
+the health and safety program.
+The implementation of improvement actions linked to safety
+opportunities is monitored. A risk reduction initiative has led to the
+drafting of a code of good practice for R&amp;D and offices. This code
+describes the practical measures that R&amp;D sites and offices must
+take to reduce risks. These measures will be incorporated into the
+Schneider Electric Safety Trust Standard, which will monitor
+compliance against safety standards through an internal audit
+program.
+Annual Environmental Health and Safety Assessments (EHSA): To
+ensure successful implementation of the Schneider Electric Health
+and Safety strategy, annual EHSA are performed in industrial and
+customer-facing sites worldwide, by the site Health and Safety
+team and validated by the regional Health and Safety specialist.
+This assessment is a global process which measures compliance
+against Health and Safety directives and identifies improvement
+opportunities and recognizes excellence in manufacturing and
+logistics locations.
+All Schneider Electric sites prepare a Health and Safety legal
+register, audit themselves against the required regulations and
+implement actions to close the gaps. The full process is audited
+every three years as part of the ISO 45001 which is implemented
+on all industrial sites and is externally audited by an accredited
+body. The key elements of certification to ISO 45001 includes
+annual site management review and internal site audit program,
+and external audit program at site and corporate level.
+Management of hazardous substances is also audited as part of
+the ISO 45001. Engineering controls such as ventilation, enclosure
+of hazardous substances, and regular maintenance of equipment
+and extraction systems are control measures implemented to
+control the risk. Safety Data Sheets and other information on
+hazardous substances are made available to employees and
+included in the work area training. A new software tool to manage
+Safety Data Sheets and reduce risk associated with hazardous
+substances has been deployed to pilot countries in 2024. Health
+surveillance of workers exposed to hazardous substances are
+implemented to ensure the control measures are working and the
+employees are working in a safe and healthy environment. When
+the hazardous substances cannot be fully controlled with
+engineering controls personal protective equipment is provided
+to employees.
+Global Risk Consultants perform loss prevention audits for
+industrial sites to ensure that the required standards for fire
+prevention and emergency planning are in place.
+Targets and metrics
+Health and Safety performance results
+In 2020, Schneider set a five-year safety ambition related to SSE
+#14 to reduce the Medical Incident Rate (MIR) to 0.38 by 2025,
+from a 0.79 baseline in 2019. The MIR is the number of work-related
+medical incidents (including injuries and occupational illnesses)
+multiplied by one million hours (average hours of 500 employees
+working for one calendar year) divided by the total hours worked.
+Work-related injuries and occupational illnesses requiring medical
+treatment are included. Medical Incidents, where the injured party
+requires hospital treatment for more than 24 hours, are classified
+as serious.
+Read more on the methodology of SSE in
+section 2.4.1.2 on pages 316 to 321.
+In 2024, 197 medical incidents were recorded, translating to a MIR
+performance of 0.60, equivalent to a 24% progress of the 2021-
+2025 program. The 2024 MIR has increased by 17% compared to
+2023, of which 4 of the Medical Incidents were classified as
+serious, without any employee fatalities. Of the 197 medical
+incidents three were work related ill health incidents, connected
+with industrial ergonomics.
+As a result of all the health and safety programs deployed over the
+last 8 years, Schneider Electric has been very successful in
+reducing incident severity as measured by the Lost-Time Day Rate
+(LTDR) reduction to 9.1 lost days per incident, representing a
+reduction of 17% compared to 2020.
+In addition, sustainability statements (CSRD) requirements cover a)
+Percentage of people in its own workforce who are covered by
+health and safety management system based on legal
+requirements and (or) recognized standards or guidelines, b) Rate
+of recordable work-related accidents for own workforce, c) Number
+of fatalities in own workforce as result of work-related injuries and
+work-related ill health, d) Number of fatalities as result of work-
+related injuries and work-related ill health of other workers working
+on undertaking’s sites.
+Compared to the SSE, sustainability statements (CSRD) are
+including more sites and include only Schneider Electric
+employees, as defined by the text.
+43% of employees are working in Schneider Electric sites with ISO
+45001 certification and are covered by a health and safety
+management system. The rate of recordable work-related
+accidents for own workforce was 0.54, connected with 168
+work-related accidents. There were no work-related injuries and
+work-related ill health fatalities in Schneider Electric’s own
+workforce in 2024. One Schneider Electric contractor fatality
+occurred in India while a contractor was installing solar panels and
+fell through a roof skylight.
+In 2024 we have developed a code of practice on R&amp;D and Office
+Safety. This code of practice will be translated to the Schneider
+Electric Safety Trust Standard. This Safety Trust Standard will
+monitor compliance against these standards through an internal
+audit program.
+Recognition and awards
+Schneider Electric North America has won the Operational
+Excellence Achievement Award given to organizations with 50 or
+more locations achieving Occupational Excellence.
+Schneider Electric UK &amp; Ireland has been awarded the RoSPA
+Gold Medal (seven consecutive Golds) Award for health and safety
+performance and the RoSPA Fleet Safety Gold Medal (eight
+consecutive Golds) Award for managing occupational road risk.
+Schneider Electric India, China, and Thailand have been
+recognized for their safety performance delivering customer
+worksite projects.
+Schneider Electric Canada has been awarded a partnership in
+injury reduction.
+Schneider Electric Perú received an award from the insurance
+company RIMAC for its excellence in the category “Best
+Comprehensive Occupational Risk Management”.</t>
+  </si>
+  <si>
+    <t>217-220</t>
+  </si>
+  <si>
+    <t>It also states Schneider Electric’s commitment to provide or support
+remedy in case the Group has caused or contributed to a negative
+impact. The Human Rights Policy serves as a set of rules
+applicable to its daily operations for Schneider Electric and
+its employees.</t>
+  </si>
+  <si>
+    <t>Cybersecurity
+Negative impacts 1. Risk health and safety impacts on
+people through industrial accidents</t>
+  </si>
+  <si>
+    <t>Whistleblowing Policy and grievance
+mechanisms
+Context
+Whistleblowing and grievance systems provide employees with
+a safe and confidential way to report any unethical behavior,
+misconduct, or corruption they may witness within an organization.
+By encouraging employees to speak up without fear of retaliation,
+companies can detect and address issues early, thereby
+upholding their commitment to integrity, ethical conduct, and
+compliance with laws and regulations. This fosters a culture of
+trust and accountability.
+Governance
+Schneider Electric employees must feel free and psychologically
+safe to share their ideas, opinions, and concerns, without fear of
+retaliation. To ensure the effectiveness of that Speak Up mindset
+and related whistleblowing system, the Group has created two
+specific committees:</t>
+  </si>
+  <si>
+    <t>Human rights
+The company has established an adequate human rights due
+diligence process as outlined in the UNGPs and OECD
+Guidelines for MNEs.
+For details, see our Vigilance plan as well as
+section 2.2.1.2 “Main sustainability impacts, risks
+and opportunities” on page 109.</t>
+  </si>
+  <si>
+    <t>Risk categories
+For a granular assessment of the risk level and the magnitude of the
+impact on Schneider Electric’s ecosystem, the Group has identified
+more than 60 natures of risks relating to different risk areas, which
+can be grouped into four risk categories.
+Human rights:
+• Decent workplace
+• Health and safety</t>
+  </si>
+  <si>
+    <t>Human rights
+Forced labor, migrant workers
+According to the 2021 Global Estimates of Modern Slavery,
+approximately 28 million people are estimated to be in forced labor,
+a number alarmingly increasing since 2016. 63% of all forced labor
+(17 million people) is estimated to be imposed by private actors.
+The report estimates that services (excluding domestic work), and
+manufacturing are the sectors most exposed, accounting for
+respectively 32% and 19% of total forced labor. The report also
+identifies that for manufacturing, most forced labor cases occur in
+production in the lower tiers of domestic or global supply chains.
+This analysis shows that there could be risks of forced labor in the
+lower tiers of Schneider Electric’s supply chain, especially for
+migrant workers. Although cases have not been identified during
+internal or supplier audits, Schneider Electric is committed to
+further investigate and better mitigate this risk.
+Working hours, mental health
+The second category of risk in this section is linked to long working
+hours, work pressure and the consequent psycho-social and
+mental health risks. Here, the risk is rather well captured, both
+internally and at suppliers and contractor’s place of operations.
+Following the COVID year, this risk has been increasing in a rather
+regular way. However, the set of actions deployed to reduce its
+negative impacts has also been enlarged, especially within
+Schneider Electric’s own operations.</t>
+  </si>
+  <si>
+    <t>Sponsoring and donations: To ensure legal and ethical
+operations in sponsorship activities and mitigate corruption and
+reputational risks, comprehensive risk screenings are conducted.
+Additionally, Schneider Electric’s Philanthropy program is governed
+by strong practices, including thorough due diligence to assess
+donation-related risks in compliance with laws and local contexts.</t>
+  </si>
+  <si>
+    <t>Key Topics Risk Categories Policies Implemented and Mitigation Actions Pages
+Schneider Electric sites
+Human rights Decent workplace See section 2.2.3.1 “Great people make Schneider Electric a great company (ESRS S1)”
+for more details on the deployment of decent working conditions, health, safety, and
+human rights actions on Schneider Electric sites and section 2.2.3.2.2 “Policy framework
+guiding sustainability in the value chain – Human Rights Policy”. It covers, notably:
+• Schneider Electric’s employees’ safety;
+• Human rights and people development policies;
+• Well-being programs.</t>
+  </si>
+  <si>
+    <t>In its Trust Charter (Schneider Electric’s Code of Conduct),
+Schneider commits to follow all the requirements to build and
+sustain fruitful and mutually beneficial relationships between labor
+organizations and management, in accordance with local
+regulations, in every country where it operates. In its Group
+Human Rights Policy, Schneider Electric reaffirms those
+principles as the basis for a regular dialogue between management
+and employees. To that purpose, Schneider Electric respects the
+individual right of its employees to freely join, participate in, or quit
+labor organizations to assert and defend their interests.</t>
+  </si>
+  <si>
+    <t>Schneider Electric joined
+the UN Global Compact in
+2002, and its Chairman was
+appointed to the worldwide
+Board in 2018. The Group
+aligns its sustainability
+strategy with the UN’s 10
+principles on human rights,
+labour, environment and
+anti-corruption. As a
+signatory, Schneider
+Electric upholds its
+responsibility to act and
+aims to contribute to all 17
+UN Sustainable
+Development Goals. The
+Group is a Patron of the
+UNGC Labour and Decent
+Work as well as a Sponsor
+on Climate.</t>
+  </si>
+  <si>
+    <t>Global and local external partnerships
+Schneider Electric works with over 300 local and international organizations and associations on economic, social, and environmental
+issues to foster sustainability in cooperation with various players. The Group confirms its commitment to and participation in discussions on
+challenges related to climate change, social equity, and ethics. The main memberships are presented in the following table.
+Human rights
+Wage Indicator
+Foundation
+The WageIndicator Foundation is a global,
+independent, non-profit organization that
+collects, analyses and shares information
+on living wage worldwide.
+In 2024, Schneider Electric has advanced its living wage
+approach by entering a three-year partnership with the
+WageIndicator Foundation. The objective of this new
+partnership is to provide insights into wage practices globally
+and enable Schneider Electric and its suppliers to make
+informed decisions toward the realization of living wages.
+Human Resources
+Without Borders
+(RHSF)
+RHSF(Ressources Humaines Sans
+Frontières) is an NGO experimenting pilot
+prevention solutions and sharing its
+expertise with stakeholders to prevent the
+risks of child labor, forced labor, and more
+broadly indecent labor in supply chains.
+Schneider Electric continued its collaboration with RHSF on
+the “Lab 8.7” action-research project that gathers pioneer
+companies to implement concrete tools to identify forced labor
+and child labor situations.</t>
+  </si>
+  <si>
+    <t>86, 88</t>
+  </si>
+  <si>
+    <t>External guidelines
+United Nations Global Compact and Sustainable
+Development Goals (SDGs)
+Parties signing the UN Global Compact commit to ten
+fundamental principles in four areas: human rights, labor rights,
+the environment, and anti-corruption. By signing the Global
+Compact in December 2002, Schneider Electric made a
+public commitment to these universal values. In line with the
+requirements of the Global Compact, Schneider publishes
+an annual Communication on Progress (COP) and meets the
+requirements of the Global Compact Advanced Level. Schneider
+Electric is committed to contributing to the 17 SDGs through its
+sustainability programs.
+Consult Schneider’s latest COP on the Global
+Compact website www.unglobalcompact.org</t>
+  </si>
+  <si>
+    <t>World Benchmarking Alliance (WBA)
+In 2024, Schneider Electric ranked 1st in the Social Benchmark
+score in its industry by the World Benchmarking Alliance,
+underlining sustained efforts to act ethically promote decent
+work and human rights.</t>
+  </si>
+  <si>
+    <t>Comparison of the 2024 analysis with 2023
+In 2024, to converge towards the requirements of the CSRD, the
+risk analysis performed has further detailed two dimensions:
+severity and likelihood. The calculation of the matrix has therefore
+been improved, leading to slight modifications in the ratings of
+certain scores, although these risks have not fundamentally
+changed compared to last year.
+Yet, following items have evolved:
+• In the Decent Workplace section, the level of Human Rights
+risks for Migrant Workers was revaluated in 2023, as a
+consequence of the increased migration flows. The origins
+of these displacements are multiple, from climate change to
+conflicts or economic hardship. They are not a consequence
+of Schneider Electric’s policies. However, Schneider Electric,
+like other companies, is confronted by that reality. In 2024,
+following the reevaluation, this risk remains a top priority.</t>
+  </si>
+  <si>
+    <t>Group policy
+The Group has designed a Vigilance plan that covers all areas
+specified by the United Nations (UN) Guiding Principles on
+Business and Human Rights, Organisation for Economic
+Co-operation and Development (OECD), International Labour
+Organisation (ILO) and by the existing hard laws (2017 French Law,
+UK and Australia Modern Slavery Acts, 2023 German Law, etc.).
+This plan is also fully consistent with human rights major actions
+included in Schneider Electric’s Decent Work program.
+The ambition of the Vigilance plan is to be at the forefront of
+all these important topics, and from one single corporate
+program, being able to answer the different requests from all
+laws and regulations.</t>
+  </si>
+  <si>
+    <t>Policy
+Schneider Electric firmly believes that earning a living wage is a
+fundamental human right and an essential element of decent work.
+This commitment is included in our Human Rights Policy and Trust
+Charter, guiding our efforts to ensure that all employees receive at
+or above a living wage to meet their families’ basic needs which
+include food, housing, sanitation, education, healthcare, clothing,
+transportation, and communication plus discretionary income for a
+given local standard of living.
+Schneider Electric conducts annual living wage gap analysis since
+2018. Starting in 2021, the Group committed to paying 100% of
+employees at least a living wage as part of Schneider Sustainability
+Essentials (SSE #20). The company works with the expert
+consultant Fair Wage Network to ensure compliance. An external
+company provides limited assurance to ensure year-over-year
+compliance with this commitment. The SSE #20 reporting protocol
+is accessible to employees via the intranet and has been approved
+by the Senior-Vice President, Total Rewards and Performance.
+Action plan
+Collaborating with Fair Wage Network since 2022 allowed the
+Group to improve geographical coverage, develop a dynamic
+web-based living wage benchmark, and initiate an independent
+review and certification of the living wage gap analysis. Schneider
+Electric was certified in March 2024, by the Fair Wage Network,
+being qualified as a “Living Wage Employer” for a second
+consecutive time, valid until December 31, 2025.</t>
+  </si>
+  <si>
+    <t>Schneider Electric is committed to the United Nations Free and
+Equal Standards of Conduct for Business on Tackling
+Discrimination against LGBT+ People, standing up for equal rights
+and fair treatment for LGBT+ people everywhere. Across the globe,
+Schneider Electric has also made public statements of support to
+advance LGBT+ inclusion. By adopting these standards, the Group
+pledges to respect and stand up for the human rights of LGBT+
+workers, customers, and members of the public; to support our
+LGBT+ employees, further build inclusion in the workplace, and to
+prevent discrimination, including workplace discrimination, against
+LGBT+ people.</t>
+  </si>
+  <si>
+    <t>Schneider Electric’s first priority is ensuring that the company and
+its partners uphold human rights for everyone, including decent
+work standards and a social label for products. Following the
+update of its Human Rights Policy in 2022, Schneider published
+guidelines to protect the dignity of migrant workers.</t>
+  </si>
+  <si>
+    <t>SSE #20: 100% of employees paid at least a living
+wage
+In line with its Human Rights Policy and Trust Charter, Schneider
+Electric believes earning a living wage is a basic human right.
+Schneider Electric is committed to paying 100% of employees at or
+above the living wage to meet their families’ basic needs. By basic
+needs, the Group considers basic household expenditures (food,
+housing, clothing, sanitation, education, healthcare, transport),
+plus discretionary income for a given local standard of living.
+There is no universal benchmark or methodology on how to
+calculate a living wage, which is why Schneider Electric has been
+working with an external consultant since 2018 to calculate living
+wages for all its locations worldwide. To calculate a living wage, the
+external consultant estimates the basic household expenditures of
+employees, as well as the number of persons earning a wage in a
+“typical” household based on various sources of cost of living and
+macroeconomic data (national statistics, Organisation for
+Economic Co-operation and Development (OECD), United Nations
+agencies, etc.).
+To measure compliance with the living wage, a gap analysis is
+conducted every year post salary review for all our Schneider
+Electric employees treated as permanent workforce. All employees
+employed by fully integrated entities, with open-ended or fixed-
+term contracts, whether full-time or part-time, are considered part
+of the permanent workforce. The Reward team centrally compiles
+and analyses total employee remuneration data (base salary and
+allowances; if applicable for a country, variable elements were
+excluded this year) to compare it with the agreed living wage.
+Employees are benchmarked to their work location living wage. To
+calculate employee remuneration, the Reward team uses data
+available in its global HRIS system, as well as local payroll.
+For final reporting of the year-end results, Schneider Electric can
+disclose a final score that considers living wage gaps closed by
+countries until the end of the year after they have been identified.
+PwC provided limited assurance on this indicator.</t>
+  </si>
+  <si>
+    <t>Schneider Sustainability External and Relative Index – SSERI (25%)
+The Schneider Sustainability External and Relative Index measures the long-term sustainability performance of the Group in terms of
+relative performance, through a combination of external indices: (i) DJSI World which covers three dimensions: economic, environmental,
+and social; (ii) Euronext Vigeo which covers environment, community involvement, business behavior, human rights, corporate
+governance, and human resources; (iii) Ecovadis which covers four dimensions: environment, labor and human rights, sustainable
+procurement, and ethics; and (iv) CDP Climate Change which covers climate change, water, and forests and represents a major
+reference for climate change leadership globally. The different rating achieved by Schneider Electric in 2022, 2023, and 2024 in those
+indexes resulted in an achievement rate of the SSERI of 23.96% (out of 25%).</t>
+  </si>
+  <si>
+    <t>The Group is mindful of the potential workforce impacts its strategy
+has. The Group recognizes the opportunities for job creation and
+the reskilling or upskilling of its workforce in alignment with its
+sustainability objectives. Through careful planning and execution of
+its transition strategies, the Group aims to balance its environmental
+commitments with the well-being and development of its workforce.</t>
+  </si>
+  <si>
+    <t>Double materiality
+assessment
+Schneider Electric carried out a double materiality analysis based
+on the guidance provided by EFRAG and the ESRS considering an
+inside-out perspective (impact materiality), meaning the actual and
+potential impacts the Group has on society and the environment; as
+well as the outside-in perspective (financial materiality), which
+refers to the financial risks and opportunities Schneider Electric is
+exposed to. The work performed covers ESG topics addressed by
+the standards, as well as additional topics that are significant to
+Schneider Electric’s context. The assessment was conducted
+considering Schneider Electric and its value chain, as well as the
+stakeholders that may be affected by the Group’s activities, directly
+and indirectly. To manage the double materiality assessment,
+a steering committee was established with leaders from
+sustainability, financial reporting, risk management, and vigilance
+teams. Throughout the process, to assess material impacts, risks,
+and opportunities, several review meetings were held with the
+Committee to gather feedback and define next steps. A CSRD
+Committee was also put in place with top management to provide
+periodic progress reports on the assessment. In addition, review
+sessions were conducted with several representatives of
+stakeholder groups to present and evaluate the results of the
+exercise. The final results of the double materiality assessment
+were validated by the Executive Committee, then reviewed and
+approved by the Audit &amp; Risk Committee and the Governance,
+Nominations &amp; Sustainability Committee.
+The processes presented in this section for identifying, assessing,
+and managing impacts, risks and opportunities are key parts of the
+management framework of the Group, playing a crucial role in
+evaluating the overall risk profile and informing strategic decisions.
+Together they allow Schneider Electric to effectively manage risks
+across all levels of the organization. As such, Schneider Electric’s
+strategy and business model are informed by these annual
+assessments of impacts, risks and opportunities, along with
+the resulting double materiality assessment.</t>
+  </si>
+  <si>
+    <t>Employee engagement process
+Engaged employees are key to enable the Company to be at its
+best and support the achievement of the Group strategy.
+Employees are invited to share their honest feedback through an
+annual engagement survey, which measures ten key drivers,
+including well-being, inclusion, recognition, and empowerment.
+Through the information collected, the Company gains greater
+understanding of the views of employees, including areas of
+strength and improvement. Insights are used to inform action plans
+across the organization. Leaders are guided to co-create the
+actions with their teams, reinforcing the dialogue needed to shape
+the workplace of tomorrow.
+This process also contributes to the impacts, risks, and
+opportunities mentioned in the beginning of this chapter.</t>
   </si>
 </sst>
 </file>
@@ -4527,7 +7392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4546,14 +7411,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4838,16 +7697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="5.73046875" customWidth="1"/>
     <col min="3" max="3" width="31.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.06640625" style="1" customWidth="1"/>
@@ -5008,7 +7867,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5274,7 +8133,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7205,17 +10064,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="8" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
         <v>158</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" t="s">
         <v>175</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="1">
         <v>176</v>
       </c>
     </row>
@@ -7237,10 +10096,10 @@
       <c r="A171" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" t="s">
         <v>35</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" t="s">
         <v>178</v>
       </c>
       <c r="D171" s="1">
@@ -7251,10 +10110,10 @@
       <c r="A172" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" t="s">
         <v>35</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" t="s">
         <v>179</v>
       </c>
       <c r="D172" s="1">
@@ -7265,10 +10124,10 @@
       <c r="A173" t="s">
         <v>177</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" t="s">
         <v>35</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" t="s">
         <v>180</v>
       </c>
       <c r="D173" s="1">
@@ -7279,10 +10138,10 @@
       <c r="A174" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" t="s">
         <v>35</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" t="s">
         <v>181</v>
       </c>
       <c r="D174" s="1">
@@ -7293,10 +10152,10 @@
       <c r="A175" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" t="s">
         <v>35</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" t="s">
         <v>182</v>
       </c>
       <c r="D175" s="1">
@@ -7307,10 +10166,10 @@
       <c r="A176" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" t="s">
         <v>183</v>
       </c>
       <c r="D176" s="1">
@@ -7321,10 +10180,10 @@
       <c r="A177" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" t="s">
         <v>35</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" t="s">
         <v>184</v>
       </c>
       <c r="D177" s="1">
@@ -7335,10 +10194,10 @@
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" t="s">
         <v>35</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" t="s">
         <v>185</v>
       </c>
       <c r="D178" s="1">
@@ -7349,10 +10208,10 @@
       <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" t="s">
         <v>35</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" t="s">
         <v>186</v>
       </c>
       <c r="D179" s="1">
@@ -7363,10 +10222,10 @@
       <c r="A180" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" t="s">
         <v>35</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" t="s">
         <v>187</v>
       </c>
       <c r="D180" s="1">
@@ -7377,10 +10236,10 @@
       <c r="A181" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" t="s">
         <v>35</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" t="s">
         <v>188</v>
       </c>
       <c r="D181" s="1">
@@ -7391,10 +10250,10 @@
       <c r="A182" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" t="s">
         <v>35</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" t="s">
         <v>189</v>
       </c>
       <c r="D182" s="1">
@@ -7405,10 +10264,10 @@
       <c r="A183" t="s">
         <v>177</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" t="s">
         <v>35</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" t="s">
         <v>190</v>
       </c>
       <c r="D183" s="1">
@@ -7419,10 +10278,10 @@
       <c r="A184" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" t="s">
         <v>35</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D184" s="3">
@@ -7433,10 +10292,10 @@
       <c r="A185" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" t="s">
         <v>72</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" t="s">
         <v>193</v>
       </c>
       <c r="D185" s="1">
@@ -7447,10 +10306,10 @@
       <c r="A186" t="s">
         <v>177</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" t="s">
         <v>72</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" t="s">
         <v>192</v>
       </c>
       <c r="D186" s="1">
@@ -7461,10 +10320,10 @@
       <c r="A187" t="s">
         <v>177</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" t="s">
         <v>72</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" t="s">
         <v>194</v>
       </c>
       <c r="D187" s="1">
@@ -7475,10 +10334,10 @@
       <c r="A188" t="s">
         <v>177</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" t="s">
         <v>72</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" t="s">
         <v>195</v>
       </c>
       <c r="D188" s="1">
@@ -7489,10 +10348,10 @@
       <c r="A189" t="s">
         <v>177</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" t="s">
         <v>72</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" t="s">
         <v>196</v>
       </c>
       <c r="D189" s="1">
@@ -7503,10 +10362,10 @@
       <c r="A190" t="s">
         <v>177</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" t="s">
         <v>72</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" t="s">
         <v>197</v>
       </c>
       <c r="D190" s="1">
@@ -7517,10 +10376,10 @@
       <c r="A191" t="s">
         <v>177</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" t="s">
         <v>72</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" t="s">
         <v>198</v>
       </c>
       <c r="D191" s="1">
@@ -7531,10 +10390,10 @@
       <c r="A192" t="s">
         <v>177</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" t="s">
         <v>72</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" t="s">
         <v>199</v>
       </c>
       <c r="D192" s="1">
@@ -7545,10 +10404,10 @@
       <c r="A193" t="s">
         <v>177</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" t="s">
         <v>72</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" t="s">
         <v>200</v>
       </c>
       <c r="D193" s="1">
@@ -7559,10 +10418,10 @@
       <c r="A194" t="s">
         <v>177</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" t="s">
         <v>72</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" t="s">
         <v>201</v>
       </c>
       <c r="D194" s="1">
@@ -7573,10 +10432,10 @@
       <c r="A195" t="s">
         <v>177</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" t="s">
         <v>72</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" t="s">
         <v>202</v>
       </c>
       <c r="D195" s="1">
@@ -7587,10 +10446,10 @@
       <c r="A196" t="s">
         <v>177</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" t="s">
         <v>72</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" t="s">
         <v>203</v>
       </c>
       <c r="D196" s="1">
@@ -7601,10 +10460,10 @@
       <c r="A197" t="s">
         <v>177</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" t="s">
         <v>72</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" t="s">
         <v>204</v>
       </c>
       <c r="D197" s="1">
@@ -7615,10 +10474,10 @@
       <c r="A198" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" t="s">
         <v>72</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" t="s">
         <v>205</v>
       </c>
       <c r="D198" s="1">
@@ -7629,10 +10488,10 @@
       <c r="A199" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" t="s">
         <v>72</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" t="s">
         <v>206</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -7643,10 +10502,10 @@
       <c r="A200" t="s">
         <v>177</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" t="s">
         <v>72</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" t="s">
         <v>208</v>
       </c>
       <c r="D200" s="1">
@@ -7657,10 +10516,10 @@
       <c r="A201" t="s">
         <v>177</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" t="s">
         <v>72</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" t="s">
         <v>209</v>
       </c>
       <c r="D201" s="1">
@@ -7671,10 +10530,10 @@
       <c r="A202" t="s">
         <v>177</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" t="s">
         <v>72</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" t="s">
         <v>210</v>
       </c>
       <c r="D202" s="1">
@@ -7685,10 +10544,10 @@
       <c r="A203" t="s">
         <v>177</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" t="s">
         <v>72</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" t="s">
         <v>211</v>
       </c>
       <c r="D203" s="1">
@@ -7699,10 +10558,10 @@
       <c r="A204" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D204" s="3">
@@ -7713,255 +10572,1568 @@
       <c r="A205" t="s">
         <v>177</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" t="s">
         <v>213</v>
+      </c>
+      <c r="D205" s="1">
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>177</v>
       </c>
-      <c r="B206" s="10" t="s">
-        <v>72</v>
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D206" s="1">
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="10" t="s">
-        <v>72</v>
+      <c r="B207" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" t="s">
+        <v>215</v>
+      </c>
+      <c r="D207" s="1">
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>177</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" t="s">
+        <v>216</v>
+      </c>
+      <c r="D208" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>177</v>
       </c>
-      <c r="B209" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" t="s">
+        <v>217</v>
+      </c>
+      <c r="D209" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>177</v>
       </c>
-      <c r="B210" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B210" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>177</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>177</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211" t="s">
+        <v>219</v>
+      </c>
+      <c r="D211" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D212" s="3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>177</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>221</v>
+      </c>
+      <c r="D213" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>177</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>237</v>
+      </c>
+      <c r="D214" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>222</v>
+      </c>
+      <c r="D215" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>225</v>
+      </c>
+      <c r="D218" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>228</v>
+      </c>
+      <c r="D221" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>229</v>
+      </c>
+      <c r="D222" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>230</v>
+      </c>
+      <c r="D223" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>231</v>
+      </c>
+      <c r="D224" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>232</v>
+      </c>
+      <c r="D225" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>233</v>
+      </c>
+      <c r="D226" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>234</v>
+      </c>
+      <c r="D227" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>235</v>
+      </c>
+      <c r="D228" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D229" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B230" t="s">
+        <v>104</v>
+      </c>
+      <c r="C230" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>104</v>
+      </c>
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>104</v>
+      </c>
+      <c r="C232" t="s">
+        <v>251</v>
+      </c>
+      <c r="D232" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D233" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B234" t="s">
+        <v>58</v>
+      </c>
+      <c r="C234" t="s">
+        <v>241</v>
+      </c>
+      <c r="D234" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>58</v>
+      </c>
+      <c r="C235" t="s">
+        <v>242</v>
+      </c>
+      <c r="D235" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
+        <v>58</v>
+      </c>
+      <c r="C236" t="s">
+        <v>243</v>
+      </c>
+      <c r="D236" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B237" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" t="s">
+        <v>244</v>
+      </c>
+      <c r="D237" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B238" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238" t="s">
+        <v>245</v>
+      </c>
+      <c r="D238" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>58</v>
+      </c>
+      <c r="C239" t="s">
+        <v>246</v>
+      </c>
+      <c r="D239" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
+        <v>58</v>
+      </c>
+      <c r="C240" t="s">
+        <v>247</v>
+      </c>
+      <c r="D240" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
+        <v>58</v>
+      </c>
+      <c r="C241" t="s">
+        <v>248</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B242" t="s">
+        <v>58</v>
+      </c>
+      <c r="C242" t="s">
+        <v>250</v>
+      </c>
+      <c r="D242" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>58</v>
+      </c>
+      <c r="C243" t="s">
+        <v>252</v>
+      </c>
+      <c r="D243" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
+        <v>58</v>
+      </c>
+      <c r="C244" t="s">
+        <v>253</v>
+      </c>
+      <c r="D244" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B245" t="s">
+        <v>58</v>
+      </c>
+      <c r="C245" t="s">
+        <v>254</v>
+      </c>
+      <c r="D245" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>58</v>
+      </c>
+      <c r="C246" t="s">
+        <v>255</v>
+      </c>
+      <c r="D246" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>58</v>
+      </c>
+      <c r="C247" t="s">
+        <v>256</v>
+      </c>
+      <c r="D247" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>58</v>
+      </c>
+      <c r="C248" t="s">
+        <v>257</v>
+      </c>
+      <c r="D248" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>177</v>
+      </c>
+      <c r="B249" t="s">
+        <v>58</v>
+      </c>
+      <c r="C249" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>177</v>
+      </c>
+      <c r="B250" t="s">
+        <v>58</v>
+      </c>
+      <c r="C250" t="s">
+        <v>259</v>
+      </c>
+      <c r="D250" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>177</v>
+      </c>
+      <c r="B251" t="s">
+        <v>58</v>
+      </c>
+      <c r="C251" t="s">
+        <v>260</v>
+      </c>
+      <c r="D251" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>177</v>
+      </c>
+      <c r="B252" t="s">
+        <v>58</v>
+      </c>
+      <c r="C252" t="s">
+        <v>261</v>
+      </c>
+      <c r="D252" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>177</v>
+      </c>
+      <c r="B253" t="s">
+        <v>58</v>
+      </c>
+      <c r="C253" t="s">
+        <v>262</v>
+      </c>
+      <c r="D253" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>177</v>
+      </c>
+      <c r="B254" t="s">
+        <v>58</v>
+      </c>
+      <c r="C254" t="s">
+        <v>263</v>
+      </c>
+      <c r="D254" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>177</v>
+      </c>
+      <c r="B255" t="s">
+        <v>58</v>
+      </c>
+      <c r="C255" t="s">
+        <v>264</v>
+      </c>
+      <c r="D255" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>177</v>
+      </c>
+      <c r="B256" t="s">
+        <v>58</v>
+      </c>
+      <c r="C256" t="s">
+        <v>265</v>
+      </c>
+      <c r="D256" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D257" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>177</v>
+      </c>
+      <c r="B258" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s">
+        <v>267</v>
+      </c>
+      <c r="D258" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>177</v>
+      </c>
+      <c r="B259" t="s">
+        <v>83</v>
+      </c>
+      <c r="C259" t="s">
+        <v>268</v>
+      </c>
+      <c r="D259" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>177</v>
+      </c>
+      <c r="B260" t="s">
+        <v>83</v>
+      </c>
+      <c r="C260" t="s">
+        <v>269</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>177</v>
+      </c>
+      <c r="B261" t="s">
+        <v>83</v>
+      </c>
+      <c r="C261" t="s">
+        <v>198</v>
+      </c>
+      <c r="D261" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>177</v>
+      </c>
+      <c r="B262" t="s">
+        <v>83</v>
+      </c>
+      <c r="C262" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>177</v>
+      </c>
+      <c r="B263" t="s">
+        <v>83</v>
+      </c>
+      <c r="C263" t="s">
+        <v>272</v>
+      </c>
+      <c r="D263" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>177</v>
+      </c>
+      <c r="B264" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" t="s">
+        <v>273</v>
+      </c>
+      <c r="D264" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>177</v>
+      </c>
+      <c r="B265" t="s">
+        <v>83</v>
+      </c>
+      <c r="C265" t="s">
+        <v>274</v>
+      </c>
+      <c r="D265" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>177</v>
+      </c>
+      <c r="B266" t="s">
+        <v>83</v>
+      </c>
+      <c r="C266" t="s">
+        <v>275</v>
+      </c>
+      <c r="D266" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A267" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D267" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>177</v>
+      </c>
+      <c r="B268" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" t="s">
+        <v>277</v>
+      </c>
+      <c r="D268" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>177</v>
+      </c>
+      <c r="B269" t="s">
+        <v>46</v>
+      </c>
+      <c r="C269" t="s">
+        <v>278</v>
+      </c>
+      <c r="D269" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D270" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>177</v>
+      </c>
+      <c r="B271" t="s">
+        <v>158</v>
+      </c>
+      <c r="C271" t="s">
+        <v>280</v>
+      </c>
+      <c r="D271" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>177</v>
+      </c>
+      <c r="B272" t="s">
+        <v>158</v>
+      </c>
+      <c r="C272" t="s">
+        <v>281</v>
+      </c>
+      <c r="D272" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>177</v>
+      </c>
+      <c r="B273" t="s">
+        <v>158</v>
+      </c>
+      <c r="C273" t="s">
+        <v>282</v>
+      </c>
+      <c r="D273" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>177</v>
+      </c>
+      <c r="B274" t="s">
+        <v>158</v>
+      </c>
+      <c r="C274" t="s">
+        <v>283</v>
+      </c>
+      <c r="D274" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>177</v>
+      </c>
+      <c r="B275" t="s">
+        <v>158</v>
+      </c>
+      <c r="C275" t="s">
+        <v>284</v>
+      </c>
+      <c r="D275" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>177</v>
+      </c>
+      <c r="B276" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" t="s">
+        <v>285</v>
+      </c>
+      <c r="D276" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>177</v>
+      </c>
+      <c r="B277" t="s">
+        <v>158</v>
+      </c>
+      <c r="C277" t="s">
+        <v>286</v>
+      </c>
+      <c r="D277" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>177</v>
+      </c>
+      <c r="B278" t="s">
+        <v>158</v>
+      </c>
+      <c r="C278" t="s">
+        <v>287</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>177</v>
+      </c>
+      <c r="B279" t="s">
+        <v>158</v>
+      </c>
+      <c r="C279" t="s">
+        <v>289</v>
+      </c>
+      <c r="D279" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>294</v>
+      </c>
+      <c r="B280" t="s">
+        <v>158</v>
+      </c>
+      <c r="C280" t="s">
+        <v>293</v>
+      </c>
+      <c r="D280" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A281" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D281" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>177</v>
+      </c>
+      <c r="B282" t="s">
+        <v>136</v>
+      </c>
+      <c r="C282" t="s">
+        <v>228</v>
+      </c>
+      <c r="D282" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>177</v>
+      </c>
+      <c r="B283" t="s">
+        <v>136</v>
+      </c>
+      <c r="C283" t="s">
+        <v>291</v>
+      </c>
+      <c r="D283" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>177</v>
+      </c>
+      <c r="B284" t="s">
+        <v>136</v>
+      </c>
+      <c r="C284" t="s">
+        <v>292</v>
+      </c>
+      <c r="D284" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>177</v>
+      </c>
+      <c r="B285" t="s">
+        <v>136</v>
+      </c>
+      <c r="C285" t="s">
+        <v>295</v>
+      </c>
+      <c r="D285" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>177</v>
+      </c>
+      <c r="B286" t="s">
+        <v>136</v>
+      </c>
+      <c r="C286" t="s">
+        <v>296</v>
+      </c>
+      <c r="D286" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>177</v>
+      </c>
+      <c r="B287" t="s">
+        <v>136</v>
+      </c>
+      <c r="C287" t="s">
+        <v>200</v>
+      </c>
+      <c r="D287" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>177</v>
+      </c>
+      <c r="B288" t="s">
+        <v>136</v>
+      </c>
+      <c r="C288" t="s">
+        <v>297</v>
+      </c>
+      <c r="D288" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>177</v>
+      </c>
+      <c r="B289" t="s">
+        <v>136</v>
+      </c>
+      <c r="C289" t="s">
+        <v>298</v>
+      </c>
+      <c r="D289" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>177</v>
+      </c>
+      <c r="B290" t="s">
+        <v>136</v>
+      </c>
+      <c r="C290" t="s">
+        <v>299</v>
+      </c>
+      <c r="D290" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>177</v>
+      </c>
+      <c r="B291" t="s">
+        <v>136</v>
+      </c>
+      <c r="C291" t="s">
+        <v>300</v>
+      </c>
+      <c r="D291" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>177</v>
+      </c>
+      <c r="B292" t="s">
+        <v>136</v>
+      </c>
+      <c r="C292" t="s">
+        <v>301</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>177</v>
+      </c>
+      <c r="B293" t="s">
+        <v>136</v>
+      </c>
+      <c r="C293" t="s">
+        <v>303</v>
+      </c>
+      <c r="D293" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>177</v>
+      </c>
+      <c r="B294" t="s">
+        <v>136</v>
+      </c>
+      <c r="C294" t="s">
+        <v>304</v>
+      </c>
+      <c r="D294" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A295" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D295" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>177</v>
+      </c>
+      <c r="B296" t="s">
+        <v>16</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D296" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>177</v>
+      </c>
+      <c r="B297" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D297" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>177</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D298" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D299" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>177</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D300" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>177</v>
+      </c>
+      <c r="B301" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D301" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>177</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D302" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>177</v>
+      </c>
+      <c r="B303" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D303" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>177</v>
+      </c>
+      <c r="B304" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>177</v>
+      </c>
+      <c r="B305" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D305" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>177</v>
+      </c>
+      <c r="B306" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D306" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>177</v>
+      </c>
+      <c r="B307" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D307" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>177</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D308" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>177</v>
+      </c>
+      <c r="B309" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D309" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>177</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D310" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>177</v>
+      </c>
+      <c r="B311" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D311" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>177</v>
+      </c>
+      <c r="B312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D312" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A313" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D313" s="3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>177</v>
+      </c>
+      <c r="B314" t="s">
+        <v>119</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D314" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>177</v>
+      </c>
+      <c r="B315" t="s">
+        <v>119</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D315" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>177</v>
+      </c>
+      <c r="B316" t="s">
+        <v>119</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D316" s="1">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/exploration/validation_dataset.xlsx
+++ b/exploration/validation_dataset.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive - UT Cloud\Thesis\esg_extraction\exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1083" documentId="13_ncr:1_{AE71638B-A97E-49E7-BDA1-E3A1C8516C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608BD3A2-948B-47B8-95BF-A0888DF9B347}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC82A27-6E9E-4868-9826-6D99F056C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="0" windowWidth="11078" windowHeight="12863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ESRS_S1" sheetId="1" r:id="rId1"/>
+    <sheet name="S1_Retrieval" sheetId="1" r:id="rId1"/>
+    <sheet name="S1_Generation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESRS_S1!$A$1:$D$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">S1_Retrieval!$A$1:$D$283</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="391">
   <si>
     <t>report_name</t>
   </si>
@@ -5627,6 +5628,2365 @@
 workforce, enabling individuals to advance their careers and adapt
 to the evolving demands of the global market.</t>
   </si>
+  <si>
+    <t>Philips_2024</t>
+  </si>
+  <si>
+    <t>Social protection
+Philips is committed to fair employment practices. Social protection is provided to employees in line
+with local regulations. In 2024, in accordance with the ESRS we assessed the social protection
+coverage in the 70 countries where we employ people.
+Sickness
+All employees are covered against loss of income in the event of sickness. In the 22 countries where
+the government does not cover for loss of income, social protection is Philips-enhanced, in line with
+local practices. In France, only employees with a tenure of 12 months or longer are eligible.
+Unemployment
+In line with local practices, employees are not covered for loss of income in case of unemployment
+in Bangladesh, Colombia, Costa Rica, Egypt, Ghana, India, Indonesia, Kenya, Lebanon, Mexico,
+Panama, Peru, Philippines, Qatar, and Sri Lanka. In Israel, only employees with a tenure of 18
+months or longer are eligible. In Japan, UAE, only employees with a tenure of 12 months or longer
+are eligible. In Malaysia, and Saudi Arabia, foreign employees are not eligible for unemployment
+benefits.
+Employment injury and acquired disability
+All employees are covered against loss of income in the event of employment injury and/or
+acquired disability. While in China employees are not directly covered for loss of income due to
+employment injury and/or acquired disability, all are enrolled in an insurance plan required by the
+government. In France, only employees with a tenure of 12 months or longer are eligible.
+Parental leave
+Employees are covered against loss of income during parental leave in all countries where we
+employ people. In 8 of the countries where the government does not cover for loss of income, it is
+Philips enhanced, in line with local practices. In Egypt, Ghana, Kenya, Lebanon, Saudi Arabia,
+Serbia, South Africa, Turkey and UAE only maternity leave is available. In Colombia, France,
+Hungary, and Sweden, only employees with a tenure of 12 months or longer are eligible. In
+Romania, only employees with at least 12 months of work experience including outside of Philips
+are eligible (from the last 24 months before a child's birth).
+Retirement
+Employees in Ghana, Kenya and Myanmar are not covered for loss of income in the event of
+retirement neither by the government nor by Philips, in line with local practices. In Saudi Arabia,
+foreign employees are not eligible for retirement benefits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governance information
+This section provides additional information on (some of) the Business conduct (ESRS G1)
+parameters reported in Governance. For policies related to Business conduct, please refer to the
+Policy Overview table. Disclosures on material entity specific topics and the relevant links can be
+found in the Double Materiality Assessment. Philips did not define targets for some of these entity
+specific topics, like Geopolitical events, but closely monitors the impacts, risks and opportunities,
+for example through its Enterprise Risk management process.
+Note XIX Philips SpeakUp (Ethics Line)
+In line with Philips SpeakUp Policy, potential violations of our GBP or any other concern that may
+constitute a direct threat to Philips’ corporate integrity, are reported through the Philips SpeakUp
+program. Philips SpeakUp is available to internal stakeholders and also extends to external
+stakeholders, including customers and end-users. The Philips SpeakUp Policy sets out safeguards for
+reporters and participants in an investigation, which includes the prohibition of (attempted)
+retaliation.
+In 2024, a total of 805 concerns were reported via Philips SpeakUp (Ethics Line) and through our
+network of GBP Compliance Officers, an increase of 5.4% year-on-year (2023: 764 concerns). This
+is a continuation of the year-on-year upward trend. We believe the upward trend in reporting
+remains in line with our multi-year efforts to encourage our employees to express their concerns.
+In percentage terms, North America remains the region with the highest case inflow (2024: 44%;
+2023: 47%). The percentage increase in reports is visible in APAC, which is responsible for 25% of
+all reported concerns (2023: 20%). The EMEA region showed a small increase (2024: 19%; 2023:
+18%). Latin America, responsible for 12% of reported concerns in 2024, showed a decline (2023:
+15%).
+</t>
+  </si>
+  <si>
+    <t>237-238</t>
+  </si>
+  <si>
+    <t>Most common types of concerns reported
+Treatment of employees
+As in previous years, the type of concern most commonly reported related to the category
+‘Treatment of employees’. In 2024, there were 529 reports in this category, compared with 459 in
+2023. This represents 66% of the total number of concerns, slightly higher than in 2023 (60%).
+The majority of the concerns reported in the ‘Treatment of employees’ category relate to
+‘Respectful treatment’. The ‘Respectful treatment’ sub-category generally relates to concerns about
+verbal abuse, (sexual) harassment, and hostile work environments. In the ‘Treatment of employees’
+category, 48% of cases originated from North America, a decrease compared to 2023 (51%). In
+2024, no material fines, penalties or damages were paid for incidents of discrimination, harassment
+and severe human rights incidents (e.g., forced labor, human trafficking or child labor).
+Business integrity
+The second most-reported type of concern relates to ‘Business Integrity’, which accounted for 16%
+of total cases reported in 2024, down from 18% in 2023. These concerns originated primarily from
+the APAC region (36%), followed by North America (23%), Latin America (22%) and EMEA (19%).
+The majority of concerns reported in the category ‘Business Integrity’ relate to potential fraudulent
+behavior. The category ‘Business Integrity’ also includes concerns related to alleged violations of
+anti-corruption and anti-bribery laws. In 2024, Philips was not convicted or fined for any violation
+of such laws (either directly or through actors in the company’s value chain).
+In 2024, a total of 865 reports were closed. Of these 865 reports, 212 were substantiated (i.e. were
+found to constitute a breach of our General Business Principles), which represents 25% of the cases
+closed in 2024 (also 25% in 2023). 23% of ‘Treatment of employees’ cases were substantiated,
+compared with 19% in 2023 (2022: 28%). In addition, 45% of the ‘Business integrity’ reports
+were closed as substantiated, compared with 48% in 2023 (2022: 49%). In 2024, 653 cases were
+unsubstantiated, which represents 75% of the cases closed in 2024. Of these 653 cases, 48 were
+resolved by means of alternative dispute resolution (ADR). ADR is a newly established procedure
+that was introduced in 2024 to more effectively resolve de minimis concerns related to 'Treatment
+of employees' reports that do not amount to a violation of the Philips General Business Principles.
+Follow-up action
+Depending on the outcome of the investigation, appropriate follow-up action is taken. Follow-up
+action can be remedial and/or disciplinary in nature. Remedial action can vary from strengthening
+the business processes and procedures, enhanced monitoring, training and coaching, and
+increasing awareness of the expected standard of business conduct. Disciplinary measures may
+include written warnings and termination of employment. In 2024, disciplinary action was taken in
+150 cases, and remedial action in 198. These actions are tracked through our network of GBP
+compliance officers. The effectiveness of the SpeakUp program and the follow-up actions taken is
+tested as part of the bi-annual Business Integrity Survey, see General Business Principles (GBP).
+Philips’ General Business Principles methodology:
+Alleged GBP violations are registered in our web-based reporting tool and followed up in line with
+our SpeakUp Policy.</t>
+  </si>
+  <si>
+    <t>Speak Up Policy
+To ensure the highest standards of business conduct by sustaining a culture in which all employees show ethical conduct, and
+where doing things ethically is recognized and valued. N/A
+8.5 Social information
+8.6 Governance
+information
+Philips website
+To establish a process of reporting a concern and explanation of process of subsequent investigation in situations which people
+do not uphold the standards of business conduct, leading to potential violations of the GBP</t>
+  </si>
+  <si>
+    <t>Multiple communication channels exist to serve as grievance mechanisms for early-warning risk
+awareness. Apart from direct contact opportunities in the engagement programs, Philips has the
+Philips Speak Up policy and underlying Speak Up mechanism that enables its stakeholders
+(including employees, former employees and third parties) to inform Philips of any concerns they
+may have. Internally, its personnel can (anonymously) report possible violations of Philips General
+Business Principles. In addition, stakeholders can use the email address
+conflict_free_minerals@Philips.com or existing industry grievance mechanisms like RMI to file
+complaints related to 3TG.</t>
+  </si>
+  <si>
+    <t>The GBP monitoring and reporting program, part of our internal control framework, measures
+implementation of our GBP. In addition, we continue to expand the capabilities of our legal
+compliance monitoring team, serving our business customers as well as our compliance networks
+with actionable data, thus further improving our internal control framework. The results of the
+monitoring measures in place are given in Philips SpeakUp (Ethics Line).
+The GBP are supported by Philips SpeakUp program. Philips SpeakUp program, and its underlying
+policies and procedures, aligns with relevant legislation on whistleblowing (including but not
+limited to Directive (EU) 2019/1937) to ensure reporters are protected from (attempted) retaliation.
+SpeakUp ensures standardized reporting and enables employees and third parties to escalate
+concerns 24/7. Concerns raised through this SpeakUp program are registered consistently in a
+single database hosted outside of Philips servers to ensure confidentiality and security of identity
+and information. Further details on how Philips ensures the protection of reporters of potential GBP
+violations, and ensures an independent and impartial review of concerns, can be found in the
+Philips SpeakUp Policy. Encouraging people to speak up through the available channels if they have
+a concern will continue to be a cornerstone of our GBP training, communications and awareness
+campaigns.
+GBP compliance officers and SpeakUp investigators receive training on following up on SpeakUp
+concerns in line with Philips SpeakUp Policy and investigation guidelines. Specifically in 2024, we
+again focused on increasing awareness about integrity and on emphasizing the importance of
+speaking up. This built on the deployment in 2023 of our biennial Business Integrity Survey, in
+which more than 22,500 employees trusted us with their views and opinions on integrity within
+Philips. The results showed 79% of the respondents feel comfortable addressing concerns related
+to the GBP. The next Business Integrity Survey will be deployed in 2025, along with an updated
+GBP e-learning.
+In 2024, a total of 805 concerns were reported via Philips SpeakUp (Ethics Line) and through our
+network of GBP compliance officers. This represents an increase of 5% from the total of 764
+concerns in the previous reporting period (2023). This is a continuation of a year-on-year upward
+trend. See Philips SpeakUp (Ethics Line) for further details.
+Through the Audit Committee of the Supervisory Board, the company also has procedures in place
+for the receipt, retention and treatment of complaints specifically relating to accounting, internal
+accounting controls, or auditing matters, enabling the confidential, anonymous submission of
+complaints</t>
+  </si>
+  <si>
+    <t>Human Rights
+(ESRS S1 and S2)
+Material negative
+impact
+(operations and
+supply chain),
+material risk
+(supply chain)
+Potential impact of discrimination, including harassment
+on Philips’ workforce and workers in Philips' supply
+chain through the failure to ensure a safe and
+respectful workplace and/or ineffective grievance
+mechanisms.</t>
+  </si>
+  <si>
+    <t>Diversity &amp; Inclusion
+Policy
+To have a diverse workforce and an inclusive work environment, and to be an equal-opportunity employer, ensuring that all
+hiring, promotions, and pay decisions are based solely on merit, qualifications and performance.
+N/A 8.5 Social information Philips Key ESG
+downloadsCommitment to not discriminate on the basis of race, color, ethnicity, age, gender, gender identify or expression, sexual
+orientation or identity, marital status, language, background, religion, health status, pregnancy, political or other opinions,
+disability, national or social origin/birth or any other status in our recruitment, hiring, training, promotion, compensation, or
+employment practices.
+Fair Employment
+Policy
+Details the ethical and social principles that govern the company's relationship with its employees and other workers world
+wide.
+International Bill of Human Rights
+International Labour Organization (ILO) 8.5 Social information Philips Key ESG
+downloads
+Promotes transparency, accountability, and a positive work environment and is aimed at creating a fair and equal work space.
+Create an environment of inclusion and belonging where all employees and other workers are treated fairly, free from
+discrimination, harassment, and other prohibited behaviors.
+Provide all employees with fair and equal development opportunities.</t>
+  </si>
+  <si>
+    <t>Our commitments to our people are observed in accordance with our General Business Principles,
+Speak Up, Human Rights, Health &amp; Safety, Fair Employment and Diversity &amp; Inclusion policies
+(available on our ESG website (link) as well as on our intranet for employees). Our policies apply to
+workers employed by Philips (through a permanent or temporary contract, employed ‘at will’, or
+through an employment scheme/WGP) and to ‘other workers’ (which includes contingent workers
+(hired via an agency), interns, as well as contractors and their respective employees).
+The Philips Fair Employment Policy details the ethical and social principles that govern the
+company’s relationship with its employees and other workers worldwide. The policy promotes
+transparency, accountability, and a positive work environment and is aimed at creating a fair and
+equal workplace. In accordance with conventions of the International Labor Organization (ILO), we
+are committed to be free from forced, bonded and child labor, which extends to human trafficking
+in line with our Human Rights commitments. The policy helps create an environment of inclusion
+and belonging, where all employees and other workers are treated fairly, free from discrimination,
+harassment, and other prohibited behaviors. In accordance with the Fair Employment policy, we
+provide all employees with fair and equal development opportunities. It is further supported by the
+Philips Diversity &amp; Inclusion Policy which is aimed to act on our commitment to an inclusive
+workplace for our employees and other workers that reflects the diversity of our community. We
+do not discriminate on the basis of race, color, ethnicity, age, gender, gender identity or expression,
+sexual orientation or identity, marital status, language, background, religion, health status,
+pregnancy, political or other opinions, disability, national or social origin/birth or any other status in
+our recruitment, hiring, training, promotion, compensation or employment practices.
+The key Social topics in relation to our own workforce are addressed at a global level in line with
+our global policies, and managed locally in line with local regulations and labor law practices. As
+such, we uphold employee rights and health &amp; safety ensuring compliance with local legislation in
+countries where we employ workers. We foster a fair &amp; inclusive workplace as well as employee
+well-being through targeted actions discussed in Diversity, Inclusion and Well-Being, subject to local
+rules and regulations as they may vary from time to time and between different geographies.
+Moreover, we provide all employees with at least a Living Wage (Living Wage and Adequate
+Wage), and monitor the gender pay gap (Equal opportunities and equal pay). With regards to
+talent &amp; development, all employees are provided with fair and equal opportunities to develop their
+skills, and to realize their full potential through on-the-job training, learning from others (such as
+through coaching and mentoring) and virtual and classroom courses. More information on our
+approach to building a Workforce of the Future including both Early Career talent and Leaders
+along the employee journey from talent attraction and onboarding through career development
+and learning hours can be found in Workforce of the future. Furthermore, local programs such as
+WGP in the Netherlands (see Building employability), Employee volunteering and refugee hiring (see
+Workforce of the future) are examples of how we drive social inclusion &amp; engagement.</t>
+  </si>
+  <si>
+    <t>Note V Diversity, Inclusion and Well-Being
+We are a diverse team made up of 68,419 individuals across over 70 countries, all with different
+backgrounds, perspectives, and experiences. We fully value and leverage these differences to
+ensure that creativity and innovation can flourish.
+In our ongoing effort to increase transparency and develop leadership through non-discriminatory
+means, we share data on the representation of women throughout our Businesses, Regions and
+Functions, including a quarterly review with the Executive Committee. We closely monitor the
+inflow, advancement and outflow of talent, as well as their engagement and employee experience
+via our bi-annual Philips Employee Survey, which makes it possible to customize goals and intervene
+where appropriate. We continue important initiatives that address psychological safety, health and 
+well-being, inclusion and equal employment opportunities. Through these initiatives we further
+embed our ambition to be an equal-opportunity employer, offering an inclusive work place to a
+diverse workforce to drive our business and innovation, and mirror the diversity of our worldwide
+customer base.
+Diverse representation of talent
+Philips aims to have 35% of senior management positions held by women, by the end of 2025.
+The achievement of this globally applying aspirational goal may be impacted by conflicting local
+rules and regulations.
+Senior management positions (including senior directors and executives) amount to 1,105
+employees, 361 women (33%), 744 men (67%) at the end of 2024. At year-end, one out of three
+members of the Board of Management was female, with five out of thirteen members of the
+Executive Committee being female. On the date of this report, composition of the Board of
+Management had not changed, while (upon the announced retirement of Edwin Paalvast) seven
+out of fourteen members of the Executive Committee will be female.
+The below graph shows employee headcount by gender. At Philips, employees are registered as
+female or male, or can choose not to disclose their gender, to reflect requirements of the countries
+we operate in.
+To support an inclusive culture, we monitor the demographics of our workforce, including
+employees that identify as having a disability. This enables us to understand where we are
+underrepresented as compared to industry and regional standards and to allow for accommodation
+as needed at our work locations. Persons with disabilities are defined as persons who have long-
+term physical, mental, intellectual or sensory impairments which in interaction with various barriers
+may hinder their full and effective participation in society on an equal basis with others. At year-
+end 2024, 3% of our employees have disclosed a disability either through self-identification or
+validation by a medical professional. This percentage only includes countries where it is legally
+allowed to collect and disclose data on persons with disabilities.
+Global Diversity Council
+Our Global Diversity Council is comprised of 10 senior leaders representing our Businesses, Regions
+and Functions. The Council provides governance and oversight on diversity efforts, sponsors our
+Employee Resource Groups, promotes company-wide behavior change, and communicates on
+progress.
+Commitment to non-discriminatory practices
+Employee Resource Groups (ERGs) provide an inclusive space for employees to support and care for
+one another, develop skills, experience meaningful cultural connections, expand their knowledge,
+all while strengthening relationships among the Philips community. Philips currently has 12 ERGs
+globally that are open to all, with over 10,000 employees participating. We monitor compliance
+with local rules and regulations, as they may change from time to time, including, for example,
+with regard to leadership development through nondiscriminatory means.</t>
+  </si>
+  <si>
+    <t>218-219</t>
+  </si>
+  <si>
+    <t>External awards
+Many stakeholders—including customers, potential partners, and employees—view third-party
+assessments as valuable, objective indicators. This past year we were honored with awards
+recognizing our efforts in Inclusive Culture, Gender Diversity, and Human Rights Equality. Our
+achievements in 2024 included prestigious accolades such as Forbes Best Employers for Women,
+Forbes World’s Best Employer, Financial Times Best Employer for Diversity, and a top rating on the
+Human Rights Campaign’s Corporate Equality Index. These recognitions underscore our ongoing
+dedication to fostering an inclusive and equitable workplace.</t>
+  </si>
+  <si>
+    <t>Philips diversity metrics methodology:
+Philips prepares diversity metrics (gender in senior management and age distribution) using the
+Philips employee definition, in line with the ESRS definition of employees, and Workday reports.
+Philips defines senior management as Corporate Grade 90 (senior director) and above, which does
+not differ from previous description. Philips defines management as Corporate Grade 80 (director)
+and Corporate Grade 90 (senior director). The distribution of employees by age group is split into
+three categories: under 30 years old; 30-50 years old; over 50 years old.
+Persons with disability uses the Philips employee definition, in line with the ESRS definition of
+employees. Disability data is collected manually in countries where we operate with headcount. In
+some countries disability is registered through self-identification, while in others it is registered with
+medical documentation. Philips adheres to the local legislation and regulations when defining,
+registering and disclosing information on persons with disabilities among employees, as well as
+when setting local strategies and targets. Due to the localized nature of the metric, there is no
+consistent global process in place to collect or validate the data, and official medical records are not
+a requirement across all countries.</t>
+  </si>
+  <si>
+    <t>Fair &amp; Inclusive
+workplace
+(ESRS S1)
+Material positive
+impact,
+material
+opportunity
+Philips makes a positive impact on employees by
+promoting an inclusive workplace, where all employees
+and other workers feel valued and respected.
+òòò General Business
+Principles,
+Diversity &amp;
+Inclusion Policy,
+Fair Employment
+Policy
+Note V
+Note VII
+Note XII
+S1-6 – Characteristics of the
+undertaking’s employees
+S1-7 – Characteristics of non-
+employee workers in the
+undertaking’s own workforce
+S1-9 – Diversity metrics
+S1-12– Persons with disabilities
+S1-16 – Compensation metrics
+(pay gap and total
+compensation)
+Entity specific:
+Women in leadership positions
+Employee Engagement Index
+p¢q
+Women in
+leadership
+positions
+% of senior
+management
+positions
+35%
+Philips has an opportunity to support and strengthen
+employee belonging and employment engagement by
+providing a fair, safe and respectful treatment for all
+employees in employment practices, compensation and
+an inspiring place to work and grow.</t>
+  </si>
+  <si>
+    <t>Human Rights
+(ESRS S1 and S2)
+Material negative
+impact
+(operations and
+supply chain),
+material risk
+(supply chain)
+Potential impact of discrimination, including harassment
+on Philips’ workforce and workers in Philips' supply
+chain through the failure to ensure a safe and
+respectful workplace and/or ineffective grievance
+mechanisms</t>
+  </si>
+  <si>
+    <t>Diversity
+The selection of candidates for appointment is always based on merit. Candidates for appointment
+to the Supervisory Board, the Board of Management and the Executive Committee are selected also
+taking into account the company’s Diversity Policy for the Supervisory Board, the Board of
+Management and the Executive Committee. This Diversity Policy aims at a sufficient diversity of
+views and the expertise needed for a good understanding of current affairs and longer-term risks
+and opportunities related to the Company’s business, and is published on the company’s website.
+Effective 2022, Dutch law provides that (re-)appointments of members of the Supervisory Board
+must be in accordance with a mandatory gender quota, requiring that at least one-third of the
+Supervisory Board members are women (and at least one-third are men). There are certain
+exceptions where the gender quota does not apply, such as the re-appointments within eight years
+of the initial appointment and (re-)appointments made in exceptional circumstances.
+For more details on the Diversity Policy for the Supervisory Board, the Board of Management and
+the Executive Committee, refer to Report of the Corporate Governance and Nomination &amp;
+Selection Committee; for more information on the profile and composition of the Supervisory
+Board refer to Supervisory Board report.
+Philips’ commitment to Inclusion &amp; Diversity is also reflected in the company-wide General Business
+Principles, the Inclusion &amp; Diversity Policy and the Fair Employment Policy.</t>
+  </si>
+  <si>
+    <t>Diversity
+The Diversity Policy for the Supervisory Board, Board of Management and Executive Committee was
+adopted in 2017 and revised in February 2023, and it is published on the company website. The
+Committee periodically assesses the Diversity Policy and the size and composition of the Supervisory
+Board and makes recommendations, if relevant, relating to the profile for the Supervisory Board.
+Pursuant to the Diversity Policy, the selection of candidates for appointment is based on merit and
+its criteria aim to ensure that the Supervisory Board, the Board of Management and the Executive
+Committee have a sufficient diversity of views and the expertise needed for a good understanding
+of current affairs and longer-term risks and opportunities related to the company’s business. The
+nature and complexity of the company’s business is taken into account when assessing the optimal
+mix of perspectives, as well as the social and environmental context in which the company
+operates.
+Effective 2022, Dutch law requires listed companies to set appropriate and ambitious gender
+diversity targets for the Board of Management and for a management level of a seniority to be
+determined by the company. To this end, the Diversity Policy includes the Supervisory Board’s aim
+that at least one-third of the members of the Board of Management and of the Executive
+Committee are women, and at least one-third are men. The composition of the Board of
+Management and the Executive Committee, respectively, currently meets this aim.</t>
+  </si>
+  <si>
+    <t>We aim to be the best place to work for our employees,
+providing opportunities for learning and development,
+promoting an inclusive workplace that reflects the diversity
+of our community through fair hiring and promotion
+practices, and assuring a safe and healthy work
+environment. We pay at least a living wage and aim for
+employee engagement above the high-performance norm.</t>
+  </si>
+  <si>
+    <t>We attach great importance to the health and well-being of our workforce and to creating an
+environment of inclusion and belonging, where all employees feel psychologically safe. This is not
+only a matter of responsible business, it also drives our company success and innovation. When we
+embrace diverse perspectives and attract and retain engaged employees from a wide range of
+backgrounds, we create better products, services and solutions for our customers and communities.</t>
+  </si>
+  <si>
+    <t>In addition to the DMA process where we specifically consult affected stakeholders regarding inputs to the materiality assessment, Philips also engage our key stakeholders throughout the year which help us deliver
+on one of our key ESG commitments: to be transparent about our plans, activities, targets, results and contributions to society, and to engage with shareholders, customers, business partners, employees,
+academics, governments and regulators through a variety of platforms.
+Philips Group
+Stakeholder engagement overview (non-exhaustive)
+Stakeholders Processes Results
+Employees • European Works Council
+• Local works councils
+• Individual employees
+Regular meetings across all levels (such as individual
+discussions, group sessions, and town hall meetings),
+quarterly Employee Survey, employee development
+process, quarterly update webinars. For more information,
+refer to Social.
+Regular mail updates, team meetings, webinars
+Engaged and informed employees, action plans, policies
+and policy updates, offering attractive employment and
+career paths, fostering skill development,talent and
+experience</t>
+  </si>
+  <si>
+    <t>Employee rights
+(ESRS S1)
+Material positive
+impact,
+material risk
+Philips has positive impacts on employees by respecting
+employee rights, providing at least a living wage to all
+employees, providing fair employment, providing fair
+and equal opportunities for development, and
+respecting employees' right to organize and collective
+bargaining.
+òòò
+General Business
+Principles,
+SpeakUp Policy,
+Fair Employment
+Policy,
+Human Rights
+Policy
+Note VIII
+Note XII
+S1-8 – Collective bargaining
+coverage and social dialogue
+S1-10 – Adequate wages
+S1-11 – Social protection
+Entity specific:
+Philips pays its employees at
+least a living wage</t>
+  </si>
+  <si>
+    <t>Collective bargaining and social dialogue
+Philips Group
+Collective bargaining and social dialogue coverage
+Collective
+bargaining coverage Social dialogue
+Coverage rate
+type
+Coverage rate Employees - EEA (for
+countries with &gt;50
+employees,
+representing &gt;10%
+of total employees
+Employees - Non-
+EEA (for countries
+with &gt;50
+employees,
+representing &gt;10%
+of total employees
+Workplace representation (EEA
+only) (for countries with &gt;50
+employees, representing
+&gt;10% of total employees
+1 0-19% AsiaPac, India, North
+America, UK &amp;
+Ireland
+2 20-39% Denmark LATAM
+3 40-59% Belgium, Germany
+4 60-79%
+5 80-100% Austria, Finland,
+France, Italy,
+Netherlands,
+Norway, Spain,
+Sweden
+Austria, Belgium, Czechia,
+Denmark, Finland, France,
+Germany, Italy, Netherlands,
+Norway, Poland, Portugal,
+Romania, Spain, Sweden
+We strive to follow International Labor Organization principles with respect to local legislation and
+legitimate associations representing employees’ collective interest, with whom we can enter
+dialogue about workplace issues. Philips employees in some countries are covered by collective
+bargaining agreements, as well as social dialogue in the form of workers’ councils and unions.
+Regular meeting with Workers’ Councils, unions and other associations representing employees’
+collective interest ensure that we address all relevant material topics for our workforce, including
+human rights. The above table shows the breakdown of EEA and non-EEA country coverage in
+terms of collective bargaining agreements, where we have a &gt;10% representation of our total
+workforce. The number of employees in the European Economic Area (EEA) at year-end 2024 was
+12,583, and the percentage of employees in the EEA covered by a collective bargaining agreement
+is 71%. Globally, 23% of Philips employees are covered by a collective bargaining agreement.
+In some EEA countries, there are several collective bargaining agreements related to various
+industrial trade unions; however, each employee is covered by no more than one agreement.
+Additionally, EEA countries are also covered by the European Works Council (EWP) agreement.</t>
+  </si>
+  <si>
+    <t>People and culture
+• Cultural transformation by bringing in impact
+with care, centered on patient safety, quality
+and integrity
+• Employee Engagement Index of 78, a five-
+point increase since 2023</t>
+  </si>
+  <si>
+    <t>Our People Engagement Survey saw increased participation, with a response rate of 84% (almost
+58,000 employees). Despite the ongoing changes within the organization, we observed a positive
+trend in our Employee Engagement Index, with an increase of 5 percentage points to 78% in
+2024. While this improvement is encouraging and indicates that the organization is adapting well
+to the changes, it is worth noting that this figure is still 2% below the high performance norm.</t>
+  </si>
+  <si>
+    <t>The company’s People strategy and priorities, employee engagement and retention of
+employees, review of talent management, leadership and talent development, leadership
+culture, and equal opportunities for all employees.</t>
+  </si>
+  <si>
+    <t>2025 Annual Incentive
+Financial element (70% weighting):
+For the year 2025, the following financial performance metrics are selected to ensure alignment
+with the key (strategic) priorities in the year:
+• 35% weighting: Comparable Sales Growth*
+• 20% weighting: Adjusted EBITA* margin
+• 15% weighting: Free Cash Flow*
+Non-Financial element (30% weighting):
+At the start of each year, two to four performance categories are selected from the following list,
+whereby each selected category receives an equal weighting:
+• Patient Safety &amp; Quality
+• Customer
+• Strategy and Execution
+• ESG
+For each selected category, one or more performance objectives are determined at the start of the
+year for each of the members of the Board of Management.
+For the year 2025, the following categories and objectives were selected to ensure alignment with
+the key (strategic) priorities in the year:
+Patient Safety &amp; Quality Drive Patient Safety &amp; Quality as
+highest priority in the
+organization
+All members of Board of
+Management 7.50%
+This objective measures delivery on our company-wide program to strengthen our Patient Safety &amp;
+Quality culture, capabilities and performance. Additionally, we measure the progress on the
+Respironics recall and delivery of the proposed consent decree commitments.
+Customer Improve market share and
+customer experience
+Roy Jakobs
+7.50%
+This objective is measured by the market share gain and by the on-time delivery of orders as per
+customer expectations.
+Improve market share and
+customer experience
+Charlotte Hanneman This objective is measured by the market share gain and by a reliable forecast as per plan.
+Manage legal issues Marnix van Ginneken Develop and manage litigation strategy and potential liabilities.
+Strategy and Execution Drive focused strategy to win in
+the market and simplify the
+operating model
+All members of Board of
+Management 7.50%
+This objective measures delivery on our value creation plan and delivery on our operating model
+simplification plan.
+ESG Deliver on ESG Commitments All members of Board of
+Management
+7.50%
+This objective measures:
+- Performance on our ESG index (which includes various elements such as emission- and diversity
+targets)
+- Our capacity to grow talent and further improve employee engagement</t>
+  </si>
+  <si>
+    <t>ESG Performance (20% weighting)
+At the start of each performance year, we select four ESG objectives in line with our long-term
+strategic priorities. There is no exhaustive list of objectives that can be selected. To ensure that all
+objectives are material, auditable and measurable, we only select objectives which are reported in
+our Annual Report (in preparation for the Corporate Sustainability Reporting Directive) and
+therefore are subject to assurance from our external provider of assurance with respect to the
+company's sustainability reporting. Furthermore, we make sure that in any measurement year, the
+ESG objectives do not overlap with our non-financial performance objectives for the Annual
+Incentive.
+The objectives selected for the 2025 LTI grant are shown in the following table, including the
+rationale for selecting these objectives and more details on the measurement approach.
+2025-2027
+Targeted # of Lives
+Improved in year 3 1
+Ensure healthy lives and promote well-
+being for all at all ages
+(SDG3) Lives Improved
+Please refer to section 4.2.1 Improving
+people’s lives for more details.
+Targeted circular revenue in
+year 3 2
+Ensure sustainable consumption and
+production patterns
+(SDG12) Circularity
+Please refer to section 4.1.3 Resource
+use and circular economy for more
+details.
+Targeted full value chain
+CO2-equivalent (in
+kilotonnes) in year 3
+Take urgent action to combat climate
+change and its impacts
+(SDG13) Carbon footprint
+Please refer to section 4.1.2 Climate
+Change for more details.
+Targeted People
+Engagement Score in year 3
+Retain an engaged workforce
+People Engagement Score
+The People Engagement Score is the
+single measure of the overall level of
+employee engagement at Philips,
+measured on a bi-yearly basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair &amp; Inclusive workplace
+(ESRS S1)
+We aim to be the best place to work for our employees, providing opportunities
+for learning and development, promoting an inclusive workplace, and assuring
+a safe and healthy work environment. We pay at least a living wage and aim for
+employee engagement above the high-performance norm.
+Women in leadership
+positions
+p¢q % of senior
+management
+positions
+27% 31% 33% 35%
+Employee
+Engagement Index
+p¢q % 79% </t>
+  </si>
+  <si>
+    <t>Occupational Health &amp;
+Safety Policy
+Commitment to prevent injuries, illnesses and incidents by providing a health and safe working environment to every employee,
+contractor and visitor through proactive risk management focused on:
+• hazard control and elimination
+• consultation and engagement of employees</t>
+  </si>
+  <si>
+    <t>Note VI Employee engagement
+Our People Engagement Survey (PES) saw increased participation, leading to a response rate of
+84%, which means that almost 58,000 employees participated.
+The PES is a key component of our listening strategy, informing our Business and People strategy
+on employee sentiment and potential impacts, risks and opportunities. The results are taken up by
+the Executive Committee and further cascaded for follow-up actions in their organizations and
+teams, informing how we work and areas in need of attention.
+Despite the ongoing changes within the organization, we observed a positive trend in the
+Employee Engagement Index, with an increase of 5% to 78% in 2024. While this improvement is
+encouraging and indicates that the organization is adapting well to the changes, it is worth noting
+that this figure is still 2% below the high performance norm.
+In a changing environment, we listened actively to our employees to provide them with greater
+clarity on future direction and enable them to proactively deal with change to meet our customer
+and patient needs. In 2024 we continued our specific focus on Patient Safety and Quality and with
+this continued focus the engagement on this key topic continues to grow. Patient safety and
+quality is our license to operate, and we continue embedding this culture in everything we do. The
+organizational shifts made as part of our plan to create value have also boosted confidence in our
+ability to effectively support customers.
+Using the Customer Experience Index, we look at how well employees think we focus on customer
+needs. These inputs are actively exchanged with the Customer Experience team.
+Our employee engagement is primarily driven by a clear understanding of our customer needs and
+delivering on commitments that we make to each other. The results of the PES indicate that
+employees feel they can be themselves and have trusting relationships at work. Another significant
+factor driving engagement is our high scores on the Diversity &amp; Inclusion index, which is around the
+industry benchmark.
+The PES represents interests and views of employees and is analyzed by various demographic
+groups to ensure consideration of underrepresented groups: leadership levels, geographic location,
+gender, Business Units/Regions/Functions, and tenure, as well as corporate grades. The survey is
+sent to all Philips employees
+Philips Employee Engagement Index (EEI) calculation methodology:
+The Employee Engagement Index (EEI) is the single measure of the overall level of employee
+engagement at Philips. It is a combination of perceptions and attitudes related to employee
+satisfaction, commitment and advocacy.
+Employee Engagement is measured by four statements on a five-point scale that are widely used in
+the industry. Favorable is % strongly agree + % agree, neutral is % neutral, and unfavorable is %
+disagree + % strongly disagree.
+The reported figures are based on the Employee Engagement Survey. The total score for employee
+engagement is an average of the quarterly results of the survey. The results are calculated by taking
+the average of the answered questions of the surveys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips currently intends to propose a 2025 Remuneration Policy for the Board of Management
+which would, among other things, provide for the vesting of performance shares subject to
+performance over a period of 3 years and based on certain criteria, including a 20% weighting for
+Sustainability Objectives, which would be defined under that plan as: Lives Improved, Carbon
+Footprint, Circular Revenues and Employee Engagement Index. The 2025 Remuneration Policy is
+subject to the approval of Philips shareholders at the 2025 AGM. </t>
+  </si>
+  <si>
+    <t>Employee Engagement Index
+The Employee Engagement Index (EEI), a value outcome measure as part of the International
+Integrated Reporting Council framework, is measured at Philips by the People Engagement Survey.
+This survey provides the single measure of the overall level of employee engagement at Philips, the
+People Engagement Score, which is a combination of perceptions and attitudes related to
+employee satisfaction, commitment and advocacy.</t>
+  </si>
+  <si>
+    <t>Material topics Commitment KPI Value chain Unit
+2020
+Baseline 2023 2024
+2025
+target*
+Human Rights
+(ESRS S1 and S2)
+Human Rights impact
+assessments at our
+at-risk sites
+p¢q % 60% 100% 100% 100%</t>
+  </si>
+  <si>
+    <t>Human Rights Policy
+Commitment to identify, prevent, and mitigate adverse human rights impacts. Philips' commitment to human rights, including
+labor rights of workers, extends to other parts of our value chain, affecting our business partners, suppliers, and customers.
+International Bill of Human Rights
+International Labour Organization (ILO)
+8.5.2 Workers in the
+value chain
+Philips Key ESG
+downloads
+Declaration on Fundamental Principles
+and Rights at Work
+Philips conducts human rights due diligence by identifying, prioritizing, and addressing impact areas and aims to periodically
+review and strengthen our due diligence approach in alignment with our own learnings and industry best practices.
+United Nations Guiding Principles on
+Business and Human Rights (UNGP)
+Organization for Economic Co-operation
+and Development (OECD)</t>
+  </si>
+  <si>
+    <t>We identify key impacts, risks, and opportunities around social topics, which inform our Business
+and People strategy through the DMA process, tracking our performance in key material topics, as
+well as through our engagement with our people. In 2024, we identified (potential) negative
+impacts related to Health &amp; Safety and Human Rights. For programs which Philips developed to
+prevent and mitigate material negative impacts please refer to the polices and programs described
+in this section. Philips did not identify any incidents of child labor and forced labor. The attraction
+and retention of talented employees is critical to Philips’ success, and the loss of employees with
+specialized skills could result in business interruptions. Philips continuously assesses capability gaps
+for its key positions and has initiatives in place to close any employee capability gaps. For further
+information, please refer to Double Materiality Assessment.
+Policies, metrics and targets
+Our commitments to our people are observed in accordance with our General Business Principles,
+Speak Up, Human Rights, Health &amp; Safety, Fair Employment and Diversity &amp; Inclusion policies
+(available on our ESG website (link) as well as on our intranet for employees). Our policies apply to
+workers employed by Philips (through a permanent or temporary contract, employed ‘at will’, or
+through an employment scheme/WGP) and to ‘other workers’ (which includes contingent workers
+(hired via an agency), interns, as well as contractors and their respective employees).
+The Philips Fair Employment Policy details the ethical and social principles that govern the
+company’s relationship with its employees and other workers worldwide. The policy promotes
+transparency, accountability, and a positive work environment and is aimed at creating a fair and
+equal workplace. In accordance with conventions of the International Labor Organization (ILO), we
+are committed to be free from forced, bonded and child labor, which extends to human trafficking
+in line with our Human Rights commitments. The policy helps create an environment of inclusion
+and belonging, where all employees and other workers are treated fairly, free from discrimination,
+harassment, and other prohibited behaviors. In accordance with the Fair Employment policy, we
+provide all employees with fair and equal development opportunities. It is further supported by the
+Philips Diversity &amp; Inclusion Policy which is aimed to act on our commitment to an inclusive
+workplace for our employees and other workers that reflects the diversity of our community. We
+do not discriminate on the basis of race, color, ethnicity, age, gender, gender identity or expression,
+sexual orientation or identity, marital status, language, background, religion, health status,
+pregnancy, political or other opinions, disability, national or social origin/birth or any other status in
+our recruitment, hiring, training, promotion, compensation or employment practices.</t>
+  </si>
+  <si>
+    <t>Employee rights
+(ESRS S1)
+Material positive
+impact,
+material risk
+Philips has positive impacts on employees by respecting
+employee rights, providing at least a living wage to all
+employees, providing fair employment, providing fair
+and equal opportunities for development, and
+respecting employees' right to organize and collective
+bargaining.
+òòò
+General Business
+Principles,
+SpeakUp Policy,
+Fair Employment
+Policy,
+Human Rights
+Policy
+Note VIII
+Note XII
+S1-8 – Collective bargaining
+coverage and social dialogue
+S1-10 – Adequate wages
+S1-11 – Social protection
+Entity specific:
+Philips pays its employees at
+least a living wage
+p¢q
+We pay at
+least a living
+wage
+% 100%
+Risk of fines, legal liabilities, and reputational damage
+for Philips due to Philips not adequately addressing
+employee rights in their operations.</t>
+  </si>
+  <si>
+    <t>Human Rights
+(ESRS S1 and S2)
+Material negative
+impact
+(operations and
+supply chain),
+material risk
+(supply chain)
+Potential impact of discrimination, including harassment
+on Philips’ workforce and workers in Philips' supply
+chain through the failure to ensure a safe and
+respectful workplace and/or ineffective grievance
+mechanisms. òòò
+Human Rights
+Policy
+Note XI
+Note XIII
+Section 4.2.3
+Note XIV
+S1-17 – Incidents, complaints
+and severe human rights
+impacts
+S2-4 – Taking action on
+material impacts on value chain
+workers, and approaches to
+managing material risks and
+pursuing material opportunities
+related to value chain workers,
+and effectiveness of those
+actions
+Entity specific:
+Human rights impact
+assessments at our at-risk sites
+Suppliers participating in
+Supplier Development program
+p¢q
+Human
+Rights
+impact
+assessments
+at our at-risk
+sites
+% 100%
+Potential negative impact of illegal or unethical labor
+practices on own workforce and workers in Philips'
+supply chain.
+òòò
+Risk of fines, legal proceedings, and reputational
+damage due to incidents of human rights violations,
+including existing and emerging regulatory
+requirements</t>
+  </si>
+  <si>
+    <t>Human rights
+Philips believes that companies have both the responsibility to respect human rights and the ability
+to protect them. Philips’ Human Rights Policy, General Business Principles, Supplier Sustainability
+Declaration and other relevant policies guide our actions, in line with the International Bill of
+Human Rights and the International Labor Organization’s Declaration on Fundamental Principles
+and Rights at Work.
+Philips also follows the guidance in the UN Guiding Principles on Business and Human Rights and
+the Organization for Economic Co-operation and Development (OECD) Guidelines for Multinational
+Enterprises.
+The Philips Board of Management is ultimately responsible for setting the human rights strategy
+and managing human rights. It is supported by a cross-functional project team, composed of a
+human rights manager and professionals from several Businesses, and it drives initiatives with
+oversight from the Human Rights Steering Committee, consisting of senior leaders from Integrated
+Supply Chain, Legal, People, and Group Sustainability.
+In 2024, we continued to develop our due diligence strategy by conducting Human Rights Impact
+Assessments (HRIAs). Philips conducted HRIAs at its sites in China and Indonesia, living up to its
+commitment of conducting regular HRIAs at 100% of its at-risk sites. Philips intends to monitor the
+progress and findings from at-risk sites and take them on a continuous improvement journey
+regarding human rights topics.
+Although the HRIA of selected sites is primarily focused on Philips' own operations, a derived deep-
+dive approach for certain suppliers has been established since 2022. For five suppliers, a focused
+assessment on human rights was conducted in 2024; this is distinct from the broader supplier
+sustainability assessment approach, which covers sustainability more holistically as indicated in
+Supplier sustainability &amp; Workers in the value chain.
+Our Human Rights Report contains detailed information regarding our progress, targets, and plans
+for continuous improvement.</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>Governance and Grievance mechanisms
+Philips’ governance on human rights is overseen by the Steering Committee on Business and
+Human Rights, led by senior executives from several functions across the company. This committee
+ensures that Philips’ responsibility for Human Rights is upheld across the organization. In addition,
+the company has also appointed a dedicated Human Rights Manager, who ensures alignment of
+Philips’ activities with its commitment to Human Rights. Steering Committee members report to the
+Board of Management on a quarterly basis</t>
+  </si>
+  <si>
+    <t>Most common types of concerns reported
+Treatment of employees
+As in previous years, the type of concern most commonly reported related to the category
+‘Treatment of employees’. In 2024, there were 529 reports in this category, compared with 459 in
+2023. This represents 66% of the total number of concerns, slightly higher than in 2023 (60%).
+The majority of the concerns reported in the ‘Treatment of employees’ category relate to
+‘Respectful treatment’. The ‘Respectful treatment’ sub-category generally relates to concerns about
+verbal abuse, (sexual) harassment, and hostile work environments. In the ‘Treatment of employees’
+category, 48% of cases originated from North America, a decrease compared to 2023 (51%). In
+2024, no material fines, penalties or damages were paid for incidents of discrimination, harassment
+and severe human rights incidents (e.g., forced labor, human trafficking or child labor).</t>
+  </si>
+  <si>
+    <t>The GBP were updated in 2024 to include legal developments and input from stakeholders,
+including internal Functions (e.g., Group Sustainability, People, Legal). The Universal Declaration of
+Human Rights, the UN Convention against Corruption and other standards served as a reference.
+The GBP include principles of doing business with integrity at work, integrity in the market, and
+professional integrity outside work. They set our integrity standard on inside information, aiming to
+prevent trading on or disclosure of non-public information, the publication of which would likely
+have a significant influence on the trading price of Philips securities or securities of companies that
+Philips is seeking to acquire.</t>
+  </si>
+  <si>
+    <t>We strive to follow International Labor Organization principles with respect to local legislation and
+legitimate associations representing employees’ collective interest, with whom we can enter
+dialogue about workplace issues. Philips employees in some countries are covered by collective
+bargaining agreements, as well as social dialogue in the form of workers’ councils and unions.
+Regular meeting with Workers’ Councils, unions and other associations representing employees’
+collective interest ensure that we address all relevant material topics for our workforce, including
+human rights. The above table shows the breakdown of EEA and non-EEA country coverage in
+terms of collective bargaining agreements, where we have a &gt;10% representation of our total
+workforce. The number of employees in the European Economic Area (EEA) at year-end 2024 was
+12,583, and the percentage of employees in the EEA covered by a collective bargaining agreement
+is 71%. Globally, 23% of Philips employees are covered by a collective bargaining agreement.</t>
+  </si>
+  <si>
+    <t>United Nations Global Compact
+We signed up to the United Nations Global Compact in March 2007 to advance 10 universal
+principles in the areas of human rights, labor, the environment and anti-corruption. Our General
+Business Principles, our policies on Human Rights, our Sustainability and Environmental Policies, and
+our Supplier Sustainability Declaration are the cornerstones that enable us to live up to the
+standards set by the Global Compact. This is closely monitored and reported, as illustrated
+throughout this report, which is also our annual Communication on Progress (COP) submitted to
+the UN Global Compact Office.
+We use this report to communicate on our progress toward the relevant Sustainable Development
+Goals (SDGs), in particular SDG 3, SDG 12, and SDG 13. Please refer to Advocacy activities and
+expenses for more details.</t>
+  </si>
+  <si>
+    <t>Management of key material people topics (Impacts, Risks and Opportunities)
+We depend on our people to deliver on our business strategy and our commitments to our
+customers, patients and consumers and therefore place a lot of importance on managing the risks
+and opportunities that pertain to our own workforce.</t>
+  </si>
+  <si>
+    <t>Own workforce
+In this section we describe the relevant topics for our own workforce in line with our people
+strategy, with a focus on actions and results. Relevant methodologies and assumptions have been
+included.
+Note IV Workforce of the future
+As reflected in our ESG commitments, we aim to be the best place to work for our employees,
+providing opportunities for learning and development, promoting an inclusive workplace, and
+assuring a safe and healthy work environment. Our commitments to our people are observed in
+accordance with our General Business Principles, Speak Up, Human Rights, Occupational Health &amp;
+Safety, Fair Employment, and Diversity &amp; Inclusion policies.
+We continued our Total Workforce Strategy, which considers all sources of skills, capabilities,
+locations and changes in the labor market in order to deliver the Workforce of the Future. Globally,
+we work with different worker types: employees and contingent workers, as well external services.
+In 2024, we further focused on the implementation of our external workforce strategy. In addition,
+we have been looking at how we are attracting contingent workforce talent. Direct sourcing has
+been expanded to 26% in the Netherlands and to 40% in the US, and has been rolled out to India
+(11%). To strengthen the way we directly source contingent workforce talent, our own Philips
+employer value proposition is utilized for the different functions to attract these contingent
+workers.
+Total Workforce Strategy
+We use our Right Shoring &amp; Sourcing methodology to implement the Total Workforce Strategy.
+This methodology steers improvements in workforce composition towards the ‘right
+shore’ (onshore, nearshore and offshore) and the ‘right source’ (employees, contingent workers
+and external services). The program delivered EUR 7 million in savings in 2024.
+To develop the workforce that can deliver our strategy we have a Strategic Priorities recruitment
+team who focus on the R&amp;D, Patient Safety &amp; Quality, Clinical and Informatics roles critical to our
+success. Together, in 2024, they delivered 1,555 roles. In all of our external recruitment we secured
+38% candidates with Medical Technology expertise.</t>
+  </si>
+  <si>
+    <t>Employee rights
+(ESRS S1)
+Material positive
+impact,
+material risk
+Philips has positive impacts on employees by respecting
+employee rights, providing at least a living wage to all
+employees, providing fair employment, providing fair
+and equal opportunities for development, and
+respecting employees' right to organize and collective
+bargaining.
+òòò
+General Business
+Principles,
+SpeakUp Policy,
+Fair Employment
+Policy,
+Human Rights
+Policy
+Note VIII
+Note XII
+S1-8 – Collective bargaining
+coverage and social dialogue
+S1-10 – Adequate wages
+S1-11 – Social protection
+Entity specific:
+Philips pays its employees at
+least a living wage
+p¢q
+We pay at
+least a living
+wage
+% 100%
+Risk of fines, legal liabilities, and reputational damage
+for Philips due to Philips not adequately addressing
+employee rights in their operations. òòò
+Employee well-
+being, Health &amp;
+Safety
+(ESRS S1)
+Material positive
+impact,
+material negative
+impact,
+material risk
+Philips has a positive impact on employees' well-being
+as a result of providing a healthy work-life balance. òòò Diversity &amp;
+Inclusion Policy,
+Occupational
+Health &amp; Safety
+Policy,
+Mental Health
+Champion
+program
+Note XI
+Note XII
+S1-14 – Health and safety
+metrics
+S1-15 – Work-life balance
+metrics
+p¢q
+Total
+Recordable
+Case (TRC)
+rate
+Total
+recordable
+cases per
+100 FTE
+N/A
+Negative impact on Philips' employees due to work-
+related incidents and illnesses. òòò
+Health &amp; Safety: Risk of fines, legal liabilities, increased
+absenteeism due to work-related incidents and illnesses
+in Philips' own operations. òòò
+Talent &amp;
+development
+(ESRS S1)
+Material positive
+impact,
+material
+opportunity
+Philips has positive impacts on employees by providing
+opportunities to develop their skills and to realize their
+full potential through on-the job training, learning from
+others (such as through coaching and mentoring) and
+virtual and classroom courses.
+òòò
+Fair Employment
+Policy
+Note IV
+Note X
+Note XII
+S1-13 – Training and skills
+development metrics p¢q
+Training
+hours per
+employee
+Hours N/A
+Philips has an opportunity to further strengthen
+relationships with employees and increase company
+performance through employees' continuous learning
+and growth.
+Human Rights
+(ESRS S1 and S2)
+Material negative
+impact
+(operations and
+supply chain),
+material risk
+(supply chain)
+Potential impact of discrimination, including harassment
+on Philips’ workforce and workers in Philips' supply
+chain through the failure to ensure a safe and
+respectful workplace and/or ineffective grievance
+mechanisms. òòò
+Human Rights
+Policy
+Note XI
+Note XIII
+Section 4.2.3
+Note XIV
+S1-17 – Incidents, complaints
+and severe human rights
+impacts
+S2-4 – Taking action on
+material impacts on value chain
+workers, and approaches to
+managing material risks and
+pursuing material opportunities
+related to value chain workers,
+and effectiveness of those
+actions
+Entity specific:
+Human rights impact
+assessments at our at-risk sites
+Suppliers participating in
+Supplier Development program
+p¢q
+Human
+Rights
+impact
+assessments
+at our at-risk
+sites
+% 100%
+Potential negative impact of illegal or unethical labor
+practices on own workforce and workers in Philips'
+supply chain.
+òòò
+Risk of fines, legal proceedings, and reputational
+damage due to incidents of human rights violations,
+including existing and emerging regulatory
+requirements.</t>
+  </si>
+  <si>
+    <t>176-177</t>
+  </si>
+  <si>
+    <t>Philips is dependent on its people for leadership and specialized skills and may
+be unable to attract and retain personnel
+The attraction and retention of talented employees is critical to Philips’ success, and the loss of
+employees with specialized skills could result in business interruptions, especially given the strong
+competition for talent in key capability segments. Philips is competing with other companies for the
+best talent and most sought-after skills, and there is no assurance of succeeding in attracting and
+retaining the highly qualified employees needed in the future. Wage inflation is increasing the
+competition for talent, as well as the cost of labor. This may negatively impact our ability to realize
+our plan for creating value with sustainable impact, and if we are unable to offset the increased
+costs of labor through higher selling prices and increased productivity, then rising costs could also
+have a material adverse impact on Philips’ business, financial condition and operating results.
+Risk response: Philips continuously assesses capability gaps for its key positions and has initiatives in
+place to close any employee capability gaps. This includes monitoring and understanding the drivers
+behind attrition, maintaining appropriate remuneration structures aimed at attracting and retaining
+talent, and leveraging its purpose and contribution to societal and environmental challenges, as a
+differentiating proposition for employees. Philips measures employee engagement through regular
+surveys and benchmarks the results across the organization against high-performing external
+norms. Philips performs deep-dives where necessary and drives improvement actions to address any
+gaps.</t>
+  </si>
+  <si>
+    <t>Management of key material people topics (Impacts, Risks and Opportunities)
+We depend on our people to deliver on our business strategy and our commitments to our
+customers, patients and consumers and therefore place a lot of importance on managing the risks
+and opportunities that pertain to our own workforce.
+We identify key impacts, risks, and opportunities around social topics, which inform our Business
+and People strategy through the DMA process, tracking our performance in key material topics, as
+well as through our engagement with our people. In 2024, we identified (potential) negative
+impacts related to Health &amp; Safety and Human Rights. For programs which Philips developed to
+prevent and mitigate material negative impacts please refer to the polices and programs described
+in this section. Philips did not identify any incidents of child labor and forced labor. The attraction
+and retention of talented employees is critical to Philips’ success, and the loss of employees with
+specialized skills could result in business interruptions. Philips continuously assesses capability gaps
+for its key positions and has initiatives in place to close any employee capability gaps. For further
+information, please refer to Double Materiality Assessment.</t>
+  </si>
+  <si>
+    <t>ESG governance, strategy and policies
+ESG is embedded in our core business processes, such as innovation (EcoDesign), sourcing (Supplier
+Sustainability Program), manufacturing (Sustainable Operations), logistics (Green Logistics), and in
+programs such as our Circular Economy program.
+Statement on due diligence
+Philips incorporates due diligence in various parts of its operating model. An overview of the core
+elements of due diligence is given in the next table :
+Philips Group
+Steps of the due diligence process
+Core elements of due
+diligence References in sustainability statement *
+Embedding due diligence in
+governance, strategy and
+business model
+ESRS 2 GOV-2: Information provided to and sustainability matters addressed by
+the undertaking’s administrative, management and supervisory bodies
+ESRS 2 GOV-3: Integration of sustainability-related performance in incentive
+schemes
+ESRS 2 SBM-3: Material impacts, risks and opportunities and their interaction
+with strategy and business model
+Engaging with affected
+stakeholders in all key steps
+of due diligence
+ESRS 2 GOV-2: Information provided to and sustainability matters addressed by
+the undertaking’s administrative, management and supervisory bodies
+ESRS 2 SBM-2: Interests and views of stakeholders
+ESRS 2 IRO-1:Description of the processes to identify and assess material
+impacts, risks and opportunities
+ESRS 2 MDR-P: Policies adopted to manage material sustainability matters
+Topical ESRS: reflecting the different stages and purposes of stakeholder
+engagement throughout the due diligence process.
+Identifying and assessing
+adverse impacts
+ESRS 2 IRO-1 (including Application Requirements related to specific
+sustainability matters in the relevant ESRS)
+ESRS 2 SBM-3: Material impacts, risks and opportunities and their interaction
+with strategy and business model
+Taking actions to address
+those adverse impacts
+ESRS 2 MDR-A: Actions and resources in relation to material sustainability
+matters
+Topical ESRS: reflecting the range of actions, including transition plans, through
+which impacts are addressed
+Tracking the effectiveness of
+these efforts and
+communicating
+ESRS 2 MDR-M: Metrics in relation to material sustainability matters
+ESRS 2 MDR-T: Tracking effectiveness of policies and actions through targets
+Topical ESRS: regarding metrics and targets
+* Please refer to the the ESRS cross-reference table for the paragraphs in the sustainability statement</t>
+  </si>
+  <si>
+    <t>Material impacts, risks, and opportunities and their interaction with strategy and business
+model
+Philips conducted a Double Materiality Assessment (DMA) in 2024 to identify material topics, the
+related impacts risks and opportunities, and the subsequent reporting scope. Details can be found
+in Double Materiality Assessment and Material topics and our focus.</t>
+  </si>
+  <si>
+    <t>Fair &amp; Inclusive
+workplace
+(ESRS S1)
+Material positive
+impact,
+material
+opportunity
+Philips makes a positive impact on employees by
+promoting an inclusive workplace, where all employees
+and other workers feel valued and respected.
+òòò General Business
+Principles,
+Diversity &amp;
+Inclusion Policy,
+Fair Employment
+Policy
+Note V
+Note VII
+Note XII
+S1-6 – Characteristics of the
+undertaking’s employees
+S1-7 – Characteristics of non-
+employee workers in the
+undertaking’s own workforce
+S1-9 – Diversity metrics
+S1-12– Persons with disabilities
+S1-16 – Compensation metrics
+(pay gap and total
+compensation)
+Entity specific:
+Women in leadership positions
+Employee Engagement Index
+p¢q
+Women in
+leadership
+positions
+% of senior
+management
+positions
+35%
+Philips has an opportunity to support and strengthen
+employee belonging and employment engagement by
+providing a fair, safe and respectful treatment for all
+employees in employment practices, compensation and
+an inspiring place to work and grow.
+òòò
+Employee
+Engagement
+Index
+% N/A
+Employee rights
+(ESRS S1)
+Material positive
+impact,
+material risk
+Philips has positive impacts on employees by respecting
+employee rights, providing at least a living wage to all
+employees, providing fair employment, providing fair
+and equal opportunities for development, and
+respecting employees' right to organize and collective
+bargaining.
+òòò
+General Business
+Principles,
+SpeakUp Policy,
+Fair Employment
+Policy,
+Human Rights
+Policy
+Note VIII
+Note XII
+S1-8 – Collective bargaining
+coverage and social dialogue
+S1-10 – Adequate wages
+S1-11 – Social protection
+Entity specific:
+Philips pays its employees at
+least a living wage
+p¢q
+We pay at
+least a living
+wage
+% 100%
+Risk of fines, legal liabilities, and reputational damage
+for Philips due to Philips not adequately addressing
+employee rights in their operations. òòò
+Employee well-
+being, Health &amp;
+Safety
+(ESRS S1)
+Material positive
+impact,
+material negative
+impact,
+material risk
+Philips has a positive impact on employees' well-being
+as a result of providing a healthy work-life balance. òòò Diversity &amp;
+Inclusion Policy,
+Occupational
+Health &amp; Safety
+Policy,
+Mental Health
+Champion
+program
+Note XI
+Note XII
+S1-14 – Health and safety
+metrics
+S1-15 – Work-life balance
+metrics
+p¢q
+Total
+Recordable
+Case (TRC)
+rate
+Total
+recordable
+cases per
+100 FTE
+N/A
+Negative impact on Philips' employees due to work-
+related incidents and illnesses. òòò
+Health &amp; Safety: Risk of fines, legal liabilities, increased
+absenteeism due to work-related incidents and illnesses
+in Philips' own operations. òòò
+Talent &amp;
+development
+(ESRS S1)
+Material positive
+impact,
+material
+opportunity
+Philips has positive impacts on employees by providing
+opportunities to develop their skills and to realize their
+full potential through on-the job training, learning from
+others (such as through coaching and mentoring) and
+virtual and classroom courses.
+òòò
+Fair Employment
+Policy
+Note IV
+Note X
+Note XII
+S1-13 – Training and skills
+development metrics p¢q
+Training
+hours per
+employee
+Hours N/A
+Philips has an opportunity to further strengthen
+relationships with employees and increase company
+performance through employees' continuous learning
+and growth.
+òòò
+Human Rights
+(ESRS S1 and S2)
+Material negative
+impact
+(operations and
+supply chain),
+material risk
+(supply chain)
+Potential impact of discrimination, including harassment
+on Philips’ workforce and workers in Philips' supply
+chain through the failure to ensure a safe and
+respectful workplace and/or ineffective grievance
+mechanisms. òòò
+Human Rights
+Policy
+Note XI
+Note XIII
+Section 4.2.3
+Note XIV
+S1-17 – Incidents, complaints
+and severe human rights
+impacts
+S2-4 – Taking action on
+material impacts on value chain
+workers, and approaches to
+managing material risks and
+pursuing material opportunities
+related to value chain workers,
+and effectiveness of those
+actions
+Entity specific:
+Human rights impact
+assessments at our at-risk sites
+Suppliers participating in
+Supplier Development program
+p¢q
+Human
+Rights
+impact
+assessments
+at our at-risk
+sites
+% 100%
+Potential negative impact of illegal or unethical labor
+practices on own workforce and workers in Philips'
+supply chain.
+òòò
+Risk of fines, legal proceedings, and reputational
+damage due to incidents of human rights violations,
+including existing and emerging regulatory
+requirements.</t>
+  </si>
+  <si>
+    <t>Social Our purpose is to improve people’s health and well-being through
+meaningful innovation, in line with UN SDG 3. We act responsibly
+towards society and partner with our stakeholders.
+V
+VII
+XII
+Fair &amp; Inclusive workplace
+(ESRS S1)
+We aim to be the best place to work for our employees, providing opportunities
+for learning and development, promoting an inclusive workplace, and assuring
+a safe and healthy work environment. We pay at least a living wage and aim for
+employee engagement above the high-performance norm.
+Women in leadership
+positions
+p¢q % of senior
+management
+positions
+27% 31% 33% 35%
+Employee
+Engagement Index
+p¢q % 79% 73% 78% N/A
+VIII
+XII
+Employee rights
+(ESRS S1)
+We pay at least a
+living wage
+p¢q % 100% 100% 100% 100%
+XI
+XII
+Employee well-being, Health &amp;
+Safety
+(ESRS S1)
+Total Recordable
+Case (TRC) rate
+p¢q Total
+recordable
+cases per 100
+FTE
+0.24 0.24 0.21 N/A
+IV
+X
+XII
+Talent &amp; development (ESRS S1) Training hours per
+employee
+p¢q Hours N/A 43 47.5 N/A
+XI
+XIII
+Section
+4.2.3
+XIV
+Human Rights
+(ESRS S1 and S2)
+Human Rights impact
+assessments at our
+at-risk sites
+p¢q % 60% 100% 100% 100%</t>
+  </si>
+  <si>
+    <t>Note V Diversity, Inclusion and Well-Being
+We are a diverse team made up of 68,419 individuals across over 70 countries, all with different
+backgrounds, perspectives, and experiences. We fully value and leverage these differences to
+ensure that creativity and innovation can flourish.
+In our ongoing effort to increase transparency and develop leadership through non-discriminatory
+means, we share data on the representation of women throughout our Businesses, Regions and
+Functions, including a quarterly review with the Executive Committee. We closely monitor the
+inflow, advancement and outflow of talent, as well as their engagement and employee experience
+via our bi-annual Philips Employee Survey, which makes it possible to customize goals and intervene
+where appropriate. We continue important initiatives that address psychological safety, health and
+well-being, inclusion and equal employment opportunities. Through these initiatives we further
+embed our ambition to be an equal-opportunity employer, offering an inclusive work place to a
+diverse workforce to drive our business and innovation, and mirror the diversity of our worldwide
+customer base.
+Diverse representation of talent
+Philips aims to have 35% of senior management positions held by women, by the end of 2025.
+The achievement of this globally applying aspirational goal may be impacted by conflicting local
+rules and regulations.
+Senior management positions (including senior directors and executives) amount to 1,105
+employees, 361 women (33%), 744 men (67%) at the end of 2024. At year-end, one out of three
+members of the Board of Management was female, with five out of thirteen members of the
+Executive Committee being female. On the date of this report, composition of the Board of
+Management had not changed, while (upon the announced retirement of Edwin Paalvast) seven
+out of fourteen members of the Executive Committee will be female.
+The below graph shows employee headcount by gender. At Philips, employees are registered as
+female or male, or can choose not to disclose their gender, to reflect requirements of the countries
+we operate in.
+At Philips, we aim for a multi-generational workforce, as a key factor to foster creativity,
+productivity and innovation. The different life experiences of a multi-generational workforce allows
+us to include diverse perspectives and points of view in our collaborative decision-making.
+To support an inclusive culture, we monitor the demographics of our workforce, including
+employees that identify as having a disability. This enables us to understand where we are
+underrepresented as compared to industry and regional standards and to allow for accommodation
+as needed at our work locations. Persons with disabilities are defined as persons who have long-
+term physical, mental, intellectual or sensory impairments which in interaction with various barriers
+may hinder their full and effective participation in society on an equal basis with others. At year-
+end 2024, 3% of our employees have disclosed a disability either through self-identification or
+validation by a medical professional. This percentage only includes countries where it is legally
+allowed to collect and disclose data on persons with disabilities.
+Global Diversity Council
+Our Global Diversity Council is comprised of 10 senior leaders representing our Businesses, Regions
+and Functions. The Council provides governance and oversight on diversity efforts, sponsors our
+Employee Resource Groups, promotes company-wide behavior change, and communicates on
+progress.
+Commitment to non-discriminatory practices
+Employee Resource Groups (ERGs) provide an inclusive space for employees to support and care for
+one another, develop skills, experience meaningful cultural connections, expand their knowledge,
+all while strengthening relationships among the Philips community. Philips currently has 12 ERGs
+globally that are open to all, with over 10,000 employees participating. We monitor compliance
+with local rules and regulations, as they may change from time to time, including, for example,
+with regard to leadership development through nondiscriminatory means.
+Health &amp; Well-being
+In 2024, we evolved our (mental) health and well-being framework to incorporate two additional
+pillars of well-being – career and environmental – enhancing our holistic approach and integrating
+global and local programs. We continued to address mental health by further rolling out the
+Employee Assistance Program (EAP).
+We grew our Mental Health Champion program to over 400 Champions across the globe,
+providing accredited training for peer-to-peer confidential support. We developed compassionate
+leadership training for all our people managers, as well as encouraging dialogues around self-care,
+building trust and resilience.
+Along with International Women’s Day, PRIDE and International Day of People with Disability,
+Philips also recognized self-care month and World Mental Health Day, with a variety of virtual
+mental well-being sessions and resilience practices that engaged employees across our Regions. In
+collaboration with Philips University, the Philips Energy Management well-being program was
+further extended across the organization.
+Work-life balance
+At Philips, we realize the positive effects that family-related leave programs have on employee
+engagement, retention, well-being, and productivity. It provides a structured and approved period
+for employees to temporarily step away from their work responsibilities to create more work-life
+balance. This break allows them to focus on their family’s needs, particularly in the crucial early
+stages of parenthood. Family-related leave leads to improved employee morale and helps us to
+reach our gender ambitions.
+Philips adheres to the local legislation and regulations when defining and capturing entitlement and
+usage of family-related leave. The overarching definition states family-related leave includes
+maternity leave, paternity leave, parental leave, and carers’ leave that is available under national
+law, collective agreements or other policies and regulations.
+99.5% of our employees are entitled to take family-related leave, defined as those who are covered
+by regulations, organizational policies, agreements, contracts or collective bargaining agreements
+that contain family-related leave entitlements. Data from the top 10 countries (by employee
+headcount) was collected and used to estimate the total number of entitled employees that took
+family-related leave, based on geographical (regional) variables. Using this method may not
+adequately represent the diversity of leave practices across all countries in each region and may
+lead to data inaccuracy. However, as employees in the top 10 countries account for 83% of all
+employees, this risk is limited. Based on described estimations, 7% of the entitled employees (8%
+women and 6% men) took family-related leave in 2024.
+External awards
+Many stakeholders—including customers, potential partners, and employees—view third-party
+assessments as valuable, objective indicators. This past year we were honored with awards
+recognizing our efforts in Inclusive Culture, Gender Diversity, and Human Rights Equality. Our
+achievements in 2024 included prestigious accolades such as Forbes Best Employers for Women,
+Forbes World’s Best Employer, Financial Times Best Employer for Diversity, and a top rating on the
+Human Rights Campaign’s Corporate Equality Index. These recognitions underscore our ongoing
+dedication to fostering an inclusive and equitable workplace.
+External partnerships
+As we continue to focus on integrating inclusion, belonging and equity into the employee
+experience, we see value in partnering with diverse professional network organizations and job
+boards to sharpen our focus on the development and retention of our internal diverse talent and
+increasing representation of diverse talent across our organization. In 2024, we renewed a
+partnership with the National Black MBA Association and introduced partnerships with the National
+Sales Network, Circa, Mogul and Rise and Lead.
+Philips diversity metrics methodology:
+Philips prepares diversity metrics (gender in senior management and age distribution) using the
+Philips employee definition, in line with the ESRS definition of employees, and Workday reports.
+Philips defines senior management as Corporate Grade 90 (senior director) and above, which does
+not differ from previous description. Philips defines management as Corporate Grade 80 (director)
+and Corporate Grade 90 (senior director). The distribution of employees by age group is split into
+three categories: under 30 years old; 30-50 years old; over 50 years old.
+Persons with disability uses the Philips employee definition, in line with the ESRS definition of
+employees. Disability data is collected manually in countries where we operate with headcount. In
+some countries disability is registered through self-identification, while in others it is registered with
+medical documentation. Philips adheres to the local legislation and regulations when defining,
+registering and disclosing information on persons with disabilities among employees, as well as
+when setting local strategies and targets. Due to the localized nature of the metric, there is no
+consistent global process in place to collect or validate the data, and official medical records are not
+a requirement across all countries.
+Work-life balance data is collected manually in countries where we operate with headcount and
+uses Philips employee definition, in line with the ESRS definition of employees. Work-life balance
+data on entitled employees who took family-related leave is collected from our largest countries by
+headcount and further estimated.
+Note VI Employee engagement
+Our People Engagement Survey (PES) saw increased participation, leading to a response rate of
+84%, which means that almost 58,000 employees participated.
+The PES is a key component of our listening strategy, informing our Business and People strategy
+on employee sentiment and potential impacts, risks and opportunities. The results are taken up by
+the Executive Committee and further cascaded for follow-up actions in their organizations and
+teams, informing how we work and areas in need of attention.
+Despite the ongoing changes within the organization, we observed a positive trend in the
+Employee Engagement Index, with an increase of 5% to 78% in 2024. While this improvement is
+encouraging and indicates that the organization is adapting well to the changes, it is worth noting
+that this figure is still 2% below the high performance norm.
+In a changing environment, we listened actively to our employees to provide them with greater
+clarity on future direction and enable them to proactively deal with change to meet our customer
+and patient needs. In 2024 we continued our specific focus on Patient Safety and Quality and with
+this continued focus the engagement on this key topic continues to grow. Patient safety and
+quality is our license to operate, and we continue embedding this culture in everything we do. The
+organizational shifts made as part of our plan to create value have also boosted confidence in our
+ability to effectively support customers.
+Using the Customer Experience Index, we look at how well employees think we focus on customer
+needs. These inputs are actively exchanged with the Customer Experience team.
+Our employee engagement is primarily driven by a clear understanding of our customer needs and
+delivering on commitments that we make to each other. The results of the PES indicate that
+employees feel they can be themselves and have trusting relationships at work. Another significant
+factor driving engagement is our high scores on the Diversity &amp; Inclusion index, which is around the
+industry benchmark.
+The PES represents interests and views of employees and is analyzed by various demographic
+groups to ensure consideration of underrepresented groups: leadership levels, geographic location,
+gender, Business Units/Regions/Functions, and tenure, as well as corporate grades. The survey is
+sent to all Philips employees
+Philips Employee Engagement Index (EEI) calculation methodology:
+The Employee Engagement Index (EEI) is the single measure of the overall level of employee
+engagement at Philips. It is a combination of perceptions and attitudes related to employee
+satisfaction, commitment and advocacy.
+Employee Engagement is measured by four statements on a five-point scale that are widely used in
+the industry. Favorable is % strongly agree + % agree, neutral is % neutral, and unfavorable is %
+disagree + % strongly disagree.
+The reported figures are based on the Employee Engagement Survey. The total score for employee
+engagement is an average of the quarterly results of the survey. The results are calculated by taking
+the average of the answered questions of the surveys.</t>
+  </si>
+  <si>
+    <t>Note VII Equal opportunities and equal pay
+At Philips, we continue our commitment to being an equal-opportunity employer, ensuring that
+hiring, promotions, and pay decisions are based on merit, qualifications and performance. Labor
+rates and pay for manual workers across the globe are carefully monitored to align with, and ideally
+exceed, the living wage for each country or region. This approach reflects a commitment to fairness
+and equal worth, recognizing that every worker deserves compensation that supports a decent
+standard of living, covering essentials like housing, food, healthcare, and education (see Living
+Wage and Adequate Wage). By prioritizing local living wage standards, we aim to foster economic
+equity and respect the diverse economic conditions of different regions while valuing the
+contributions of our workers as vital members of the global workforce.
+Pay rates for manufacturing workers differ globally due to variations in economic development,
+labor market conditions, and cost of living. Countries with advanced economies and higher living
+standards often result in higher wages, driven by robust labor protections, union influence, and
+demand for skilled workers. In countries that are usually industrialized economies, wages tend to
+be lower, reflecting a balance between industrial growth and lower labor costs. These differences
+underscore the complex interplay of global economics, local market forces, and the value placed on
+labor.
+2024 is the first year Philips is publishing an unadjusted gender pay gap. This measure represents
+the overall difference in average hourly earnings between men and women, without adjusting for
+factors like job role, experience, education, hours worked, or country of employment. It is
+calculated by comparing the average hourly pay for men to the average hourly pay for women,
+across the various employee groups (see next table). This measure highlights disparities in earnings
+across groups but does not explain the reasons behind them.
+The 3-year gender pay gap figures show a consistent trend across different grade groupings. The
+unadjusted pay gap is highest in the Staff grouping, increasing from 24% in 2022 to 29% in 2024.
+As this number represents an average over all countries, having a higher proportion of male Staff in
+countries with a higher cost of living and average pay would cause a pay gap in the statistics. The
+increase in the unadjusted pay gap in the Staff grouping is caused by the fact that the relative
+portion of female employees in higher cost of living countries has decreased. When we look at the
+unadjusted pay gap in the Staff grouping on a country-by-country basis, we see that the pay gap
+remains approximately flat over the years. The ‘Staff’ category typically refers to workers engaged
+in manual labor, often within important areas such as manufacturing. These roles are essential to
+building, sustaining and maintaining our products, and their work is characterized by its hands-on,
+skill-based nature.
+The Professional and Management grade groupings have maintained relatively low pay gaps of 2%
+and 1% over the three years. The Executive grade grouping saw the pay gap decreasing to 2% in
+2024.
+The overall pay gap across all grade groupings slightly improvement to 14% in 2024.
+Encouragingly, the pay gap in the Management and Executive grade groupings remains relatively
+low, reflecting progress toward greater gender parity at higher-grade levels. We are working to
+identify and address the root causes for the remaining gaps, and to decrease and even close them
+over time.
+Philips pay equity disclosures methodology:
+Next to the gender pay gap, we also report on the pay ratio between the highest paid individual
+and the median employee (see 5-year development of CEO and BoM versus average employee
+remuneration costs compared to company performance).
+Both the gender pay gap data and median data is prepared using Workday reports. For the median
+data, Workday data serves as a base and includes bonus pay, annualized estimates, and estimates
+for benefits in cash and benefits in kind. We perform a deep-dive on the median employee. Both of
+these metrics are based on the Philips employee definition in line with the ESRS definition of
+employees.
+Note VIII Living Wage and Adequate Wage
+One of our key ESG commitments is to pay our employees at least a living wage. The Living Wage
+is a concept defined by Anker and Anker (2017) as “Remuneration received by a worker in a
+particular place sufficient to afford a decent standard of living for the worker and her or his family.
+Elements of a decent standard of living include food, water, housing, education, healthcare,
+transport, clothing, and other essential needs, including provision for unexpected events”.
+Based on the Living Wage analysis conducted for 2024, all Philips employees received wages and
+benefits that are consistent with at least the minimum Living Wage standard for an individual.
+Furthermore, approximately 98% of Philips employees received wages and benefits that are
+consistent with at least the minimum Living Wage standard for a family (based on reference data
+from WageIndicator).
+The Adequate Wage is a concept defined in disclosure requirement S1-10 in the ESRS S1 as “A
+wage that provides for the satisfaction of the needs of the worker and his / her family in the light
+of national economic and social conditions.” Philips also conducted a comparison of employee
+wages against the relevant Adequate Wage reference data, while following the principles outlined
+by the relevant articles in ESRS disclosure requirement S1-10 as closely as possible. The outcome is
+that Philips pays all employees at least an Adequate Wage.
+Philips living and adequate wage methodology:
+Living wage data is determined by comparing data from WageIndicator and Workday.
+The adequate wage analysis is performed using employee payroll data. The adequate wage
+threshold is determined by assessing established existing international, national or sub-national
+legislation, official norms or collective agreements, based on an assessment of a wage level needed
+for a decent standard of living; any national or sub-national minimum wage established by
+legislation or collective bargaining; and/or Wage Indicator benchmarks.</t>
+  </si>
+  <si>
+    <t>221-222</t>
+  </si>
+  <si>
+    <t>Policies, metrics and targets
+Our commitments to our people are observed in accordance with our General Business Principles,
+Speak Up, Human Rights, Health &amp; Safety, Fair Employment and Diversity &amp; Inclusion policies
+(available on our ESG website (link) as well as on our intranet for employees). Our policies apply to
+workers employed by Philips (through a permanent or temporary contract, employed ‘at will’, or
+through an employment scheme/WGP) and to ‘other workers’ (which includes contingent workers
+(hired via an agency), interns, as well as contractors and their respective employees).
+The Philips Fair Employment Policy details the ethical and social principles that govern the
+company’s relationship with its employees and other workers worldwide. The policy promotes
+transparency, accountability, and a positive work environment and is aimed at creating a fair and
+equal workplace. In accordance with conventions of the International Labor Organization (ILO), we
+are committed to be free from forced, bonded and child labor, which extends to human trafficking
+in line with our Human Rights commitments. The policy helps create an environment of inclusion
+and belonging, where all employees and other workers are treated fairly, free from discrimination,
+harassment, and other prohibited behaviors. In accordance with the Fair Employment policy, we
+provide all employees with fair and equal development opportunities. It is further supported by the
+Philips Diversity &amp; Inclusion Policy which is aimed to act on our commitment to an inclusive
+workplace for our employees and other workers that reflects the diversity of our community. We
+do not discriminate on the basis of race, color, ethnicity, age, gender, gender identity or expression,
+sexual orientation or identity, marital status, language, background, religion, health status,
+pregnancy, political or other opinions, disability, national or social origin/birth or any other status in
+our recruitment, hiring, training, promotion, compensation or employment practices.
+The key Social topics in relation to our own workforce are addressed at a global level in line with
+our global policies, and managed locally in line with local regulations and labor law practices. As
+such, we uphold employee rights and health &amp; safety ensuring compliance with local legislation in
+countries where we employ workers. We foster a fair &amp; inclusive workplace as well as employee
+well-being through targeted actions discussed in Diversity, Inclusion and Well-Being, subject to local
+rules and regulations as they may vary from time to time and between different geographies.
+Moreover, we provide all employees with at least a Living Wage (Living Wage and Adequate
+Wage), and monitor the gender pay gap (Equal opportunities and equal pay). With regards to
+talent &amp; development, all employees are provided with fair and equal opportunities to develop their
+skills, and to realize their full potential through on-the-job training, learning from others (such as
+through coaching and mentoring) and virtual and classroom courses. More information on our
+approach to building a Workforce of the Future including both Early Career talent and Leaders
+along the employee journey from talent attraction and onboarding through career development
+and learning hours can be found in Workforce of the future. Furthermore, local programs such as
+WGP in the Netherlands (see Building employability), Employee volunteering and refugee hiring (see
+Workforce of the future) are examples of how we drive social inclusion &amp; engagement.
+As part of the ESG Commitments, Philips set targets around improving people’s lives, paying all
+employees at least a living wage, and gender diversity in senior management. These targets reflect
+aspirational goals that apply globally, but may be impacted by conflicting local laws or regulations.
+The process to set these targets included:
+• Reviewing Philips existing targets and performance. All stakeholders are able to acquire insight
+into Philips targets and the tracking of Philips performance against these via the Philips results
+hub.
+• Engaging with stakeholders who have insights into Philips such as customers (representatives of
+consumers and end-users) and reviewing their inputs to give consideration to their interests. For
+further information on how stakeholders are engaged, please refer to Working with
+stakeholders and advocacy.
+• Reviewing local rules and regulations, international standards and frameworks such as the World
+Economic Forum International Business Council Common Metrics and Global Reporting
+Initiative. Then mapping these against Philips Environmental, Social, and Governance dimensions
+and ambitions.
+• Reviewing and where needed further developing methodologies for potential targets.
+The Philips Executive Committee decides on targets.
+For an overview of the metrics and targets please refer to our commitments table.
+The below tables shows an overview of the key social topics linked to relevant Policies and key
+performance indicators (KPIs) with references to respective sections of the annual report. Our
+metrics are monitored on a year-on-year basis. Additionally, targets have been summarized
+including performance and external references. Targets, performance is also summarized.
+Philips Group
+Key data
+Target name Monitoring Performance References
+Living wage Annual All employees are paid a
+living wage in line with
+standard. See Note VIII
+and XII
+International Labor
+Organization (ILO)
+Employee engagement H1, H2 See Note VI Fortune 500 Benchmark
+Women in senior
+management positions
+Quarterly See Note V Internal</t>
+  </si>
+  <si>
+    <t>215-216</t>
+  </si>
+  <si>
+    <t>Diversity &amp; Inclusion
+Policy
+To have a diverse workforce and an inclusive work environment, and to be an equal-opportunity employer, ensuring that all
+hiring, promotions, and pay decisions are based solely on merit, qualifications and performance.
+N/A 8.5 Social information Philips Key ESG
+downloadsCommitment to not discriminate on the basis of race, color, ethnicity, age, gender, gender identify or expression, sexual
+orientation or identity, marital status, language, background, religion, health status, pregnancy, political or other opinions,
+disability, national or social origin/birth or any other status in our recruitment, hiring, training, promotion, compensation, or
+employment practices.
+Fair Employment
+Policy
+Details the ethical and social principles that govern the company's relationship with its employees and other workers world
+wide.
+International Bill of Human Rights
+International Labour Organization (ILO) 8.5 Social information Philips Key ESG
+downloads
+Promotes transparency, accountability, and a positive work environment and is aimed at creating a fair and equal work space.
+Create an environment of inclusion and belonging where all employees and other workers are treated fairly, free from
+discrimination, harassment, and other prohibited behaviors.
+Provide all employees with fair and equal development opportunities.
+Speak Up Policy
+To ensure the highest standards of business conduct by sustaining a culture in which all employees show ethical conduct, and
+where doing things ethically is recognized and valued. N/A
+8.5 Social information
+8.6 Governance
+information
+Philips website
+To establish a process of reporting a concern and explanation of process of subsequent investigation in situations which people
+do not uphold the standards of business conduct, leading to potential violations of the GBP.
+Human Rights Policy
+Commitment to identify, prevent, and mitigate adverse human rights impacts. Philips' commitment to human rights, including
+labor rights of workers, extends to other parts of our value chain, affecting our business partners, suppliers, and customers.
+International Bill of Human Rights
+International Labour Organization (ILO)
+8.5.2 Workers in the
+value chain
+Philips Key ESG
+downloads
+Declaration on Fundamental Principles
+and Rights at Work
+Philips conducts human rights due diligence by identifying, prioritizing, and addressing impact areas and aims to periodically
+review and strengthen our due diligence approach in alignment with our own learnings and industry best practices.
+United Nations Guiding Principles on
+Business and Human Rights (UNGP)
+Organization for Economic Co-operation
+and Development (OECD)
+Occupational Health &amp;
+Safety Policy
+Commitment to prevent injuries, illnesses and incidents by providing a health and safe working environment to every employee,
+contractor and visitor through proactive risk management focused on:
+• hazard control and elimination
+• consultation and engagement of employees
+• fostering a culture of health and well-being
+• ensuring regulatory compliance and continual improvement through OHS performance management
+ISO standard
+8.5 Social information Philips Key ESG
+downloads
+Mental Health
+Champion Program
+To promote and support well-being and mental wellness. Providing the right foundations for the Mental Health Champions will
+help create a more engaged, happy and high performing culture at Philips.
+N/A Note V Diversity,
+Inclusion and Well-
+Being
+Philips intranet
+Quality and Safety
+Standard
+Expresses our overall intention and direction with respect to quality. It states our objectives for, and commitment to, quality. N/A 4.3.3 Patient safety,
+quality and regulatory Philips intranet</t>
+  </si>
+  <si>
+    <t>218-221</t>
+  </si>
+  <si>
+    <t>Double Materiality Assessment
+We have conducted a Double Materiality Assessment (DMA) to determine the scope of
+sustainability reporting requirements applicable to us, pursuant to the EU Corporate Sustainability
+Reporting Directive (CSRD) and the related European Sustainability Reporting Standards (ESRS). This
+is the third DMA we conducted. We have built years of experience conducting impact materiality
+assessments in line with the GRI requirements and consider it a multi-stakeholder process. Please
+refer to Working with stakeholders and advocacy.
+The DMA addresses both financial materiality (the impact of society on Philips) as well as impact
+materiality (the impact of Philips on society). We believe that the ESG topics we identified, have the
+greatest impact on our business and the greatest level of concern to stakeholders along our value
+chain, for instance patient safety and quality.
+Taking our 2023 DMA as a starting point, we used an evidence-based approach to this year’s DMA,
+powered by a third-party AI-based application. This application has been updated in 2024 to address the
+DMA requirements under the CSRD, and now includes data from our supply chain partners and industry
+peers, as well as customers. We included, for example, data from 21 key suppliers, 37 customers of our
+Businesses, 32 peer companies and 72 countries. The application allows automated sifting and analysis
+of millions of data points from publicly available sources, including corporate reports, mandatory
+regulations and voluntary initiatives, as well as news. Combining all input, we first created a long list of
+sustainability topics based on the outcome of this assessment and analyzed the number of occurrences
+in the AI tool. We narrowed down this list based on workshops with internal subject matter experts.
+From the original list, 32 of the most relevant topics were retained for the short-list of sustainability
+topics and mapped against the company’s value chain. These topics were clustered to avoid overlaps. As
+part of the process, we defined and assessed Impacts, Risks and Opportunities (IROs, as referred to by
+the ESRS) with respect to the identified topics connected to our strategy and business model. Subject
+matter experts assessed the materiality of negative impacts based on scale, scope and any irremediable
+character. The materiality of positive impacts was assessed based on scale and scope. As such, positive
+and negative impacts have been assessed, where most impacts were also assessed to be ‘actual’ rather
+than ‘potential’. Materiality thresholds used in the DMA have primarily a qualitative nature and are
+quantitative where possible. For risks and opportunities, we assessed the dependencies on natural,
+human and social resources. The materiality of risks and opportunities is assessed based on a
+combination of the likelihood of occurrence and the potential magnitude of the financial effects.
+Subsequently, we created a validation survey, which was sent to more than 300 internal and external
+stakeholders. We received 117 responses from a representative stakeholder group.
+We calibrated the financial and impact materiality of the 20 topics (clustered from 32 topics) with the CSRD Steering Committee, a team of internal experts from Enterprise Risk Management, Group Control,
+Internal Audit, Legal, Insurance and Risk Management, People Function, and Sustainability and aligned them with our Enterprise Risk Management assessment.
+Results
+As a result of the DMA, three topical standards, water, pollution, and biodiversity, were deemed
+not material for our strategy and business model, which is also supported by the outcome of our
+EP&amp;L, the Climate Resilience report, and the TNFD report. The latter includes the process of how
+Philips assessed IROs, specifically related to pollution, water, and biodiversity for own sites and
+business activities. Next, three sub-topics from ESRS S1 were assessed to be not material to Philips:
+child labor, forced labor and adequate housing. Philips did not explicitly consult with affected
+communities as we deemed our current stakeholder consultation process to be sufficient.
+The results were calibrated and approved by our Board of Management and the other Executive
+Committee members, followed by the Supervisory Board.
+During the calibration sessions, the financial materiality of most of the Environmental topics
+increased compared with the initial assessment. On the Social topics, the financial impact of Human
+rights increased the most, followed by Fair &amp; inclusive workplace. Product responsibility &amp; safety,
+Geopolitical events, Big data, AI and cybersecurity, and Business ethics &amp; general business principles
+were assessed to have the highest financial materiality, similar to 2023.
+Overall, the impact materiality of the resulting topics did not change significantly compared to the
+2023 DMA.
+Philips has not identified any actual material risks and opportunities meaning that the risks and
+opportunities identified as an outcome of Philips' DMA process do not have any current financial
+effects on Philips' financial position, cash flows, and carrying value of assets and liabilities reported
+in the financial statements within the next annual reporting period.
+The material topics are monitored regularly. The 2024 DMA also serves as input for the
+development of our 2030 ESG program. Assessing these material topics enables us to prioritize and
+address these in our policies, programs, targets and actions, and address the material impacts, risks,
+and opportunities with full consideration of the interests of the key stakeholders, such as end-users.</t>
+  </si>
+  <si>
+    <t>171-173</t>
+  </si>
+  <si>
+    <t>Note XIX Philips SpeakUp (Ethics Line)
+In line with Philips SpeakUp Policy, potential violations of our GBP or any other concern that may
+constitute a direct threat to Philips’ corporate integrity, are reported through the Philips SpeakUp
+program. Philips SpeakUp is available to internal stakeholders and also extends to external
+stakeholders, including customers and end-users. The Philips SpeakUp Policy sets out safeguards for
+reporters and participants in an investigation, which includes the prohibition of (attempted)
+retaliation.
+In 2024, a total of 805 concerns were reported via Philips SpeakUp (Ethics Line) and through our
+network of GBP Compliance Officers, an increase of 5.4% year-on-year (2023: 764 concerns). This
+is a continuation of the year-on-year upward trend. We believe the upward trend in reporting
+remains in line with our multi-year efforts to encourage our employees to express their concerns.
+In percentage terms, North America remains the region with the highest case inflow (2024: 44%;
+2023: 47%). The percentage increase in reports is visible in APAC, which is responsible for 25% of
+all reported concerns (2023: 20%). The EMEA region showed a small increase (2024: 19%; 2023:
+18%). Latin America, responsible for 12% of reported concerns in 2024, showed a decline (2023:
+15%).</t>
+  </si>
+  <si>
+    <t>Responsibilities of the Board of Management and the Supervisory Board for the
+sustainability statement
+The Board of Management is responsible for the preparation of the sustainability statement in
+accordance with the ESRS, including the double materiality assessment process carried out by the
+Company as the basis for the sustainability statement and disclosure of material impacts, risks and
+opportunities in accordance with the ESRS. As part of the preparation of the sustainability
+statement, the Board of Management is responsible for compliance with the reporting
+requirements provided for in Article 8 of Regulation (EU) 2020/852 (Taxonomy Regulation).
+The Board of Management is also responsible for selecting and applying additional entity-specific
+disclosures to enable users to understand the Company’s sustainability-related impacts, risks or
+opportunities and for determining that these additional entity-specific disclosures are suitable in the
+circumstances and in accordance with the ESRS.
+Furthermore, the Board of Management is responsible for such internal control as it determines is
+necessary to enable the preparation of the sustainability statement that is free from material
+misstatement, whether due to fraud or error.
+The Supervisory Board is responsible for overseeing the sustainability reporting process including
+the double materiality assessment process carried out by the Company.</t>
+  </si>
+  <si>
+    <t>discloscure_degree</t>
+  </si>
+  <si>
+    <t>dd_reasoning</t>
+  </si>
+  <si>
+    <t>conformity_score</t>
+  </si>
+  <si>
+    <t>cs_reasoning</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by Continental in the annual report partially meets the requirements outlined for managing and disclosing material impacts, risks, and opportunities related to its own workforce. The company has detailed its processes for identifying and assessing impacts, risks, and opportunities, as well as the actions taken to address them. However, there is room for improvement in providing specific details on the types of employees impacted, the effectiveness of measures, and the tracking and assessment of these efforts.', 'SCORE': 75}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report covers a wide range of aspects related to managing and disclosing material impacts, risks, and opportunities related to the company's own workforce. It includes discussions on policies, actions, and initiatives related to working conditions, mental health, training, and skills development. However, there is room for improvement in providing more specific details and metrics to fully meet all the outlined requirements.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The report's disclosure provided by the company addresses several key aspects related to managing and disclosing material impacts, risks, and opportunities related to its own workforce. The company discusses various topics such as health &amp; safety, employee rights, talent development, and diversity &amp; inclusion. However, the disclosure lacks specific details on certain aspects such as the processes for identifying and addressing negative impacts, tracking effectiveness of measures, and ensuring practices do not contribute to negative impacts. More quantitative data and specific examples would enhance the quality of disclosure.", 'SCORE': 75}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report partially addresses the requirements for describing material risks and opportunities related to the company's impacts and dependencies on its own workforce. The report discusses various risks related to labor rights, workforce management, and skill development initiatives. However, it lacks specific details on actions planned to mitigate these risks and pursue opportunities, as well as the tracking and assessment of effectiveness. The report could benefit from more explicit information on these aspects to enhance transparency and accountability.", 'SCORE': 65}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report adequately addresses the material risks and opportunities related to the company's impacts and dependencies on its own workforce. The report discusses various risks such as operational, legal, reputational, and social risks, along with opportunities related to employee engagement, skills development, and workforce diversity. It also outlines actions planned to mitigate risks and pursue opportunities. However, the report could enhance clarity by explicitly linking each risk and opportunity to specific groups within the workforce and providing more detailed information on the effectiveness tracking and assessment of mitigation actions.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report partially addresses the ESRS recommendation point by discussing the material risks and opportunities related to the company's impacts and dependencies on its own workforce. While the report mentions actions taken and strategies in place, it lacks specific details on tracking and assessing the effectiveness of these actions. Additionally, there is a focus on workforce strategy and employee well-being, but limited information on opportunities related to the company's own workforce.", 'SCORE': 70}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by Continental in their annual report regarding respect for human rights, including labor rights of their own workforce, is comprehensive and detailed. They address various aspects such as labor standards, policies alignment with international instruments, incidents of forced labor and child labor, penalties, and fines related to human rights violations. Continental also outlines their management approach, stakeholder engagement, and adherence to global standards. However, there is room for improvement in providing specific details on severe human rights incidents and reconciliation of fines, penalties, or compensation. Overall, the disclosure demonstrates a strong commitment to human rights.', 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's commitment to human rights, including labor rights, within its own workforce. The company aligns its sustainability strategy with the UN's principles, discloses its human rights policies, and addresses risks such as forced labor and mental health issues. Schneider Electric's detailed disclosure on its human rights due diligence process, living wage commitment, and partnerships demonstrates a strong focus on respecting human rights. However, the report could enhance disclosure by providing more specific details on identified severe human rights incidents and reconciliation efforts related to its own workforce.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report demonstrates a strong commitment to human rights, including labor rights, within Philips' own workforce. The report covers various aspects such as policy commitments, human rights impact assessments, governance structures, grievance mechanisms, and engagement with stakeholders. Philips outlines its approach to respect for human rights and labor rights, aligning with international standards and conducting due diligence. However, the report lacks specific details on identified severe human rights incidents and the reconciliation of fines or penalties related to such incidents.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report by Continental demonstrates a strong commitment to engaging with its own workers and workers' representatives. The company has addressed key aspects such as general approach to engagement, direct and indirect engagement with workers, assessment of effectiveness, steps to gain insight into vulnerable groups, and setting targets with workforce involvement. Continental's detailed descriptions and examples showcase a comprehensive engagement strategy.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric demonstrates a strong commitment to engaging with its workers and workers' representatives. The company discloses its approach to engagement, the stages and types of engagement, responsible roles, assessment of effectiveness, steps for vulnerable groups, and setting targets with workers. The disclosure also includes information on employee feedback mechanisms, action plans, and social dialogue policies. However, there is room for improvement in providing more specific details on the assessment of engagement effectiveness and steps taken for vulnerable groups.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided by the company partially meets the requirements for engaging with its workers and workers' representatives. The company discusses its engagement with employees, including regular meetings, surveys, and development processes. It also mentions collective bargaining agreements and social dialogue. However, the disclosure lacks specific details on how employee perspectives inform decision-making, steps taken to understand vulnerable groups, and direct engagement in setting targets. There is room for improvement in providing more comprehensive information.", 'SCORE': 75}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided by Continental AG in its annual report regarding preventing discrimination and advancing diversity and inclusion in its workforce is comprehensive and detailed. The company has addressed all the key requirements outlined, including specific policies, coverage of discrimination grounds, commitments to vulnerable groups, implementation procedures, and disclosure of incidents and fines. Continental AG's proactive approach to diversity and inclusion, setting targets, promoting internationality, gender diversity, and engaging with marginalized groups, demonstrates a strong commitment to fostering a diverse and inclusive workplace.", 'SCORE': 100}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric demonstrates a strong commitment to preventing discrimination and promoting diversity and inclusion in its workforce. The company has detailed policies and initiatives in place to address discrimination, harassment, and promote equal opportunities. Schneider Electric's approach to diversity and inclusion is comprehensive and well-documented throughout the report.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The company's annual report provides a comprehensive disclosure on its policies and practices related to preventing discrimination and promoting diversity and inclusion in its workforce. The report covers specific policies, grounds for discrimination, commitments to vulnerable groups, implementation procedures, disclosure of fines, and compensation. It also includes diversity metrics, employee resource groups, and external awards. However, there could be more detailed information on the implementation of policies and procedures to address discrimination once detected.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by Continental in the annual report regarding processes to remediate negative impacts and channels for own workforce to raise concerns is comprehensive and detailed. The company has addressed several key requirements such as establishing dedicated mechanisms for employees to raise concerns, providing multiple channels for reporting, ensuring confidentiality and protection against retaliation, and implementing remediation processes. However, there are some areas where more specific details could be provided, such as explicit assessment of awareness and trust in the channels, and more transparency on the effectiveness of the integrity system.', 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric in their annual report demonstrates a comprehensive approach to addressing negative impacts in the workforce through various channels and policies. The company has detailed processes for remediation, clear channels for raising concerns, and mechanisms for protection against retaliation. Schneider Electric's commitment to fostering a speak-up culture and monitoring the effectiveness of their systems is evident throughout the disclosure.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by the company regarding its approach to remediate negative impacts in the workforce is comprehensive and detailed. The company has outlined its SpeakUp program, reporting mechanisms, investigation processes, and follow-up actions taken. It discloses the number of concerns raised, types of concerns, regions of origin, substantiated cases, and actions taken. The company also emphasizes protection against retaliation and training for compliance officers. However, the disclosure lacks specific information on the general approach to providing remedy for negative impacts and the assessment of workforce awareness and trust in the reporting channels.', 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The disclosure provided in the annual report lacks specific information regarding the social protection coverage of the company's own workforce. While some general details about personnel expenses, employee benefits, and deferred compensation are mentioned, there is a notable absence of explicit information addressing the coverage of employees against major life events as outlined in the requirements. The report does not clearly indicate whether all employees are covered by social protection mechanisms or provide details on countries where employees lack such coverage.", 'SCORE': 30}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by Schneider Electric regarding social protection for its workforce primarily focuses on family leave policies, well-being programs, and safety management systems. While the company emphasizes employee well-being and safety, it lacks specific details on social protection mechanisms against major life events like sickness, unemployment, and retirement. The report does not explicitly address whether all employees are covered by social protection or provide information on countries where employees lack such coverage.', 'SCORE': 60}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The disclosure provided by the company regarding social protection for its workforce is detailed and covers various aspects such as sickness, unemployment, employment injury, parental leave, and retirement. The report clearly outlines the countries where employees are not covered and the eligibility criteria in different regions. However, the report lacks specific details on the types of employees not covered in those countries, which is a key requirement for high-quality disclosure.', 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>cs LLM result</t>
+  </si>
+  <si>
+    <t>dd llm result</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The annual report provides a detailed and comprehensive disclosure on how the company manages and discloses material impacts, risks, and opportunities related to its own workforce. The report covers various aspects such as labor standards, adequate wages, work-life balance, training and skill development, secure employment, social dialogue, employee privacy, and occupational safety and health. The company has outlined specific processes, methodologies, and actions taken to address these areas, demonstrating a strong commitment to employee well-being and engagement.', 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The annual report provides a comprehensive overview of how Schneider Electric manages and discloses material impacts, risks, and opportunities related to its workforce. The report covers various aspects such as trust programs, whistleblowing policies, working conditions, mental health, double materiality assessment, sustainability matters, cybersecurity, employee engagement, training and skills development, and equal treatment. It includes detailed descriptions of policies, governance structures, initiatives, performance metrics, and recognition received. The company demonstrates a strong commitment to employee well-being, safety, diversity, and inclusion.', 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of how Philips manages and discloses material impacts, risks, and opportunities related to its own workforce. The report covers various aspects such as employee rights, health &amp; safety, talent development, diversity &amp; inclusion, and stakeholder engagement. It includes information on policies, metrics, targets, and the Double Materiality Assessment process. The report also highlights the company's commitment to transparency and engagement with stakeholders.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of the material risks and opportunities related to the company's impacts and dependencies on its own workforce. It covers various aspects such as training, skill development, secure employment, and potential risks like labor rights violations and workforce management challenges. The report also includes information on how these risks are managed and monitored. However, there is room for improvement in providing more specific quantitative data and targets related to these aspects.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed and comprehensive disclosure on the material risks and opportunities related to the company's impacts and dependencies on its own workforce. It covers various aspects such as working conditions, employee health and safety, equal treatment and opportunities, training and skills development, and workforce diversity. The report also discusses the importance of talent acquisition, development, and retention, emphasizing critical skills and workforce diversity. Overall, the disclosure demonstrates a strong commitment to addressing workforce-related risks and opportunities.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of the company's approach to managing risks and opportunities related to its own workforce. It covers various aspects such as workforce strategy, employee rights, health &amp; safety, talent development, and human rights impacts. The report also addresses the challenges related to attracting and retaining talent. However, there is room for improvement in providing specific quantitative metrics and targets to enhance transparency and accountability.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Continental's approach to respect for human rights, including labor rights, within its own workforce. The report covers various aspects such as management approaches, stakeholder engagement, due diligence processes, potential impacts, risks, and compliance with international frameworks. Continental's commitment to human rights and labor standards is well-documented, including specific policies, monitoring mechanisms, and adherence to global standards.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "Schneider Electric demonstrates a strong commitment to respecting human rights and labor rights within its own workforce. The company aligns its sustainability strategy with the UN's principles, actively participates in external initiatives, conducts thorough risk assessments, and implements robust policies and programs to address human rights issues. Schneider Electric's detailed disclosure on its approach to human rights, including efforts to prevent forced labor, ensure living wages, and support LGBT+ rights, showcases a comprehensive and proactive stance towards respecting human rights and labor rights.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Philips' approach to respecting human rights, including labor rights, within its own workforce and value chain. The company demonstrates a strong commitment to identifying, preventing, and mitigating adverse human rights impacts. Philips conducts human rights due diligence, engages in human rights impact assessments, and has established governance and grievance mechanisms to uphold human rights standards. The report also highlights specific policies, metrics, and targets related to employee rights, fair employment, diversity &amp; inclusion, and collective bargaining. Overall, the disclosure is detailed, transparent, and aligned with international standards and best practices.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The company provides a detailed and comprehensive overview of its engagement with workers and workers' representatives. It outlines various channels and processes for communication, feedback, and involvement of employees in decision-making. The report highlights the integration of employee perspectives into strategic decisions and the consideration of their interests in various aspects of the business. The disclosure demonstrates a strong commitment to social dialogue and employee well-being.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of how Schneider Electric engages with its workers and workers' representatives. The company demonstrates a strong commitment to employee engagement through various initiatives, such as annual surveys, action plans, and social dialogue at both local and global levels. The report highlights the importance of two-way communication, feedback mechanisms, and the impact of employee engagement on business performance. Schneider Electric's approach to engaging with its workforce is well-documented and aligned with best practices in sustainability reporting.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of how Philips engages with its workers and workers' representatives. The company actively involves employees through various channels such as regular meetings, surveys, and engagement initiatives. Philips demonstrates a commitment to respecting employee rights, providing fair employment, and engaging in collective bargaining and social dialogue. The report also highlights specific initiatives related to employee engagement, talent development, and workplace culture. Overall, the disclosure is comprehensive and transparent, showcasing a strong focus on engaging with workers and workers' representatives.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The company provides a detailed and comprehensive disclosure regarding its efforts to prevent discrimination and advance diversity and inclusion in its workforce. It outlines specific targets, initiatives, processes, and monitoring mechanisms related to gender diversity and inclusion. The report also addresses potential risks and impacts related to discrimination and harassment, demonstrating a proactive approach to mitigating such issues.', 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's commitment to preventing discrimination and advancing diversity and inclusion in its workforce. The company outlines various initiatives, policies, and programs aimed at creating an inclusive environment, promoting diversity, and ensuring fair treatment for all employees. Schneider Electric's detailed disclosure demonstrates a strong focus on diversity, equity, and inclusion across various aspects of its operations.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The company provides a detailed and comprehensive disclosure regarding its commitment to preventing discrimination and advancing diversity and inclusion in its workforce. The report outlines specific policies, initiatives, metrics, and governance structures in place to promote a fair and inclusive workplace. It also includes information on diversity targets, employee resource groups, external awards, and monitoring mechanisms. The company's approach demonstrates a strong commitment to diversity and inclusion throughout the organization.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of Continental's processes and channels for remediating negative impacts and enabling its own workforce to raise concerns. The company has established comprehensive integrity mechanisms, including an integrity portal, hotline, and email, to address violations and protect whistleblowers. Various communication channels and training programs are in place to raise awareness and ensure effective implementation. Continental's approach to data protection and compliance with relevant regulations is well-documented. Overall, the report demonstrates a strong commitment to addressing workforce concerns and maintaining ethical standards.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's approaches to remediate negative impacts in the workforce through its Speak Up mindset, whistleblowing policies, committees for compliance and disciplinary actions, corrective measures, employee surveys, and protection mechanisms. The report details the governance structure, case management process, employee engagement initiatives, and commitment to human rights. The company's transparency in reporting and commitment to continuous improvement are evident throughout the disclosures.", 'SCORE': 95}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a detailed overview of the company's approach to remediate negative impacts in the workforce through its SpeakUp program, reporting mechanisms, investigation processes, and follow-up actions. It includes statistics on concerns raised, types of concerns, regional breakdowns, substantiated cases, remedial and disciplinary actions taken, and training initiatives. The report also highlights the protection of whistleblowers and the alignment with relevant legislation. However, there could be further details on specific case studies or examples of remedial actions taken to enhance transparency.", 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a moderate level of disclosure regarding how the company protects its workforce through social protection. It mentions aspects such as labor standards, wages, social security contributions, pension provisions, and other benefits. However, the report lacks specific details on the company's social protection policies, initiatives, and the effectiveness of these measures in safeguarding employees' well-being.", 'SCORE': 65}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's efforts to protect its workforce through various initiatives such as the Global Family Leave Policy, Employee Assistance Program, back-up family care benefits, and access to healthcare. The report also includes details on social protection, health and safety management systems, and pension benefits. Schneider Electric's commitment to social protection and well-being is evident through its alignment with global standards and recognition of diverse workforce needs.", 'SCORE': 90}</t>
+  </si>
+  <si>
+    <t>{'ANALYSIS': 'The annual report provides a detailed overview of the social protection measures provided to employees in various countries, including coverage for sickness, unemployment, employment injury, parental leave, and retirement. The report specifies eligibility criteria and variations in benefits based on local regulations and practices. However, there could be further enhancement by providing more specific data on the percentage of employees covered in each category and the overall effectiveness of these social protection programs.', 'SCORE': 85}</t>
+  </si>
+  <si>
+    <t>(+) coverage of different dimensions of social protection (sickness, unemployment, parental leave, …) and region specific details
+(-) company identifies where government coverage is non-existent or insufficient and clarifies whether Philips supplements it or not
+(-) no monitoring, governance mechanisms disclosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(+) covers all key areas the ESRS defined
+(+) description of countries and types of employees not covered by social protection fully disclosed </t>
+  </si>
+  <si>
+    <t>(-) social protection for unemployment not discusses
+(-) report does not explicitly address whether all employees are covered by social protection or provide information on countries where employees lack
+(+) most life-event protections mentioned</t>
+  </si>
+  <si>
+    <t>(+) references global standards and policy frameworks (ILO, UNGC, ISO 45001)
+(+) Includes measurable outcomes (accident rate, coverage stats)
+(-) lacks country-specific details and segmentation by employee type</t>
+  </si>
+  <si>
+    <t>(+) mentions interna HR rules, local legal frameworks
+(-) no details on country specifics and type of employees
+(-) no description of life-event coverage areas</t>
+  </si>
+  <si>
+    <t>(+) Grievence channel: SpeakUp Programm
+(+) Assessment of effectivenes via Business Integrity Survey
+(+) High level of detail with quantitative and qualitative data
+(-) remidation on real negative impact not elaborated</t>
+  </si>
+  <si>
+    <t>(+) covers all requirments
+(-) effectiveness evaluation lacks detail
+(-) only implied remedy for human rights impacts rights through internal employee matters</t>
+  </si>
+  <si>
+    <t>(+) clear targets to further imporve SpeakUp mindset
+(+) comprehensive, detailed, structured information
+(+) disclose specific processes, tools, KPIs and governance bodies
+(-) no breakdowns by loaction</t>
+  </si>
+  <si>
+    <t>(+) meets all ESRS requirements
+(-) could provide more breakdowns by region, function or timeframes</t>
+  </si>
+  <si>
+    <t>(-) little detail on outcome of the remediation
+(+) detailed description of processes and channels including an integrity portal, hotline, and email, to address violations</t>
+  </si>
+  <si>
+    <t>(-) no assessement of awareness and trust in the channels
+(-) no examples of remedy in relation to actual material impacts</t>
+  </si>
+  <si>
+    <t>(-) only retirement is explicitly menstioned other life events (sickness, unemployment, parental leave, disability) are not addressed in a way that allows assessment of coverage
+(-) no country level details</t>
+  </si>
+  <si>
+    <t>(+) detailed and specific disclosure on policies and implementation
+(+) specific targets, programs, initiatives, networks
+(+) international frameworkd alignment
+(-) no specific data on complaints</t>
+  </si>
+  <si>
+    <t>(+) all key requirements outlined, including specific policies, coverage of discrimination grounds, commitments to vulnerable groups, implementation procedures, and disclosure of incidents and fines</t>
+  </si>
+  <si>
+    <t>(+) clearly names specific policies, outlines their scope, and describes the extensive governance and implementation structures
+(+) specific quantitative targets 
+(-) no information of penalities and fines from discrimination cases</t>
+  </si>
+  <si>
+    <t>(-) no information on fines and penalties 
+(+) covers all other ESRS requirements (specific policies, grounds for discrimination, commitments for at-risk groups , detailed description of how these policies are implemented through governance, training, process integration, and reporting mechanisms)</t>
+  </si>
+  <si>
+    <t>(+) extensive narrative information on policies, implementation, metrics, and cultural initiatives
+(+) commitments are clearly defined and grounded in international frameworks
+(+) high level of detail about organizational structures (e.g., Diversity Council), actions (e.g., ERGs, local initiatives), and goals (e.g., women in leadership)
+(-) lacks granular information on enforcement or responses to specific incidents, and grievance channels are mentioned but not described operationally</t>
+  </si>
+  <si>
+    <t>(-) only shortcoming: lack  of disclosure of actual grievances or remediation outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: 
+How reliable is the information?
+</t>
+  </si>
+  <si>
+    <t>(+) high detail of engagement methods and platforms
+(+) use of survey results in decision-making and incentive planning</t>
+  </si>
+  <si>
+    <t>(-) no disclosure how employees directly engage in setting targets or in the decision-making</t>
+  </si>
+  <si>
+    <t>(+) direct and indirect approach for engagement: annual survey, social dialogue with European Works Council
+(+) concrete examples from 5 different countries</t>
+  </si>
+  <si>
+    <t>(+) clearly outlines whether engagement is direct or indirect, the frequency and type of engagement, the senior roles responsible, and how effectiveness is assessed with clear metrics
+(-) room for improvement in providing more specific details on the assessment of engagement effectiveness and steps taken for vulnerable groups</t>
+  </si>
+  <si>
+    <t>(+) direct channels (annual survey) and indirect social dialogue through representative (works council, employee representation in supervisory board)
+(-) while it mentions various channels, the process of how feedback is systematically collected, analyzed, and integrated into decision-making could be more clearly articulated 
+(-) description of engagement with marginalized groups is also quite brief</t>
+  </si>
+  <si>
+    <t>(+) provides strong, specific details on how worker perspectives inform decisions 
+(+)  explicitly confirms that employee representatives were involved in target-setting
+(-) description for engaging with vulnerable groups is less detailed than other sections, mentioning only women's networks as an example without elaborating on the process or other groups</t>
+  </si>
+  <si>
+    <t>(+) high level of detail in describing both policy and implementation mechanisms
+(+) explanation of due diligence processes, international alignment, and management responsibility
+(+) risks and potential negative impacts are clearly identified and contextualized
+(+) Incident and complaint tracking systems are described and quantified.
+(-) lacking some specific examples or case narratives, and Global Framework Agreements are not mentioned</t>
+  </si>
+  <si>
+    <t>(-) absence of any reference to Global Framework Agreements (or a statement clarifying their non-existence)
+(+) other disclosure comprehensive and detailed</t>
+  </si>
+  <si>
+    <t>(+) narrative is detailed, multi-dimensional, and substantiated with external certifications and partnerships
+(-) missing granular disclosure: geographic areas at risk, incident reports</t>
+  </si>
+  <si>
+    <t>(-) geographic and operational risk areas: Risks mentioned (migrant labor, manufacturing) but no clear geographic mapping
+(+) general approach, allignment with international instruments, policies
+(-) no disclosure of incidenrs, fines/penalties</t>
+  </si>
+  <si>
+    <t>(+) detailed description of internal policies and global standards alignment
+(+) strong commitment to identifying, preventing, and mitigating adverse human rights impacts
+(+) established governance and grievance mechanisms to uphold human rights standards
+(-) incident numbers are reported, follow-up actions or remedy outcomes (beyond absence of material fines) are limited</t>
+  </si>
+  <si>
+    <t>(-) mapping of at-risk operations by country or business line lacks granularity
+(-) no in-depth reporting on resolution/remedy of complaints</t>
+  </si>
+  <si>
+    <t>(-) lacks details on tracking and assessing the effectiveness of  actions to mitgate risks and to pursue opportunities
+(+) risks are discussed</t>
+  </si>
+  <si>
+    <t>(+) rich narrative detail on policies, strategies, and some actions
+(-) limited details on effectiveness tracking
+(-) implementation outcomes only broadly outlined</t>
+  </si>
+  <si>
+    <t>(+) identifies risks like Operational (strikes, loss of productivity), Legal (lawsuits, benefit non-compliance), Reputational (NGO/media pressure)
+(-) missing details on follow-up mechanisms
+(-) tends to focus on strategic framing without consistently translating it into operational actions or measurable impacts</t>
+  </si>
+  <si>
+    <t>(+) intentions and strategies are articulated and aligned with ESRS expectations
+(-) level of detail on how actions are monitored or measured, and how effectiveness is assessed, remains vague or absent</t>
+  </si>
+  <si>
+    <t>(-) room for improvement in providing more specific quantitative data and targets
+(+) specific risks, programs and actions + monitoring practices</t>
+  </si>
+  <si>
+    <t>(-) lacks specific details on actions planned to mitigate these risks and pursue opportunities, as well as the tracking and assessment of effectiveness
+(+) addresses the requirements for describing material risks and opportunities related to the company's impacts and dependencies</t>
+  </si>
+  <si>
+    <t>(+) detailed and comprehensive disclosure on how the company manages and discloses material impacts, risks, and opportunities</t>
+  </si>
+  <si>
+    <t>(-) does not provide a clear picture of the financial and human resources allocated to manage  material impacts
+(-) room for improvement in providing specific details on the types of employees impacted, the effectiveness of measures, and the tracking and assessment of these efforts</t>
+  </si>
 </sst>
 </file>
 
@@ -5655,15 +8015,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5671,21 +8037,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5701,10 +8100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5971,32 +8366,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="65.59765625" customWidth="1"/>
-    <col min="4" max="4" width="45.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.06640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6010,7 +8405,7 @@
       <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>27</v>
       </c>
     </row>
@@ -6024,7 +8419,7 @@
       <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>33</v>
       </c>
     </row>
@@ -6038,7 +8433,7 @@
       <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>41</v>
       </c>
     </row>
@@ -6052,7 +8447,7 @@
       <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>41</v>
       </c>
     </row>
@@ -6066,7 +8461,7 @@
       <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>41</v>
       </c>
     </row>
@@ -6080,7 +8475,7 @@
       <c r="C7" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>43</v>
       </c>
     </row>
@@ -6094,7 +8489,7 @@
       <c r="C8" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>66</v>
       </c>
     </row>
@@ -6108,7 +8503,7 @@
       <c r="C9" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>77</v>
       </c>
     </row>
@@ -6122,7 +8517,7 @@
       <c r="C10" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>81</v>
       </c>
     </row>
@@ -6136,7 +8531,7 @@
       <c r="C11" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>93</v>
       </c>
     </row>
@@ -6150,7 +8545,7 @@
       <c r="C12" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>95</v>
       </c>
     </row>
@@ -6164,7 +8559,7 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>98</v>
       </c>
     </row>
@@ -6178,7 +8573,7 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>98</v>
       </c>
     </row>
@@ -6192,7 +8587,7 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>98</v>
       </c>
     </row>
@@ -6206,7 +8601,7 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6220,7 +8615,7 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6234,7 +8629,7 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6248,7 +8643,7 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6262,7 +8657,7 @@
       <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6276,7 +8671,7 @@
       <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6290,7 +8685,7 @@
       <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>99</v>
       </c>
     </row>
@@ -6304,7 +8699,7 @@
       <c r="C23" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>102</v>
       </c>
     </row>
@@ -6318,7 +8713,7 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>103</v>
       </c>
     </row>
@@ -6332,7 +8727,7 @@
       <c r="C25" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>103</v>
       </c>
     </row>
@@ -6346,7 +8741,7 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>103</v>
       </c>
     </row>
@@ -6360,7 +8755,7 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>105</v>
       </c>
     </row>
@@ -6374,11 +8769,11 @@
       <c r="C28" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -6388,7 +8783,7 @@
       <c r="C29" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>105</v>
       </c>
     </row>
@@ -6402,7 +8797,7 @@
       <c r="C30" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>105</v>
       </c>
     </row>
@@ -6416,7 +8811,7 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>106</v>
       </c>
     </row>
@@ -6430,7 +8825,7 @@
       <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>106</v>
       </c>
     </row>
@@ -6444,7 +8839,7 @@
       <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>106</v>
       </c>
     </row>
@@ -6458,7 +8853,7 @@
       <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>107</v>
       </c>
     </row>
@@ -6472,7 +8867,7 @@
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>107</v>
       </c>
     </row>
@@ -6486,7 +8881,7 @@
       <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>107</v>
       </c>
     </row>
@@ -6500,7 +8895,7 @@
       <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>107</v>
       </c>
     </row>
@@ -6514,11 +8909,11 @@
       <c r="C38" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -6528,7 +8923,7 @@
       <c r="C39" t="s">
         <v>212</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>107</v>
       </c>
     </row>
@@ -6542,7 +8937,7 @@
       <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>108</v>
       </c>
     </row>
@@ -6556,7 +8951,7 @@
       <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>108</v>
       </c>
     </row>
@@ -6570,7 +8965,7 @@
       <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>109</v>
       </c>
     </row>
@@ -6584,7 +8979,7 @@
       <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>109</v>
       </c>
     </row>
@@ -6598,7 +8993,7 @@
       <c r="C44" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>109</v>
       </c>
     </row>
@@ -6612,7 +9007,7 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6626,7 +9021,7 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6640,7 +9035,7 @@
       <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6654,7 +9049,7 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6668,7 +9063,7 @@
       <c r="C49" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6682,7 +9077,7 @@
       <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6696,7 +9091,7 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6710,7 +9105,7 @@
       <c r="C52" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6724,7 +9119,7 @@
       <c r="C53" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>110</v>
       </c>
     </row>
@@ -6738,11 +9133,11 @@
       <c r="C54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -6752,7 +9147,7 @@
       <c r="C55" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>112</v>
       </c>
     </row>
@@ -6766,7 +9161,7 @@
       <c r="C56" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>112</v>
       </c>
     </row>
@@ -6780,7 +9175,7 @@
       <c r="C57" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>113</v>
       </c>
     </row>
@@ -6794,7 +9189,7 @@
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>113</v>
       </c>
     </row>
@@ -6808,7 +9203,7 @@
       <c r="C59" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>115</v>
       </c>
     </row>
@@ -6822,11 +9217,11 @@
       <c r="C60" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -6836,7 +9231,7 @@
       <c r="C61" t="s">
         <v>232</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>116</v>
       </c>
     </row>
@@ -6850,7 +9245,7 @@
       <c r="C62" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>117</v>
       </c>
     </row>
@@ -6864,7 +9259,7 @@
       <c r="C63" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>118</v>
       </c>
     </row>
@@ -6878,7 +9273,7 @@
       <c r="C64" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>118</v>
       </c>
     </row>
@@ -6892,11 +9287,11 @@
       <c r="C65" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -6906,11 +9301,11 @@
       <c r="C66" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -6920,7 +9315,7 @@
       <c r="C67" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>123</v>
       </c>
     </row>
@@ -6934,11 +9329,11 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -6948,7 +9343,7 @@
       <c r="C69" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>125</v>
       </c>
     </row>
@@ -6962,7 +9357,7 @@
       <c r="C70" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>134</v>
       </c>
     </row>
@@ -6976,7 +9371,7 @@
       <c r="C71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>135</v>
       </c>
     </row>
@@ -6990,11 +9385,11 @@
       <c r="C72" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -7004,7 +9399,7 @@
       <c r="C73" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>161</v>
       </c>
     </row>
@@ -7018,7 +9413,7 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7032,7 +9427,7 @@
       <c r="C75" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7046,7 +9441,7 @@
       <c r="C76" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7060,7 +9455,7 @@
       <c r="C77" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7074,7 +9469,7 @@
       <c r="C78" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7088,7 +9483,7 @@
       <c r="C79" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>173</v>
       </c>
     </row>
@@ -7102,7 +9497,7 @@
       <c r="C80" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>174</v>
       </c>
     </row>
@@ -7116,7 +9511,7 @@
       <c r="C81" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>174</v>
       </c>
     </row>
@@ -7130,7 +9525,7 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>175</v>
       </c>
     </row>
@@ -7144,7 +9539,7 @@
       <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>175</v>
       </c>
     </row>
@@ -7158,7 +9553,7 @@
       <c r="C84" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>175</v>
       </c>
     </row>
@@ -7172,7 +9567,7 @@
       <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>175</v>
       </c>
     </row>
@@ -7186,7 +9581,7 @@
       <c r="C86" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>175</v>
       </c>
     </row>
@@ -7200,7 +9595,7 @@
       <c r="C87" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7214,7 +9609,7 @@
       <c r="C88" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7228,7 +9623,7 @@
       <c r="C89" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7242,7 +9637,7 @@
       <c r="C90" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7256,7 +9651,7 @@
       <c r="C91" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7270,7 +9665,7 @@
       <c r="C92" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>176</v>
       </c>
     </row>
@@ -7284,7 +9679,7 @@
       <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>177</v>
       </c>
     </row>
@@ -7298,7 +9693,7 @@
       <c r="C94" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>177</v>
       </c>
     </row>
@@ -7312,7 +9707,7 @@
       <c r="C95" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>177</v>
       </c>
     </row>
@@ -7326,7 +9721,7 @@
       <c r="C96" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>177</v>
       </c>
     </row>
@@ -7340,7 +9735,7 @@
       <c r="C97" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>178</v>
       </c>
     </row>
@@ -7354,7 +9749,7 @@
       <c r="C98" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>178</v>
       </c>
     </row>
@@ -7368,7 +9763,7 @@
       <c r="C99" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>178</v>
       </c>
     </row>
@@ -7382,7 +9777,7 @@
       <c r="C100" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>178</v>
       </c>
     </row>
@@ -7396,7 +9791,7 @@
       <c r="C101" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>178</v>
       </c>
     </row>
@@ -7410,7 +9805,7 @@
       <c r="C102" t="s">
         <v>54</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="3">
         <v>179</v>
       </c>
     </row>
@@ -7424,7 +9819,7 @@
       <c r="C103" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="3">
         <v>179</v>
       </c>
     </row>
@@ -7438,7 +9833,7 @@
       <c r="C104" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="3">
         <v>179</v>
       </c>
     </row>
@@ -7452,7 +9847,7 @@
       <c r="C105" t="s">
         <v>92</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="3">
         <v>179</v>
       </c>
     </row>
@@ -7466,7 +9861,7 @@
       <c r="C106" t="s">
         <v>31</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7480,7 +9875,7 @@
       <c r="C107" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7494,7 +9889,7 @@
       <c r="C108" t="s">
         <v>52</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7508,7 +9903,7 @@
       <c r="C109" t="s">
         <v>73</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7522,7 +9917,7 @@
       <c r="C110" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7536,7 +9931,7 @@
       <c r="C111" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="3">
         <v>180</v>
       </c>
     </row>
@@ -7550,7 +9945,7 @@
       <c r="C112" t="s">
         <v>53</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="3">
         <v>181</v>
       </c>
     </row>
@@ -7564,7 +9959,7 @@
       <c r="C113" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="3">
         <v>181</v>
       </c>
     </row>
@@ -7578,7 +9973,7 @@
       <c r="C114" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="3">
         <v>182</v>
       </c>
     </row>
@@ -7592,7 +9987,7 @@
       <c r="C115" t="s">
         <v>46</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="3">
         <v>182</v>
       </c>
     </row>
@@ -7606,7 +10001,7 @@
       <c r="C116" t="s">
         <v>58</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="3">
         <v>182</v>
       </c>
     </row>
@@ -7620,7 +10015,7 @@
       <c r="C117" t="s">
         <v>59</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="3">
         <v>182</v>
       </c>
     </row>
@@ -7634,7 +10029,7 @@
       <c r="C118" t="s">
         <v>78</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="3">
         <v>182</v>
       </c>
     </row>
@@ -7648,7 +10043,7 @@
       <c r="C119" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="3">
         <v>183</v>
       </c>
     </row>
@@ -7662,7 +10057,7 @@
       <c r="C120" t="s">
         <v>49</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="3">
         <v>183</v>
       </c>
     </row>
@@ -7676,7 +10071,7 @@
       <c r="C121" t="s">
         <v>26</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="3">
         <v>183</v>
       </c>
     </row>
@@ -7690,7 +10085,7 @@
       <c r="C122" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="3">
         <v>183</v>
       </c>
     </row>
@@ -7704,7 +10099,7 @@
       <c r="C123" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="3">
         <v>184</v>
       </c>
     </row>
@@ -7718,7 +10113,7 @@
       <c r="C124" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="3">
         <v>184</v>
       </c>
     </row>
@@ -7730,52 +10125,52 @@
         <v>79</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D125" s="3">
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="1">
-        <v>184</v>
+        <v>213</v>
+      </c>
+      <c r="D126" s="3">
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
         <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
-      </c>
-      <c r="D127" s="1">
-        <v>190</v>
+        <v>22</v>
+      </c>
+      <c r="D127" s="3">
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="1">
-        <v>191</v>
+        <v>127</v>
+      </c>
+      <c r="D128" s="3">
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -7783,26 +10178,26 @@
         <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C129" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" s="1">
+        <v>207</v>
+      </c>
+      <c r="D130" s="3">
         <v>205</v>
       </c>
     </row>
@@ -7811,13 +10206,13 @@
         <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>207</v>
-      </c>
-      <c r="D131" s="1">
-        <v>205</v>
+        <v>150</v>
+      </c>
+      <c r="D131" s="3">
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -7825,12 +10220,12 @@
         <v>120</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
-      </c>
-      <c r="D132" s="1">
+        <v>168</v>
+      </c>
+      <c r="D132" s="3">
         <v>206</v>
       </c>
     </row>
@@ -7842,9 +10237,9 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D133" s="1">
+        <v>169</v>
+      </c>
+      <c r="D133" s="3">
         <v>206</v>
       </c>
     </row>
@@ -7853,30 +10248,30 @@
         <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="1">
+        <v>183</v>
+      </c>
+      <c r="D134" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>120</v>
       </c>
       <c r="B135" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
-      </c>
-      <c r="D135" s="1">
+        <v>236</v>
+      </c>
+      <c r="D135" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>120</v>
       </c>
@@ -7884,9 +10279,9 @@
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
-      </c>
-      <c r="D136" s="1">
+        <v>231</v>
+      </c>
+      <c r="D136" s="3">
         <v>206</v>
       </c>
     </row>
@@ -7895,68 +10290,68 @@
         <v>120</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
-      </c>
-      <c r="D137" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+      <c r="D137" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>120</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
-      </c>
-      <c r="D138" s="1">
+        <v>200</v>
+      </c>
+      <c r="D138" s="3">
         <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
         <v>79</v>
       </c>
       <c r="C139" t="s">
-        <v>200</v>
-      </c>
-      <c r="D139" s="1">
-        <v>207</v>
+        <v>119</v>
+      </c>
+      <c r="D139" s="3">
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C140" t="s">
-        <v>119</v>
-      </c>
-      <c r="D140" s="1">
+        <v>186</v>
+      </c>
+      <c r="D140" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
-      </c>
-      <c r="D141" s="1">
+        <v>192</v>
+      </c>
+      <c r="D141" s="3">
         <v>208</v>
       </c>
     </row>
@@ -7965,26 +10360,26 @@
         <v>120</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>192</v>
-      </c>
-      <c r="D142" s="1">
-        <v>208</v>
+        <v>144</v>
+      </c>
+      <c r="D142" s="3">
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="1">
+        <v>43</v>
+      </c>
+      <c r="D143" s="3">
         <v>210</v>
       </c>
     </row>
@@ -7993,27 +10388,27 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="1">
+        <v>51</v>
+      </c>
+      <c r="D144" s="3">
         <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>51</v>
-      </c>
-      <c r="D145" s="1">
-        <v>210</v>
+        <v>125</v>
+      </c>
+      <c r="D145" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8024,9 +10419,9 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
-      </c>
-      <c r="D146" s="1">
+        <v>129</v>
+      </c>
+      <c r="D146" s="3">
         <v>211</v>
       </c>
     </row>
@@ -8035,26 +10430,26 @@
         <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" s="1">
+        <v>179</v>
+      </c>
+      <c r="D147" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>120</v>
       </c>
       <c r="B148" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C148" t="s">
-        <v>179</v>
-      </c>
-      <c r="D148" s="1">
+        <v>233</v>
+      </c>
+      <c r="D148" s="3">
         <v>211</v>
       </c>
     </row>
@@ -8063,13 +10458,13 @@
         <v>120</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
-      </c>
-      <c r="D149" s="1">
-        <v>211</v>
+        <v>137</v>
+      </c>
+      <c r="D149" s="3">
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8077,12 +10472,12 @@
         <v>120</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="1">
+        <v>176</v>
+      </c>
+      <c r="D150" s="3">
         <v>212</v>
       </c>
     </row>
@@ -8091,12 +10486,12 @@
         <v>120</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
-        <v>176</v>
-      </c>
-      <c r="D151" s="1">
+        <v>180</v>
+      </c>
+      <c r="D151" s="3">
         <v>212</v>
       </c>
     </row>
@@ -8105,40 +10500,40 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
-      </c>
-      <c r="D152" s="1">
+        <v>218</v>
+      </c>
+      <c r="D152" s="3">
         <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
-      </c>
-      <c r="D153" s="1">
-        <v>212</v>
+        <v>30</v>
+      </c>
+      <c r="D153" s="3">
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" s="1">
+        <v>165</v>
+      </c>
+      <c r="D154" s="3">
         <v>213</v>
       </c>
     </row>
@@ -8147,13 +10542,13 @@
         <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>165</v>
-      </c>
-      <c r="D155" s="1">
-        <v>213</v>
+        <v>139</v>
+      </c>
+      <c r="D155" s="3">
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8164,10 +10559,10 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>139</v>
-      </c>
-      <c r="D156" s="1">
-        <v>214</v>
+        <v>131</v>
+      </c>
+      <c r="D156" s="3">
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8175,27 +10570,27 @@
         <v>120</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
-      </c>
-      <c r="D157" s="1">
+        <v>226</v>
+      </c>
+      <c r="D157" s="3">
         <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
-      </c>
-      <c r="D158" s="1">
-        <v>215</v>
+        <v>28</v>
+      </c>
+      <c r="D158" s="3">
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8203,12 +10598,12 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="1">
+        <v>60</v>
+      </c>
+      <c r="D159" s="3">
         <v>216</v>
       </c>
     </row>
@@ -8217,27 +10612,27 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
-      </c>
-      <c r="D160" s="1">
+        <v>82</v>
+      </c>
+      <c r="D160" s="3">
         <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
-      </c>
-      <c r="D161" s="1">
-        <v>216</v>
+        <v>147</v>
+      </c>
+      <c r="D161" s="3">
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8245,13 +10640,13 @@
         <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>147</v>
-      </c>
-      <c r="D162" s="1">
-        <v>219</v>
+        <v>153</v>
+      </c>
+      <c r="D162" s="3">
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8262,9 +10657,9 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
-      </c>
-      <c r="D163" s="1">
+        <v>177</v>
+      </c>
+      <c r="D163" s="3">
         <v>221</v>
       </c>
     </row>
@@ -8276,10 +10671,10 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
-      </c>
-      <c r="D164" s="1">
-        <v>221</v>
+        <v>154</v>
+      </c>
+      <c r="D164" s="3">
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8287,13 +10682,13 @@
         <v>120</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>154</v>
-      </c>
-      <c r="D165" s="1">
-        <v>222</v>
+        <v>130</v>
+      </c>
+      <c r="D165" s="3">
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8301,12 +10696,12 @@
         <v>120</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" s="1">
+        <v>155</v>
+      </c>
+      <c r="D166" s="3">
         <v>223</v>
       </c>
     </row>
@@ -8318,10 +10713,10 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>155</v>
-      </c>
-      <c r="D167" s="1">
-        <v>223</v>
+        <v>156</v>
+      </c>
+      <c r="D167" s="3">
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8332,9 +10727,9 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>156</v>
-      </c>
-      <c r="D168" s="1">
+        <v>157</v>
+      </c>
+      <c r="D168" s="3">
         <v>224</v>
       </c>
     </row>
@@ -8346,10 +10741,10 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>157</v>
-      </c>
-      <c r="D169" s="1">
-        <v>224</v>
+        <v>158</v>
+      </c>
+      <c r="D169" s="3">
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8360,9 +10755,9 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
-      </c>
-      <c r="D170" s="1">
+        <v>159</v>
+      </c>
+      <c r="D170" s="3">
         <v>225</v>
       </c>
     </row>
@@ -8371,30 +10766,30 @@
         <v>120</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
-        <v>159</v>
-      </c>
-      <c r="D171" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="D171" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>120</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
-      </c>
-      <c r="D172" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+      <c r="D172" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>120</v>
       </c>
@@ -8402,13 +10797,13 @@
         <v>79</v>
       </c>
       <c r="C173" t="s">
-        <v>198</v>
-      </c>
-      <c r="D173" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+      <c r="D173" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>120</v>
       </c>
@@ -8416,13 +10811,13 @@
         <v>79</v>
       </c>
       <c r="C174" t="s">
-        <v>193</v>
-      </c>
-      <c r="D174" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+      <c r="D174" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -8430,10 +10825,10 @@
         <v>79</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
-      </c>
-      <c r="D175" s="1">
-        <v>232</v>
+        <v>199</v>
+      </c>
+      <c r="D175" s="3">
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8441,26 +10836,26 @@
         <v>120</v>
       </c>
       <c r="B176" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
-      </c>
-      <c r="D176" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="D176" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
-      </c>
-      <c r="D177" s="1">
+        <v>210</v>
+      </c>
+      <c r="D177" s="3">
         <v>239</v>
       </c>
     </row>
@@ -8469,13 +10864,13 @@
         <v>120</v>
       </c>
       <c r="B178" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>210</v>
-      </c>
-      <c r="D178" s="1">
-        <v>239</v>
+        <v>132</v>
+      </c>
+      <c r="D178" s="3">
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8483,12 +10878,12 @@
         <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
-        <v>132</v>
-      </c>
-      <c r="D179" s="1">
+        <v>142</v>
+      </c>
+      <c r="D179" s="3">
         <v>246</v>
       </c>
     </row>
@@ -8497,12 +10892,12 @@
         <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>142</v>
-      </c>
-      <c r="D180" s="1">
+        <v>178</v>
+      </c>
+      <c r="D180" s="3">
         <v>246</v>
       </c>
     </row>
@@ -8511,12 +10906,12 @@
         <v>120</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>178</v>
-      </c>
-      <c r="D181" s="1">
+        <v>191</v>
+      </c>
+      <c r="D181" s="3">
         <v>246</v>
       </c>
     </row>
@@ -8525,13 +10920,13 @@
         <v>120</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C182" t="s">
-        <v>191</v>
-      </c>
-      <c r="D182" s="1">
-        <v>246</v>
+        <v>143</v>
+      </c>
+      <c r="D182" s="3">
+        <v>247</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8539,13 +10934,13 @@
         <v>120</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>143</v>
-      </c>
-      <c r="D183" s="1">
-        <v>247</v>
+        <v>141</v>
+      </c>
+      <c r="D183" s="3">
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8553,55 +10948,55 @@
         <v>120</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C184" t="s">
-        <v>141</v>
-      </c>
-      <c r="D184" s="1">
+        <v>216</v>
+      </c>
+      <c r="D184" s="3">
         <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>120</v>
       </c>
-      <c r="B185" t="s">
-        <v>111</v>
-      </c>
-      <c r="C185" t="s">
-        <v>216</v>
-      </c>
-      <c r="D185" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>4</v>
-      </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
-      </c>
-      <c r="D186" s="1">
+        <v>211</v>
+      </c>
+      <c r="D186" s="3">
         <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
-        <v>211</v>
-      </c>
-      <c r="D187" s="1">
-        <v>269</v>
+        <v>33</v>
+      </c>
+      <c r="D187" s="3">
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8612,38 +11007,38 @@
         <v>35</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="1">
-        <v>292</v>
+        <v>34</v>
+      </c>
+      <c r="D188" s="3">
+        <v>293</v>
       </c>
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
-      </c>
-      <c r="D189" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+      <c r="D189" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>120</v>
       </c>
       <c r="B190" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C190" t="s">
-        <v>228</v>
-      </c>
-      <c r="D190" s="1">
-        <v>294</v>
+        <v>194</v>
+      </c>
+      <c r="D190" s="3">
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8651,13 +11046,13 @@
         <v>120</v>
       </c>
       <c r="B191" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>194</v>
-      </c>
-      <c r="D191" s="1">
-        <v>306</v>
+        <v>126</v>
+      </c>
+      <c r="D191" s="3">
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8665,12 +11060,12 @@
         <v>120</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C192" t="s">
-        <v>126</v>
-      </c>
-      <c r="D192" s="1">
+        <v>148</v>
+      </c>
+      <c r="D192" s="3">
         <v>316</v>
       </c>
     </row>
@@ -8679,13 +11074,13 @@
         <v>120</v>
       </c>
       <c r="B193" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C193" t="s">
-        <v>148</v>
-      </c>
-      <c r="D193" s="1">
-        <v>316</v>
+        <v>229</v>
+      </c>
+      <c r="D193" s="3">
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8693,13 +11088,13 @@
         <v>120</v>
       </c>
       <c r="B194" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>229</v>
-      </c>
-      <c r="D194" s="1">
-        <v>322</v>
+        <v>185</v>
+      </c>
+      <c r="D194" s="3">
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8707,13 +11102,13 @@
         <v>120</v>
       </c>
       <c r="B195" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>185</v>
-      </c>
-      <c r="D195" s="1">
-        <v>323</v>
+        <v>133</v>
+      </c>
+      <c r="D195" s="3">
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8724,10 +11119,10 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>133</v>
-      </c>
-      <c r="D196" s="1">
-        <v>378</v>
+        <v>128</v>
+      </c>
+      <c r="D196" s="3">
+        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8735,13 +11130,13 @@
         <v>120</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C197" t="s">
-        <v>128</v>
-      </c>
-      <c r="D197" s="1">
-        <v>379</v>
+        <v>163</v>
+      </c>
+      <c r="D197" s="3">
+        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8749,12 +11144,12 @@
         <v>120</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>163</v>
-      </c>
-      <c r="D198" s="1">
+        <v>172</v>
+      </c>
+      <c r="D198" s="3">
         <v>388</v>
       </c>
     </row>
@@ -8766,10 +11161,10 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>172</v>
-      </c>
-      <c r="D199" s="1">
-        <v>388</v>
+        <v>164</v>
+      </c>
+      <c r="D199" s="3">
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8780,10 +11175,10 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>164</v>
-      </c>
-      <c r="D200" s="1">
-        <v>417</v>
+        <v>173</v>
+      </c>
+      <c r="D200" s="3">
+        <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8794,10 +11189,10 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>173</v>
-      </c>
-      <c r="D201" s="1">
-        <v>426</v>
+        <v>174</v>
+      </c>
+      <c r="D201" s="3">
+        <v>444</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8805,13 +11200,13 @@
         <v>120</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C202" t="s">
-        <v>174</v>
-      </c>
-      <c r="D202" s="1">
-        <v>444</v>
+        <v>230</v>
+      </c>
+      <c r="D202" s="3">
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8819,13 +11214,13 @@
         <v>120</v>
       </c>
       <c r="B203" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>230</v>
-      </c>
-      <c r="D203" s="1">
-        <v>466</v>
+        <v>134</v>
+      </c>
+      <c r="D203" s="3">
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8833,12 +11228,12 @@
         <v>120</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C204" t="s">
-        <v>134</v>
-      </c>
-      <c r="D204" s="1">
+        <v>184</v>
+      </c>
+      <c r="D204" s="3">
         <v>479</v>
       </c>
     </row>
@@ -8847,13 +11242,13 @@
         <v>120</v>
       </c>
       <c r="B205" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C205" t="s">
-        <v>184</v>
-      </c>
-      <c r="D205" s="1">
-        <v>479</v>
+        <v>149</v>
+      </c>
+      <c r="D205" s="3">
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8864,24 +11259,24 @@
         <v>35</v>
       </c>
       <c r="C206" t="s">
-        <v>149</v>
-      </c>
-      <c r="D206" s="1">
-        <v>497</v>
+        <v>145</v>
+      </c>
+      <c r="D206" s="3">
+        <v>542</v>
       </c>
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D207" s="1">
-        <v>542</v>
+        <v>89</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8889,13 +11284,13 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
-        <v>89</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8903,13 +11298,13 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C209" t="s">
-        <v>68</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8920,10 +11315,10 @@
         <v>79</v>
       </c>
       <c r="C210" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8931,13 +11326,13 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C211" t="s">
-        <v>102</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8945,12 +11340,12 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C212" t="s">
-        <v>64</v>
-      </c>
-      <c r="D212" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8962,10 +11357,10 @@
         <v>79</v>
       </c>
       <c r="C213" t="s">
-        <v>104</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8976,10 +11371,10 @@
         <v>79</v>
       </c>
       <c r="C214" t="s">
-        <v>105</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -8990,10 +11385,10 @@
         <v>79</v>
       </c>
       <c r="C215" t="s">
-        <v>107</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>108</v>
+        <v>235</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -9006,7 +11401,7 @@
       <c r="C216" t="s">
         <v>36</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9020,11 +11415,11 @@
       <c r="C217" t="s">
         <v>181</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>120</v>
       </c>
@@ -9034,11 +11429,11 @@
       <c r="C218" t="s">
         <v>208</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>120</v>
       </c>
@@ -9048,7 +11443,7 @@
       <c r="C219" t="s">
         <v>196</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9062,7 +11457,7 @@
       <c r="C220" t="s">
         <v>160</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -9076,7 +11471,7 @@
       <c r="C221" t="s">
         <v>135</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9090,15 +11485,874 @@
       <c r="C222" t="s">
         <v>220</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="3" t="s">
         <v>221</v>
       </c>
     </row>
+    <row r="223" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>237</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>237</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>239</v>
+      </c>
+      <c r="D224" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>241</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>242</v>
+      </c>
+      <c r="D226" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>243</v>
+      </c>
+      <c r="D227" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>237</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>244</v>
+      </c>
+      <c r="D228" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>245</v>
+      </c>
+      <c r="D229" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>246</v>
+      </c>
+      <c r="D230" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>247</v>
+      </c>
+      <c r="D231" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>248</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>250</v>
+      </c>
+      <c r="D233" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>251</v>
+      </c>
+      <c r="D234" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>252</v>
+      </c>
+      <c r="D235" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>253</v>
+      </c>
+      <c r="D236" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>254</v>
+      </c>
+      <c r="D237" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D238" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>256</v>
+      </c>
+      <c r="D239" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>257</v>
+      </c>
+      <c r="D240" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" t="s">
+        <v>115</v>
+      </c>
+      <c r="C241" t="s">
+        <v>258</v>
+      </c>
+      <c r="D241" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" t="s">
+        <v>259</v>
+      </c>
+      <c r="D242" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" t="s">
+        <v>115</v>
+      </c>
+      <c r="C243" t="s">
+        <v>260</v>
+      </c>
+      <c r="D243" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244" t="s">
+        <v>115</v>
+      </c>
+      <c r="C244" t="s">
+        <v>261</v>
+      </c>
+      <c r="D244" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B245" t="s">
+        <v>115</v>
+      </c>
+      <c r="C245" t="s">
+        <v>262</v>
+      </c>
+      <c r="D245" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" t="s">
+        <v>115</v>
+      </c>
+      <c r="C246" t="s">
+        <v>263</v>
+      </c>
+      <c r="D246" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B247" t="s">
+        <v>115</v>
+      </c>
+      <c r="C247" t="s">
+        <v>264</v>
+      </c>
+      <c r="D247" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>237</v>
+      </c>
+      <c r="B248" t="s">
+        <v>115</v>
+      </c>
+      <c r="C248" t="s">
+        <v>265</v>
+      </c>
+      <c r="D248" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>237</v>
+      </c>
+      <c r="B249" t="s">
+        <v>115</v>
+      </c>
+      <c r="C249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D249" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>237</v>
+      </c>
+      <c r="B250" t="s">
+        <v>115</v>
+      </c>
+      <c r="C250" t="s">
+        <v>267</v>
+      </c>
+      <c r="D250" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>237</v>
+      </c>
+      <c r="B251" t="s">
+        <v>115</v>
+      </c>
+      <c r="C251" t="s">
+        <v>268</v>
+      </c>
+      <c r="D251" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>237</v>
+      </c>
+      <c r="B252" t="s">
+        <v>115</v>
+      </c>
+      <c r="C252" t="s">
+        <v>269</v>
+      </c>
+      <c r="D252" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>237</v>
+      </c>
+      <c r="B253" t="s">
+        <v>115</v>
+      </c>
+      <c r="C253" t="s">
+        <v>270</v>
+      </c>
+      <c r="D253" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>237</v>
+      </c>
+      <c r="B254" t="s">
+        <v>111</v>
+      </c>
+      <c r="C254" t="s">
+        <v>271</v>
+      </c>
+      <c r="D254" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>237</v>
+      </c>
+      <c r="B255" t="s">
+        <v>111</v>
+      </c>
+      <c r="C255" t="s">
+        <v>272</v>
+      </c>
+      <c r="D255" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>237</v>
+      </c>
+      <c r="B256" t="s">
+        <v>111</v>
+      </c>
+      <c r="C256" t="s">
+        <v>273</v>
+      </c>
+      <c r="D256" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>237</v>
+      </c>
+      <c r="B257" t="s">
+        <v>111</v>
+      </c>
+      <c r="C257" t="s">
+        <v>274</v>
+      </c>
+      <c r="D257" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>237</v>
+      </c>
+      <c r="B258" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" t="s">
+        <v>275</v>
+      </c>
+      <c r="D258" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>237</v>
+      </c>
+      <c r="B259" t="s">
+        <v>111</v>
+      </c>
+      <c r="C259" t="s">
+        <v>276</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>237</v>
+      </c>
+      <c r="B260" t="s">
+        <v>111</v>
+      </c>
+      <c r="C260" t="s">
+        <v>278</v>
+      </c>
+      <c r="D260" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>237</v>
+      </c>
+      <c r="B261" t="s">
+        <v>111</v>
+      </c>
+      <c r="C261" t="s">
+        <v>243</v>
+      </c>
+      <c r="D261" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>237</v>
+      </c>
+      <c r="B262" t="s">
+        <v>111</v>
+      </c>
+      <c r="C262" t="s">
+        <v>279</v>
+      </c>
+      <c r="D262" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>237</v>
+      </c>
+      <c r="B263" t="s">
+        <v>111</v>
+      </c>
+      <c r="C263" t="s">
+        <v>250</v>
+      </c>
+      <c r="D263" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>237</v>
+      </c>
+      <c r="B264" t="s">
+        <v>111</v>
+      </c>
+      <c r="C264" t="s">
+        <v>280</v>
+      </c>
+      <c r="D264" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>237</v>
+      </c>
+      <c r="B265" t="s">
+        <v>111</v>
+      </c>
+      <c r="C265" t="s">
+        <v>281</v>
+      </c>
+      <c r="D265" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>237</v>
+      </c>
+      <c r="B266" t="s">
+        <v>111</v>
+      </c>
+      <c r="C266" t="s">
+        <v>282</v>
+      </c>
+      <c r="D266" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>237</v>
+      </c>
+      <c r="B267" t="s">
+        <v>94</v>
+      </c>
+      <c r="C267" t="s">
+        <v>283</v>
+      </c>
+      <c r="D267" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>237</v>
+      </c>
+      <c r="B268" t="s">
+        <v>94</v>
+      </c>
+      <c r="C268" t="s">
+        <v>284</v>
+      </c>
+      <c r="D268" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>237</v>
+      </c>
+      <c r="B269" t="s">
+        <v>94</v>
+      </c>
+      <c r="C269" t="s">
+        <v>285</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>237</v>
+      </c>
+      <c r="B270" t="s">
+        <v>94</v>
+      </c>
+      <c r="C270" t="s">
+        <v>287</v>
+      </c>
+      <c r="D270" s="3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>237</v>
+      </c>
+      <c r="B271" t="s">
+        <v>79</v>
+      </c>
+      <c r="C271" t="s">
+        <v>288</v>
+      </c>
+      <c r="D271" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>237</v>
+      </c>
+      <c r="B272" t="s">
+        <v>79</v>
+      </c>
+      <c r="C272" t="s">
+        <v>289</v>
+      </c>
+      <c r="D272" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>237</v>
+      </c>
+      <c r="B273" t="s">
+        <v>79</v>
+      </c>
+      <c r="C273" t="s">
+        <v>290</v>
+      </c>
+      <c r="D273" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>237</v>
+      </c>
+      <c r="B274" t="s">
+        <v>79</v>
+      </c>
+      <c r="C274" t="s">
+        <v>291</v>
+      </c>
+      <c r="D274" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>237</v>
+      </c>
+      <c r="B275" t="s">
+        <v>79</v>
+      </c>
+      <c r="C275" t="s">
+        <v>292</v>
+      </c>
+      <c r="D275" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>237</v>
+      </c>
+      <c r="B276" t="s">
+        <v>79</v>
+      </c>
+      <c r="C276" t="s">
+        <v>293</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>237</v>
+      </c>
+      <c r="B277" t="s">
+        <v>79</v>
+      </c>
+      <c r="C277" t="s">
+        <v>294</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>237</v>
+      </c>
+      <c r="B278" t="s">
+        <v>79</v>
+      </c>
+      <c r="C278" t="s">
+        <v>296</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>237</v>
+      </c>
+      <c r="B279" t="s">
+        <v>79</v>
+      </c>
+      <c r="C279" t="s">
+        <v>298</v>
+      </c>
+      <c r="D279" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>237</v>
+      </c>
+      <c r="B280" t="s">
+        <v>79</v>
+      </c>
+      <c r="C280" t="s">
+        <v>258</v>
+      </c>
+      <c r="D280" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>237</v>
+      </c>
+      <c r="B281" t="s">
+        <v>79</v>
+      </c>
+      <c r="C281" t="s">
+        <v>300</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>237</v>
+      </c>
+      <c r="B282" t="s">
+        <v>79</v>
+      </c>
+      <c r="C282" t="s">
+        <v>302</v>
+      </c>
+      <c r="D282" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>237</v>
+      </c>
+      <c r="B283" t="s">
+        <v>79</v>
+      </c>
+      <c r="C283" t="s">
+        <v>303</v>
+      </c>
+      <c r="D283" s="3">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D222" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:D283" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="SchneiderElectric_2025"/>
+        <filter val="SchneiderElectric_2024"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="S1_A"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D222">
@@ -9109,4 +12363,583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF936B0-06A1-4D6F-B394-60C114961257}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="34.86328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.06640625" customWidth="1"/>
+    <col min="7" max="7" width="27.86328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="46.19921875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6">
+        <v>85</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="6">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="6">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="6">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="6">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>95</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="6">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="10">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="10">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="10">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="10">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="6">
+        <v>90</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="6">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>95</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="6">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="8">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="10">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="10">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="10">
+        <v>95</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="10">
+        <v>85</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="6">
+        <v>90</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="6">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="6">
+        <v>90</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>90</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="6">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D26" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exploration/validation_dataset.xlsx
+++ b/exploration/validation_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive - UT Cloud\Thesis\esg_extraction\exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC82A27-6E9E-4868-9826-6D99F056C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630DF4D-4391-4B8D-8777-EEE05B8D283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="0" windowWidth="11078" windowHeight="12863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1_Retrieval" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="350">
   <si>
     <t>report_name</t>
   </si>
@@ -7679,138 +7679,6 @@
     <t>cs_reasoning</t>
   </si>
   <si>
-    <t>{'ANALYSIS': 'The disclosure provided by Continental in the annual report partially meets the requirements outlined for managing and disclosing material impacts, risks, and opportunities related to its own workforce. The company has detailed its processes for identifying and assessing impacts, risks, and opportunities, as well as the actions taken to address them. However, there is room for improvement in providing specific details on the types of employees impacted, the effectiveness of measures, and the tracking and assessment of these efforts.', 'SCORE': 75}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report covers a wide range of aspects related to managing and disclosing material impacts, risks, and opportunities related to the company's own workforce. It includes discussions on policies, actions, and initiatives related to working conditions, mental health, training, and skills development. However, there is room for improvement in providing more specific details and metrics to fully meet all the outlined requirements.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The report's disclosure provided by the company addresses several key aspects related to managing and disclosing material impacts, risks, and opportunities related to its own workforce. The company discusses various topics such as health &amp; safety, employee rights, talent development, and diversity &amp; inclusion. However, the disclosure lacks specific details on certain aspects such as the processes for identifying and addressing negative impacts, tracking effectiveness of measures, and ensuring practices do not contribute to negative impacts. More quantitative data and specific examples would enhance the quality of disclosure.", 'SCORE': 75}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report partially addresses the requirements for describing material risks and opportunities related to the company's impacts and dependencies on its own workforce. The report discusses various risks related to labor rights, workforce management, and skill development initiatives. However, it lacks specific details on actions planned to mitigate these risks and pursue opportunities, as well as the tracking and assessment of effectiveness. The report could benefit from more explicit information on these aspects to enhance transparency and accountability.", 'SCORE': 65}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report adequately addresses the material risks and opportunities related to the company's impacts and dependencies on its own workforce. The report discusses various risks such as operational, legal, reputational, and social risks, along with opportunities related to employee engagement, skills development, and workforce diversity. It also outlines actions planned to mitigate risks and pursue opportunities. However, the report could enhance clarity by explicitly linking each risk and opportunity to specific groups within the workforce and providing more detailed information on the effectiveness tracking and assessment of mitigation actions.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report partially addresses the ESRS recommendation point by discussing the material risks and opportunities related to the company's impacts and dependencies on its own workforce. While the report mentions actions taken and strategies in place, it lacks specific details on tracking and assessing the effectiveness of these actions. Additionally, there is a focus on workforce strategy and employee well-being, but limited information on opportunities related to the company's own workforce.", 'SCORE': 70}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The disclosure provided by Continental in their annual report regarding respect for human rights, including labor rights of their own workforce, is comprehensive and detailed. They address various aspects such as labor standards, policies alignment with international instruments, incidents of forced labor and child labor, penalties, and fines related to human rights violations. Continental also outlines their management approach, stakeholder engagement, and adherence to global standards. However, there is room for improvement in providing specific details on severe human rights incidents and reconciliation of fines, penalties, or compensation. Overall, the disclosure demonstrates a strong commitment to human rights.', 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's commitment to human rights, including labor rights, within its own workforce. The company aligns its sustainability strategy with the UN's principles, discloses its human rights policies, and addresses risks such as forced labor and mental health issues. Schneider Electric's detailed disclosure on its human rights due diligence process, living wage commitment, and partnerships demonstrates a strong focus on respecting human rights. However, the report could enhance disclosure by providing more specific details on identified severe human rights incidents and reconciliation efforts related to its own workforce.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report demonstrates a strong commitment to human rights, including labor rights, within Philips' own workforce. The report covers various aspects such as policy commitments, human rights impact assessments, governance structures, grievance mechanisms, and engagement with stakeholders. Philips outlines its approach to respect for human rights and labor rights, aligning with international standards and conducting due diligence. However, the report lacks specific details on identified severe human rights incidents and the reconciliation of fines or penalties related to such incidents.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report by Continental demonstrates a strong commitment to engaging with its own workers and workers' representatives. The company has addressed key aspects such as general approach to engagement, direct and indirect engagement with workers, assessment of effectiveness, steps to gain insight into vulnerable groups, and setting targets with workforce involvement. Continental's detailed descriptions and examples showcase a comprehensive engagement strategy.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric demonstrates a strong commitment to engaging with its workers and workers' representatives. The company discloses its approach to engagement, the stages and types of engagement, responsible roles, assessment of effectiveness, steps for vulnerable groups, and setting targets with workers. The disclosure also includes information on employee feedback mechanisms, action plans, and social dialogue policies. However, there is room for improvement in providing more specific details on the assessment of engagement effectiveness and steps taken for vulnerable groups.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided by the company partially meets the requirements for engaging with its workers and workers' representatives. The company discusses its engagement with employees, including regular meetings, surveys, and development processes. It also mentions collective bargaining agreements and social dialogue. However, the disclosure lacks specific details on how employee perspectives inform decision-making, steps taken to understand vulnerable groups, and direct engagement in setting targets. There is room for improvement in providing more comprehensive information.", 'SCORE': 75}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided by Continental AG in its annual report regarding preventing discrimination and advancing diversity and inclusion in its workforce is comprehensive and detailed. The company has addressed all the key requirements outlined, including specific policies, coverage of discrimination grounds, commitments to vulnerable groups, implementation procedures, and disclosure of incidents and fines. Continental AG's proactive approach to diversity and inclusion, setting targets, promoting internationality, gender diversity, and engaging with marginalized groups, demonstrates a strong commitment to fostering a diverse and inclusive workplace.", 'SCORE': 100}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric demonstrates a strong commitment to preventing discrimination and promoting diversity and inclusion in its workforce. The company has detailed policies and initiatives in place to address discrimination, harassment, and promote equal opportunities. Schneider Electric's approach to diversity and inclusion is comprehensive and well-documented throughout the report.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The company's annual report provides a comprehensive disclosure on its policies and practices related to preventing discrimination and promoting diversity and inclusion in its workforce. The report covers specific policies, grounds for discrimination, commitments to vulnerable groups, implementation procedures, disclosure of fines, and compensation. It also includes diversity metrics, employee resource groups, and external awards. However, there could be more detailed information on the implementation of policies and procedures to address discrimination once detected.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The disclosure provided by Continental in the annual report regarding processes to remediate negative impacts and channels for own workforce to raise concerns is comprehensive and detailed. The company has addressed several key requirements such as establishing dedicated mechanisms for employees to raise concerns, providing multiple channels for reporting, ensuring confidentiality and protection against retaliation, and implementing remediation processes. However, there are some areas where more specific details could be provided, such as explicit assessment of awareness and trust in the channels, and more transparency on the effectiveness of the integrity system.', 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided by Schneider Electric in their annual report demonstrates a comprehensive approach to addressing negative impacts in the workforce through various channels and policies. The company has detailed processes for remediation, clear channels for raising concerns, and mechanisms for protection against retaliation. Schneider Electric's commitment to fostering a speak-up culture and monitoring the effectiveness of their systems is evident throughout the disclosure.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The disclosure provided by the company regarding its approach to remediate negative impacts in the workforce is comprehensive and detailed. The company has outlined its SpeakUp program, reporting mechanisms, investigation processes, and follow-up actions taken. It discloses the number of concerns raised, types of concerns, regions of origin, substantiated cases, and actions taken. The company also emphasizes protection against retaliation and training for compliance officers. However, the disclosure lacks specific information on the general approach to providing remedy for negative impacts and the assessment of workforce awareness and trust in the reporting channels.', 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The disclosure provided in the annual report lacks specific information regarding the social protection coverage of the company's own workforce. While some general details about personnel expenses, employee benefits, and deferred compensation are mentioned, there is a notable absence of explicit information addressing the coverage of employees against major life events as outlined in the requirements. The report does not clearly indicate whether all employees are covered by social protection mechanisms or provide details on countries where employees lack such coverage.", 'SCORE': 30}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The disclosure provided by Schneider Electric regarding social protection for its workforce primarily focuses on family leave policies, well-being programs, and safety management systems. While the company emphasizes employee well-being and safety, it lacks specific details on social protection mechanisms against major life events like sickness, unemployment, and retirement. The report does not explicitly address whether all employees are covered by social protection or provide information on countries where employees lack such coverage.', 'SCORE': 60}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The disclosure provided by the company regarding social protection for its workforce is detailed and covers various aspects such as sickness, unemployment, employment injury, parental leave, and retirement. The report clearly outlines the countries where employees are not covered and the eligibility criteria in different regions. However, the report lacks specific details on the types of employees not covered in those countries, which is a key requirement for high-quality disclosure.', 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>cs LLM result</t>
-  </si>
-  <si>
-    <t>dd llm result</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The annual report provides a detailed and comprehensive disclosure on how the company manages and discloses material impacts, risks, and opportunities related to its own workforce. The report covers various aspects such as labor standards, adequate wages, work-life balance, training and skill development, secure employment, social dialogue, employee privacy, and occupational safety and health. The company has outlined specific processes, methodologies, and actions taken to address these areas, demonstrating a strong commitment to employee well-being and engagement.', 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The annual report provides a comprehensive overview of how Schneider Electric manages and discloses material impacts, risks, and opportunities related to its workforce. The report covers various aspects such as trust programs, whistleblowing policies, working conditions, mental health, double materiality assessment, sustainability matters, cybersecurity, employee engagement, training and skills development, and equal treatment. It includes detailed descriptions of policies, governance structures, initiatives, performance metrics, and recognition received. The company demonstrates a strong commitment to employee well-being, safety, diversity, and inclusion.', 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of how Philips manages and discloses material impacts, risks, and opportunities related to its own workforce. The report covers various aspects such as employee rights, health &amp; safety, talent development, diversity &amp; inclusion, and stakeholder engagement. It includes information on policies, metrics, targets, and the Double Materiality Assessment process. The report also highlights the company's commitment to transparency and engagement with stakeholders.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of the material risks and opportunities related to the company's impacts and dependencies on its own workforce. It covers various aspects such as training, skill development, secure employment, and potential risks like labor rights violations and workforce management challenges. The report also includes information on how these risks are managed and monitored. However, there is room for improvement in providing more specific quantitative data and targets related to these aspects.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed and comprehensive disclosure on the material risks and opportunities related to the company's impacts and dependencies on its own workforce. It covers various aspects such as working conditions, employee health and safety, equal treatment and opportunities, training and skills development, and workforce diversity. The report also discusses the importance of talent acquisition, development, and retention, emphasizing critical skills and workforce diversity. Overall, the disclosure demonstrates a strong commitment to addressing workforce-related risks and opportunities.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of the company's approach to managing risks and opportunities related to its own workforce. It covers various aspects such as workforce strategy, employee rights, health &amp; safety, talent development, and human rights impacts. The report also addresses the challenges related to attracting and retaining talent. However, there is room for improvement in providing specific quantitative metrics and targets to enhance transparency and accountability.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Continental's approach to respect for human rights, including labor rights, within its own workforce. The report covers various aspects such as management approaches, stakeholder engagement, due diligence processes, potential impacts, risks, and compliance with international frameworks. Continental's commitment to human rights and labor standards is well-documented, including specific policies, monitoring mechanisms, and adherence to global standards.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "Schneider Electric demonstrates a strong commitment to respecting human rights and labor rights within its own workforce. The company aligns its sustainability strategy with the UN's principles, actively participates in external initiatives, conducts thorough risk assessments, and implements robust policies and programs to address human rights issues. Schneider Electric's detailed disclosure on its approach to human rights, including efforts to prevent forced labor, ensure living wages, and support LGBT+ rights, showcases a comprehensive and proactive stance towards respecting human rights and labor rights.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Philips' approach to respecting human rights, including labor rights, within its own workforce and value chain. The company demonstrates a strong commitment to identifying, preventing, and mitigating adverse human rights impacts. Philips conducts human rights due diligence, engages in human rights impact assessments, and has established governance and grievance mechanisms to uphold human rights standards. The report also highlights specific policies, metrics, and targets related to employee rights, fair employment, diversity &amp; inclusion, and collective bargaining. Overall, the disclosure is detailed, transparent, and aligned with international standards and best practices.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The company provides a detailed and comprehensive overview of its engagement with workers and workers' representatives. It outlines various channels and processes for communication, feedback, and involvement of employees in decision-making. The report highlights the integration of employee perspectives into strategic decisions and the consideration of their interests in various aspects of the business. The disclosure demonstrates a strong commitment to social dialogue and employee well-being.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of how Schneider Electric engages with its workers and workers' representatives. The company demonstrates a strong commitment to employee engagement through various initiatives, such as annual surveys, action plans, and social dialogue at both local and global levels. The report highlights the importance of two-way communication, feedback mechanisms, and the impact of employee engagement on business performance. Schneider Electric's approach to engaging with its workforce is well-documented and aligned with best practices in sustainability reporting.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of how Philips engages with its workers and workers' representatives. The company actively involves employees through various channels such as regular meetings, surveys, and engagement initiatives. Philips demonstrates a commitment to respecting employee rights, providing fair employment, and engaging in collective bargaining and social dialogue. The report also highlights specific initiatives related to employee engagement, talent development, and workplace culture. Overall, the disclosure is comprehensive and transparent, showcasing a strong focus on engaging with workers and workers' representatives.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The company provides a detailed and comprehensive disclosure regarding its efforts to prevent discrimination and advance diversity and inclusion in its workforce. It outlines specific targets, initiatives, processes, and monitoring mechanisms related to gender diversity and inclusion. The report also addresses potential risks and impacts related to discrimination and harassment, demonstrating a proactive approach to mitigating such issues.', 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's commitment to preventing discrimination and advancing diversity and inclusion in its workforce. The company outlines various initiatives, policies, and programs aimed at creating an inclusive environment, promoting diversity, and ensuring fair treatment for all employees. Schneider Electric's detailed disclosure demonstrates a strong focus on diversity, equity, and inclusion across various aspects of its operations.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The company provides a detailed and comprehensive disclosure regarding its commitment to preventing discrimination and advancing diversity and inclusion in its workforce. The report outlines specific policies, initiatives, metrics, and governance structures in place to promote a fair and inclusive workplace. It also includes information on diversity targets, employee resource groups, external awards, and monitoring mechanisms. The company's approach demonstrates a strong commitment to diversity and inclusion throughout the organization.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of Continental's processes and channels for remediating negative impacts and enabling its own workforce to raise concerns. The company has established comprehensive integrity mechanisms, including an integrity portal, hotline, and email, to address violations and protect whistleblowers. Various communication channels and training programs are in place to raise awareness and ensure effective implementation. Continental's approach to data protection and compliance with relevant regulations is well-documented. Overall, the report demonstrates a strong commitment to addressing workforce concerns and maintaining ethical standards.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's approaches to remediate negative impacts in the workforce through its Speak Up mindset, whistleblowing policies, committees for compliance and disciplinary actions, corrective measures, employee surveys, and protection mechanisms. The report details the governance structure, case management process, employee engagement initiatives, and commitment to human rights. The company's transparency in reporting and commitment to continuous improvement are evident throughout the disclosures.", 'SCORE': 95}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a detailed overview of the company's approach to remediate negative impacts in the workforce through its SpeakUp program, reporting mechanisms, investigation processes, and follow-up actions. It includes statistics on concerns raised, types of concerns, regional breakdowns, substantiated cases, remedial and disciplinary actions taken, and training initiatives. The report also highlights the protection of whistleblowers and the alignment with relevant legislation. However, there could be further details on specific case studies or examples of remedial actions taken to enhance transparency.", 'SCORE': 85}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a moderate level of disclosure regarding how the company protects its workforce through social protection. It mentions aspects such as labor standards, wages, social security contributions, pension provisions, and other benefits. However, the report lacks specific details on the company's social protection policies, initiatives, and the effectiveness of these measures in safeguarding employees' well-being.", 'SCORE': 65}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': "The annual report provides a comprehensive overview of Schneider Electric's efforts to protect its workforce through various initiatives such as the Global Family Leave Policy, Employee Assistance Program, back-up family care benefits, and access to healthcare. The report also includes details on social protection, health and safety management systems, and pension benefits. Schneider Electric's commitment to social protection and well-being is evident through its alignment with global standards and recognition of diverse workforce needs.", 'SCORE': 90}</t>
-  </si>
-  <si>
-    <t>{'ANALYSIS': 'The annual report provides a detailed overview of the social protection measures provided to employees in various countries, including coverage for sickness, unemployment, employment injury, parental leave, and retirement. The report specifies eligibility criteria and variations in benefits based on local regulations and practices. However, there could be further enhancement by providing more specific data on the percentage of employees covered in each category and the overall effectiveness of these social protection programs.', 'SCORE': 85}</t>
-  </si>
-  <si>
     <t>(+) coverage of different dimensions of social protection (sickness, unemployment, parental leave, …) and region specific details
 (-) company identifies where government coverage is non-existent or insufficient and clarifies whether Philips supplements it or not
 (-) no monitoring, governance mechanisms disclosed</t>
@@ -7893,11 +7761,6 @@
   </si>
   <si>
     <t>(-) only shortcoming: lack  of disclosure of actual grievances or remediation outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: 
-How reliable is the information?
-</t>
   </si>
   <si>
     <t>(+) high detail of engagement methods and platforms
@@ -7986,6 +7849,24 @@
   <si>
     <t>(-) does not provide a clear picture of the financial and human resources allocated to manage  material impacts
 (-) room for improvement in providing specific details on the types of employees impacted, the effectiveness of measures, and the tracking and assessment of these efforts</t>
+  </si>
+  <si>
+    <t>(+) broad and detailed set of policies, actions, and governance structures, including metrics, survey data, and qualitative insights
+(+) Initiatives and programs are well-described and contextualized
+(-) some granularity is lacking, particularly with respect to vulnerable subgroups</t>
+  </si>
+  <si>
+    <t>(-) no mention of at-risk characteristics or contexts of vulnerable groups
+(-) weak disclosure of transition-related impacts</t>
+  </si>
+  <si>
+    <t>(+) detailes overview with clear examples (program plans and governance structures)
+(+) compliance with international instruments
+(-) lack of specific breakdowns of impacts by employee types in some areas</t>
+  </si>
+  <si>
+    <t>(-) limited information on impact of transition plans and vulnerable groups 
+(-) risk identification processes are broadly described, specific methodologies per risk area (e.g., health &amp; safety vs. human rights) could be more detailed</t>
   </si>
 </sst>
 </file>
@@ -8015,18 +7896,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -8070,21 +7945,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8369,8 +8244,8 @@
   <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C219"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C190" sqref="C190:C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11496,7 +11371,7 @@
       <c r="B223" t="s">
         <v>35</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D223" s="3" t="s">
@@ -12367,78 +12242,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF936B0-06A1-4D6F-B394-60C114961257}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" customWidth="1"/>
-    <col min="4" max="4" width="34.86328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.06640625" customWidth="1"/>
-    <col min="7" max="7" width="27.86328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="46.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.06640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="39.265625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>90</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="6">
         <v>70</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -12449,22 +12311,16 @@
         <v>85</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="6">
+        <v>342</v>
+      </c>
+      <c r="E3" s="6">
         <v>75</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -12475,22 +12331,16 @@
         <v>95</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="6">
+        <v>332</v>
+      </c>
+      <c r="E4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -12501,22 +12351,16 @@
         <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="6">
+        <v>330</v>
+      </c>
+      <c r="E5" s="6">
         <v>90</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -12527,22 +12371,16 @@
         <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+      <c r="E6" s="6">
         <v>100</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -12553,22 +12391,16 @@
         <v>80</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="6">
+        <v>317</v>
+      </c>
+      <c r="E7" s="6">
         <v>65</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -12579,88 +12411,76 @@
         <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="8">
+        <v>312</v>
+      </c>
+      <c r="E8" s="8">
         <v>30</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="10">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="10">
+        <v>85</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F10" s="10">
+        <v>340</v>
+      </c>
+      <c r="E10" s="6">
         <v>80</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="10">
+        <v>334</v>
+      </c>
+      <c r="E11" s="6">
         <v>75</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>120</v>
       </c>
@@ -12671,22 +12491,16 @@
         <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" s="6">
+        <v>328</v>
+      </c>
+      <c r="E12" s="6">
         <v>90</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>120</v>
       </c>
@@ -12697,22 +12511,16 @@
         <v>90</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F13" s="6">
+        <v>322</v>
+      </c>
+      <c r="E13" s="6">
         <v>90</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -12723,22 +12531,16 @@
         <v>95</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" s="6">
+        <v>315</v>
+      </c>
+      <c r="E14" s="6">
         <v>95</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>120</v>
       </c>
@@ -12749,88 +12551,76 @@
         <v>80</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F15" s="8">
+        <v>311</v>
+      </c>
+      <c r="E15" s="8">
         <v>60</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="F15" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="10">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" s="10">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="10">
+        <v>339</v>
+      </c>
+      <c r="E17" s="6">
         <v>70</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>95</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" s="10">
+        <v>336</v>
+      </c>
+      <c r="E18" s="6">
         <v>85</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>237</v>
       </c>
@@ -12841,22 +12631,16 @@
         <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F19" s="6">
+        <v>326</v>
+      </c>
+      <c r="E19" s="6">
         <v>85</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>237</v>
       </c>
@@ -12867,22 +12651,16 @@
         <v>90</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="6">
+        <v>324</v>
+      </c>
+      <c r="E20" s="6">
         <v>90</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>237</v>
       </c>
@@ -12893,22 +12671,16 @@
         <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F21" s="6">
+        <v>313</v>
+      </c>
+      <c r="E21" s="6">
         <v>90</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>237</v>
       </c>
@@ -12919,24 +12691,13 @@
         <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="6">
+        <v>308</v>
+      </c>
+      <c r="E22" s="6">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="D26" s="5" t="s">
-        <v>370</v>
+      <c r="F22" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
